--- a/Documentação/Planilhas/Conferencia_NFR.xlsx
+++ b/Documentação/Planilhas/Conferencia_NFR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="236">
   <si>
     <t>1</t>
   </si>
@@ -83,9 +83,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>da nf</t>
-  </si>
-  <si>
     <t>dbo.stg_nfr_rascunho_cab</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>Venda de Mercadoria no Estado</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>A00200</t>
   </si>
   <si>
@@ -665,10 +659,74 @@
     <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Linhas, detalhar a linha apresentada. Em seguida, escolher a aba "Ordens Origem por linha do pré Recebimento". Pegar a informação da coluna Ordem</t>
   </si>
   <si>
-    <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Linhas, detalhar as linha apresentada. Em seguida, escolher a aba "Ordens Origem por linha do pré Recebimento". Copiar a informação da coluna Ordem. Em seguida, pedir o detalhamento da coluna ordem e colar a informação na coluna Ordem da tela apresentada. Pegar a segunda informação da coluna Origem</t>
-  </si>
-  <si>
     <t>Está pegando a mesma informação do VL_DESCONTO</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba Outros, pegar a informação da "Primeira Data de Verificação"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba Geral, seção "Referência", pegar a informação de "Status"</t>
+  </si>
+  <si>
+    <t>Os códigos utilizados são:</t>
+  </si>
+  <si>
+    <t>1 - Não Aplicável
+2 - Aberto
+3 - NF com erro
+4 - A Agendar
+5 - Agendado</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba Geral, seção "Referência", pegar a informação de "Fiscal Receipt"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Linhas, detalhar a linha apresentada. Na aba Geral, seção "Dados Fiscais", pegar a informação de "Código fiscal de operação"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Impostos, pegar a informação da coluna "Valor" para o tipo de imposto ICMS</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Impostos, pegar a informação da coluna "Valor" para o tipo de imposto ICMS-ST</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Impostos, pegar a informação da coluna "Valor" para o tipo de imposto IPI</t>
+  </si>
+  <si>
+    <t>tdpur4100m000 [usar o Nr_PEDIDO como filtro na coluna "Ordem de Compra" desta sessão</t>
+  </si>
+  <si>
+    <t>No menu Specific, escolher "Detalhes". Na aba "Pagamento",  seção Pagamento, pegar a informação da Condição de Pagamento</t>
+  </si>
+  <si>
+    <t>No menu Specific, escolher "Detalhes". Na aba "Geral", pegar a informação de "PN Fornecedor"</t>
+  </si>
+  <si>
+    <t>No menu Specific, escolher "Detalhes". Na aba "Geral", seção "Expedição", pegar a informação de "Armazém"</t>
+  </si>
+  <si>
+    <t>tcmcsl115m00l</t>
+  </si>
+  <si>
+    <t>Informar o CD_NATUREZA_OPERACAO_COMPRA na coluna "CFO Oficial". Em seguida, pegar a primeira informação da coluna "Natureza da Operação"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Data da Ordem"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba Valores, pegar a informação do Valor de Acréscimo/Desconto, apenas para os casos em que a compra é importação</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Impostos, pegar a informação da coluna "Valor" para o tipo de imposto PIS, apenas para os casos em que a compra é importação</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Impostos, pegar a informação da coluna "Valor" para o tipo de imposto COFINS, apenas para os casos em que a compra é importação</t>
+  </si>
+  <si>
+    <t>tdrecl504m50l</t>
+  </si>
+  <si>
+    <t>Para os casos em que existe o NR_NOTA_RECEBIMENTO, informar o mesmo na coluna "Referência fiscal" desta sessão e pedir o detalhamento da mesma. Na aba valores, pegar a informação de Despesas Aduaneiras</t>
   </si>
 </sst>
 </file>
@@ -829,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,24 +929,31 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,9 +962,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FF99FFCC"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FF99FFCC"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -1195,10 +1260,10 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:AT27"/>
+  <dimension ref="A2:AT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1211,65 +1276,61 @@
     <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="22.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="34.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="44.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="30.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="28" style="1" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="34.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="22.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" style="1" customWidth="1"/>
     <col min="25" max="25" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" style="1" customWidth="1"/>
     <col min="28" max="28" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="28.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="27" style="1" customWidth="1"/>
+    <col min="33" max="33" width="29" style="1" customWidth="1"/>
+    <col min="34" max="34" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="45" width="31.42578125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="100.42578125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="29.28515625" style="1" customWidth="1"/>
     <col min="47" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="21">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
-      <c r="AT5" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1283,124 +1344,124 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="W6" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AA6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="AC6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="AP6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1408,121 +1469,121 @@
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="11" t="s">
+      <c r="AG7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AM7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>11</v>
@@ -1539,121 +1600,121 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AF8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AN8" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>11</v>
@@ -1670,76 +1731,76 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="Y9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>11</v>
@@ -1751,40 +1812,40 @@
         <v>11</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="AD9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>11</v>
@@ -1801,121 +1862,121 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="W10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AJ10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AL10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AN10" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>11</v>
@@ -1932,383 +1993,386 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="X11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AB11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AO11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="23" customFormat="1">
+      <c r="A12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="AH11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
+      <c r="K12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="X12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z12" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AB12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI12" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AL11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AM12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AN12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="AO12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
     </row>
     <row r="13" spans="1:46">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="X13" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AB13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>11</v>
@@ -2325,40 +2389,40 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>11</v>
@@ -2369,77 +2433,77 @@
       <c r="P14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AB14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AD14" s="1" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AG14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AH14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
+      <c r="AL14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AK14" s="4" t="s">
+      <c r="AM14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AL14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AN14" s="1" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>11</v>
@@ -2456,121 +2520,121 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="M15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="R15" s="1" t="s">
+      <c r="X15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AB15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AC15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AD15" s="1" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AG15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK15" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="AL15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AM15" s="1" t="s">
-        <v>11</v>
+      <c r="AM15" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>11</v>
@@ -2587,41 +2651,41 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="N16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2631,35 +2695,35 @@
       <c r="P16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>3</v>
@@ -2668,40 +2732,40 @@
         <v>11</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AJ16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AK16" s="4" t="s">
+      <c r="AM16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AL16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AN16" s="1" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>11</v>
@@ -2713,200 +2777,359 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
-      <c r="AG17" s="1"/>
-      <c r="AK17" s="4"/>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="AG18" s="1"/>
-      <c r="AK18" s="4"/>
-    </row>
-    <row r="19" spans="1:37" ht="11.25" customHeight="1">
+    <row r="17" spans="1:41">
+      <c r="AI17" s="1"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="AI18" s="1"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19" spans="1:41" ht="11.25" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" ht="11.25" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="11.25" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:37" ht="11.25" customHeight="1">
+      <c r="AO20" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="11.25" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:37" ht="11.25" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="AC21" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AO21" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="11.25" customHeight="1">
+      <c r="A22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="B22" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="I22" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="M22" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="N22" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="L22" s="17" t="s">
+      <c r="Q22" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="T22" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="U22" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="V22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF22" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG22" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO22" s="16"/>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AO23" s="16"/>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AO24" s="16"/>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AO25" s="16"/>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AO26" s="16"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="K29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="18"/>
-    </row>
-    <row r="25" spans="1:37">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="1:37">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="18"/>
-    </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="18"/>
+    </row>
+    <row r="30" spans="1:41" ht="56.25">
+      <c r="K30" s="20" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="36">
+    <mergeCell ref="AO21:AO26"/>
+    <mergeCell ref="AA22:AA27"/>
+    <mergeCell ref="AB22:AB27"/>
+    <mergeCell ref="AF22:AF27"/>
+    <mergeCell ref="AD22:AD27"/>
+    <mergeCell ref="AG22:AG27"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="W22:W27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="Z22:Z27"/>
+    <mergeCell ref="Q22:Q27"/>
     <mergeCell ref="R22:R27"/>
     <mergeCell ref="S22:S27"/>
-    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="O22:O27"/>
+    <mergeCell ref="T22:T27"/>
+    <mergeCell ref="U22:U27"/>
+    <mergeCell ref="V22:V27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="X22:X27"/>
+    <mergeCell ref="AE22:AE27"/>
+    <mergeCell ref="P22:P27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B22:B27"/>
@@ -2916,15 +3139,10 @@
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="G22:G27"/>
     <mergeCell ref="H22:H27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="C22:C27"/>
     <mergeCell ref="L22:L27"/>
     <mergeCell ref="M22:M27"/>
-    <mergeCell ref="O22:O27"/>
-    <mergeCell ref="P22:P27"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="N22:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2935,69 +3153,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:6">
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE(C3,",")</f>
-        <v>CD_FILIAL,</v>
+        <v>CD_CIA,</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F48" si="0">CONCATENATE(C4,",")</f>
-        <v>NR_NF_RASCUNHO,</v>
+        <v>CD_UNIDADE_EMPRESARIAL,</v>
       </c>
     </row>
     <row r="5" spans="3:6">
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF_REFERENCIA,</v>
+        <v>CD_FILIAL,</v>
       </c>
     </row>
     <row r="6" spans="3:6">
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NFR_REFERENCIA,</v>
+        <v>NR_NF_RASCUNHO,</v>
       </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>NR_PEDIDO_COMPRA,</v>
+        <v>NR_NF_REFERENCIA,</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>CD_FORNECEDOR,</v>
+        <v>NR_SERIE_NFR_REFERENCIA,</v>
       </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3006,7 +3224,7 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -3015,313 +3233,317 @@
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PRODUTO,</v>
+        <v>ESPECIE_NOTA_FISCAL_RECEBIDA,</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA,</v>
+        <v>CD_SITUACAO_RASCUNHO,</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESCONTO,</v>
+        <v>VL_PRODUTO,</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>VL_FRETE,</v>
+        <v>VL_TOTAL,</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>VL_SEGURO,</v>
+        <v>VL_DESPESA,</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESCONTO_INCONDICIONAL,</v>
+        <v>VL_DESCONTO,</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>VL_TOTAL,</v>
+        <v>VL_DESCONTO_INCONDICIONAL,</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>DT_ANALISE,</v>
+        <v>VL_FRETE,</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>CD_SITUACAO_RASCUNHO,</v>
+        <v>VL_SEGURO,</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>ESPECIE_NOTA_FISCAL_RECEBIDA,</v>
+        <v>DS_OBSERVACAO,</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NOTA_RECEBIMENTO,</v>
+        <v>DT_ANALISE,</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>CD_DEPOSITO,</v>
+        <v>NR_PEDIDO_COMPRA,</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CONDICAO_PAGAMENTO,</v>
+        <v>CD_FORNECEDOR,</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>CD_NATUREZA_OPERACAO_COMPRA,</v>
+        <v>NR_NOTA_RECEBIMENTO,</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS,</v>
+        <v>CD_DEPOSITO,</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_ST,</v>
+        <v>CD_CONDICAO_PAGAMENTO,</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IPI,</v>
+        <v>CD_NATUREZA_OPERACAO_COMPRA,</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IMPOSTO_IMPORTACAO,</v>
+        <v>VL_ICMS,</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_NATUREZA_OPERACAO_COMPRA,</v>
+        <v>VL_ICMS_ST,</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>DT_GERACAO_REGISTRO,</v>
+        <v>VL_IPI,</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>CD_USUARIO_INCLUSAO,</v>
+        <v>VL_IMPOSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>DT_INCLUSAO,</v>
+        <v>SQ_NATUREZA_OPERACAO_COMPRA,</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>CD_USUARIO_ALTERACAO,</v>
+        <v>DT_GERACAO_REGISTRO,</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>DT_ALTERACAO,</v>
+        <v>CD_USUARIO_INCLUSAO,</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>CD_USUARIO_CANCELAMENTO,</v>
+        <v>DT_INCLUSAO,</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="5" t="s">
-        <v>48</v>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>DT_CANCELAMENTO,</v>
+        <v>CD_USUARIO_ALTERACAO,</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>DS_SITUACAO_ANALISE,</v>
+        <v>DT_ALTERACAO,</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>DS_OBSERVACAO,</v>
+        <v>CD_USUARIO_CANCELAMENTO,</v>
       </c>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="3" t="s">
-        <v>54</v>
+      <c r="C39" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA_ADUANEIRA,</v>
+        <v>DT_CANCELAMENTO,</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ADICIONAL_IMPORTACAO,</v>
+        <v>DS_SITUACAO_ANALISE,</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_IMPORTACAO,</v>
+        <v>VL_DESPESA_ADUANEIRA,</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_IMPORTACAO,</v>
+        <v>VL_ADICIONAL_IMPORTACAO,</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
+        <v>VL_PIS_IMPORTACAO,</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>VL_COFINS_IMPORTACAO,</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
         <v>VL_CIF_IMPORTACAO,</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="3"/>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="3"/>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>,</v>
       </c>
     </row>
     <row r="46" spans="3:6">

--- a/Documentação/Planilhas/Conferencia_NFR.xlsx
+++ b/Documentação/Planilhas/Conferencia_NFR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stg_nfr_rascunho_cab" sheetId="104" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="804">
   <si>
     <t>1</t>
   </si>
@@ -1770,18 +1770,6 @@
     <t>R20000340</t>
   </si>
   <si>
-    <t>2014-04-15 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2014-04-17 14:55:16.000</t>
-  </si>
-  <si>
-    <t>2014-04-17 14:51:50.000</t>
-  </si>
-  <si>
-    <t>170401</t>
-  </si>
-  <si>
     <t>AA</t>
   </si>
   <si>
@@ -1789,12 +1777,6 @@
   </si>
   <si>
     <t>AAA-1111</t>
-  </si>
-  <si>
-    <t>R00000596</t>
-  </si>
-  <si>
-    <t>000000005</t>
   </si>
   <si>
     <t>R20000345</t>
@@ -2539,6 +2521,54 @@
   </si>
   <si>
     <t>tdrecl504m00l, tcibdl501m00l, tcibd0501m000, whinh3512m100, tcmcs0565m000 e tcemm0130m000</t>
+  </si>
+  <si>
+    <t>R00001052</t>
+  </si>
+  <si>
+    <t>2014-04-17 11:27:51.000</t>
+  </si>
+  <si>
+    <t>000000454</t>
+  </si>
+  <si>
+    <t>15856</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2014-06-03 11:36:43.000</t>
+  </si>
+  <si>
+    <t>2014-06-03 11:28:03.000</t>
+  </si>
+  <si>
+    <t>8901.8700</t>
+  </si>
+  <si>
+    <t>9191.9800</t>
+  </si>
+  <si>
+    <t>1103.0400</t>
+  </si>
+  <si>
+    <t>1335.7800</t>
+  </si>
+  <si>
+    <t>290.1100</t>
+  </si>
+  <si>
+    <t>91.9200</t>
+  </si>
+  <si>
+    <t>422.8300</t>
+  </si>
+  <si>
+    <t>N00006</t>
+  </si>
+  <si>
+    <t>R00000437</t>
   </si>
 </sst>
 </file>
@@ -2930,46 +2960,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,53 +2990,38 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3074,6 +3050,42 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3101,23 +3113,41 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3479,19 +3509,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" ht="21">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="17" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="21">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="17" t="s">
         <v>245</v>
       </c>
@@ -4946,551 +4976,535 @@
       <c r="AO18" s="4"/>
     </row>
     <row r="19" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="35" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="50" t="s">
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="AJ19" s="35" t="s">
+      <c r="AJ19" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="47" t="s">
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="AQ19" s="50" t="s">
+      <c r="AQ19" s="37" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="38"/>
     </row>
     <row r="21" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="43"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="52"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="39"/>
     </row>
     <row r="22" spans="1:43" ht="11.25" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="N22" s="30" t="s">
+      <c r="N22" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="P22" s="31" t="s">
+      <c r="P22" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="Q22" s="31" t="s">
+      <c r="Q22" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="R22" s="31" t="s">
+      <c r="R22" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="S22" s="31" t="s">
+      <c r="S22" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="T22" s="31" t="s">
+      <c r="T22" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="U22" s="31" t="s">
+      <c r="U22" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="V22" s="31" t="s">
+      <c r="V22" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="W22" s="31" t="s">
+      <c r="W22" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="X22" s="31" t="s">
+      <c r="X22" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="Y22" s="31" t="s">
+      <c r="Y22" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="Z22" s="31" t="s">
+      <c r="Z22" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="AA22" s="31" t="s">
+      <c r="AA22" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="AB22" s="31" t="s">
+      <c r="AB22" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="AC22" s="31" t="s">
+      <c r="AC22" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="AD22" s="31" t="s">
+      <c r="AD22" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="AE22" s="31" t="s">
+      <c r="AE22" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="AF22" s="31" t="s">
+      <c r="AF22" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="AG22" s="31" t="s">
+      <c r="AG22" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="AH22" s="31" t="s">
+      <c r="AH22" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="AI22" s="31" t="s">
+      <c r="AI22" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="AJ22" s="31" t="s">
+      <c r="AJ22" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="AK22" s="31" t="s">
+      <c r="AK22" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="AL22" s="31" t="s">
+      <c r="AL22" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="AM22" s="31" t="s">
+      <c r="AM22" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="AN22" s="31" t="s">
+      <c r="AN22" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="AO22" s="31" t="s">
+      <c r="AO22" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="AP22" s="31" t="s">
+      <c r="AP22" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="AQ22" s="44" t="s">
+      <c r="AQ22" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="45"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="32"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="45"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="32"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="45"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="32"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="45"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="32"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="46"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
+      <c r="AQ27" s="33"/>
     </row>
     <row r="29" spans="1:43" ht="11.25" customHeight="1">
       <c r="I29" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
     </row>
     <row r="30" spans="1:43" ht="56.25">
       <c r="I30" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AO22:AO27"/>
-    <mergeCell ref="AQ22:AQ27"/>
-    <mergeCell ref="AP22:AP27"/>
-    <mergeCell ref="AP19:AP21"/>
-    <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="AJ19:AO21"/>
-    <mergeCell ref="AQ19:AQ21"/>
-    <mergeCell ref="AI22:AI27"/>
-    <mergeCell ref="AN22:AN27"/>
-    <mergeCell ref="AM22:AM27"/>
-    <mergeCell ref="AK22:AK27"/>
-    <mergeCell ref="AL22:AL27"/>
-    <mergeCell ref="AB19:AH21"/>
-    <mergeCell ref="U22:U27"/>
-    <mergeCell ref="W22:W27"/>
-    <mergeCell ref="X22:X27"/>
-    <mergeCell ref="V22:V27"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="Z22:Z27"/>
-    <mergeCell ref="AE22:AE27"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AB22:AB27"/>
-    <mergeCell ref="AD22:AD27"/>
-    <mergeCell ref="AA22:AA27"/>
-    <mergeCell ref="AH22:AH27"/>
-    <mergeCell ref="AG22:AG27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="O29:Q30"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="AJ22:AJ27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="J22:J27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AF22:AF27"/>
@@ -5507,16 +5521,32 @@
     <mergeCell ref="S22:S27"/>
     <mergeCell ref="T22:T27"/>
     <mergeCell ref="H22:H27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="O29:Q30"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="AJ22:AJ27"/>
+    <mergeCell ref="AB19:AH21"/>
+    <mergeCell ref="U22:U27"/>
+    <mergeCell ref="W22:W27"/>
+    <mergeCell ref="X22:X27"/>
+    <mergeCell ref="V22:V27"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="Z22:Z27"/>
+    <mergeCell ref="AE22:AE27"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AB22:AB27"/>
+    <mergeCell ref="AD22:AD27"/>
+    <mergeCell ref="AA22:AA27"/>
+    <mergeCell ref="AH22:AH27"/>
+    <mergeCell ref="AG22:AG27"/>
+    <mergeCell ref="AO22:AO27"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="AP22:AP27"/>
+    <mergeCell ref="AP19:AP21"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AJ19:AO21"/>
+    <mergeCell ref="AQ19:AQ21"/>
+    <mergeCell ref="AI22:AI27"/>
+    <mergeCell ref="AN22:AN27"/>
+    <mergeCell ref="AM22:AM27"/>
+    <mergeCell ref="AK22:AK27"/>
+    <mergeCell ref="AL22:AL27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5582,19 +5612,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="21">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="2" t="s">
         <v>333</v>
       </c>
@@ -6389,324 +6419,312 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="54" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="50" t="s">
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="37" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="51"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="38"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="52"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="39"/>
     </row>
     <row r="22" spans="1:23" ht="11.25" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="33" t="s">
         <v>314</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="N22" s="46" t="s">
+      <c r="N22" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="O22" s="46" t="s">
+      <c r="O22" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="P22" s="46" t="s">
+      <c r="P22" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="Q22" s="31" t="s">
+      <c r="Q22" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="R22" s="31" t="s">
+      <c r="R22" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="S22" s="31" t="s">
+      <c r="S22" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="T22" s="31" t="s">
+      <c r="T22" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="U22" s="31" t="s">
+      <c r="U22" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="V22" s="31" t="s">
+      <c r="V22" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="W22" s="55" t="s">
+      <c r="W22" s="64" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="56"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="65"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="56"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="65"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="56"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="65"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="56"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="65"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="57"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="66"/>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:23" ht="11.25" customHeight="1">
       <c r="B29" s="6"/>
-      <c r="O29" s="32" t="s">
+      <c r="O29" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="W29" s="53" t="s">
+      <c r="P29" s="61"/>
+      <c r="W29" s="62" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="B30" s="6"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="W30" s="53"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="W30" s="62"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="W31" s="53"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="W31" s="62"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="W32" s="53"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="W32" s="62"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="W33" s="53"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="W33" s="62"/>
     </row>
     <row r="34" spans="15:23">
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
     </row>
     <row r="35" spans="15:23">
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="T22:T27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="W29:W33"/>
     <mergeCell ref="B19:P21"/>
@@ -6723,6 +6741,18 @@
     <mergeCell ref="W22:W27"/>
     <mergeCell ref="R22:R27"/>
     <mergeCell ref="S22:S27"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="T22:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6736,7 +6766,9 @@
   </sheetPr>
   <dimension ref="A2:BD173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY23" sqref="AY23:AY29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6788,7 +6820,7 @@
     <col min="46" max="46" width="26.140625" style="1" customWidth="1"/>
     <col min="47" max="47" width="25.5703125" style="1" customWidth="1"/>
     <col min="48" max="48" width="25.7109375" style="12" customWidth="1"/>
-    <col min="49" max="49" width="28.42578125" style="12" customWidth="1"/>
+    <col min="49" max="49" width="33.5703125" style="12" customWidth="1"/>
     <col min="50" max="50" width="26.85546875" style="12" customWidth="1"/>
     <col min="51" max="51" width="28.7109375" style="12" customWidth="1"/>
     <col min="52" max="52" width="39.42578125" style="1" customWidth="1"/>
@@ -6802,21 +6834,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:56" ht="21">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="17" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="21">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="17" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:56">
@@ -8177,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="1" t="s">
         <v>10</v>
@@ -8206,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>564</v>
+        <v>803</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -8215,34 +8247,34 @@
         <v>270</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>565</v>
+        <v>789</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>566</v>
+        <v>793</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>567</v>
+        <v>794</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>566</v>
+        <v>793</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>566</v>
+        <v>793</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>378</v>
+        <v>790</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>568</v>
+        <v>791</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>569</v>
+        <v>792</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>383</v>
@@ -8254,10 +8286,10 @@
         <v>19</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>570</v>
+        <v>795</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>570</v>
+        <v>796</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>11</v>
@@ -8266,7 +8298,7 @@
         <v>11</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>11</v>
+        <v>799</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>11</v>
@@ -8275,7 +8307,7 @@
         <v>11</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>571</v>
+        <v>10</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>11</v>
@@ -8287,13 +8319,13 @@
         <v>0</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>11</v>
+        <v>799</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>11</v>
@@ -8305,34 +8337,34 @@
         <v>3</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>572</v>
+        <v>788</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>572</v>
+        <v>788</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>3</v>
+        <v>796</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>3</v>
+        <v>797</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>3</v>
+        <v>798</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>3</v>
+        <v>800</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>3</v>
+        <v>801</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>11</v>
@@ -8344,16 +8376,16 @@
         <v>3</v>
       </c>
       <c r="AV14" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>573</v>
+        <v>10</v>
       </c>
       <c r="AZ14" s="12" t="s">
         <v>10</v>
@@ -8365,10 +8397,10 @@
         <v>11</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>98</v>
+        <v>802</v>
       </c>
       <c r="BD14" s="12" t="s">
-        <v>0</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:56">
@@ -8376,7 +8408,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -8385,28 +8417,28 @@
         <v>270</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>378</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>0</v>
@@ -8424,10 +8456,10 @@
         <v>19</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>11</v>
@@ -8445,7 +8477,7 @@
         <v>11</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>11</v>
@@ -8523,7 +8555,7 @@
         <v>10</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AZ15" s="12" t="s">
         <v>10</v>
@@ -8546,31 +8578,31 @@
         <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>270</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>447</v>
@@ -8582,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>1</v>
@@ -8615,7 +8647,7 @@
         <v>11</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>11</v>
@@ -8690,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="AY16" s="1" t="s">
         <v>10</v>
@@ -8776,585 +8808,585 @@
       <c r="BB19" s="1"/>
     </row>
     <row r="20" spans="1:56" ht="15" customHeight="1">
-      <c r="B20" s="78" t="s">
-        <v>589</v>
-      </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="79"/>
-      <c r="AQ20" s="79"/>
-      <c r="AR20" s="79"/>
-      <c r="AS20" s="79"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="79"/>
-      <c r="AV20" s="79"/>
-      <c r="AW20" s="79"/>
-      <c r="AX20" s="80"/>
-      <c r="AY20" s="54" t="s">
-        <v>590</v>
-      </c>
-      <c r="AZ20" s="54" t="s">
-        <v>591</v>
+      <c r="B20" s="72" t="s">
+        <v>583</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="AZ20" s="63" t="s">
+        <v>585</v>
       </c>
       <c r="BA20" s="12"/>
       <c r="BB20" s="1"/>
-      <c r="BC20" s="54" t="s">
-        <v>592</v>
-      </c>
-      <c r="BD20" s="54" t="s">
-        <v>593</v>
+      <c r="BC20" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="BD20" s="63" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:56" ht="11.25" customHeight="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="82"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="82"/>
-      <c r="AU21" s="82"/>
-      <c r="AV21" s="82"/>
-      <c r="AW21" s="82"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="63"/>
+      <c r="AZ21" s="63"/>
       <c r="BA21" s="12"/>
       <c r="BB21" s="1"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
+      <c r="BC21" s="63"/>
+      <c r="BD21" s="63"/>
     </row>
     <row r="22" spans="1:56" ht="11.25" customHeight="1">
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="86"/>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="54"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="79"/>
+      <c r="AU22" s="79"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="80"/>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
       <c r="BA22" s="6"/>
       <c r="BB22" s="1"/>
-      <c r="BC22" s="54"/>
-      <c r="BD22" s="54"/>
+      <c r="BC22" s="63"/>
+      <c r="BD22" s="63"/>
     </row>
     <row r="23" spans="1:56" ht="11.25" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="66" t="s">
         <v>517</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="46" t="s">
+      <c r="I23" s="66"/>
+      <c r="J23" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="K23" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="M23" s="46" t="s">
+      <c r="M23" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="N23" s="46" t="s">
+      <c r="N23" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="O23" s="46" t="s">
+      <c r="O23" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="P23" s="46" t="s">
+      <c r="P23" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="Q23" s="46" t="s">
+      <c r="Q23" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="R23" s="46" t="s">
+      <c r="R23" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="S23" s="46" t="s">
+      <c r="S23" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="T23" s="46" t="s">
+      <c r="T23" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="U23" s="46" t="s">
+      <c r="U23" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="V23" s="46" t="s">
+      <c r="V23" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="W23" s="46" t="s">
+      <c r="W23" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="X23" s="46" t="s">
+      <c r="X23" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="Y23" s="46" t="s">
+      <c r="Y23" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="Z23" s="61" t="s">
-        <v>755</v>
-      </c>
-      <c r="AA23" s="57" t="s">
+      <c r="Z23" s="68" t="s">
+        <v>749</v>
+      </c>
+      <c r="AA23" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="AB23" s="57" t="s">
+      <c r="AB23" s="66" t="s">
         <v>537</v>
       </c>
-      <c r="AC23" s="57" t="s">
+      <c r="AC23" s="66" t="s">
         <v>536</v>
       </c>
-      <c r="AD23" s="57" t="s">
+      <c r="AD23" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="AE23" s="57" t="s">
+      <c r="AE23" s="66" t="s">
         <v>539</v>
       </c>
-      <c r="AF23" s="57" t="s">
+      <c r="AF23" s="66" t="s">
         <v>540</v>
       </c>
-      <c r="AG23" s="57" t="s">
+      <c r="AG23" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="AH23" s="57" t="s">
+      <c r="AH23" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="AI23" s="57" t="s">
+      <c r="AI23" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="AJ23" s="60" t="s">
+      <c r="AJ23" s="70" t="s">
         <v>544</v>
       </c>
-      <c r="AK23" s="57" t="s">
+      <c r="AK23" s="66" t="s">
         <v>545</v>
       </c>
-      <c r="AL23" s="57" t="s">
+      <c r="AL23" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="AM23" s="57" t="s">
+      <c r="AM23" s="66" t="s">
         <v>547</v>
       </c>
-      <c r="AN23" s="57" t="s">
+      <c r="AN23" s="66" t="s">
         <v>548</v>
       </c>
-      <c r="AO23" s="57" t="s">
+      <c r="AO23" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="AP23" s="57" t="s">
+      <c r="AP23" s="66" t="s">
         <v>550</v>
       </c>
-      <c r="AQ23" s="57" t="s">
+      <c r="AQ23" s="66" t="s">
         <v>551</v>
       </c>
-      <c r="AR23" s="57" t="s">
+      <c r="AR23" s="66" t="s">
         <v>552</v>
       </c>
-      <c r="AS23" s="57" t="s">
+      <c r="AS23" s="66" t="s">
         <v>553</v>
       </c>
-      <c r="AT23" s="57" t="s">
+      <c r="AT23" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="AU23" s="57" t="s">
+      <c r="AU23" s="66" t="s">
         <v>555</v>
       </c>
-      <c r="AV23" s="57" t="s">
+      <c r="AV23" s="66" t="s">
         <v>556</v>
       </c>
-      <c r="AW23" s="57" t="s">
+      <c r="AW23" s="66" t="s">
         <v>557</v>
       </c>
-      <c r="AX23" s="57" t="s">
+      <c r="AX23" s="66" t="s">
         <v>558</v>
       </c>
-      <c r="AY23" s="57" t="s">
+      <c r="AY23" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="AZ23" s="58" t="s">
+      <c r="AZ23" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="BA23" s="30" t="s">
+      <c r="BA23" s="60" t="s">
         <v>561</v>
       </c>
-      <c r="BB23" s="30" t="s">
+      <c r="BB23" s="60" t="s">
         <v>561</v>
       </c>
-      <c r="BC23" s="58" t="s">
+      <c r="BC23" s="67" t="s">
         <v>562</v>
       </c>
-      <c r="BD23" s="59" t="s">
+      <c r="BD23" s="71" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="11.25" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58"/>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="58"/>
-      <c r="AY24" s="58"/>
-      <c r="AZ24" s="58"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="58"/>
-      <c r="BD24" s="59"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="67"/>
+      <c r="AM24" s="67"/>
+      <c r="AN24" s="67"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="67"/>
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="67"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="67"/>
+      <c r="AU24" s="67"/>
+      <c r="AV24" s="67"/>
+      <c r="AW24" s="67"/>
+      <c r="AX24" s="67"/>
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="60"/>
+      <c r="BB24" s="60"/>
+      <c r="BC24" s="67"/>
+      <c r="BD24" s="71"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="58"/>
-      <c r="AZ25" s="58"/>
-      <c r="BA25" s="30"/>
-      <c r="BB25" s="30"/>
-      <c r="BC25" s="58"/>
-      <c r="BD25" s="59"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="60"/>
+      <c r="BB25" s="60"/>
+      <c r="BC25" s="67"/>
+      <c r="BD25" s="71"/>
     </row>
     <row r="26" spans="1:56">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="58"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="58"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="58"/>
-      <c r="AQ26" s="58"/>
-      <c r="AR26" s="58"/>
-      <c r="AS26" s="58"/>
-      <c r="AT26" s="58"/>
-      <c r="AU26" s="58"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="58"/>
-      <c r="AX26" s="58"/>
-      <c r="AY26" s="58"/>
-      <c r="AZ26" s="58"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="58"/>
-      <c r="BD26" s="59"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="67"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="67"/>
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="67"/>
+      <c r="AP26" s="67"/>
+      <c r="AQ26" s="67"/>
+      <c r="AR26" s="67"/>
+      <c r="AS26" s="67"/>
+      <c r="AT26" s="67"/>
+      <c r="AU26" s="67"/>
+      <c r="AV26" s="67"/>
+      <c r="AW26" s="67"/>
+      <c r="AX26" s="67"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="60"/>
+      <c r="BB26" s="60"/>
+      <c r="BC26" s="67"/>
+      <c r="BD26" s="71"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="58"/>
-      <c r="AN27" s="58"/>
-      <c r="AO27" s="58"/>
-      <c r="AP27" s="58"/>
-      <c r="AQ27" s="58"/>
-      <c r="AR27" s="58"/>
-      <c r="AS27" s="58"/>
-      <c r="AT27" s="58"/>
-      <c r="AU27" s="58"/>
-      <c r="AV27" s="58"/>
-      <c r="AW27" s="58"/>
-      <c r="AX27" s="58"/>
-      <c r="AY27" s="58"/>
-      <c r="AZ27" s="58"/>
-      <c r="BA27" s="30"/>
-      <c r="BB27" s="30"/>
-      <c r="BC27" s="58"/>
-      <c r="BD27" s="59"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="67"/>
+      <c r="AI27" s="67"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="67"/>
+      <c r="AM27" s="67"/>
+      <c r="AN27" s="67"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="67"/>
+      <c r="AQ27" s="67"/>
+      <c r="AR27" s="67"/>
+      <c r="AS27" s="67"/>
+      <c r="AT27" s="67"/>
+      <c r="AU27" s="67"/>
+      <c r="AV27" s="67"/>
+      <c r="AW27" s="67"/>
+      <c r="AX27" s="67"/>
+      <c r="AY27" s="67"/>
+      <c r="AZ27" s="67"/>
+      <c r="BA27" s="60"/>
+      <c r="BB27" s="60"/>
+      <c r="BC27" s="67"/>
+      <c r="BD27" s="71"/>
     </row>
     <row r="28" spans="1:56">
       <c r="H28" s="4"/>
@@ -9362,35 +9394,35 @@
       <c r="W28" s="12"/>
       <c r="X28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="58"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="58"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="58"/>
-      <c r="BA28" s="30"/>
-      <c r="BB28" s="30"/>
-      <c r="BC28" s="58"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="67"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="67"/>
+      <c r="AP28" s="67"/>
+      <c r="AQ28" s="67"/>
+      <c r="AR28" s="67"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="67"/>
+      <c r="AU28" s="67"/>
+      <c r="AV28" s="67"/>
+      <c r="AW28" s="67"/>
+      <c r="AX28" s="67"/>
+      <c r="AY28" s="67"/>
+      <c r="AZ28" s="67"/>
+      <c r="BA28" s="60"/>
+      <c r="BB28" s="60"/>
+      <c r="BC28" s="67"/>
     </row>
     <row r="29" spans="1:56">
       <c r="C29" s="21" t="s">
@@ -9407,37 +9439,37 @@
       <c r="W29" s="12"/>
       <c r="X29" s="1"/>
       <c r="Z29" s="25" t="s">
-        <v>754</v>
-      </c>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="58"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="58"/>
-      <c r="AO29" s="58"/>
-      <c r="AP29" s="58"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="58"/>
-      <c r="AS29" s="58"/>
-      <c r="AT29" s="58"/>
-      <c r="AU29" s="58"/>
-      <c r="AV29" s="58"/>
-      <c r="AW29" s="58"/>
-      <c r="AX29" s="58"/>
-      <c r="AY29" s="58"/>
-      <c r="AZ29" s="58"/>
-      <c r="BA29" s="30"/>
-      <c r="BB29" s="30"/>
-      <c r="BC29" s="58"/>
+        <v>748</v>
+      </c>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="67"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="67"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="67"/>
+      <c r="AQ29" s="67"/>
+      <c r="AR29" s="67"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="67"/>
+      <c r="AU29" s="67"/>
+      <c r="AV29" s="67"/>
+      <c r="AW29" s="67"/>
+      <c r="AX29" s="67"/>
+      <c r="AY29" s="67"/>
+      <c r="AZ29" s="67"/>
+      <c r="BA29" s="60"/>
+      <c r="BB29" s="60"/>
+      <c r="BC29" s="67"/>
     </row>
     <row r="30" spans="1:56" ht="123.75">
       <c r="C30" s="14" t="s">
@@ -12773,11 +12805,47 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AB23:AB29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="AE23:AE29"/>
-    <mergeCell ref="Y23:Y27"/>
+    <mergeCell ref="AY20:AY22"/>
+    <mergeCell ref="B20:AX22"/>
+    <mergeCell ref="AZ20:AZ22"/>
+    <mergeCell ref="BC20:BC22"/>
+    <mergeCell ref="BD20:BD22"/>
+    <mergeCell ref="AZ23:AZ29"/>
+    <mergeCell ref="BA23:BA29"/>
+    <mergeCell ref="BB23:BB29"/>
+    <mergeCell ref="BC23:BC29"/>
+    <mergeCell ref="BD23:BD27"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AV29"/>
+    <mergeCell ref="AW23:AW29"/>
+    <mergeCell ref="AX23:AX29"/>
+    <mergeCell ref="AY23:AY29"/>
+    <mergeCell ref="AP23:AP29"/>
+    <mergeCell ref="AQ23:AQ29"/>
+    <mergeCell ref="AR23:AR29"/>
+    <mergeCell ref="AS23:AS29"/>
+    <mergeCell ref="AT23:AT29"/>
+    <mergeCell ref="AK23:AK29"/>
+    <mergeCell ref="AL23:AL29"/>
+    <mergeCell ref="AM23:AM29"/>
+    <mergeCell ref="AN23:AN29"/>
+    <mergeCell ref="AO23:AO29"/>
+    <mergeCell ref="AF23:AF29"/>
+    <mergeCell ref="AG23:AG29"/>
+    <mergeCell ref="AH23:AH29"/>
+    <mergeCell ref="AI23:AI29"/>
+    <mergeCell ref="AJ23:AJ29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="B23:B27"/>
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="W23:W27"/>
@@ -12794,47 +12862,11 @@
     <mergeCell ref="N23:N27"/>
     <mergeCell ref="O23:O27"/>
     <mergeCell ref="P23:P27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="AF23:AF29"/>
-    <mergeCell ref="AG23:AG29"/>
-    <mergeCell ref="AH23:AH29"/>
-    <mergeCell ref="AI23:AI29"/>
-    <mergeCell ref="AJ23:AJ29"/>
-    <mergeCell ref="AK23:AK29"/>
-    <mergeCell ref="AL23:AL29"/>
-    <mergeCell ref="AM23:AM29"/>
-    <mergeCell ref="AN23:AN29"/>
-    <mergeCell ref="AO23:AO29"/>
-    <mergeCell ref="AP23:AP29"/>
-    <mergeCell ref="AQ23:AQ29"/>
-    <mergeCell ref="AR23:AR29"/>
-    <mergeCell ref="AS23:AS29"/>
-    <mergeCell ref="AT23:AT29"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AV29"/>
-    <mergeCell ref="AW23:AW29"/>
-    <mergeCell ref="AX23:AX29"/>
-    <mergeCell ref="AY23:AY29"/>
-    <mergeCell ref="AZ23:AZ29"/>
-    <mergeCell ref="BA23:BA29"/>
-    <mergeCell ref="BB23:BB29"/>
-    <mergeCell ref="BC23:BC29"/>
-    <mergeCell ref="BD23:BD27"/>
-    <mergeCell ref="AY20:AY22"/>
-    <mergeCell ref="B20:AX22"/>
-    <mergeCell ref="AZ20:AZ22"/>
-    <mergeCell ref="BC20:BC22"/>
-    <mergeCell ref="BD20:BD22"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="AE23:AE29"/>
+    <mergeCell ref="Y23:Y27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12848,8 +12880,8 @@
   </sheetPr>
   <dimension ref="A1:BY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BR6" sqref="BR6"/>
+    <sheetView topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:BW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12936,23 +12968,23 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" ht="21">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="17" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
     </row>
     <row r="3" spans="1:77" ht="21">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="17" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
@@ -13025,13 +13057,13 @@
         <v>339</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>247</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>250</v>
@@ -13040,7 +13072,7 @@
         <v>348</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="K6" s="27" t="s">
         <v>344</v>
@@ -13067,13 +13099,13 @@
         <v>52</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="T6" s="27" t="s">
         <v>349</v>
       </c>
       <c r="U6" s="27" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="V6" s="27" t="s">
         <v>13</v>
@@ -13082,28 +13114,28 @@
         <v>33</v>
       </c>
       <c r="X6" s="27" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="Z6" s="27" t="s">
         <v>350</v>
       </c>
       <c r="AA6" s="27" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AC6" s="27" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AD6" s="27" t="s">
         <v>351</v>
       </c>
       <c r="AE6" s="27" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AF6" s="27" t="s">
         <v>34</v>
@@ -13112,55 +13144,55 @@
         <v>352</v>
       </c>
       <c r="AH6" s="27" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AI6" s="27" t="s">
         <v>354</v>
       </c>
       <c r="AJ6" s="27" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AK6" s="27" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AL6" s="27" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AM6" s="27" t="s">
         <v>365</v>
       </c>
       <c r="AN6" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AO6" s="27" t="s">
         <v>54</v>
       </c>
       <c r="AP6" s="27" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AQ6" s="27" t="s">
         <v>366</v>
       </c>
       <c r="AR6" s="27" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AS6" s="27" t="s">
         <v>55</v>
       </c>
       <c r="AT6" s="27" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AU6" s="27" t="s">
         <v>367</v>
       </c>
       <c r="AV6" s="27" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="AW6" s="27" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AX6" s="27" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AY6" s="27" t="s">
         <v>369</v>
@@ -13178,7 +13210,7 @@
         <v>336</v>
       </c>
       <c r="BD6" s="27" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="BE6" s="27" t="s">
         <v>53</v>
@@ -13187,28 +13219,28 @@
         <v>56</v>
       </c>
       <c r="BG6" s="27" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="BH6" s="27" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="BI6" s="27" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="BJ6" s="27" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="BK6" s="27" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="BL6" s="27" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="BM6" s="27" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="BN6" s="27" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="BO6" s="27" t="s">
         <v>9</v>
@@ -13220,22 +13252,22 @@
         <v>355</v>
       </c>
       <c r="BR6" s="27" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="BS6" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="BT6" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="BT6" s="27" t="s">
-        <v>614</v>
-      </c>
       <c r="BU6" s="27" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="BV6" s="27" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="BW6" s="27" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:77">
@@ -13243,37 +13275,37 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>11</v>
@@ -13297,13 +13329,13 @@
         <v>10</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>272</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>3</v>
@@ -13399,13 +13431,13 @@
         <v>11</v>
       </c>
       <c r="BB7" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="BC7" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="BD7" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="BE7" s="12" t="s">
         <v>11</v>
@@ -13417,25 +13449,25 @@
         <v>11</v>
       </c>
       <c r="BH7" s="10" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="BI7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BJ7" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="BK7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="BM7" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="BN7" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="BO7" s="12" t="s">
         <v>98</v>
@@ -13447,10 +13479,10 @@
         <v>11</v>
       </c>
       <c r="BR7" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS7" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT7" s="8" t="s">
         <v>11</v>
@@ -13470,37 +13502,37 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>304</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>11</v>
@@ -13524,13 +13556,13 @@
         <v>10</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>272</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>3</v>
@@ -13626,10 +13658,10 @@
         <v>11</v>
       </c>
       <c r="BB8" s="12" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="BC8" s="12" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="BD8" s="1" t="s">
         <v>304</v>
@@ -13644,22 +13676,22 @@
         <v>11</v>
       </c>
       <c r="BH8" s="10" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="BI8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BJ8" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="BK8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="BN8" s="12" t="s">
         <v>304</v>
@@ -13674,10 +13706,10 @@
         <v>11</v>
       </c>
       <c r="BR8" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS8" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT8" s="8" t="s">
         <v>11</v>
@@ -13697,37 +13729,37 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>637</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>643</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>11</v>
@@ -13751,13 +13783,13 @@
         <v>10</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>272</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>3</v>
@@ -13769,7 +13801,7 @@
         <v>11</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>11</v>
@@ -13805,10 +13837,10 @@
         <v>3</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AN9" s="1" t="s">
         <v>11</v>
@@ -13817,10 +13849,10 @@
         <v>11</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>11</v>
@@ -13853,13 +13885,13 @@
         <v>11</v>
       </c>
       <c r="BB9" s="12" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="BC9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="BE9" s="12" t="s">
         <v>11</v>
@@ -13877,16 +13909,16 @@
         <v>11</v>
       </c>
       <c r="BJ9" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="BK9" s="10" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="BN9" s="12" t="s">
         <v>11</v>
@@ -13901,10 +13933,10 @@
         <v>11</v>
       </c>
       <c r="BR9" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS9" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT9" s="8" t="s">
         <v>11</v>
@@ -13924,31 +13956,31 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>399</v>
@@ -13978,145 +14010,145 @@
         <v>10</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB10" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="V10" s="1" t="s">
+      <c r="BC10" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD10" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP10" s="1" t="s">
+      <c r="BD10" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="BE10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ10" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="BK10" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="BL10" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AQ10" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB10" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="BC10" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="BD10" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="BE10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ10" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="BK10" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="BL10" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="BM10" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="BN10" s="12" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="BO10" s="12" t="s">
         <v>98</v>
@@ -14128,10 +14160,10 @@
         <v>11</v>
       </c>
       <c r="BR10" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS10" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT10" s="8" t="s">
         <v>11</v>
@@ -14151,31 +14183,31 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>384</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>382</v>
@@ -14205,16 +14237,16 @@
         <v>10</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>11</v>
@@ -14232,118 +14264,118 @@
         <v>11</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="AD11" s="12" t="s">
         <v>384</v>
       </c>
       <c r="AE11" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AR11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB11" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="BC11" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP11" s="1" t="s">
+      <c r="BD11" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="BE11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH11" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="BI11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ11" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="BK11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL11" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="AQ11" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB11" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="BC11" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="BD11" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="BE11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH11" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="BI11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ11" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="BK11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL11" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="BM11" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="BN11" s="12" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="BO11" s="12" t="s">
         <v>98</v>
@@ -14355,10 +14387,10 @@
         <v>11</v>
       </c>
       <c r="BR11" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS11" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT11" s="8" t="s">
         <v>11</v>
@@ -14378,10 +14410,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>525</v>
@@ -14390,16 +14422,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>304</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>425</v>
@@ -14432,16 +14464,16 @@
         <v>10</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>11</v>
@@ -14450,16 +14482,16 @@
         <v>11</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="AD12" s="12" t="s">
         <v>3</v>
@@ -14486,10 +14518,10 @@
         <v>3</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AN12" s="1" t="s">
         <v>11</v>
@@ -14498,10 +14530,10 @@
         <v>11</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>11</v>
@@ -14534,10 +14566,10 @@
         <v>425</v>
       </c>
       <c r="BB12" s="12" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="BC12" s="12" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="BD12" s="1" t="s">
         <v>304</v>
@@ -14558,16 +14590,16 @@
         <v>11</v>
       </c>
       <c r="BJ12" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="BK12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="BN12" s="12" t="s">
         <v>304</v>
@@ -14582,10 +14614,10 @@
         <v>11</v>
       </c>
       <c r="BR12" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS12" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT12" s="8" t="s">
         <v>11</v>
@@ -14605,10 +14637,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>525</v>
@@ -14617,16 +14649,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>304</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>425</v>
@@ -14659,16 +14691,16 @@
         <v>10</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>11</v>
@@ -14677,16 +14709,16 @@
         <v>11</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="AD13" s="12" t="s">
         <v>3</v>
@@ -14713,10 +14745,10 @@
         <v>3</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AN13" s="1" t="s">
         <v>11</v>
@@ -14725,10 +14757,10 @@
         <v>11</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AR13" s="1" t="s">
         <v>11</v>
@@ -14761,10 +14793,10 @@
         <v>425</v>
       </c>
       <c r="BB13" s="12" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="BC13" s="12" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="BD13" s="1" t="s">
         <v>304</v>
@@ -14785,16 +14817,16 @@
         <v>11</v>
       </c>
       <c r="BJ13" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="BK13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="BN13" s="12" t="s">
         <v>304</v>
@@ -14809,10 +14841,10 @@
         <v>11</v>
       </c>
       <c r="BR13" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS13" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT13" s="8" t="s">
         <v>11</v>
@@ -14832,31 +14864,31 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>272</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>420</v>
@@ -14886,19 +14918,19 @@
         <v>10</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>260</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>11</v>
@@ -14913,13 +14945,13 @@
         <v>11</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>291</v>
@@ -14940,10 +14972,10 @@
         <v>3</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="AN14" s="1" t="s">
         <v>11</v>
@@ -14952,10 +14984,10 @@
         <v>11</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="AR14" s="1" t="s">
         <v>11</v>
@@ -14988,10 +15020,10 @@
         <v>11</v>
       </c>
       <c r="BB14" s="12" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="BC14" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="BD14" s="26">
         <v>40000</v>
@@ -15006,25 +15038,25 @@
         <v>11</v>
       </c>
       <c r="BH14" s="10" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="BI14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BJ14" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="BK14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="BN14" s="12" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="BO14" s="12" t="s">
         <v>98</v>
@@ -15036,10 +15068,10 @@
         <v>11</v>
       </c>
       <c r="BR14" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS14" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT14" s="8" t="s">
         <v>11</v>
@@ -15059,31 +15091,31 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>420</v>
@@ -15113,112 +15145,112 @@
         <v>10</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>260</v>
       </c>
       <c r="V15" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB15" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="BC15" s="12" t="s">
         <v>731</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB15" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="BC15" s="12" t="s">
-        <v>737</v>
       </c>
       <c r="BD15" s="26">
         <v>40000</v>
@@ -15233,25 +15265,25 @@
         <v>11</v>
       </c>
       <c r="BH15" s="10" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="BI15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BJ15" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="BK15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="BN15" s="12" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="BO15" s="12" t="s">
         <v>98</v>
@@ -15263,10 +15295,10 @@
         <v>11</v>
       </c>
       <c r="BR15" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BS15" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="BT15" s="8" t="s">
         <v>11</v>
@@ -15370,761 +15402,761 @@
       <c r="BO17" s="4"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="B18" s="90" t="s">
-        <v>589</v>
-      </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="90"/>
-      <c r="AL18" s="90"/>
-      <c r="AM18" s="90"/>
-      <c r="AN18" s="90"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="90"/>
-      <c r="AQ18" s="90"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="90"/>
-      <c r="AT18" s="90"/>
-      <c r="AU18" s="90"/>
-      <c r="AV18" s="90"/>
-      <c r="AW18" s="90"/>
-      <c r="AX18" s="90"/>
-      <c r="AY18" s="90"/>
-      <c r="AZ18" s="90"/>
-      <c r="BA18" s="90"/>
-      <c r="BB18" s="90"/>
-      <c r="BC18" s="90"/>
-      <c r="BD18" s="90"/>
-      <c r="BE18" s="90"/>
-      <c r="BF18" s="90"/>
-      <c r="BG18" s="90"/>
-      <c r="BH18" s="90"/>
-      <c r="BI18" s="90"/>
-      <c r="BJ18" s="90"/>
-      <c r="BK18" s="90"/>
-      <c r="BL18" s="54" t="s">
-        <v>789</v>
-      </c>
-      <c r="BM18" s="54" t="s">
-        <v>790</v>
-      </c>
-      <c r="BN18" s="54" t="s">
-        <v>791</v>
-      </c>
-      <c r="BO18" s="54" t="s">
-        <v>592</v>
-      </c>
-      <c r="BP18" s="54" t="s">
-        <v>593</v>
-      </c>
-      <c r="BQ18" s="91" t="s">
-        <v>792</v>
-      </c>
-      <c r="BR18" s="92"/>
-      <c r="BS18" s="92"/>
-      <c r="BT18" s="92"/>
-      <c r="BU18" s="92"/>
-      <c r="BV18" s="92"/>
-      <c r="BW18" s="92"/>
+      <c r="B18" s="86" t="s">
+        <v>583</v>
+      </c>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="86"/>
+      <c r="AP18" s="86"/>
+      <c r="AQ18" s="86"/>
+      <c r="AR18" s="86"/>
+      <c r="AS18" s="86"/>
+      <c r="AT18" s="86"/>
+      <c r="AU18" s="86"/>
+      <c r="AV18" s="86"/>
+      <c r="AW18" s="86"/>
+      <c r="AX18" s="86"/>
+      <c r="AY18" s="86"/>
+      <c r="AZ18" s="86"/>
+      <c r="BA18" s="86"/>
+      <c r="BB18" s="86"/>
+      <c r="BC18" s="86"/>
+      <c r="BD18" s="86"/>
+      <c r="BE18" s="86"/>
+      <c r="BF18" s="86"/>
+      <c r="BG18" s="86"/>
+      <c r="BH18" s="86"/>
+      <c r="BI18" s="86"/>
+      <c r="BJ18" s="86"/>
+      <c r="BK18" s="86"/>
+      <c r="BL18" s="63" t="s">
+        <v>783</v>
+      </c>
+      <c r="BM18" s="63" t="s">
+        <v>784</v>
+      </c>
+      <c r="BN18" s="63" t="s">
+        <v>785</v>
+      </c>
+      <c r="BO18" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="BP18" s="63" t="s">
+        <v>587</v>
+      </c>
+      <c r="BQ18" s="81" t="s">
+        <v>786</v>
+      </c>
+      <c r="BR18" s="82"/>
+      <c r="BS18" s="82"/>
+      <c r="BT18" s="82"/>
+      <c r="BU18" s="82"/>
+      <c r="BV18" s="82"/>
+      <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="90"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="90"/>
-      <c r="AO19" s="90"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="90"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="90"/>
-      <c r="AU19" s="90"/>
-      <c r="AV19" s="90"/>
-      <c r="AW19" s="90"/>
-      <c r="AX19" s="90"/>
-      <c r="AY19" s="90"/>
-      <c r="AZ19" s="90"/>
-      <c r="BA19" s="90"/>
-      <c r="BB19" s="90"/>
-      <c r="BC19" s="90"/>
-      <c r="BD19" s="90"/>
-      <c r="BE19" s="90"/>
-      <c r="BF19" s="90"/>
-      <c r="BG19" s="90"/>
-      <c r="BH19" s="90"/>
-      <c r="BI19" s="90"/>
-      <c r="BJ19" s="90"/>
-      <c r="BK19" s="90"/>
-      <c r="BL19" s="54"/>
-      <c r="BM19" s="54"/>
-      <c r="BN19" s="54"/>
-      <c r="BO19" s="54"/>
-      <c r="BP19" s="54"/>
-      <c r="BQ19" s="91"/>
-      <c r="BR19" s="92"/>
-      <c r="BS19" s="92"/>
-      <c r="BT19" s="92"/>
-      <c r="BU19" s="92"/>
-      <c r="BV19" s="92"/>
-      <c r="BW19" s="92"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+      <c r="AP19" s="86"/>
+      <c r="AQ19" s="86"/>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="86"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="86"/>
+      <c r="AV19" s="86"/>
+      <c r="AW19" s="86"/>
+      <c r="AX19" s="86"/>
+      <c r="AY19" s="86"/>
+      <c r="AZ19" s="86"/>
+      <c r="BA19" s="86"/>
+      <c r="BB19" s="86"/>
+      <c r="BC19" s="86"/>
+      <c r="BD19" s="86"/>
+      <c r="BE19" s="86"/>
+      <c r="BF19" s="86"/>
+      <c r="BG19" s="86"/>
+      <c r="BH19" s="86"/>
+      <c r="BI19" s="86"/>
+      <c r="BJ19" s="86"/>
+      <c r="BK19" s="86"/>
+      <c r="BL19" s="63"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
+      <c r="BP19" s="63"/>
+      <c r="BQ19" s="81"/>
+      <c r="BR19" s="82"/>
+      <c r="BS19" s="82"/>
+      <c r="BT19" s="82"/>
+      <c r="BU19" s="82"/>
+      <c r="BV19" s="82"/>
+      <c r="BW19" s="82"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="90"/>
-      <c r="AL20" s="90"/>
-      <c r="AM20" s="90"/>
-      <c r="AN20" s="90"/>
-      <c r="AO20" s="90"/>
-      <c r="AP20" s="90"/>
-      <c r="AQ20" s="90"/>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="90"/>
-      <c r="AT20" s="90"/>
-      <c r="AU20" s="90"/>
-      <c r="AV20" s="90"/>
-      <c r="AW20" s="90"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="90"/>
-      <c r="AZ20" s="90"/>
-      <c r="BA20" s="90"/>
-      <c r="BB20" s="90"/>
-      <c r="BC20" s="90"/>
-      <c r="BD20" s="90"/>
-      <c r="BE20" s="90"/>
-      <c r="BF20" s="90"/>
-      <c r="BG20" s="90"/>
-      <c r="BH20" s="90"/>
-      <c r="BI20" s="90"/>
-      <c r="BJ20" s="90"/>
-      <c r="BK20" s="90"/>
-      <c r="BL20" s="54"/>
-      <c r="BM20" s="54"/>
-      <c r="BN20" s="54"/>
-      <c r="BO20" s="54"/>
-      <c r="BP20" s="54"/>
-      <c r="BQ20" s="91"/>
-      <c r="BR20" s="92"/>
-      <c r="BS20" s="92"/>
-      <c r="BT20" s="92"/>
-      <c r="BU20" s="92"/>
-      <c r="BV20" s="92"/>
-      <c r="BW20" s="92"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+      <c r="AP20" s="86"/>
+      <c r="AQ20" s="86"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="86"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="86"/>
+      <c r="AV20" s="86"/>
+      <c r="AW20" s="86"/>
+      <c r="AX20" s="86"/>
+      <c r="AY20" s="86"/>
+      <c r="AZ20" s="86"/>
+      <c r="BA20" s="86"/>
+      <c r="BB20" s="86"/>
+      <c r="BC20" s="86"/>
+      <c r="BD20" s="86"/>
+      <c r="BE20" s="86"/>
+      <c r="BF20" s="86"/>
+      <c r="BG20" s="86"/>
+      <c r="BH20" s="86"/>
+      <c r="BI20" s="86"/>
+      <c r="BJ20" s="86"/>
+      <c r="BK20" s="86"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="63"/>
+      <c r="BP20" s="63"/>
+      <c r="BQ20" s="81"/>
+      <c r="BR20" s="82"/>
+      <c r="BS20" s="82"/>
+      <c r="BT20" s="82"/>
+      <c r="BU20" s="82"/>
+      <c r="BV20" s="82"/>
+      <c r="BW20" s="82"/>
     </row>
     <row r="21" spans="1:75" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="66" t="s">
         <v>448</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="66" t="s">
         <v>517</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="66" t="s">
         <v>498</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>688</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>689</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>690</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>691</v>
+      </c>
+      <c r="K21" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="L21" s="66" t="s">
         <v>694</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="M21" s="66" t="s">
+        <v>698</v>
+      </c>
+      <c r="N21" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" s="66" t="s">
+        <v>692</v>
+      </c>
+      <c r="P21" s="66" t="s">
         <v>695</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="Q21" s="66" t="s">
         <v>696</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="R21" s="66" t="s">
         <v>697</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="S21" s="66" t="s">
         <v>699</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="T21" s="66" t="s">
         <v>700</v>
       </c>
-      <c r="M21" s="57" t="s">
-        <v>704</v>
-      </c>
-      <c r="N21" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="O21" s="57" t="s">
-        <v>698</v>
-      </c>
-      <c r="P21" s="57" t="s">
+      <c r="U21" s="66" t="s">
         <v>701</v>
       </c>
-      <c r="Q21" s="57" t="s">
+      <c r="V21" s="66" t="s">
         <v>702</v>
       </c>
-      <c r="R21" s="57" t="s">
+      <c r="W21" s="66" t="s">
         <v>703</v>
       </c>
-      <c r="S21" s="57" t="s">
-        <v>705</v>
-      </c>
-      <c r="T21" s="57" t="s">
-        <v>706</v>
-      </c>
-      <c r="U21" s="57" t="s">
-        <v>707</v>
-      </c>
-      <c r="V21" s="57" t="s">
-        <v>708</v>
-      </c>
-      <c r="W21" s="57" t="s">
-        <v>709</v>
-      </c>
-      <c r="X21" s="88" t="s">
+      <c r="X21" s="87" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y21" s="87" t="s">
+        <v>763</v>
+      </c>
+      <c r="Z21" s="66" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA21" s="87" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB21" s="87" t="s">
+        <v>765</v>
+      </c>
+      <c r="AC21" s="66" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD21" s="89" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE21" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="AF21" s="66" t="s">
+        <v>734</v>
+      </c>
+      <c r="AG21" s="66" t="s">
+        <v>768</v>
+      </c>
+      <c r="AH21" s="66" t="s">
+        <v>735</v>
+      </c>
+      <c r="AI21" s="66" t="s">
+        <v>736</v>
+      </c>
+      <c r="AJ21" s="66" t="s">
         <v>738</v>
       </c>
-      <c r="Y21" s="88" t="s">
+      <c r="AK21" s="66" t="s">
+        <v>739</v>
+      </c>
+      <c r="AL21" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="AM21" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="AN21" s="66" t="s">
+        <v>770</v>
+      </c>
+      <c r="AO21" s="66" t="s">
+        <v>775</v>
+      </c>
+      <c r="AP21" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="AQ21" s="66" t="s">
+        <v>743</v>
+      </c>
+      <c r="AR21" s="66" t="s">
         <v>769</v>
       </c>
-      <c r="Z21" s="57" t="s">
+      <c r="AS21" s="66" t="s">
+        <v>776</v>
+      </c>
+      <c r="AT21" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="AU21" s="66" t="s">
+        <v>745</v>
+      </c>
+      <c r="AV21" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="AW21" s="87" t="s">
+        <v>773</v>
+      </c>
+      <c r="AX21" s="87" t="s">
+        <v>774</v>
+      </c>
+      <c r="AY21" s="66" t="s">
+        <v>747</v>
+      </c>
+      <c r="AZ21" s="66" t="s">
+        <v>746</v>
+      </c>
+      <c r="BA21" s="66" t="s">
+        <v>749</v>
+      </c>
+      <c r="BB21" s="66" t="s">
+        <v>761</v>
+      </c>
+      <c r="BC21" s="66" t="s">
         <v>778</v>
       </c>
-      <c r="AA21" s="88" t="s">
-        <v>770</v>
-      </c>
-      <c r="AB21" s="88" t="s">
-        <v>771</v>
-      </c>
-      <c r="AC21" s="57" t="s">
-        <v>768</v>
-      </c>
-      <c r="AD21" s="89" t="s">
-        <v>743</v>
-      </c>
-      <c r="AE21" s="57" t="s">
-        <v>739</v>
-      </c>
-      <c r="AF21" s="57" t="s">
-        <v>740</v>
-      </c>
-      <c r="AG21" s="57" t="s">
-        <v>774</v>
-      </c>
-      <c r="AH21" s="57" t="s">
-        <v>741</v>
-      </c>
-      <c r="AI21" s="57" t="s">
-        <v>742</v>
-      </c>
-      <c r="AJ21" s="57" t="s">
-        <v>744</v>
-      </c>
-      <c r="AK21" s="57" t="s">
-        <v>745</v>
-      </c>
-      <c r="AL21" s="57" t="s">
-        <v>746</v>
-      </c>
-      <c r="AM21" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="AN21" s="57" t="s">
-        <v>776</v>
-      </c>
-      <c r="AO21" s="57" t="s">
+      <c r="BD21" s="66" t="s">
+        <v>777</v>
+      </c>
+      <c r="BE21" s="66" t="s">
+        <v>535</v>
+      </c>
+      <c r="BF21" s="66" t="s">
+        <v>766</v>
+      </c>
+      <c r="BG21" s="66" t="s">
+        <v>767</v>
+      </c>
+      <c r="BH21" s="83" t="s">
+        <v>782</v>
+      </c>
+      <c r="BI21" s="84"/>
+      <c r="BJ21" s="84"/>
+      <c r="BK21" s="85"/>
+      <c r="BL21" s="67" t="s">
         <v>781</v>
       </c>
-      <c r="AP21" s="57" t="s">
-        <v>748</v>
-      </c>
-      <c r="AQ21" s="57" t="s">
-        <v>749</v>
-      </c>
-      <c r="AR21" s="57" t="s">
-        <v>775</v>
-      </c>
-      <c r="AS21" s="57" t="s">
-        <v>782</v>
-      </c>
-      <c r="AT21" s="57" t="s">
-        <v>750</v>
-      </c>
-      <c r="AU21" s="57" t="s">
-        <v>751</v>
-      </c>
-      <c r="AV21" s="57" t="s">
-        <v>777</v>
-      </c>
-      <c r="AW21" s="88" t="s">
+      <c r="BM21" s="67" t="s">
+        <v>780</v>
+      </c>
+      <c r="BN21" s="67" t="s">
         <v>779</v>
       </c>
-      <c r="AX21" s="88" t="s">
-        <v>780</v>
-      </c>
-      <c r="AY21" s="57" t="s">
-        <v>753</v>
-      </c>
-      <c r="AZ21" s="57" t="s">
-        <v>752</v>
-      </c>
-      <c r="BA21" s="57" t="s">
-        <v>755</v>
-      </c>
-      <c r="BB21" s="57" t="s">
-        <v>767</v>
-      </c>
-      <c r="BC21" s="57" t="s">
-        <v>784</v>
-      </c>
-      <c r="BD21" s="57" t="s">
-        <v>783</v>
-      </c>
-      <c r="BE21" s="57" t="s">
-        <v>535</v>
-      </c>
-      <c r="BF21" s="57" t="s">
-        <v>772</v>
-      </c>
-      <c r="BG21" s="57" t="s">
-        <v>773</v>
-      </c>
-      <c r="BH21" s="66" t="s">
-        <v>788</v>
-      </c>
-      <c r="BI21" s="67"/>
-      <c r="BJ21" s="67"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="58" t="s">
-        <v>787</v>
-      </c>
-      <c r="BM21" s="58" t="s">
-        <v>786</v>
-      </c>
-      <c r="BN21" s="58" t="s">
-        <v>785</v>
-      </c>
-      <c r="BO21" s="58" t="s">
+      <c r="BO21" s="67" t="s">
         <v>562</v>
       </c>
-      <c r="BP21" s="59" t="s">
+      <c r="BP21" s="71" t="s">
         <v>563</v>
       </c>
-      <c r="BQ21" s="91"/>
-      <c r="BR21" s="92"/>
-      <c r="BS21" s="92"/>
-      <c r="BT21" s="92"/>
-      <c r="BU21" s="92"/>
-      <c r="BV21" s="92"/>
-      <c r="BW21" s="92"/>
+      <c r="BQ21" s="81"/>
+      <c r="BR21" s="82"/>
+      <c r="BS21" s="82"/>
+      <c r="BT21" s="82"/>
+      <c r="BU21" s="82"/>
+      <c r="BV21" s="82"/>
+      <c r="BW21" s="82"/>
     </row>
     <row r="22" spans="1:75" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="58"/>
-      <c r="AN22" s="58"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="58"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="58"/>
-      <c r="AU22" s="58"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="63"/>
-      <c r="AX22" s="63"/>
-      <c r="AY22" s="58"/>
-      <c r="AZ22" s="58"/>
-      <c r="BA22" s="58"/>
-      <c r="BB22" s="58"/>
-      <c r="BC22" s="58"/>
-      <c r="BD22" s="58"/>
-      <c r="BE22" s="58"/>
-      <c r="BF22" s="58"/>
-      <c r="BG22" s="58"/>
-      <c r="BH22" s="66"/>
-      <c r="BI22" s="67"/>
-      <c r="BJ22" s="67"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="58"/>
-      <c r="BM22" s="58"/>
-      <c r="BN22" s="58"/>
-      <c r="BO22" s="58"/>
-      <c r="BP22" s="59"/>
-      <c r="BQ22" s="91"/>
-      <c r="BR22" s="92"/>
-      <c r="BS22" s="92"/>
-      <c r="BT22" s="92"/>
-      <c r="BU22" s="92"/>
-      <c r="BV22" s="92"/>
-      <c r="BW22" s="92"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="67"/>
+      <c r="AM22" s="67"/>
+      <c r="AN22" s="67"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="67"/>
+      <c r="AQ22" s="67"/>
+      <c r="AR22" s="67"/>
+      <c r="AS22" s="67"/>
+      <c r="AT22" s="67"/>
+      <c r="AU22" s="67"/>
+      <c r="AV22" s="67"/>
+      <c r="AW22" s="88"/>
+      <c r="AX22" s="88"/>
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="67"/>
+      <c r="BA22" s="67"/>
+      <c r="BB22" s="67"/>
+      <c r="BC22" s="67"/>
+      <c r="BD22" s="67"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="67"/>
+      <c r="BG22" s="67"/>
+      <c r="BH22" s="83"/>
+      <c r="BI22" s="84"/>
+      <c r="BJ22" s="84"/>
+      <c r="BK22" s="85"/>
+      <c r="BL22" s="67"/>
+      <c r="BM22" s="67"/>
+      <c r="BN22" s="67"/>
+      <c r="BO22" s="67"/>
+      <c r="BP22" s="71"/>
+      <c r="BQ22" s="81"/>
+      <c r="BR22" s="82"/>
+      <c r="BS22" s="82"/>
+      <c r="BT22" s="82"/>
+      <c r="BU22" s="82"/>
+      <c r="BV22" s="82"/>
+      <c r="BW22" s="82"/>
     </row>
     <row r="23" spans="1:75" s="29" customFormat="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="63"/>
-      <c r="AX23" s="63"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BA23" s="58"/>
-      <c r="BB23" s="58"/>
-      <c r="BC23" s="58"/>
-      <c r="BD23" s="58"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="58"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="66"/>
-      <c r="BI23" s="67"/>
-      <c r="BJ23" s="67"/>
-      <c r="BK23" s="68"/>
-      <c r="BL23" s="58"/>
-      <c r="BM23" s="58"/>
-      <c r="BN23" s="58"/>
-      <c r="BO23" s="58"/>
-      <c r="BP23" s="59"/>
-      <c r="BQ23" s="91"/>
-      <c r="BR23" s="92"/>
-      <c r="BS23" s="92"/>
-      <c r="BT23" s="92"/>
-      <c r="BU23" s="92"/>
-      <c r="BV23" s="92"/>
-      <c r="BW23" s="92"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="67"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="67"/>
+      <c r="AQ23" s="67"/>
+      <c r="AR23" s="67"/>
+      <c r="AS23" s="67"/>
+      <c r="AT23" s="67"/>
+      <c r="AU23" s="67"/>
+      <c r="AV23" s="67"/>
+      <c r="AW23" s="88"/>
+      <c r="AX23" s="88"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+      <c r="BB23" s="67"/>
+      <c r="BC23" s="67"/>
+      <c r="BD23" s="67"/>
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="67"/>
+      <c r="BG23" s="67"/>
+      <c r="BH23" s="83"/>
+      <c r="BI23" s="84"/>
+      <c r="BJ23" s="84"/>
+      <c r="BK23" s="85"/>
+      <c r="BL23" s="67"/>
+      <c r="BM23" s="67"/>
+      <c r="BN23" s="67"/>
+      <c r="BO23" s="67"/>
+      <c r="BP23" s="71"/>
+      <c r="BQ23" s="81"/>
+      <c r="BR23" s="82"/>
+      <c r="BS23" s="82"/>
+      <c r="BT23" s="82"/>
+      <c r="BU23" s="82"/>
+      <c r="BV23" s="82"/>
+      <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" s="29" customFormat="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-      <c r="AG24" s="58"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58"/>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="63"/>
-      <c r="AX24" s="63"/>
-      <c r="AY24" s="58"/>
-      <c r="AZ24" s="58"/>
-      <c r="BA24" s="58"/>
-      <c r="BB24" s="58"/>
-      <c r="BC24" s="58"/>
-      <c r="BD24" s="58"/>
-      <c r="BE24" s="58"/>
-      <c r="BF24" s="58"/>
-      <c r="BG24" s="58"/>
-      <c r="BH24" s="66"/>
-      <c r="BI24" s="67"/>
-      <c r="BJ24" s="67"/>
-      <c r="BK24" s="68"/>
-      <c r="BL24" s="58"/>
-      <c r="BM24" s="58"/>
-      <c r="BN24" s="58"/>
-      <c r="BO24" s="58"/>
-      <c r="BP24" s="59"/>
-      <c r="BQ24" s="91"/>
-      <c r="BR24" s="92"/>
-      <c r="BS24" s="92"/>
-      <c r="BT24" s="92"/>
-      <c r="BU24" s="92"/>
-      <c r="BV24" s="92"/>
-      <c r="BW24" s="92"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="67"/>
+      <c r="AM24" s="67"/>
+      <c r="AN24" s="67"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="67"/>
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="67"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="67"/>
+      <c r="AU24" s="67"/>
+      <c r="AV24" s="67"/>
+      <c r="AW24" s="88"/>
+      <c r="AX24" s="88"/>
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="67"/>
+      <c r="BB24" s="67"/>
+      <c r="BC24" s="67"/>
+      <c r="BD24" s="67"/>
+      <c r="BE24" s="67"/>
+      <c r="BF24" s="67"/>
+      <c r="BG24" s="67"/>
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="84"/>
+      <c r="BJ24" s="84"/>
+      <c r="BK24" s="85"/>
+      <c r="BL24" s="67"/>
+      <c r="BM24" s="67"/>
+      <c r="BN24" s="67"/>
+      <c r="BO24" s="67"/>
+      <c r="BP24" s="71"/>
+      <c r="BQ24" s="81"/>
+      <c r="BR24" s="82"/>
+      <c r="BS24" s="82"/>
+      <c r="BT24" s="82"/>
+      <c r="BU24" s="82"/>
+      <c r="BV24" s="82"/>
+      <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" s="29" customFormat="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="58"/>
-      <c r="AZ25" s="58"/>
-      <c r="BA25" s="58"/>
-      <c r="BB25" s="58"/>
-      <c r="BC25" s="58"/>
-      <c r="BD25" s="58"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="58"/>
-      <c r="BG25" s="58"/>
-      <c r="BH25" s="66"/>
-      <c r="BI25" s="67"/>
-      <c r="BJ25" s="67"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="58"/>
-      <c r="BM25" s="58"/>
-      <c r="BN25" s="58"/>
-      <c r="BO25" s="58"/>
-      <c r="BP25" s="59"/>
-      <c r="BQ25" s="91"/>
-      <c r="BR25" s="92"/>
-      <c r="BS25" s="92"/>
-      <c r="BT25" s="92"/>
-      <c r="BU25" s="92"/>
-      <c r="BV25" s="92"/>
-      <c r="BW25" s="92"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="88"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="67"/>
+      <c r="BD25" s="67"/>
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="67"/>
+      <c r="BH25" s="83"/>
+      <c r="BI25" s="84"/>
+      <c r="BJ25" s="84"/>
+      <c r="BK25" s="85"/>
+      <c r="BL25" s="67"/>
+      <c r="BM25" s="67"/>
+      <c r="BN25" s="67"/>
+      <c r="BO25" s="67"/>
+      <c r="BP25" s="71"/>
+      <c r="BQ25" s="81"/>
+      <c r="BR25" s="82"/>
+      <c r="BS25" s="82"/>
+      <c r="BT25" s="82"/>
+      <c r="BU25" s="82"/>
+      <c r="BV25" s="82"/>
+      <c r="BW25" s="82"/>
     </row>
     <row r="26" spans="1:75">
       <c r="C26" s="6"/>
@@ -16168,7 +16200,7 @@
     </row>
     <row r="27" spans="1:75">
       <c r="C27" s="12" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E27" s="1"/>
       <c r="J27" s="6"/>
@@ -16198,7 +16230,7 @@
       <c r="AY27" s="6"/>
       <c r="AZ27" s="6"/>
       <c r="BA27" s="15" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="BC27" s="6"/>
       <c r="BD27" s="1"/>
@@ -17137,6 +17169,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="U21:U25"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="W21:W25"/>
+    <mergeCell ref="BA21:BA25"/>
+    <mergeCell ref="BB21:BB25"/>
+    <mergeCell ref="AA21:AA25"/>
+    <mergeCell ref="AL21:AL25"/>
+    <mergeCell ref="AM21:AM25"/>
+    <mergeCell ref="AP21:AP25"/>
+    <mergeCell ref="AQ21:AQ25"/>
+    <mergeCell ref="AT21:AT25"/>
+    <mergeCell ref="AU21:AU25"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="X21:X25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="Q21:Q25"/>
+    <mergeCell ref="R21:R25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="S21:S25"/>
+    <mergeCell ref="T21:T25"/>
+    <mergeCell ref="BG21:BG25"/>
+    <mergeCell ref="BD21:BD25"/>
+    <mergeCell ref="BC21:BC25"/>
+    <mergeCell ref="AZ21:AZ25"/>
+    <mergeCell ref="AY21:AY25"/>
+    <mergeCell ref="BE21:BE25"/>
+    <mergeCell ref="BF21:BF25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="Y21:Y25"/>
+    <mergeCell ref="AH21:AH25"/>
+    <mergeCell ref="AI21:AI25"/>
+    <mergeCell ref="AJ21:AJ25"/>
+    <mergeCell ref="AK21:AK25"/>
+    <mergeCell ref="AE21:AE25"/>
+    <mergeCell ref="AF21:AF25"/>
+    <mergeCell ref="AD21:AD25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="AC21:AC25"/>
+    <mergeCell ref="AO21:AO25"/>
+    <mergeCell ref="AS21:AS25"/>
+    <mergeCell ref="AX21:AX25"/>
+    <mergeCell ref="AG21:AG25"/>
+    <mergeCell ref="AR21:AR25"/>
+    <mergeCell ref="AN21:AN25"/>
+    <mergeCell ref="AV21:AV25"/>
     <mergeCell ref="BQ18:BW25"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="BO18:BO20"/>
@@ -17153,64 +17243,6 @@
     <mergeCell ref="BN18:BN20"/>
     <mergeCell ref="Z21:Z25"/>
     <mergeCell ref="AW21:AW25"/>
-    <mergeCell ref="AB21:AB25"/>
-    <mergeCell ref="AC21:AC25"/>
-    <mergeCell ref="AO21:AO25"/>
-    <mergeCell ref="AS21:AS25"/>
-    <mergeCell ref="AX21:AX25"/>
-    <mergeCell ref="AG21:AG25"/>
-    <mergeCell ref="AR21:AR25"/>
-    <mergeCell ref="AN21:AN25"/>
-    <mergeCell ref="AV21:AV25"/>
-    <mergeCell ref="BE21:BE25"/>
-    <mergeCell ref="BF21:BF25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="Y21:Y25"/>
-    <mergeCell ref="BG21:BG25"/>
-    <mergeCell ref="BD21:BD25"/>
-    <mergeCell ref="BC21:BC25"/>
-    <mergeCell ref="AZ21:AZ25"/>
-    <mergeCell ref="AY21:AY25"/>
-    <mergeCell ref="AH21:AH25"/>
-    <mergeCell ref="AI21:AI25"/>
-    <mergeCell ref="AJ21:AJ25"/>
-    <mergeCell ref="AK21:AK25"/>
-    <mergeCell ref="AE21:AE25"/>
-    <mergeCell ref="AF21:AF25"/>
-    <mergeCell ref="AD21:AD25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="X21:X25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="Q21:Q25"/>
-    <mergeCell ref="R21:R25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="S21:S25"/>
-    <mergeCell ref="T21:T25"/>
-    <mergeCell ref="U21:U25"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="W21:W25"/>
-    <mergeCell ref="BA21:BA25"/>
-    <mergeCell ref="BB21:BB25"/>
-    <mergeCell ref="AA21:AA25"/>
-    <mergeCell ref="AL21:AL25"/>
-    <mergeCell ref="AM21:AM25"/>
-    <mergeCell ref="AP21:AP25"/>
-    <mergeCell ref="AQ21:AQ25"/>
-    <mergeCell ref="AT21:AT25"/>
-    <mergeCell ref="AU21:AU25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17221,745 +17253,717 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:13">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE(C3,",")</f>
         <v>CD_CIA,</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>646</v>
+      <c r="K3" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="M3" t="str">
         <f>CONCATENATE("'",K3,"',")</f>
-        <v>'R20000127',</v>
+        <v>'R20000001',</v>
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="27" t="s">
-        <v>8</v>
+      <c r="C4" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" si="0">CONCATENATE(C4,",")</f>
-        <v>CD_FILIAL,</v>
+        <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>651</v>
+        <v>402</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" ref="M4:M12" si="1">CONCATENATE("'",K4,"',")</f>
-        <v>'R20000126',</v>
+        <v>'R20000011',</v>
       </c>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="27" t="s">
-        <v>9</v>
+      <c r="C5" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>CD_UNIDADE_EMPRESARIAL,</v>
+        <v>CD_TIPO_OPERACAO,</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>659</v>
+        <v>412</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000122',</v>
+        <v>'R20000019',</v>
       </c>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="27" t="s">
-        <v>374</v>
+      <c r="C6" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>NR_REFERENCIA_FISCAL,</v>
+        <v>CD_SITUACAO_NFR,</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>673</v>
+        <v>426</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000457',</v>
+        <v>'R20000020',</v>
       </c>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="27" t="s">
-        <v>361</v>
+      <c r="C7" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>DT_ATUALIZACAO,</v>
+        <v>DT_EMISSAO_NFR,</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>687</v>
+        <v>431</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000220',</v>
+        <v>'R20000021',</v>
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="27" t="s">
-        <v>339</v>
+      <c r="C8" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF_RECEBIDA,</v>
-      </c>
-      <c r="K8" s="12"/>
+        <v>DT_EMISSAO_NF_RECEBIDA,</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>'',</v>
+        <v>'R00000009',</v>
       </c>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="27" t="s">
-        <v>596</v>
+      <c r="C9" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_ITEM_NF_RECEBIDA,</v>
-      </c>
-      <c r="K9" s="12"/>
+        <v>DT_SAIDA_NF_RECEBIDA,</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>520</v>
+      </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>'',</v>
+        <v>'R20000106',</v>
       </c>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="27" t="s">
-        <v>247</v>
+      <c r="C10" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>CD_ITEM,</v>
-      </c>
-      <c r="K10" s="12"/>
+        <v>DT_SITUACAO,</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>564</v>
+      </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>'',</v>
+        <v>'R20000340',</v>
       </c>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="27" t="s">
-        <v>599</v>
+      <c r="C11" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>QT_NOMINAL_NF,</v>
-      </c>
-      <c r="K11" s="12"/>
+        <v>DT_ATUALIZACAO,</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>568</v>
+      </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>'',</v>
+        <v>'R20000345',</v>
       </c>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="27" t="s">
-        <v>250</v>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>VL_UNITARIO,</v>
-      </c>
-      <c r="K12" s="12"/>
+        <v>CD_FORNECEDOR,</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>574</v>
+      </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>'',</v>
+        <v>'R20000404',</v>
       </c>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="27" t="s">
-        <v>348</v>
+      <c r="C13" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>VL_MERCADORIA,</v>
+        <v>NR_NF_RECEBIDA,</v>
       </c>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="27" t="s">
-        <v>627</v>
+      <c r="C14" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>VL_TOTAL_ITEM_NF,</v>
+        <v>NR_SERIE_NF_RECEBIDA,</v>
       </c>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="27" t="s">
-        <v>344</v>
+      <c r="C15" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>CD_NATUREZA_OPERACAO,</v>
+        <v>CD_TIPO_NF,</v>
       </c>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="27" t="s">
-        <v>345</v>
+      <c r="C16" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_NATUREZA_OPERACAO,</v>
+        <v>CD_NATUREZA_OPERACAO,</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="27" t="s">
-        <v>31</v>
+      <c r="C17" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESCONTO,</v>
+        <v>SQ_NATUREZA_OPERACAO,</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="27" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESCONTO_INCONDICIONAL,</v>
+        <v>IN_MERC_UTILIZADA_CONSUMO,</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="28" t="s">
-        <v>49</v>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>CD_DEPOSITO,</v>
+        <v>CD_CONDICAO_PAGAMENTO,</v>
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="27" t="s">
-        <v>16</v>
+      <c r="C20" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA,</v>
+        <v>VL_MERCADORIA,</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="27" t="s">
-        <v>15</v>
+      <c r="C21" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>VL_FRETE,</v>
+        <v>VL_TOTAL_NF,</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="27" t="s">
-        <v>52</v>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA_ADUANEIRA,</v>
+        <v>VL_DESPESA,</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="27" t="s">
-        <v>628</v>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>CD_ITEM_KIT,</v>
+        <v>VL_DESCONTO,</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="27" t="s">
-        <v>349</v>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_ICMS,</v>
+        <v>VL_FRETE,</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="27" t="s">
-        <v>602</v>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_ICMS,</v>
+        <v>VL_DESPESA_ADUANEIRA,</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="27" t="s">
-        <v>13</v>
+      <c r="C26" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS,</v>
+        <v>VL_PESO_BRUTO,</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="27" t="s">
-        <v>33</v>
+      <c r="C27" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_ST,</v>
+        <v>COD_CAMINHAO,</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="27" t="s">
-        <v>603</v>
+      <c r="C28" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_ST_SEM_CONVENIO,</v>
+        <v>VL_SERVICO,</v>
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="27" t="s">
-        <v>632</v>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IVA,</v>
+        <v>VL_ADICIONAL_IMPORTACAO,</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="27" t="s">
-        <v>351</v>
+      <c r="C30" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_IPI,</v>
+        <v>CD_TIPO_FRETE,</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="27" t="s">
-        <v>601</v>
+      <c r="C31" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_IPI,</v>
+        <v>VL_CIF,</v>
       </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="27" t="s">
-        <v>34</v>
+      <c r="C32" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IPI,</v>
+        <v>VL_ICMS_DESTACADO,</v>
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="27" t="s">
-        <v>604</v>
+      <c r="C33" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_ISS,</v>
+        <v>VL_IPI_DESTACADO,</v>
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="27" t="s">
-        <v>354</v>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ISS,</v>
+        <v>VL_PIS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="27" t="s">
-        <v>605</v>
+      <c r="C35" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_IRPF,</v>
+        <v>VL_COFINS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="27" t="s">
-        <v>606</v>
+      <c r="C36" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IRPF,</v>
+        <v>NR_NFR_COMPLEMENTO,</v>
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="27" t="s">
-        <v>619</v>
+      <c r="C37" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_PIS,</v>
+        <v>NR_NFR,</v>
       </c>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="27" t="s">
-        <v>365</v>
+      <c r="C38" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS,</v>
+        <v>NR_LOTE,</v>
       </c>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="27" t="s">
-        <v>620</v>
+      <c r="C39" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_COFINS,</v>
+        <v>VL_BASE_ICMS,</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="27" t="s">
-        <v>366</v>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS,</v>
+        <v>VL_ICMS,</v>
       </c>
     </row>
     <row r="41" spans="3:6">
-      <c r="C41" s="27" t="s">
-        <v>621</v>
+      <c r="C41" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_CSLL,</v>
+        <v>VL_ICMS_ST,</v>
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="27" t="s">
-        <v>367</v>
+      <c r="C42" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL,</v>
+        <v>VL_BASE_IPI,</v>
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="27" t="s">
-        <v>369</v>
+      <c r="C43" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_IMPOSTO_IMPORTACAO,</v>
+        <v>VL_IPI,</v>
       </c>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="27" t="s">
-        <v>51</v>
+      <c r="C44" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IMPOSTO_IMPORTACAO,</v>
+        <v>VL_ISS,</v>
       </c>
     </row>
     <row r="45" spans="3:6">
-      <c r="C45" s="27" t="s">
-        <v>631</v>
+      <c r="C45" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>NR_CNPJ_CPF_ENTREGA,</v>
+        <v>VL_PIS,</v>
       </c>
     </row>
     <row r="46" spans="3:6">
-      <c r="C46" s="27" t="s">
-        <v>625</v>
+      <c r="C46" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>QT_NAO_RECEBIDA_DEVOLUCAO,</v>
+        <v>VL_COFINS,</v>
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="27" t="s">
-        <v>53</v>
+      <c r="C47" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ADICIONAL_IMPORTACAO,</v>
+        <v>VL_CSLL,</v>
       </c>
     </row>
     <row r="48" spans="3:6">
-      <c r="C48" s="27" t="s">
-        <v>56</v>
+      <c r="C48" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CIF_IMPORTACAO,</v>
+        <v>VL_BASE_IMPOSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="27" t="s">
-        <v>629</v>
+      <c r="C49" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CUSTO_IMPORTACAO,</v>
+        <v>VL_IMPOSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="50" spans="3:6">
-      <c r="C50" s="27" t="s">
-        <v>352</v>
+      <c r="C50" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IPI_DESTACADO,</v>
+        <v>IN_ICMS_ST_SEM_CONVENIO,</v>
       </c>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="27" t="s">
-        <v>353</v>
+      <c r="C51" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>VL_SERVICO,</v>
+        <v>IN_SUFRAMA,</v>
       </c>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="27" t="s">
-        <v>609</v>
+      <c r="C52" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_ICMS_NAO_REDUTOR,</v>
+        <v>DS_OBSERVACAO_NFR,</v>
       </c>
     </row>
     <row r="53" spans="3:6">
-      <c r="C53" s="27" t="s">
-        <v>610</v>
+      <c r="C53" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_MERCADORIA,</v>
+        <v>NR_RECEB_DOCTO_WMS,</v>
       </c>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="27" t="s">
-        <v>611</v>
+      <c r="C54" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_FRETE,</v>
+        <v>DS_MOTIVO_DEVOLUCAO_ATO,</v>
       </c>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="27" t="s">
-        <v>612</v>
+      <c r="C55" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICM_OUTROS,</v>
+        <v>VL_DESPESA_ACESSORIA,</v>
       </c>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="27" t="s">
-        <v>613</v>
+      <c r="C56" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_MERCADORIA,</v>
+        <v>VL_DESCONTO_CONDICIONAL,</v>
       </c>
     </row>
     <row r="57" spans="3:6">
-      <c r="C57" s="27" t="s">
-        <v>616</v>
+      <c r="C57" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_MERCADORIA,</v>
+        <v>CD_UNIDADE_EMPRESARIAL,</v>
       </c>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="27" t="s">
-        <v>622</v>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_MERCADORIA,</v>
+        <v>CD_FILIAL,</v>
       </c>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="27" t="s">
-        <v>623</v>
-      </c>
+      <c r="C59" s="27"/>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_FRETE,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="27" t="s">
-        <v>624</v>
-      </c>
+      <c r="C60" s="27"/>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_OUTROS,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="27" t="s">
-        <v>626</v>
-      </c>
+      <c r="C61" s="27"/>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_REDUTOR_ICMS,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="C62" s="27"/>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_IMPORTACAO,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="C63" s="27"/>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_IMPORTACAO,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="27" t="s">
-        <v>350</v>
-      </c>
+      <c r="C64" s="27"/>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_DESTACADO,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="27" t="s">
-        <v>30</v>
-      </c>
+      <c r="C65" s="27"/>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>NR_PEDIDO_COMPRA,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="66" spans="3:6">
-      <c r="C66" s="27" t="s">
-        <v>600</v>
-      </c>
+      <c r="C66" s="27"/>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>QT_RECEBIDA,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="67" spans="3:6">
-      <c r="C67" s="27" t="s">
-        <v>336</v>
-      </c>
+      <c r="C67" s="27"/>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NFR,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="27" t="s">
-        <v>597</v>
-      </c>
+      <c r="C68" s="27"/>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F77" si="2">CONCATENATE(C68,",")</f>
-        <v>CD_NBM,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="69" spans="3:6">
-      <c r="C69" s="27" t="s">
-        <v>598</v>
-      </c>
+      <c r="C69" s="27"/>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
-        <v>SQ_NBM,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="70" spans="3:6">
-      <c r="C70" s="27" t="s">
-        <v>630</v>
-      </c>
+      <c r="C70" s="27"/>
       <c r="F70" t="str">
         <f t="shared" si="2"/>
-        <v>QT_RECEBIDA_FISICA,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="71" spans="3:6">
-      <c r="C71" s="27" t="s">
-        <v>355</v>
-      </c>
+      <c r="C71" s="27"/>
       <c r="F71" t="str">
         <f t="shared" si="2"/>
-        <v>VL_DESPESA_ACESSORIA,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="72" spans="3:6">
-      <c r="C72" s="27" t="s">
-        <v>607</v>
-      </c>
+      <c r="C72" s="27"/>
       <c r="F72" t="str">
         <f t="shared" si="2"/>
-        <v>NR_NFR_REFERENCIA,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="73" spans="3:6">
-      <c r="C73" s="27" t="s">
-        <v>608</v>
-      </c>
+      <c r="C73" s="27"/>
       <c r="F73" t="str">
         <f t="shared" si="2"/>
-        <v>NR_ITEM_NFR_REFERENCIA,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="74" spans="3:6">
-      <c r="C74" s="27" t="s">
-        <v>614</v>
-      </c>
+      <c r="C74" s="27"/>
       <c r="F74" t="str">
         <f t="shared" si="2"/>
-        <v>VL_COFINS_FRETE,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="75" spans="3:6">
-      <c r="C75" s="27" t="s">
-        <v>615</v>
-      </c>
+      <c r="C75" s="27"/>
       <c r="F75" t="str">
         <f t="shared" si="2"/>
-        <v>VL_COFINS_OUTROS,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="76" spans="3:6">
-      <c r="C76" s="27" t="s">
-        <v>617</v>
-      </c>
+      <c r="C76" s="27"/>
       <c r="F76" t="str">
         <f t="shared" si="2"/>
-        <v>VL_PIS_FRETE,</v>
+        <v>,</v>
       </c>
     </row>
     <row r="77" spans="3:6">
-      <c r="C77" s="27" t="s">
-        <v>618</v>
-      </c>
+      <c r="C77" s="27"/>
       <c r="F77" t="str">
         <f t="shared" si="2"/>
-        <v>VL_PIS_OUTROS,</v>
+        <v>,</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Conferencia_NFR.xlsx
+++ b/Documentação/Planilhas/Conferencia_NFR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="867">
   <si>
     <t>1</t>
   </si>
@@ -2752,36 +2752,24 @@
     <t>617.0000</t>
   </si>
   <si>
-    <t>2014-08-05 14:19:29.000</t>
-  </si>
-  <si>
     <t>119344</t>
   </si>
   <si>
     <t>2000.0000</t>
   </si>
   <si>
-    <t>2014-08-05 16:22:14.000</t>
-  </si>
-  <si>
     <t>13423591</t>
   </si>
   <si>
     <t>44.9000</t>
   </si>
   <si>
-    <t>2014-08-05 17:15:13.000</t>
-  </si>
-  <si>
     <t>1586993</t>
   </si>
   <si>
     <t>435.0000</t>
   </si>
   <si>
-    <t>2014-08-04 19:46:42.000</t>
-  </si>
-  <si>
     <t>1736552</t>
   </si>
   <si>
@@ -2791,38 +2779,77 @@
     <t>900000552</t>
   </si>
   <si>
-    <t>138.6809</t>
-  </si>
-  <si>
-    <t>2014-08-04 14:33:47.000</t>
-  </si>
-  <si>
-    <t>139.7422</t>
-  </si>
-  <si>
     <t>TH-1</t>
   </si>
   <si>
     <t>37938.8086</t>
   </si>
   <si>
-    <t>2014-08-05 14:44:22.000</t>
-  </si>
-  <si>
     <t>Sessão whinh3512m600</t>
   </si>
   <si>
     <t>tdrecl504m00l, tcibdl501m00l, tcibd0501m000, whinh3512m600, tcmcs0565m000 e tcemm0130m000</t>
   </si>
   <si>
-    <t>whinr1510m000</t>
+    <t>134.3075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Pegar a segunda informação do Item no cabeçalho da tela </t>
+  </si>
+  <si>
+    <t>2014-08-05 11:19:29.000</t>
+  </si>
+  <si>
+    <t>2014-08-05 13:22:14.000</t>
+  </si>
+  <si>
+    <t>2014-08-05 14:15:13.000</t>
+  </si>
+  <si>
+    <t>2014-08-04 16:46:42.000</t>
+  </si>
+  <si>
+    <t>2014-08-05 16:14:23.000</t>
+  </si>
+  <si>
+    <t>2014-08-05 11:44:22.000</t>
+  </si>
+  <si>
+    <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Na aba "Transações", pegar a última informação da coluna Data Transação</t>
+  </si>
+  <si>
+    <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Na aba "Transações", pegar o valor da coluna da coluna MAUC [BRL] referente à última data da transação</t>
+  </si>
+  <si>
+    <t>Sessão whina1512m000</t>
+  </si>
+  <si>
+    <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Pegar a informação da coluna Qtde  referente à última data existente, cujo tipo de Transação seja Recebimento</t>
+  </si>
+  <si>
+    <t>Sessão whinr1510m000</t>
+  </si>
+  <si>
+    <t>Na sessão "whina1512m000" pegar a indicação do Código do Armazém no cabeçalho da tela. Em seguida, ir para a sessão "tcmcs0503m000" e informar o mesmo na coluna Armazém. Pegar a informação da coluna "Unidade Empresarial"</t>
+  </si>
+  <si>
+    <t>Sessão tcmcs0503m000</t>
+  </si>
+  <si>
+    <t>Pegar a indicação da Unidade Empresarial. Em seguida, ir para a sessão "tcemm0130m000" e informar o mesmo na coluna "Unid Empresarial". Pegar a informação da coluna "Cat da Unid Empresarial"</t>
+  </si>
+  <si>
+    <t>whina1512m000, whinr1510m000, tcmcs0503m000 e tcmcs0503m000</t>
+  </si>
+  <si>
+    <t>Aguardando a resposta do Fábio sobre o recebimento do mesmo item em dois armazéns distintos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2879,6 +2906,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3128,7 +3162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3229,61 +3263,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3319,10 +3308,58 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3338,21 +3375,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3382,13 +3404,49 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3397,28 +3455,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3429,10 +3493,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FF99FFCC"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FF99FFCC"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
@@ -3781,19 +3845,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" ht="21">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="17" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="17" t="s">
         <v>245</v>
       </c>
@@ -5248,535 +5312,551 @@
       <c r="AO18" s="4"/>
     </row>
     <row r="19" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="46" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="43" t="s">
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="AJ19" s="46" t="s">
+      <c r="AJ19" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="40" t="s">
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="AQ19" s="43" t="s">
+      <c r="AQ19" s="66" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="67"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="64"/>
+      <c r="AQ20" s="67"/>
     </row>
     <row r="21" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="45"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="68"/>
     </row>
     <row r="22" spans="1:43" ht="11.25" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="M22" s="36" t="s">
+      <c r="M22" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="N22" s="66" t="s">
+      <c r="N22" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="O22" s="36" t="s">
+      <c r="O22" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="P22" s="36" t="s">
+      <c r="P22" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="Q22" s="36" t="s">
+      <c r="Q22" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="R22" s="36" t="s">
+      <c r="R22" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="S22" s="36" t="s">
+      <c r="S22" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="T22" s="36" t="s">
+      <c r="T22" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="U22" s="36" t="s">
+      <c r="U22" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="V22" s="36" t="s">
+      <c r="V22" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="W22" s="36" t="s">
+      <c r="W22" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="X22" s="36" t="s">
+      <c r="X22" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="Y22" s="36" t="s">
+      <c r="Y22" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="Z22" s="36" t="s">
+      <c r="Z22" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="AA22" s="36" t="s">
+      <c r="AA22" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="AB22" s="36" t="s">
+      <c r="AB22" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="AC22" s="36" t="s">
+      <c r="AC22" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="AD22" s="36" t="s">
+      <c r="AD22" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="AE22" s="36" t="s">
+      <c r="AE22" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="AF22" s="36" t="s">
+      <c r="AF22" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="AG22" s="36" t="s">
+      <c r="AG22" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="AH22" s="36" t="s">
+      <c r="AH22" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="AI22" s="36" t="s">
+      <c r="AI22" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AJ22" s="36" t="s">
+      <c r="AJ22" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="AK22" s="36" t="s">
+      <c r="AK22" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="AL22" s="36" t="s">
+      <c r="AL22" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="AM22" s="36" t="s">
+      <c r="AM22" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="AN22" s="36" t="s">
+      <c r="AN22" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="AO22" s="36" t="s">
+      <c r="AO22" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="AP22" s="36" t="s">
+      <c r="AP22" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="AQ22" s="37" t="s">
+      <c r="AQ22" s="60" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="38"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="61"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="38"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="61"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="38"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="61"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="38"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="61"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="39"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="62"/>
     </row>
     <row r="29" spans="1:43" ht="11.25" customHeight="1">
       <c r="I29" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="O29" s="67" t="s">
+      <c r="O29" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:43" ht="56.25">
       <c r="I30" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="O29:Q30"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="AJ22:AJ27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="AO22:AO27"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="AP22:AP27"/>
+    <mergeCell ref="AP19:AP21"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AJ19:AO21"/>
+    <mergeCell ref="AQ19:AQ21"/>
+    <mergeCell ref="AI22:AI27"/>
+    <mergeCell ref="AN22:AN27"/>
+    <mergeCell ref="AM22:AM27"/>
+    <mergeCell ref="AK22:AK27"/>
+    <mergeCell ref="AL22:AL27"/>
+    <mergeCell ref="AB19:AH21"/>
+    <mergeCell ref="U22:U27"/>
+    <mergeCell ref="W22:W27"/>
+    <mergeCell ref="X22:X27"/>
+    <mergeCell ref="V22:V27"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="Z22:Z27"/>
+    <mergeCell ref="AE22:AE27"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AB22:AB27"/>
+    <mergeCell ref="AD22:AD27"/>
+    <mergeCell ref="AA22:AA27"/>
+    <mergeCell ref="AH22:AH27"/>
+    <mergeCell ref="AG22:AG27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AF22:AF27"/>
@@ -5793,32 +5873,16 @@
     <mergeCell ref="S22:S27"/>
     <mergeCell ref="T22:T27"/>
     <mergeCell ref="H22:H27"/>
-    <mergeCell ref="AB19:AH21"/>
-    <mergeCell ref="U22:U27"/>
-    <mergeCell ref="W22:W27"/>
-    <mergeCell ref="X22:X27"/>
-    <mergeCell ref="V22:V27"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="Z22:Z27"/>
-    <mergeCell ref="AE22:AE27"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AB22:AB27"/>
-    <mergeCell ref="AD22:AD27"/>
-    <mergeCell ref="AA22:AA27"/>
-    <mergeCell ref="AH22:AH27"/>
-    <mergeCell ref="AG22:AG27"/>
-    <mergeCell ref="AO22:AO27"/>
-    <mergeCell ref="AQ22:AQ27"/>
-    <mergeCell ref="AP22:AP27"/>
-    <mergeCell ref="AP19:AP21"/>
-    <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="AJ19:AO21"/>
-    <mergeCell ref="AQ19:AQ21"/>
-    <mergeCell ref="AI22:AI27"/>
-    <mergeCell ref="AN22:AN27"/>
-    <mergeCell ref="AM22:AM27"/>
-    <mergeCell ref="AK22:AK27"/>
-    <mergeCell ref="AL22:AL27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="O29:Q30"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="AJ22:AJ27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5884,19 +5948,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="2" t="s">
         <v>333</v>
       </c>
@@ -6691,312 +6755,324 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="69" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="43" t="s">
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="66" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="67"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="45"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="68"/>
     </row>
     <row r="22" spans="1:23" ht="11.25" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39" t="s">
+      <c r="F22" s="62"/>
+      <c r="G22" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="62" t="s">
         <v>314</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="Q22" s="36" t="s">
+      <c r="Q22" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="R22" s="36" t="s">
+      <c r="R22" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="S22" s="36" t="s">
+      <c r="S22" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="T22" s="36" t="s">
+      <c r="T22" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="U22" s="36" t="s">
+      <c r="U22" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="V22" s="36" t="s">
+      <c r="V22" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="W22" s="70" t="s">
+      <c r="W22" s="71" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="71"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="72"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="71"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="72"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="71"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="72"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="71"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="72"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="72"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="73"/>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:23" ht="11.25" customHeight="1">
       <c r="B29" s="6"/>
-      <c r="O29" s="67" t="s">
+      <c r="O29" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="P29" s="67"/>
-      <c r="W29" s="68" t="s">
+      <c r="P29" s="39"/>
+      <c r="W29" s="69" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="B30" s="6"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="W30" s="68"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="W30" s="69"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="W31" s="68"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="W31" s="69"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="W32" s="68"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="W32" s="69"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="W33" s="68"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="W33" s="69"/>
     </row>
     <row r="34" spans="15:23">
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
     </row>
     <row r="35" spans="15:23">
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="T22:T27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="W29:W33"/>
     <mergeCell ref="B19:P21"/>
@@ -7013,18 +7089,6 @@
     <mergeCell ref="W22:W27"/>
     <mergeCell ref="R22:R27"/>
     <mergeCell ref="S22:S27"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="T22:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7106,19 +7170,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:56" ht="21">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="17" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="17" t="s">
         <v>587</v>
       </c>
@@ -9080,585 +9144,585 @@
       <c r="BB19" s="1"/>
     </row>
     <row r="20" spans="1:56" ht="15" customHeight="1">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="74" t="s">
         <v>582</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="79"/>
-      <c r="AQ20" s="79"/>
-      <c r="AR20" s="79"/>
-      <c r="AS20" s="79"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="79"/>
-      <c r="AV20" s="79"/>
-      <c r="AW20" s="79"/>
-      <c r="AX20" s="80"/>
-      <c r="AY20" s="69" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="75"/>
+      <c r="AP20" s="75"/>
+      <c r="AQ20" s="75"/>
+      <c r="AR20" s="75"/>
+      <c r="AS20" s="75"/>
+      <c r="AT20" s="75"/>
+      <c r="AU20" s="75"/>
+      <c r="AV20" s="75"/>
+      <c r="AW20" s="75"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="70" t="s">
         <v>583</v>
       </c>
-      <c r="AZ20" s="69" t="s">
+      <c r="AZ20" s="70" t="s">
         <v>584</v>
       </c>
       <c r="BA20" s="12"/>
       <c r="BB20" s="1"/>
-      <c r="BC20" s="69" t="s">
+      <c r="BC20" s="70" t="s">
         <v>585</v>
       </c>
-      <c r="BD20" s="69" t="s">
+      <c r="BD20" s="70" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:56" ht="11.25" customHeight="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="82"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="82"/>
-      <c r="AU21" s="82"/>
-      <c r="AV21" s="82"/>
-      <c r="AW21" s="82"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
       <c r="BA21" s="12"/>
       <c r="BB21" s="1"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
     </row>
     <row r="22" spans="1:56" ht="11.25" customHeight="1">
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="86"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="81"/>
+      <c r="AO22" s="81"/>
+      <c r="AP22" s="81"/>
+      <c r="AQ22" s="81"/>
+      <c r="AR22" s="81"/>
+      <c r="AS22" s="81"/>
+      <c r="AT22" s="81"/>
+      <c r="AU22" s="81"/>
+      <c r="AV22" s="81"/>
+      <c r="AW22" s="81"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
       <c r="BA22" s="6"/>
       <c r="BB22" s="1"/>
-      <c r="BC22" s="69"/>
-      <c r="BD22" s="69"/>
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70"/>
     </row>
     <row r="23" spans="1:56" ht="11.25" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="62" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="62" t="s">
         <v>514</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="62" t="s">
         <v>515</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="62" t="s">
         <v>449</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="62" t="s">
         <v>503</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="73" t="s">
         <v>517</v>
       </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="39" t="s">
+      <c r="I23" s="73"/>
+      <c r="J23" s="62" t="s">
         <v>497</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="62" t="s">
         <v>499</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="62" t="s">
         <v>500</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="62" t="s">
         <v>504</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="P23" s="62" t="s">
         <v>506</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="Q23" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="R23" s="62" t="s">
         <v>508</v>
       </c>
-      <c r="S23" s="39" t="s">
+      <c r="S23" s="62" t="s">
         <v>512</v>
       </c>
-      <c r="T23" s="39" t="s">
+      <c r="T23" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="U23" s="39" t="s">
+      <c r="U23" s="62" t="s">
         <v>510</v>
       </c>
-      <c r="V23" s="39" t="s">
+      <c r="V23" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="W23" s="39" t="s">
+      <c r="W23" s="62" t="s">
         <v>519</v>
       </c>
-      <c r="X23" s="39" t="s">
+      <c r="X23" s="62" t="s">
         <v>513</v>
       </c>
-      <c r="Y23" s="39" t="s">
+      <c r="Y23" s="62" t="s">
         <v>518</v>
       </c>
-      <c r="Z23" s="74" t="s">
+      <c r="Z23" s="86" t="s">
         <v>736</v>
       </c>
-      <c r="AA23" s="72" t="s">
+      <c r="AA23" s="73" t="s">
         <v>535</v>
       </c>
-      <c r="AB23" s="72" t="s">
+      <c r="AB23" s="73" t="s">
         <v>537</v>
       </c>
-      <c r="AC23" s="72" t="s">
+      <c r="AC23" s="73" t="s">
         <v>536</v>
       </c>
-      <c r="AD23" s="72" t="s">
+      <c r="AD23" s="73" t="s">
         <v>538</v>
       </c>
-      <c r="AE23" s="72" t="s">
+      <c r="AE23" s="73" t="s">
         <v>539</v>
       </c>
-      <c r="AF23" s="72" t="s">
+      <c r="AF23" s="73" t="s">
         <v>540</v>
       </c>
-      <c r="AG23" s="72" t="s">
+      <c r="AG23" s="73" t="s">
         <v>541</v>
       </c>
-      <c r="AH23" s="72" t="s">
+      <c r="AH23" s="73" t="s">
         <v>542</v>
       </c>
-      <c r="AI23" s="72" t="s">
+      <c r="AI23" s="73" t="s">
         <v>543</v>
       </c>
-      <c r="AJ23" s="76" t="s">
+      <c r="AJ23" s="85" t="s">
         <v>544</v>
       </c>
-      <c r="AK23" s="72" t="s">
+      <c r="AK23" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="AL23" s="72" t="s">
+      <c r="AL23" s="73" t="s">
         <v>546</v>
       </c>
-      <c r="AM23" s="72" t="s">
+      <c r="AM23" s="73" t="s">
         <v>547</v>
       </c>
-      <c r="AN23" s="72" t="s">
+      <c r="AN23" s="73" t="s">
         <v>548</v>
       </c>
-      <c r="AO23" s="72" t="s">
+      <c r="AO23" s="73" t="s">
         <v>549</v>
       </c>
-      <c r="AP23" s="72" t="s">
+      <c r="AP23" s="73" t="s">
         <v>550</v>
       </c>
-      <c r="AQ23" s="72" t="s">
+      <c r="AQ23" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="AR23" s="72" t="s">
+      <c r="AR23" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="AS23" s="72" t="s">
+      <c r="AS23" s="73" t="s">
         <v>553</v>
       </c>
-      <c r="AT23" s="72" t="s">
+      <c r="AT23" s="73" t="s">
         <v>554</v>
       </c>
-      <c r="AU23" s="72" t="s">
+      <c r="AU23" s="73" t="s">
         <v>555</v>
       </c>
-      <c r="AV23" s="72" t="s">
+      <c r="AV23" s="73" t="s">
         <v>556</v>
       </c>
-      <c r="AW23" s="72" t="s">
+      <c r="AW23" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="AX23" s="72" t="s">
+      <c r="AX23" s="73" t="s">
         <v>558</v>
       </c>
-      <c r="AY23" s="72" t="s">
+      <c r="AY23" s="73" t="s">
         <v>559</v>
       </c>
-      <c r="AZ23" s="73" t="s">
+      <c r="AZ23" s="83" t="s">
         <v>560</v>
       </c>
-      <c r="BA23" s="66" t="s">
+      <c r="BA23" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="BB23" s="66" t="s">
+      <c r="BB23" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="BC23" s="73" t="s">
+      <c r="BC23" s="83" t="s">
         <v>562</v>
       </c>
-      <c r="BD23" s="77" t="s">
+      <c r="BD23" s="84" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="11.25" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="73"/>
-      <c r="AZ24" s="73"/>
-      <c r="BA24" s="66"/>
-      <c r="BB24" s="66"/>
-      <c r="BC24" s="73"/>
-      <c r="BD24" s="77"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="85"/>
+      <c r="AK24" s="83"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
+      <c r="AN24" s="83"/>
+      <c r="AO24" s="83"/>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="83"/>
+      <c r="AR24" s="83"/>
+      <c r="AS24" s="83"/>
+      <c r="AT24" s="83"/>
+      <c r="AU24" s="83"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
+      <c r="AY24" s="83"/>
+      <c r="AZ24" s="83"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="83"/>
+      <c r="BD24" s="84"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="76"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="73"/>
-      <c r="AN25" s="73"/>
-      <c r="AO25" s="73"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
-      <c r="AY25" s="73"/>
-      <c r="AZ25" s="73"/>
-      <c r="BA25" s="66"/>
-      <c r="BB25" s="66"/>
-      <c r="BC25" s="73"/>
-      <c r="BD25" s="77"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="85"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="83"/>
+      <c r="AN25" s="83"/>
+      <c r="AO25" s="83"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="83"/>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="83"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="83"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="83"/>
+      <c r="AX25" s="83"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="83"/>
+      <c r="BA25" s="37"/>
+      <c r="BB25" s="37"/>
+      <c r="BC25" s="83"/>
+      <c r="BD25" s="84"/>
     </row>
     <row r="26" spans="1:56">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="73"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="76"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="73"/>
-      <c r="AN26" s="73"/>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="73"/>
-      <c r="AY26" s="73"/>
-      <c r="AZ26" s="73"/>
-      <c r="BA26" s="66"/>
-      <c r="BB26" s="66"/>
-      <c r="BC26" s="73"/>
-      <c r="BD26" s="77"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="83"/>
+      <c r="AF26" s="83"/>
+      <c r="AG26" s="83"/>
+      <c r="AH26" s="83"/>
+      <c r="AI26" s="83"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="83"/>
+      <c r="AL26" s="83"/>
+      <c r="AM26" s="83"/>
+      <c r="AN26" s="83"/>
+      <c r="AO26" s="83"/>
+      <c r="AP26" s="83"/>
+      <c r="AQ26" s="83"/>
+      <c r="AR26" s="83"/>
+      <c r="AS26" s="83"/>
+      <c r="AT26" s="83"/>
+      <c r="AU26" s="83"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="83"/>
+      <c r="AX26" s="83"/>
+      <c r="AY26" s="83"/>
+      <c r="AZ26" s="83"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="83"/>
+      <c r="BD26" s="84"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="76"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="73"/>
-      <c r="AX27" s="73"/>
-      <c r="AY27" s="73"/>
-      <c r="AZ27" s="73"/>
-      <c r="BA27" s="66"/>
-      <c r="BB27" s="66"/>
-      <c r="BC27" s="73"/>
-      <c r="BD27" s="77"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="85"/>
+      <c r="AK27" s="83"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="83"/>
+      <c r="AO27" s="83"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="83"/>
+      <c r="AR27" s="83"/>
+      <c r="AS27" s="83"/>
+      <c r="AT27" s="83"/>
+      <c r="AU27" s="83"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="83"/>
+      <c r="AX27" s="83"/>
+      <c r="AY27" s="83"/>
+      <c r="AZ27" s="83"/>
+      <c r="BA27" s="37"/>
+      <c r="BB27" s="37"/>
+      <c r="BC27" s="83"/>
+      <c r="BD27" s="84"/>
     </row>
     <row r="28" spans="1:56">
       <c r="H28" s="4"/>
@@ -9666,35 +9730,35 @@
       <c r="W28" s="12"/>
       <c r="X28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="73"/>
-      <c r="AZ28" s="73"/>
-      <c r="BA28" s="66"/>
-      <c r="BB28" s="66"/>
-      <c r="BC28" s="73"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="85"/>
+      <c r="AK28" s="83"/>
+      <c r="AL28" s="83"/>
+      <c r="AM28" s="83"/>
+      <c r="AN28" s="83"/>
+      <c r="AO28" s="83"/>
+      <c r="AP28" s="83"/>
+      <c r="AQ28" s="83"/>
+      <c r="AR28" s="83"/>
+      <c r="AS28" s="83"/>
+      <c r="AT28" s="83"/>
+      <c r="AU28" s="83"/>
+      <c r="AV28" s="83"/>
+      <c r="AW28" s="83"/>
+      <c r="AX28" s="83"/>
+      <c r="AY28" s="83"/>
+      <c r="AZ28" s="83"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="83"/>
     </row>
     <row r="29" spans="1:56">
       <c r="C29" s="21" t="s">
@@ -9713,35 +9777,35 @@
       <c r="Z29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="76"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="66"/>
-      <c r="BB29" s="66"/>
-      <c r="BC29" s="73"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="85"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="83"/>
+      <c r="AO29" s="83"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="83"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="83"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="83"/>
     </row>
     <row r="30" spans="1:56" ht="123.75">
       <c r="C30" s="14" t="s">
@@ -13077,42 +13141,24 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AY20:AY22"/>
-    <mergeCell ref="B20:AX22"/>
-    <mergeCell ref="AZ20:AZ22"/>
-    <mergeCell ref="BC20:BC22"/>
-    <mergeCell ref="BD20:BD22"/>
-    <mergeCell ref="AZ23:AZ29"/>
-    <mergeCell ref="BA23:BA29"/>
-    <mergeCell ref="BB23:BB29"/>
-    <mergeCell ref="BC23:BC29"/>
-    <mergeCell ref="BD23:BD27"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AV29"/>
-    <mergeCell ref="AW23:AW29"/>
-    <mergeCell ref="AX23:AX29"/>
-    <mergeCell ref="AY23:AY29"/>
-    <mergeCell ref="AP23:AP29"/>
-    <mergeCell ref="AQ23:AQ29"/>
-    <mergeCell ref="AR23:AR29"/>
-    <mergeCell ref="AS23:AS29"/>
-    <mergeCell ref="AT23:AT29"/>
-    <mergeCell ref="AK23:AK29"/>
-    <mergeCell ref="AL23:AL29"/>
-    <mergeCell ref="AM23:AM29"/>
-    <mergeCell ref="AN23:AN29"/>
-    <mergeCell ref="AO23:AO29"/>
-    <mergeCell ref="AF23:AF29"/>
-    <mergeCell ref="AG23:AG29"/>
-    <mergeCell ref="AH23:AH29"/>
-    <mergeCell ref="AI23:AI29"/>
-    <mergeCell ref="AJ23:AJ29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="AE23:AE29"/>
+    <mergeCell ref="Y23:Y27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="W23:W27"/>
+    <mergeCell ref="Z23:Z27"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="X23:X27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="V23:V27"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="L23:L27"/>
@@ -13121,24 +13167,42 @@
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="H23:I27"/>
-    <mergeCell ref="W23:W27"/>
-    <mergeCell ref="Z23:Z27"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="X23:X27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="V23:V27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AB23:AB29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="AE23:AE29"/>
-    <mergeCell ref="Y23:Y27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="AF23:AF29"/>
+    <mergeCell ref="AG23:AG29"/>
+    <mergeCell ref="AH23:AH29"/>
+    <mergeCell ref="AI23:AI29"/>
+    <mergeCell ref="AJ23:AJ29"/>
+    <mergeCell ref="AK23:AK29"/>
+    <mergeCell ref="AL23:AL29"/>
+    <mergeCell ref="AM23:AM29"/>
+    <mergeCell ref="AN23:AN29"/>
+    <mergeCell ref="AO23:AO29"/>
+    <mergeCell ref="AP23:AP29"/>
+    <mergeCell ref="AQ23:AQ29"/>
+    <mergeCell ref="AR23:AR29"/>
+    <mergeCell ref="AS23:AS29"/>
+    <mergeCell ref="AT23:AT29"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AV29"/>
+    <mergeCell ref="AW23:AW29"/>
+    <mergeCell ref="AX23:AX29"/>
+    <mergeCell ref="AY23:AY29"/>
+    <mergeCell ref="AZ23:AZ29"/>
+    <mergeCell ref="BA23:BA29"/>
+    <mergeCell ref="BB23:BB29"/>
+    <mergeCell ref="BC23:BC29"/>
+    <mergeCell ref="BD23:BD27"/>
+    <mergeCell ref="AY20:AY22"/>
+    <mergeCell ref="B20:AX22"/>
+    <mergeCell ref="AZ20:AZ22"/>
+    <mergeCell ref="BC20:BC22"/>
+    <mergeCell ref="BD20:BD22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13239,10 +13303,10 @@
       <c r="BW1" s="1"/>
     </row>
     <row r="2" spans="1:75" ht="21">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="17" t="s">
         <v>588</v>
       </c>
@@ -13251,12 +13315,12 @@
       <c r="BW2" s="1"/>
     </row>
     <row r="3" spans="1:75" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="17" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -15253,7 +15317,7 @@
       <c r="BE14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BF14" s="99" t="s">
+      <c r="BF14" s="36" t="s">
         <v>3</v>
       </c>
       <c r="BG14" s="12" t="s">
@@ -15474,7 +15538,7 @@
       <c r="BE15" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="BF15" s="99">
+      <c r="BF15" s="36">
         <v>40000</v>
       </c>
       <c r="BG15" s="12" t="s">
@@ -15695,7 +15759,7 @@
       <c r="BE16" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="BF16" s="99">
+      <c r="BF16" s="36">
         <v>40000</v>
       </c>
       <c r="BG16" s="12" t="s">
@@ -15790,303 +15854,303 @@
       <c r="BS17" s="12"/>
     </row>
     <row r="18" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58"/>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="59"/>
-      <c r="BN18" s="69" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="43"/>
+      <c r="AW18" s="43"/>
+      <c r="AX18" s="43"/>
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="43"/>
+      <c r="BA18" s="43"/>
+      <c r="BB18" s="43"/>
+      <c r="BC18" s="43"/>
+      <c r="BD18" s="43"/>
+      <c r="BE18" s="43"/>
+      <c r="BF18" s="43"/>
+      <c r="BG18" s="43"/>
+      <c r="BH18" s="43"/>
+      <c r="BI18" s="43"/>
+      <c r="BJ18" s="43"/>
+      <c r="BK18" s="43"/>
+      <c r="BL18" s="43"/>
+      <c r="BM18" s="44"/>
+      <c r="BN18" s="70" t="s">
         <v>767</v>
       </c>
-      <c r="BO18" s="69" t="s">
+      <c r="BO18" s="70" t="s">
         <v>768</v>
       </c>
-      <c r="BP18" s="69" t="s">
-        <v>855</v>
-      </c>
-      <c r="BQ18" s="69" t="s">
+      <c r="BP18" s="70" t="s">
+        <v>847</v>
+      </c>
+      <c r="BQ18" s="70" t="s">
         <v>585</v>
       </c>
-      <c r="BR18" s="69" t="s">
+      <c r="BR18" s="70" t="s">
         <v>586</v>
       </c>
       <c r="BS18" s="30"/>
-      <c r="BT18" s="87" t="s">
+      <c r="BT18" s="94" t="s">
         <v>822</v>
       </c>
-      <c r="BU18" s="87"/>
+      <c r="BU18" s="94"/>
     </row>
     <row r="19" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="61"/>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="61"/>
-      <c r="AX19" s="61"/>
-      <c r="AY19" s="61"/>
-      <c r="AZ19" s="61"/>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="61"/>
-      <c r="BC19" s="61"/>
-      <c r="BD19" s="61"/>
-      <c r="BE19" s="61"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="61"/>
-      <c r="BI19" s="61"/>
-      <c r="BJ19" s="61"/>
-      <c r="BK19" s="61"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="69"/>
-      <c r="BO19" s="69"/>
-      <c r="BP19" s="69"/>
-      <c r="BQ19" s="69"/>
-      <c r="BR19" s="69"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="46"/>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="46"/>
+      <c r="BA19" s="46"/>
+      <c r="BB19" s="46"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="46"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="46"/>
+      <c r="BI19" s="46"/>
+      <c r="BJ19" s="46"/>
+      <c r="BK19" s="46"/>
+      <c r="BL19" s="46"/>
+      <c r="BM19" s="47"/>
+      <c r="BN19" s="70"/>
+      <c r="BO19" s="70"/>
+      <c r="BP19" s="70"/>
+      <c r="BQ19" s="70"/>
+      <c r="BR19" s="70"/>
       <c r="BS19" s="31"/>
-      <c r="BT19" s="87"/>
-      <c r="BU19" s="87"/>
+      <c r="BT19" s="94"/>
+      <c r="BU19" s="94"/>
     </row>
     <row r="20" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="64"/>
-      <c r="AO20" s="64"/>
-      <c r="AP20" s="64"/>
-      <c r="AQ20" s="64"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="64"/>
-      <c r="AU20" s="64"/>
-      <c r="AV20" s="64"/>
-      <c r="AW20" s="64"/>
-      <c r="AX20" s="64"/>
-      <c r="AY20" s="64"/>
-      <c r="AZ20" s="64"/>
-      <c r="BA20" s="64"/>
-      <c r="BB20" s="64"/>
-      <c r="BC20" s="64"/>
-      <c r="BD20" s="64"/>
-      <c r="BE20" s="64"/>
-      <c r="BF20" s="64"/>
-      <c r="BG20" s="64"/>
-      <c r="BH20" s="64"/>
-      <c r="BI20" s="64"/>
-      <c r="BJ20" s="64"/>
-      <c r="BK20" s="64"/>
-      <c r="BL20" s="64"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="69"/>
-      <c r="BO20" s="69"/>
-      <c r="BP20" s="69"/>
-      <c r="BQ20" s="69"/>
-      <c r="BR20" s="69"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="49"/>
+      <c r="BA20" s="49"/>
+      <c r="BB20" s="49"/>
+      <c r="BC20" s="49"/>
+      <c r="BD20" s="49"/>
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="49"/>
+      <c r="BJ20" s="49"/>
+      <c r="BK20" s="49"/>
+      <c r="BL20" s="49"/>
+      <c r="BM20" s="50"/>
+      <c r="BN20" s="70"/>
+      <c r="BO20" s="70"/>
+      <c r="BP20" s="70"/>
+      <c r="BQ20" s="70"/>
+      <c r="BR20" s="70"/>
       <c r="BS20" s="32"/>
-      <c r="BT20" s="87"/>
-      <c r="BU20" s="87"/>
+      <c r="BT20" s="94"/>
+      <c r="BU20" s="94"/>
     </row>
     <row r="21" spans="1:73" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="73" t="s">
         <v>676</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="73" t="s">
         <v>677</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="73" t="s">
         <v>678</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="73" t="s">
         <v>679</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="73" t="s">
         <v>680</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="73" t="s">
         <v>682</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="73" t="s">
         <v>683</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="L21" s="73" t="s">
         <v>687</v>
       </c>
-      <c r="M21" s="72" t="s">
+      <c r="M21" s="73" t="s">
         <v>681</v>
       </c>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="73" t="s">
         <v>684</v>
       </c>
-      <c r="O21" s="72" t="s">
+      <c r="O21" s="73" t="s">
         <v>685</v>
       </c>
-      <c r="P21" s="72" t="s">
+      <c r="P21" s="73" t="s">
         <v>686</v>
       </c>
-      <c r="Q21" s="72" t="s">
+      <c r="Q21" s="73" t="s">
         <v>688</v>
       </c>
-      <c r="R21" s="72" t="s">
+      <c r="R21" s="73" t="s">
         <v>689</v>
       </c>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="T21" s="72" t="s">
+      <c r="T21" s="73" t="s">
         <v>691</v>
       </c>
-      <c r="U21" s="72" t="s">
+      <c r="U21" s="73" t="s">
         <v>692</v>
       </c>
       <c r="V21" s="88" t="s">
@@ -16095,7 +16159,7 @@
       <c r="W21" s="88" t="s">
         <v>748</v>
       </c>
-      <c r="X21" s="72" t="s">
+      <c r="X21" s="73" t="s">
         <v>757</v>
       </c>
       <c r="Y21" s="88" t="s">
@@ -16104,43 +16168,43 @@
       <c r="Z21" s="88" t="s">
         <v>750</v>
       </c>
-      <c r="AA21" s="72" t="s">
+      <c r="AA21" s="73" t="s">
         <v>747</v>
       </c>
-      <c r="AB21" s="90" t="s">
+      <c r="AB21" s="98" t="s">
         <v>724</v>
       </c>
-      <c r="AC21" s="72" t="s">
+      <c r="AC21" s="73" t="s">
         <v>720</v>
       </c>
-      <c r="AD21" s="72" t="s">
+      <c r="AD21" s="73" t="s">
         <v>721</v>
       </c>
-      <c r="AE21" s="72" t="s">
+      <c r="AE21" s="73" t="s">
         <v>753</v>
       </c>
-      <c r="AF21" s="72" t="s">
+      <c r="AF21" s="73" t="s">
         <v>722</v>
       </c>
-      <c r="AG21" s="72" t="s">
+      <c r="AG21" s="73" t="s">
         <v>723</v>
       </c>
-      <c r="AH21" s="72" t="s">
+      <c r="AH21" s="73" t="s">
         <v>725</v>
       </c>
-      <c r="AI21" s="72" t="s">
+      <c r="AI21" s="73" t="s">
         <v>726</v>
       </c>
-      <c r="AJ21" s="72" t="s">
+      <c r="AJ21" s="73" t="s">
         <v>727</v>
       </c>
-      <c r="AK21" s="72" t="s">
+      <c r="AK21" s="73" t="s">
         <v>728</v>
       </c>
-      <c r="AL21" s="72" t="s">
+      <c r="AL21" s="73" t="s">
         <v>755</v>
       </c>
-      <c r="AM21" s="72" t="s">
+      <c r="AM21" s="73" t="s">
         <v>760</v>
       </c>
       <c r="AN21" s="88" t="s">
@@ -16149,16 +16213,16 @@
       <c r="AO21" s="88" t="s">
         <v>828</v>
       </c>
-      <c r="AP21" s="72" t="s">
+      <c r="AP21" s="73" t="s">
         <v>729</v>
       </c>
-      <c r="AQ21" s="72" t="s">
+      <c r="AQ21" s="73" t="s">
         <v>730</v>
       </c>
-      <c r="AR21" s="72" t="s">
+      <c r="AR21" s="73" t="s">
         <v>754</v>
       </c>
-      <c r="AS21" s="72" t="s">
+      <c r="AS21" s="73" t="s">
         <v>761</v>
       </c>
       <c r="AT21" s="88" t="s">
@@ -16167,13 +16231,13 @@
       <c r="AU21" s="88" t="s">
         <v>826</v>
       </c>
-      <c r="AV21" s="72" t="s">
+      <c r="AV21" s="73" t="s">
         <v>731</v>
       </c>
-      <c r="AW21" s="72" t="s">
+      <c r="AW21" s="73" t="s">
         <v>732</v>
       </c>
-      <c r="AX21" s="72" t="s">
+      <c r="AX21" s="73" t="s">
         <v>756</v>
       </c>
       <c r="AY21" s="88" t="s">
@@ -16182,363 +16246,363 @@
       <c r="AZ21" s="88" t="s">
         <v>759</v>
       </c>
-      <c r="BA21" s="72" t="s">
+      <c r="BA21" s="73" t="s">
         <v>734</v>
       </c>
-      <c r="BB21" s="72" t="s">
+      <c r="BB21" s="73" t="s">
         <v>733</v>
       </c>
-      <c r="BC21" s="72" t="s">
+      <c r="BC21" s="73" t="s">
         <v>736</v>
       </c>
-      <c r="BD21" s="72" t="s">
+      <c r="BD21" s="73" t="s">
         <v>746</v>
       </c>
-      <c r="BE21" s="72" t="s">
+      <c r="BE21" s="73" t="s">
         <v>763</v>
       </c>
-      <c r="BF21" s="72" t="s">
+      <c r="BF21" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="BG21" s="72" t="s">
+      <c r="BG21" s="73" t="s">
         <v>535</v>
       </c>
-      <c r="BH21" s="72" t="s">
+      <c r="BH21" s="73" t="s">
         <v>751</v>
       </c>
-      <c r="BI21" s="72" t="s">
+      <c r="BI21" s="73" t="s">
         <v>752</v>
       </c>
-      <c r="BJ21" s="95" t="s">
+      <c r="BJ21" s="93" t="s">
         <v>787</v>
       </c>
-      <c r="BK21" s="98" t="s">
+      <c r="BK21" s="96" t="s">
         <v>787</v>
       </c>
-      <c r="BL21" s="94" t="s">
+      <c r="BL21" s="92" t="s">
         <v>819</v>
       </c>
       <c r="BM21" s="34"/>
-      <c r="BN21" s="73" t="s">
+      <c r="BN21" s="83" t="s">
         <v>766</v>
       </c>
-      <c r="BO21" s="73" t="s">
+      <c r="BO21" s="83" t="s">
         <v>765</v>
       </c>
-      <c r="BP21" s="73" t="s">
+      <c r="BP21" s="83" t="s">
         <v>764</v>
       </c>
-      <c r="BQ21" s="73" t="s">
+      <c r="BQ21" s="83" t="s">
         <v>562</v>
       </c>
-      <c r="BR21" s="77" t="s">
+      <c r="BR21" s="84" t="s">
         <v>563</v>
       </c>
-      <c r="BS21" s="72" t="s">
+      <c r="BS21" s="73" t="s">
         <v>786</v>
       </c>
-      <c r="BT21" s="87"/>
-      <c r="BU21" s="87"/>
+      <c r="BT21" s="94"/>
+      <c r="BU21" s="94"/>
     </row>
     <row r="22" spans="1:73" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
       <c r="V22" s="89"/>
       <c r="W22" s="89"/>
-      <c r="X22" s="73"/>
+      <c r="X22" s="83"/>
       <c r="Y22" s="89"/>
       <c r="Z22" s="89"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83"/>
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="83"/>
       <c r="AN22" s="89"/>
       <c r="AO22" s="89"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="83"/>
+      <c r="AR22" s="83"/>
+      <c r="AS22" s="83"/>
       <c r="AT22" s="89"/>
       <c r="AU22" s="89"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="73"/>
+      <c r="AV22" s="83"/>
+      <c r="AW22" s="83"/>
+      <c r="AX22" s="83"/>
       <c r="AY22" s="89"/>
       <c r="AZ22" s="89"/>
-      <c r="BA22" s="73"/>
-      <c r="BB22" s="73"/>
-      <c r="BC22" s="73"/>
-      <c r="BD22" s="73"/>
-      <c r="BE22" s="73"/>
-      <c r="BF22" s="73"/>
-      <c r="BG22" s="73"/>
-      <c r="BH22" s="73"/>
-      <c r="BI22" s="73"/>
-      <c r="BJ22" s="92"/>
-      <c r="BK22" s="93"/>
-      <c r="BL22" s="94"/>
+      <c r="BA22" s="83"/>
+      <c r="BB22" s="83"/>
+      <c r="BC22" s="83"/>
+      <c r="BD22" s="83"/>
+      <c r="BE22" s="83"/>
+      <c r="BF22" s="83"/>
+      <c r="BG22" s="83"/>
+      <c r="BH22" s="83"/>
+      <c r="BI22" s="83"/>
+      <c r="BJ22" s="95"/>
+      <c r="BK22" s="97"/>
+      <c r="BL22" s="92"/>
       <c r="BM22" s="34"/>
-      <c r="BN22" s="73"/>
-      <c r="BO22" s="73"/>
-      <c r="BP22" s="73"/>
-      <c r="BQ22" s="73"/>
-      <c r="BR22" s="77"/>
-      <c r="BS22" s="73"/>
-      <c r="BT22" s="87"/>
-      <c r="BU22" s="87"/>
+      <c r="BN22" s="83"/>
+      <c r="BO22" s="83"/>
+      <c r="BP22" s="83"/>
+      <c r="BQ22" s="83"/>
+      <c r="BR22" s="84"/>
+      <c r="BS22" s="83"/>
+      <c r="BT22" s="94"/>
+      <c r="BU22" s="94"/>
     </row>
     <row r="23" spans="1:73" s="29" customFormat="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
       <c r="V23" s="89"/>
       <c r="W23" s="89"/>
-      <c r="X23" s="73"/>
+      <c r="X23" s="83"/>
       <c r="Y23" s="89"/>
       <c r="Z23" s="89"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="83"/>
       <c r="AN23" s="89"/>
       <c r="AO23" s="89"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="83"/>
+      <c r="AR23" s="83"/>
+      <c r="AS23" s="83"/>
       <c r="AT23" s="89"/>
       <c r="AU23" s="89"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
       <c r="AY23" s="89"/>
       <c r="AZ23" s="89"/>
-      <c r="BA23" s="73"/>
-      <c r="BB23" s="73"/>
-      <c r="BC23" s="73"/>
-      <c r="BD23" s="73"/>
-      <c r="BE23" s="73"/>
-      <c r="BF23" s="73"/>
-      <c r="BG23" s="73"/>
-      <c r="BH23" s="73"/>
-      <c r="BI23" s="73"/>
-      <c r="BJ23" s="92"/>
-      <c r="BK23" s="93"/>
-      <c r="BL23" s="94"/>
+      <c r="BA23" s="83"/>
+      <c r="BB23" s="83"/>
+      <c r="BC23" s="83"/>
+      <c r="BD23" s="83"/>
+      <c r="BE23" s="83"/>
+      <c r="BF23" s="83"/>
+      <c r="BG23" s="83"/>
+      <c r="BH23" s="83"/>
+      <c r="BI23" s="83"/>
+      <c r="BJ23" s="95"/>
+      <c r="BK23" s="97"/>
+      <c r="BL23" s="92"/>
       <c r="BM23" s="34"/>
-      <c r="BN23" s="73"/>
-      <c r="BO23" s="73"/>
-      <c r="BP23" s="73"/>
-      <c r="BQ23" s="73"/>
-      <c r="BR23" s="77"/>
-      <c r="BS23" s="73"/>
-      <c r="BT23" s="87"/>
-      <c r="BU23" s="87"/>
+      <c r="BN23" s="83"/>
+      <c r="BO23" s="83"/>
+      <c r="BP23" s="83"/>
+      <c r="BQ23" s="83"/>
+      <c r="BR23" s="84"/>
+      <c r="BS23" s="83"/>
+      <c r="BT23" s="94"/>
+      <c r="BU23" s="94"/>
     </row>
     <row r="24" spans="1:73" s="29" customFormat="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
       <c r="V24" s="89"/>
       <c r="W24" s="89"/>
-      <c r="X24" s="73"/>
+      <c r="X24" s="83"/>
       <c r="Y24" s="89"/>
       <c r="Z24" s="89"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="91"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+      <c r="AK24" s="83"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="83"/>
       <c r="AN24" s="89"/>
       <c r="AO24" s="89"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="83"/>
+      <c r="AR24" s="83"/>
+      <c r="AS24" s="83"/>
       <c r="AT24" s="89"/>
       <c r="AU24" s="89"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
       <c r="AY24" s="89"/>
       <c r="AZ24" s="89"/>
-      <c r="BA24" s="73"/>
-      <c r="BB24" s="73"/>
-      <c r="BC24" s="73"/>
-      <c r="BD24" s="73"/>
-      <c r="BE24" s="73"/>
-      <c r="BF24" s="73"/>
-      <c r="BG24" s="73"/>
-      <c r="BH24" s="73"/>
-      <c r="BI24" s="73"/>
-      <c r="BJ24" s="92"/>
-      <c r="BK24" s="93"/>
-      <c r="BL24" s="94"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
+      <c r="BC24" s="83"/>
+      <c r="BD24" s="83"/>
+      <c r="BE24" s="83"/>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="83"/>
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="83"/>
+      <c r="BJ24" s="95"/>
+      <c r="BK24" s="97"/>
+      <c r="BL24" s="92"/>
       <c r="BM24" s="34"/>
-      <c r="BN24" s="73"/>
-      <c r="BO24" s="73"/>
-      <c r="BP24" s="73"/>
-      <c r="BQ24" s="73"/>
-      <c r="BR24" s="77"/>
-      <c r="BS24" s="73"/>
-      <c r="BT24" s="87"/>
-      <c r="BU24" s="87"/>
+      <c r="BN24" s="83"/>
+      <c r="BO24" s="83"/>
+      <c r="BP24" s="83"/>
+      <c r="BQ24" s="83"/>
+      <c r="BR24" s="84"/>
+      <c r="BS24" s="83"/>
+      <c r="BT24" s="94"/>
+      <c r="BU24" s="94"/>
     </row>
     <row r="25" spans="1:73" s="29" customFormat="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
       <c r="V25" s="89"/>
       <c r="W25" s="89"/>
-      <c r="X25" s="73"/>
+      <c r="X25" s="83"/>
       <c r="Y25" s="89"/>
       <c r="Z25" s="89"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="91"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="73"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="83"/>
       <c r="AN25" s="89"/>
       <c r="AO25" s="89"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="83"/>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="83"/>
       <c r="AT25" s="89"/>
       <c r="AU25" s="89"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="83"/>
+      <c r="AX25" s="83"/>
       <c r="AY25" s="89"/>
       <c r="AZ25" s="89"/>
-      <c r="BA25" s="73"/>
-      <c r="BB25" s="73"/>
-      <c r="BC25" s="73"/>
-      <c r="BD25" s="73"/>
-      <c r="BE25" s="73"/>
-      <c r="BF25" s="73"/>
-      <c r="BG25" s="73"/>
-      <c r="BH25" s="73"/>
-      <c r="BI25" s="73"/>
-      <c r="BJ25" s="92"/>
-      <c r="BK25" s="93"/>
-      <c r="BL25" s="94"/>
+      <c r="BA25" s="83"/>
+      <c r="BB25" s="83"/>
+      <c r="BC25" s="83"/>
+      <c r="BD25" s="83"/>
+      <c r="BE25" s="83"/>
+      <c r="BF25" s="83"/>
+      <c r="BG25" s="83"/>
+      <c r="BH25" s="83"/>
+      <c r="BI25" s="83"/>
+      <c r="BJ25" s="95"/>
+      <c r="BK25" s="97"/>
+      <c r="BL25" s="92"/>
       <c r="BM25" s="34"/>
-      <c r="BN25" s="73"/>
-      <c r="BO25" s="73"/>
-      <c r="BP25" s="73"/>
-      <c r="BQ25" s="73"/>
-      <c r="BR25" s="77"/>
-      <c r="BS25" s="73"/>
-      <c r="BT25" s="87"/>
-      <c r="BU25" s="87"/>
+      <c r="BN25" s="83"/>
+      <c r="BO25" s="83"/>
+      <c r="BP25" s="83"/>
+      <c r="BQ25" s="83"/>
+      <c r="BR25" s="84"/>
+      <c r="BS25" s="83"/>
+      <c r="BT25" s="94"/>
+      <c r="BU25" s="94"/>
     </row>
     <row r="26" spans="1:73" ht="11.25" customHeight="1">
       <c r="E26" s="1"/>
@@ -16574,7 +16638,7 @@
       <c r="BF26" s="1"/>
       <c r="BI26" s="6"/>
       <c r="BJ26" s="12"/>
-      <c r="BL26" s="94" t="s">
+      <c r="BL26" s="92" t="s">
         <v>820</v>
       </c>
       <c r="BN26" s="1"/>
@@ -16598,10 +16662,10 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="96" t="s">
+      <c r="Y27" s="90" t="s">
         <v>823</v>
       </c>
-      <c r="Z27" s="97" t="s">
+      <c r="Z27" s="91" t="s">
         <v>824</v>
       </c>
       <c r="AA27" s="1"/>
@@ -16611,27 +16675,27 @@
       <c r="AI27" s="12"/>
       <c r="AJ27" s="1"/>
       <c r="AM27" s="12"/>
-      <c r="AN27" s="96" t="s">
+      <c r="AN27" s="90" t="s">
         <v>823</v>
       </c>
-      <c r="AO27" s="97" t="s">
+      <c r="AO27" s="91" t="s">
         <v>824</v>
       </c>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
-      <c r="AT27" s="96" t="s">
+      <c r="AT27" s="90" t="s">
         <v>823</v>
       </c>
-      <c r="AU27" s="97" t="s">
+      <c r="AU27" s="91" t="s">
         <v>824</v>
       </c>
       <c r="AV27" s="12"/>
       <c r="AW27" s="12"/>
       <c r="AX27" s="12"/>
-      <c r="AY27" s="96" t="s">
+      <c r="AY27" s="90" t="s">
         <v>823</v>
       </c>
-      <c r="AZ27" s="97" t="s">
+      <c r="AZ27" s="91" t="s">
         <v>824</v>
       </c>
       <c r="BA27" s="6"/>
@@ -16644,7 +16708,7 @@
       <c r="BJ27" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="BL27" s="94"/>
+      <c r="BL27" s="92"/>
       <c r="BN27" s="1"/>
       <c r="BO27" s="4"/>
       <c r="BP27" s="6"/>
@@ -16666,8 +16730,8 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="97"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="91"/>
       <c r="AD28" s="1"/>
       <c r="AG28" s="12"/>
       <c r="AH28" s="12"/>
@@ -16675,17 +16739,17 @@
       <c r="AJ28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="6"/>
-      <c r="AN28" s="96"/>
-      <c r="AO28" s="97"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="91"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="6"/>
-      <c r="AT28" s="96"/>
-      <c r="AU28" s="97"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="91"/>
       <c r="AV28" s="12"/>
       <c r="AW28" s="12"/>
       <c r="AX28" s="12"/>
-      <c r="AY28" s="96"/>
-      <c r="AZ28" s="97"/>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="91"/>
       <c r="BA28" s="6"/>
       <c r="BB28" s="6"/>
       <c r="BC28" s="24" t="s">
@@ -16694,7 +16758,7 @@
       <c r="BF28" s="1"/>
       <c r="BI28" s="6"/>
       <c r="BJ28" s="12"/>
-      <c r="BL28" s="94"/>
+      <c r="BL28" s="92"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="4"/>
       <c r="BP28" s="6"/>
@@ -16735,7 +16799,7 @@
       <c r="BF29" s="1"/>
       <c r="BI29" s="6"/>
       <c r="BJ29" s="12"/>
-      <c r="BL29" s="94" t="s">
+      <c r="BL29" s="92" t="s">
         <v>821</v>
       </c>
       <c r="BN29" s="1"/>
@@ -16778,7 +16842,7 @@
       <c r="BF30" s="1"/>
       <c r="BI30" s="6"/>
       <c r="BJ30" s="12"/>
-      <c r="BL30" s="94"/>
+      <c r="BL30" s="92"/>
       <c r="BN30" s="1"/>
       <c r="BO30" s="4"/>
       <c r="BP30" s="6"/>
@@ -16819,7 +16883,7 @@
       <c r="BF31" s="1"/>
       <c r="BI31" s="6"/>
       <c r="BJ31" s="12"/>
-      <c r="BL31" s="94"/>
+      <c r="BL31" s="92"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="4"/>
       <c r="BP31" s="6"/>
@@ -16860,7 +16924,7 @@
       <c r="BF32" s="1"/>
       <c r="BI32" s="6"/>
       <c r="BJ32" s="12"/>
-      <c r="BL32" s="94"/>
+      <c r="BL32" s="92"/>
       <c r="BN32" s="1"/>
       <c r="BO32" s="4"/>
       <c r="BP32" s="6"/>
@@ -16901,7 +16965,7 @@
       <c r="BF33" s="1"/>
       <c r="BI33" s="6"/>
       <c r="BJ33" s="12"/>
-      <c r="BL33" s="95"/>
+      <c r="BL33" s="93"/>
       <c r="BN33" s="1"/>
       <c r="BO33" s="4"/>
       <c r="BP33" s="6"/>
@@ -17553,18 +17617,59 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AU21:AU25"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AU27:AU28"/>
-    <mergeCell ref="AN21:AN25"/>
-    <mergeCell ref="AO21:AO25"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AO27:AO28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AY27:AY28"/>
-    <mergeCell ref="AZ27:AZ28"/>
-    <mergeCell ref="AT21:AT25"/>
+    <mergeCell ref="BL21:BL25"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="BQ18:BQ20"/>
+    <mergeCell ref="BQ21:BQ25"/>
+    <mergeCell ref="BR18:BR20"/>
+    <mergeCell ref="BR21:BR25"/>
+    <mergeCell ref="BP21:BP25"/>
+    <mergeCell ref="BO21:BO25"/>
+    <mergeCell ref="BN21:BN25"/>
+    <mergeCell ref="BN18:BN20"/>
+    <mergeCell ref="BO18:BO20"/>
+    <mergeCell ref="BP18:BP20"/>
+    <mergeCell ref="X21:X25"/>
+    <mergeCell ref="AY21:AY25"/>
+    <mergeCell ref="AZ21:AZ25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="W21:W25"/>
+    <mergeCell ref="AF21:AF25"/>
+    <mergeCell ref="AG21:AG25"/>
+    <mergeCell ref="AC21:AC25"/>
+    <mergeCell ref="AD21:AD25"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="BS21:BS25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="Z21:Z25"/>
+    <mergeCell ref="AA21:AA25"/>
+    <mergeCell ref="BJ21:BJ25"/>
+    <mergeCell ref="BK21:BK25"/>
+    <mergeCell ref="BI21:BI25"/>
+    <mergeCell ref="BF21:BF25"/>
+    <mergeCell ref="BE21:BE25"/>
+    <mergeCell ref="BB21:BB25"/>
+    <mergeCell ref="BA21:BA25"/>
+    <mergeCell ref="BG21:BG25"/>
+    <mergeCell ref="BH21:BH25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="Q21:Q25"/>
+    <mergeCell ref="R21:R25"/>
     <mergeCell ref="BL26:BL28"/>
     <mergeCell ref="BL29:BL33"/>
     <mergeCell ref="BT18:BU25"/>
@@ -17581,67 +17686,26 @@
     <mergeCell ref="AQ21:AQ25"/>
     <mergeCell ref="AV21:AV25"/>
     <mergeCell ref="AW21:AW25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AY27:AY28"/>
+    <mergeCell ref="AZ27:AZ28"/>
+    <mergeCell ref="AT21:AT25"/>
     <mergeCell ref="AH21:AH25"/>
     <mergeCell ref="AI21:AI25"/>
     <mergeCell ref="AM21:AM25"/>
     <mergeCell ref="AS21:AS25"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="Q21:Q25"/>
-    <mergeCell ref="R21:R25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="BS21:BS25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="Z21:Z25"/>
-    <mergeCell ref="AA21:AA25"/>
-    <mergeCell ref="BJ21:BJ25"/>
-    <mergeCell ref="BK21:BK25"/>
-    <mergeCell ref="BI21:BI25"/>
-    <mergeCell ref="BF21:BF25"/>
-    <mergeCell ref="BE21:BE25"/>
-    <mergeCell ref="BB21:BB25"/>
-    <mergeCell ref="BA21:BA25"/>
-    <mergeCell ref="BG21:BG25"/>
-    <mergeCell ref="BH21:BH25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="E21:E25"/>
     <mergeCell ref="AE21:AE25"/>
     <mergeCell ref="AR21:AR25"/>
     <mergeCell ref="AL21:AL25"/>
     <mergeCell ref="AX21:AX25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="W21:W25"/>
-    <mergeCell ref="AF21:AF25"/>
-    <mergeCell ref="AG21:AG25"/>
-    <mergeCell ref="AC21:AC25"/>
-    <mergeCell ref="AD21:AD25"/>
-    <mergeCell ref="AB21:AB25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="BL21:BL25"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="BQ18:BQ20"/>
-    <mergeCell ref="BQ21:BQ25"/>
-    <mergeCell ref="BR18:BR20"/>
-    <mergeCell ref="BR21:BR25"/>
-    <mergeCell ref="BP21:BP25"/>
-    <mergeCell ref="BO21:BO25"/>
-    <mergeCell ref="BN21:BN25"/>
-    <mergeCell ref="BN18:BN20"/>
-    <mergeCell ref="BO18:BO20"/>
-    <mergeCell ref="BP18:BP20"/>
-    <mergeCell ref="X21:X25"/>
-    <mergeCell ref="AY21:AY25"/>
-    <mergeCell ref="AZ21:AZ25"/>
+    <mergeCell ref="AU21:AU25"/>
+    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AU27:AU28"/>
+    <mergeCell ref="AN21:AN25"/>
+    <mergeCell ref="AO21:AO25"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AO27:AO28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17653,20 +17717,20 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BW30"/>
+  <dimension ref="A1:BW31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
@@ -17742,10 +17806,10 @@
       <c r="BW1" s="1"/>
     </row>
     <row r="2" spans="1:75" ht="21">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="17" t="s">
         <v>830</v>
       </c>
@@ -17754,12 +17818,12 @@
       <c r="BW2" s="1"/>
     </row>
     <row r="3" spans="1:75" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="17" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -17817,23 +17881,23 @@
       <c r="BU5" s="12"/>
     </row>
     <row r="6" spans="1:75">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -17867,7 +17931,7 @@
       <c r="BF6" s="1"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="12"/>
-      <c r="BL6" s="94" t="s">
+      <c r="BL6" s="92" t="s">
         <v>821</v>
       </c>
       <c r="BN6" s="1"/>
@@ -17877,23 +17941,23 @@
       <c r="BS6" s="6"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -17927,7 +17991,7 @@
       <c r="BF7" s="1"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="12"/>
-      <c r="BL7" s="94"/>
+      <c r="BL7" s="92"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="4"/>
       <c r="BP7" s="6"/>
@@ -17936,22 +18000,22 @@
     </row>
     <row r="8" spans="1:75">
       <c r="A8" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>839</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -17985,7 +18049,7 @@
       <c r="BF8" s="1"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="12"/>
-      <c r="BL8" s="94"/>
+      <c r="BL8" s="92"/>
       <c r="BN8" s="1"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="6"/>
@@ -17994,22 +18058,22 @@
     </row>
     <row r="9" spans="1:75">
       <c r="A9" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>842</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -18043,7 +18107,7 @@
       <c r="BF9" s="1"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="12"/>
-      <c r="BL9" s="94"/>
+      <c r="BL9" s="92"/>
       <c r="BN9" s="1"/>
       <c r="BO9" s="4"/>
       <c r="BP9" s="6"/>
@@ -18052,22 +18116,22 @@
     </row>
     <row r="10" spans="1:75" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>845</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -18097,7 +18161,7 @@
       <c r="BI10" s="6"/>
       <c r="BJ10" s="12"/>
       <c r="BK10" s="6"/>
-      <c r="BL10" s="95"/>
+      <c r="BL10" s="93"/>
       <c r="BM10" s="12"/>
       <c r="BO10" s="4"/>
       <c r="BP10" s="6"/>
@@ -18107,22 +18171,22 @@
     </row>
     <row r="11" spans="1:75" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>836</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -18161,22 +18225,22 @@
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>850</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -18215,22 +18279,22 @@
     </row>
     <row r="13" spans="1:75" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>650</v>
+        <v>846</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>850</v>
+        <v>709</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -18268,24 +18332,6 @@
       <c r="BW13" s="6"/>
     </row>
     <row r="14" spans="1:75" s="1" customFormat="1">
-      <c r="A14" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>806</v>
-      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -18304,6 +18350,7 @@
       <c r="AV14" s="12"/>
       <c r="AW14" s="12"/>
       <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
       <c r="BA14" s="6"/>
       <c r="BB14" s="6"/>
       <c r="BC14" s="12"/>
@@ -18322,6 +18369,20 @@
       <c r="BW14" s="6"/>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1">
+      <c r="A15" s="100" t="s">
+        <v>859</v>
+      </c>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="70" t="s">
+        <v>861</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>863</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>863</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -18359,43 +18420,55 @@
       <c r="BW15" s="6"/>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1">
-      <c r="C16" s="6"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AG16" s="12"/>
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="12"/>
-      <c r="AV16" s="6"/>
+      <c r="AK16" s="12"/>
+      <c r="AM16" s="6"/>
+      <c r="AP16" s="12"/>
+      <c r="AS16" s="6"/>
+      <c r="AV16" s="12"/>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12"/>
       <c r="AY16" s="12"/>
+      <c r="BA16" s="6"/>
       <c r="BB16" s="6"/>
-      <c r="BC16" s="6"/>
-      <c r="BD16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="6"/>
       <c r="BE16" s="6"/>
-      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
       <c r="BH16" s="6"/>
       <c r="BI16" s="6"/>
-      <c r="BJ16" s="6"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="6"/>
-      <c r="BN16" s="12"/>
-      <c r="BP16" s="4"/>
-      <c r="BQ16" s="6"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="6"/>
+      <c r="BM16" s="12"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="6"/>
+      <c r="BS16" s="6"/>
       <c r="BV16" s="6"/>
       <c r="BW16" s="6"/>
     </row>
-    <row r="17" spans="3:75" s="1" customFormat="1">
-      <c r="C17" s="6"/>
+    <row r="17" spans="1:75" s="1" customFormat="1">
+      <c r="A17" s="106"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -18430,8 +18503,25 @@
       <c r="BV17" s="6"/>
       <c r="BW17" s="6"/>
     </row>
-    <row r="18" spans="3:75" s="1" customFormat="1">
-      <c r="C18" s="6"/>
+    <row r="18" spans="1:75" s="1" customFormat="1">
+      <c r="A18" s="38" t="s">
+        <v>850</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>858</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>860</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>864</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -18466,8 +18556,13 @@
       <c r="BV18" s="6"/>
       <c r="BW18" s="6"/>
     </row>
-    <row r="19" spans="3:75" s="1" customFormat="1">
-      <c r="C19" s="6"/>
+    <row r="19" spans="1:75" s="1" customFormat="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -18502,8 +18597,13 @@
       <c r="BV19" s="6"/>
       <c r="BW19" s="6"/>
     </row>
-    <row r="20" spans="3:75" s="1" customFormat="1">
-      <c r="C20" s="6"/>
+    <row r="20" spans="1:75" s="1" customFormat="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -18538,8 +18638,13 @@
       <c r="BV20" s="6"/>
       <c r="BW20" s="6"/>
     </row>
-    <row r="21" spans="3:75" s="1" customFormat="1">
-      <c r="C21" s="6"/>
+    <row r="21" spans="1:75" s="1" customFormat="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -18574,7 +18679,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
     </row>
-    <row r="22" spans="3:75" s="1" customFormat="1">
+    <row r="22" spans="1:75" s="1" customFormat="1">
       <c r="C22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -18610,7 +18715,7 @@
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
     </row>
-    <row r="23" spans="3:75" s="1" customFormat="1">
+    <row r="23" spans="1:75" s="1" customFormat="1">
       <c r="C23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -18646,8 +18751,13 @@
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
     </row>
-    <row r="24" spans="3:75" s="1" customFormat="1">
-      <c r="C24" s="6"/>
+    <row r="24" spans="1:75" s="1" customFormat="1">
+      <c r="A24" s="109" t="s">
+        <v>866</v>
+      </c>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -18682,7 +18792,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
     </row>
-    <row r="25" spans="3:75" s="1" customFormat="1">
+    <row r="25" spans="1:75" s="1" customFormat="1">
       <c r="C25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -18702,7 +18812,6 @@
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="12"/>
-      <c r="AZ25" s="12"/>
       <c r="BB25" s="6"/>
       <c r="BC25" s="6"/>
       <c r="BD25" s="12"/>
@@ -18719,31 +18828,79 @@
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
     </row>
-    <row r="26" spans="3:75">
-      <c r="BV26" s="1"/>
-      <c r="BW26" s="1"/>
-    </row>
-    <row r="27" spans="3:75">
+    <row r="26" spans="1:75" s="1" customFormat="1">
+      <c r="C26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="12"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="12"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="6"/>
+      <c r="BF26" s="6"/>
+      <c r="BH26" s="6"/>
+      <c r="BI26" s="6"/>
+      <c r="BJ26" s="6"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="6"/>
+      <c r="BN26" s="12"/>
+      <c r="BP26" s="4"/>
+      <c r="BQ26" s="6"/>
+      <c r="BV26" s="6"/>
+      <c r="BW26" s="6"/>
+    </row>
+    <row r="27" spans="1:75">
       <c r="BV27" s="1"/>
       <c r="BW27" s="1"/>
     </row>
-    <row r="28" spans="3:75">
+    <row r="28" spans="1:75">
       <c r="BV28" s="1"/>
       <c r="BW28" s="1"/>
     </row>
-    <row r="29" spans="3:75">
+    <row r="29" spans="1:75">
       <c r="BV29" s="1"/>
       <c r="BW29" s="1"/>
     </row>
-    <row r="30" spans="3:75">
+    <row r="30" spans="1:75">
       <c r="BV30" s="1"/>
       <c r="BW30" s="1"/>
     </row>
+    <row r="31" spans="1:75">
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="BL6:BL10"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A15:C17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18755,18 +18912,18 @@
   <dimension ref="C3:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F8" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:13">
-      <c r="C3" s="27" t="s">
-        <v>4</v>
+      <c r="C3" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE(C3,",")</f>
-        <v>CD_CIA,</v>
+        <v>CD_ITEM,</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>638</v>
@@ -18777,12 +18934,12 @@
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="27" t="s">
-        <v>374</v>
+      <c r="C4" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" si="0">CONCATENATE(C4,",")</f>
-        <v>NR_REFERENCIA_FISCAL,</v>
+        <v>DT_ULTIMO_RECEBIMENTO,</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>641</v>
@@ -18793,12 +18950,12 @@
       </c>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="27" t="s">
-        <v>339</v>
+      <c r="C5" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF_RECEBIDA,</v>
+        <v>VL_CMV,</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>645</v>
@@ -18809,12 +18966,12 @@
       </c>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="27" t="s">
-        <v>589</v>
+      <c r="C6" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_ITEM_NF_RECEBIDA,</v>
+        <v>QT_ULTIMO_RECEBIMENTO,</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>658</v>
@@ -18825,12 +18982,12 @@
       </c>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="27" t="s">
-        <v>247</v>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>CD_ITEM,</v>
+        <v>CD_FILIAL,</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>671</v>
@@ -18841,12 +18998,12 @@
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="27" t="s">
-        <v>592</v>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>QT_NOMINAL_NF,</v>
+        <v>CD_UNIDADE_EMPRESARIAL,</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>737</v>

--- a/Documentação/Planilhas/Conferencia_NFR.xlsx
+++ b/Documentação/Planilhas/Conferencia_NFR.xlsx
@@ -2818,9 +2818,6 @@
     <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Na aba "Transações", pegar a última informação da coluna Data Transação</t>
   </si>
   <si>
-    <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Na aba "Transações", pegar o valor da coluna da coluna MAUC [BRL] referente à última data da transação</t>
-  </si>
-  <si>
     <t>Sessão whina1512m000</t>
   </si>
   <si>
@@ -2843,6 +2840,9 @@
   </si>
   <si>
     <t>Aguardando a resposta do Fábio sobre o recebimento do mesmo item em dois armazéns distintos.</t>
+  </si>
+  <si>
+    <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Pedir o detalhamento da última data apresentada. Na aba inferior "Detalhes de Custos", pegar o valor da coluna da coluna MAUC [BRL]</t>
   </si>
 </sst>
 </file>
@@ -3266,13 +3266,61 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3308,58 +3356,10 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3375,6 +3375,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3404,19 +3419,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3425,20 +3428,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3449,11 +3446,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3481,9 +3484,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3845,19 +3845,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" ht="21">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="17" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="17" t="s">
         <v>245</v>
       </c>
@@ -5312,551 +5312,535 @@
       <c r="AO18" s="4"/>
     </row>
     <row r="19" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="51" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="66" t="s">
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="AJ19" s="51" t="s">
+      <c r="AJ19" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="63" t="s">
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="AQ19" s="66" t="s">
+      <c r="AQ19" s="44" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="64"/>
-      <c r="AQ20" s="67"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="45"/>
     </row>
     <row r="21" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="68"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="46"/>
     </row>
     <row r="22" spans="1:43" ht="11.25" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="O22" s="38" t="s">
+      <c r="O22" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="P22" s="38" t="s">
+      <c r="P22" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="Q22" s="38" t="s">
+      <c r="Q22" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="R22" s="38" t="s">
+      <c r="R22" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="T22" s="38" t="s">
+      <c r="T22" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="U22" s="38" t="s">
+      <c r="U22" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="V22" s="38" t="s">
+      <c r="V22" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="W22" s="38" t="s">
+      <c r="W22" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="X22" s="38" t="s">
+      <c r="X22" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="Y22" s="38" t="s">
+      <c r="Y22" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="Z22" s="38" t="s">
+      <c r="Z22" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AA22" s="38" t="s">
+      <c r="AA22" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="AB22" s="38" t="s">
+      <c r="AB22" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="AC22" s="38" t="s">
+      <c r="AC22" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="AD22" s="38" t="s">
+      <c r="AD22" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AE22" s="38" t="s">
+      <c r="AE22" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="AF22" s="38" t="s">
+      <c r="AF22" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AG22" s="38" t="s">
+      <c r="AG22" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="AH22" s="38" t="s">
+      <c r="AH22" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="AI22" s="38" t="s">
+      <c r="AI22" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="AJ22" s="38" t="s">
+      <c r="AJ22" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="AK22" s="38" t="s">
+      <c r="AK22" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="AL22" s="38" t="s">
+      <c r="AL22" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="AM22" s="38" t="s">
+      <c r="AM22" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="AN22" s="38" t="s">
+      <c r="AN22" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="AO22" s="38" t="s">
+      <c r="AO22" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="AP22" s="38" t="s">
+      <c r="AP22" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="AQ22" s="60" t="s">
+      <c r="AQ22" s="38" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="61"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="39"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="61"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="39"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="61"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="37"/>
+      <c r="AQ25" s="39"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="61"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="39"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="62"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="37"/>
+      <c r="AQ27" s="40"/>
     </row>
     <row r="29" spans="1:43" ht="11.25" customHeight="1">
       <c r="I29" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
     </row>
     <row r="30" spans="1:43" ht="56.25">
       <c r="I30" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AO22:AO27"/>
-    <mergeCell ref="AQ22:AQ27"/>
-    <mergeCell ref="AP22:AP27"/>
-    <mergeCell ref="AP19:AP21"/>
-    <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="AJ19:AO21"/>
-    <mergeCell ref="AQ19:AQ21"/>
-    <mergeCell ref="AI22:AI27"/>
-    <mergeCell ref="AN22:AN27"/>
-    <mergeCell ref="AM22:AM27"/>
-    <mergeCell ref="AK22:AK27"/>
-    <mergeCell ref="AL22:AL27"/>
-    <mergeCell ref="AB19:AH21"/>
-    <mergeCell ref="U22:U27"/>
-    <mergeCell ref="W22:W27"/>
-    <mergeCell ref="X22:X27"/>
-    <mergeCell ref="V22:V27"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="Z22:Z27"/>
-    <mergeCell ref="AE22:AE27"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AB22:AB27"/>
-    <mergeCell ref="AD22:AD27"/>
-    <mergeCell ref="AA22:AA27"/>
-    <mergeCell ref="AH22:AH27"/>
-    <mergeCell ref="AG22:AG27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="O29:Q30"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="AJ22:AJ27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="J22:J27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AF22:AF27"/>
@@ -5873,16 +5857,32 @@
     <mergeCell ref="S22:S27"/>
     <mergeCell ref="T22:T27"/>
     <mergeCell ref="H22:H27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="O29:Q30"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="AJ22:AJ27"/>
+    <mergeCell ref="AB19:AH21"/>
+    <mergeCell ref="U22:U27"/>
+    <mergeCell ref="W22:W27"/>
+    <mergeCell ref="X22:X27"/>
+    <mergeCell ref="V22:V27"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="Z22:Z27"/>
+    <mergeCell ref="AE22:AE27"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AB22:AB27"/>
+    <mergeCell ref="AD22:AD27"/>
+    <mergeCell ref="AA22:AA27"/>
+    <mergeCell ref="AH22:AH27"/>
+    <mergeCell ref="AG22:AG27"/>
+    <mergeCell ref="AO22:AO27"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="AP22:AP27"/>
+    <mergeCell ref="AP19:AP21"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AJ19:AO21"/>
+    <mergeCell ref="AQ19:AQ21"/>
+    <mergeCell ref="AI22:AI27"/>
+    <mergeCell ref="AN22:AN27"/>
+    <mergeCell ref="AM22:AM27"/>
+    <mergeCell ref="AK22:AK27"/>
+    <mergeCell ref="AL22:AL27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5948,19 +5948,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="2" t="s">
         <v>333</v>
       </c>
@@ -6755,23 +6755,23 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="44"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="60"/>
       <c r="Q19" s="70" t="s">
         <v>332</v>
       </c>
@@ -6780,117 +6780,117 @@
       <c r="T19" s="70"/>
       <c r="U19" s="70"/>
       <c r="V19" s="70"/>
-      <c r="W19" s="66" t="s">
+      <c r="W19" s="44" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="63"/>
       <c r="Q20" s="70"/>
       <c r="R20" s="70"/>
       <c r="S20" s="70"/>
       <c r="T20" s="70"/>
       <c r="U20" s="70"/>
       <c r="V20" s="70"/>
-      <c r="W20" s="67"/>
+      <c r="W20" s="45"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="66"/>
       <c r="Q21" s="70"/>
       <c r="R21" s="70"/>
       <c r="S21" s="70"/>
       <c r="T21" s="70"/>
       <c r="U21" s="70"/>
       <c r="V21" s="70"/>
-      <c r="W21" s="68"/>
+      <c r="W21" s="46"/>
     </row>
     <row r="22" spans="1:23" ht="11.25" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="40" t="s">
         <v>314</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="M22" s="62" t="s">
+      <c r="M22" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="N22" s="62" t="s">
+      <c r="N22" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="O22" s="62" t="s">
+      <c r="O22" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="P22" s="62" t="s">
+      <c r="P22" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="Q22" s="38" t="s">
+      <c r="Q22" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="R22" s="38" t="s">
+      <c r="R22" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="T22" s="38" t="s">
+      <c r="T22" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="U22" s="38" t="s">
+      <c r="U22" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="V22" s="38" t="s">
+      <c r="V22" s="37" t="s">
         <v>328</v>
       </c>
       <c r="W22" s="71" t="s">
@@ -6898,123 +6898,123 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="72"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="72"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="72"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
       <c r="W26" s="72"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
       <c r="W27" s="73"/>
     </row>
     <row r="28" spans="1:23">
@@ -7022,57 +7022,45 @@
     </row>
     <row r="29" spans="1:23" ht="11.25" customHeight="1">
       <c r="B29" s="6"/>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="P29" s="39"/>
+      <c r="P29" s="68"/>
       <c r="W29" s="69" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="B30" s="6"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
       <c r="W30" s="69"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
       <c r="W31" s="69"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
       <c r="W32" s="69"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
       <c r="W33" s="69"/>
     </row>
     <row r="34" spans="15:23">
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
     </row>
     <row r="35" spans="15:23">
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="T22:T27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="W29:W33"/>
     <mergeCell ref="B19:P21"/>
@@ -7089,6 +7077,18 @@
     <mergeCell ref="W22:W27"/>
     <mergeCell ref="R22:R27"/>
     <mergeCell ref="S22:S27"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="T22:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7170,19 +7170,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:56" ht="21">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="17" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="17" t="s">
         <v>587</v>
       </c>
@@ -9144,57 +9144,57 @@
       <c r="BB19" s="1"/>
     </row>
     <row r="20" spans="1:56" ht="15" customHeight="1">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="79" t="s">
         <v>582</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="75"/>
-      <c r="AO20" s="75"/>
-      <c r="AP20" s="75"/>
-      <c r="AQ20" s="75"/>
-      <c r="AR20" s="75"/>
-      <c r="AS20" s="75"/>
-      <c r="AT20" s="75"/>
-      <c r="AU20" s="75"/>
-      <c r="AV20" s="75"/>
-      <c r="AW20" s="75"/>
-      <c r="AX20" s="76"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="80"/>
+      <c r="AP20" s="80"/>
+      <c r="AQ20" s="80"/>
+      <c r="AR20" s="80"/>
+      <c r="AS20" s="80"/>
+      <c r="AT20" s="80"/>
+      <c r="AU20" s="80"/>
+      <c r="AV20" s="80"/>
+      <c r="AW20" s="80"/>
+      <c r="AX20" s="81"/>
       <c r="AY20" s="70" t="s">
         <v>583</v>
       </c>
@@ -9211,55 +9211,55 @@
       </c>
     </row>
     <row r="21" spans="1:56" ht="11.25" customHeight="1">
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="79"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="83"/>
+      <c r="AO21" s="83"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
+      <c r="AR21" s="83"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="84"/>
       <c r="AY21" s="70"/>
       <c r="AZ21" s="70"/>
       <c r="BA21" s="12"/>
@@ -9268,55 +9268,55 @@
       <c r="BD21" s="70"/>
     </row>
     <row r="22" spans="1:56" ht="11.25" customHeight="1">
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="81"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="81"/>
-      <c r="AP22" s="81"/>
-      <c r="AQ22" s="81"/>
-      <c r="AR22" s="81"/>
-      <c r="AS22" s="81"/>
-      <c r="AT22" s="81"/>
-      <c r="AU22" s="81"/>
-      <c r="AV22" s="81"/>
-      <c r="AW22" s="81"/>
-      <c r="AX22" s="82"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="86"/>
+      <c r="AL22" s="86"/>
+      <c r="AM22" s="86"/>
+      <c r="AN22" s="86"/>
+      <c r="AO22" s="86"/>
+      <c r="AP22" s="86"/>
+      <c r="AQ22" s="86"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="86"/>
+      <c r="AT22" s="86"/>
+      <c r="AU22" s="86"/>
+      <c r="AV22" s="86"/>
+      <c r="AW22" s="86"/>
+      <c r="AX22" s="87"/>
       <c r="AY22" s="70"/>
       <c r="AZ22" s="70"/>
       <c r="BA22" s="6"/>
@@ -9325,80 +9325,80 @@
       <c r="BD22" s="70"/>
     </row>
     <row r="23" spans="1:56" ht="11.25" customHeight="1">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="40" t="s">
         <v>503</v>
       </c>
       <c r="H23" s="73" t="s">
         <v>517</v>
       </c>
       <c r="I23" s="73"/>
-      <c r="J23" s="62" t="s">
+      <c r="J23" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="M23" s="62" t="s">
+      <c r="M23" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="N23" s="62" t="s">
+      <c r="N23" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="O23" s="62" t="s">
+      <c r="O23" s="40" t="s">
         <v>505</v>
       </c>
-      <c r="P23" s="62" t="s">
+      <c r="P23" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="Q23" s="62" t="s">
+      <c r="Q23" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="R23" s="62" t="s">
+      <c r="R23" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="S23" s="62" t="s">
+      <c r="S23" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="T23" s="62" t="s">
+      <c r="T23" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="U23" s="62" t="s">
+      <c r="U23" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="V23" s="62" t="s">
+      <c r="V23" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="W23" s="62" t="s">
+      <c r="W23" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="X23" s="62" t="s">
+      <c r="X23" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="Y23" s="62" t="s">
+      <c r="Y23" s="40" t="s">
         <v>518</v>
       </c>
-      <c r="Z23" s="86" t="s">
+      <c r="Z23" s="75" t="s">
         <v>736</v>
       </c>
       <c r="AA23" s="73" t="s">
@@ -9428,7 +9428,7 @@
       <c r="AI23" s="73" t="s">
         <v>543</v>
       </c>
-      <c r="AJ23" s="85" t="s">
+      <c r="AJ23" s="77" t="s">
         <v>544</v>
       </c>
       <c r="AK23" s="73" t="s">
@@ -9476,253 +9476,253 @@
       <c r="AY23" s="73" t="s">
         <v>559</v>
       </c>
-      <c r="AZ23" s="83" t="s">
+      <c r="AZ23" s="74" t="s">
         <v>560</v>
       </c>
-      <c r="BA23" s="37" t="s">
+      <c r="BA23" s="67" t="s">
         <v>561</v>
       </c>
-      <c r="BB23" s="37" t="s">
+      <c r="BB23" s="67" t="s">
         <v>561</v>
       </c>
-      <c r="BC23" s="83" t="s">
+      <c r="BC23" s="74" t="s">
         <v>562</v>
       </c>
-      <c r="BD23" s="84" t="s">
+      <c r="BD23" s="78" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="11.25" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="83"/>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
-      <c r="AI24" s="83"/>
-      <c r="AJ24" s="85"/>
-      <c r="AK24" s="83"/>
-      <c r="AL24" s="83"/>
-      <c r="AM24" s="83"/>
-      <c r="AN24" s="83"/>
-      <c r="AO24" s="83"/>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
-      <c r="AY24" s="83"/>
-      <c r="AZ24" s="83"/>
-      <c r="BA24" s="37"/>
-      <c r="BB24" s="37"/>
-      <c r="BC24" s="83"/>
-      <c r="BD24" s="84"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="74"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="67"/>
+      <c r="BB24" s="67"/>
+      <c r="BC24" s="74"/>
+      <c r="BD24" s="78"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="83"/>
-      <c r="AE25" s="83"/>
-      <c r="AF25" s="83"/>
-      <c r="AG25" s="83"/>
-      <c r="AH25" s="83"/>
-      <c r="AI25" s="83"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="83"/>
-      <c r="AL25" s="83"/>
-      <c r="AM25" s="83"/>
-      <c r="AN25" s="83"/>
-      <c r="AO25" s="83"/>
-      <c r="AP25" s="83"/>
-      <c r="AQ25" s="83"/>
-      <c r="AR25" s="83"/>
-      <c r="AS25" s="83"/>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="83"/>
-      <c r="AV25" s="83"/>
-      <c r="AW25" s="83"/>
-      <c r="AX25" s="83"/>
-      <c r="AY25" s="83"/>
-      <c r="AZ25" s="83"/>
-      <c r="BA25" s="37"/>
-      <c r="BB25" s="37"/>
-      <c r="BC25" s="83"/>
-      <c r="BD25" s="84"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="74"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="74"/>
+      <c r="BD25" s="78"/>
     </row>
     <row r="26" spans="1:56">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="83"/>
-      <c r="AE26" s="83"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="83"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="83"/>
-      <c r="AL26" s="83"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="83"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="83"/>
-      <c r="BA26" s="37"/>
-      <c r="BB26" s="37"/>
-      <c r="BC26" s="83"/>
-      <c r="BD26" s="84"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="77"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="67"/>
+      <c r="BB26" s="67"/>
+      <c r="BC26" s="74"/>
+      <c r="BD26" s="78"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="85"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="37"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="84"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="74"/>
+      <c r="AH27" s="74"/>
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="77"/>
+      <c r="AK27" s="74"/>
+      <c r="AL27" s="74"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="74"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="74"/>
+      <c r="AQ27" s="74"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="74"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="74"/>
+      <c r="AW27" s="74"/>
+      <c r="AX27" s="74"/>
+      <c r="AY27" s="74"/>
+      <c r="AZ27" s="74"/>
+      <c r="BA27" s="67"/>
+      <c r="BB27" s="67"/>
+      <c r="BC27" s="74"/>
+      <c r="BD27" s="78"/>
     </row>
     <row r="28" spans="1:56">
       <c r="H28" s="4"/>
@@ -9730,35 +9730,35 @@
       <c r="W28" s="12"/>
       <c r="X28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="85"/>
-      <c r="AK28" s="83"/>
-      <c r="AL28" s="83"/>
-      <c r="AM28" s="83"/>
-      <c r="AN28" s="83"/>
-      <c r="AO28" s="83"/>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="83"/>
-      <c r="AT28" s="83"/>
-      <c r="AU28" s="83"/>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="83"/>
-      <c r="AY28" s="83"/>
-      <c r="AZ28" s="83"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="83"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="74"/>
+      <c r="AQ28" s="74"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="67"/>
+      <c r="BB28" s="67"/>
+      <c r="BC28" s="74"/>
     </row>
     <row r="29" spans="1:56">
       <c r="C29" s="21" t="s">
@@ -9777,35 +9777,35 @@
       <c r="Z29" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="83"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="83"/>
-      <c r="AH29" s="83"/>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="83"/>
-      <c r="AL29" s="83"/>
-      <c r="AM29" s="83"/>
-      <c r="AN29" s="83"/>
-      <c r="AO29" s="83"/>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="83"/>
-      <c r="AR29" s="83"/>
-      <c r="AS29" s="83"/>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="83"/>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="83"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="83"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="74"/>
+      <c r="AQ29" s="74"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="67"/>
+      <c r="BB29" s="67"/>
+      <c r="BC29" s="74"/>
     </row>
     <row r="30" spans="1:56" ht="123.75">
       <c r="C30" s="14" t="s">
@@ -13141,24 +13141,42 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AB23:AB29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="AE23:AE29"/>
-    <mergeCell ref="Y23:Y27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="W23:W27"/>
-    <mergeCell ref="Z23:Z27"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="X23:X27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="V23:V27"/>
+    <mergeCell ref="AY20:AY22"/>
+    <mergeCell ref="B20:AX22"/>
+    <mergeCell ref="AZ20:AZ22"/>
+    <mergeCell ref="BC20:BC22"/>
+    <mergeCell ref="BD20:BD22"/>
+    <mergeCell ref="AZ23:AZ29"/>
+    <mergeCell ref="BA23:BA29"/>
+    <mergeCell ref="BB23:BB29"/>
+    <mergeCell ref="BC23:BC29"/>
+    <mergeCell ref="BD23:BD27"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AV29"/>
+    <mergeCell ref="AW23:AW29"/>
+    <mergeCell ref="AX23:AX29"/>
+    <mergeCell ref="AY23:AY29"/>
+    <mergeCell ref="AP23:AP29"/>
+    <mergeCell ref="AQ23:AQ29"/>
+    <mergeCell ref="AR23:AR29"/>
+    <mergeCell ref="AS23:AS29"/>
+    <mergeCell ref="AT23:AT29"/>
+    <mergeCell ref="AK23:AK29"/>
+    <mergeCell ref="AL23:AL29"/>
+    <mergeCell ref="AM23:AM29"/>
+    <mergeCell ref="AN23:AN29"/>
+    <mergeCell ref="AO23:AO29"/>
+    <mergeCell ref="AF23:AF29"/>
+    <mergeCell ref="AG23:AG29"/>
+    <mergeCell ref="AH23:AH29"/>
+    <mergeCell ref="AI23:AI29"/>
+    <mergeCell ref="AJ23:AJ29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D23:D27"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="L23:L27"/>
@@ -13167,42 +13185,24 @@
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="H23:I27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="AF23:AF29"/>
-    <mergeCell ref="AG23:AG29"/>
-    <mergeCell ref="AH23:AH29"/>
-    <mergeCell ref="AI23:AI29"/>
-    <mergeCell ref="AJ23:AJ29"/>
-    <mergeCell ref="AK23:AK29"/>
-    <mergeCell ref="AL23:AL29"/>
-    <mergeCell ref="AM23:AM29"/>
-    <mergeCell ref="AN23:AN29"/>
-    <mergeCell ref="AO23:AO29"/>
-    <mergeCell ref="AP23:AP29"/>
-    <mergeCell ref="AQ23:AQ29"/>
-    <mergeCell ref="AR23:AR29"/>
-    <mergeCell ref="AS23:AS29"/>
-    <mergeCell ref="AT23:AT29"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AV29"/>
-    <mergeCell ref="AW23:AW29"/>
-    <mergeCell ref="AX23:AX29"/>
-    <mergeCell ref="AY23:AY29"/>
-    <mergeCell ref="AZ23:AZ29"/>
-    <mergeCell ref="BA23:BA29"/>
-    <mergeCell ref="BB23:BB29"/>
-    <mergeCell ref="BC23:BC29"/>
-    <mergeCell ref="BD23:BD27"/>
-    <mergeCell ref="AY20:AY22"/>
-    <mergeCell ref="B20:AX22"/>
-    <mergeCell ref="AZ20:AZ22"/>
-    <mergeCell ref="BC20:BC22"/>
-    <mergeCell ref="BD20:BD22"/>
+    <mergeCell ref="W23:W27"/>
+    <mergeCell ref="Z23:Z27"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="X23:X27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="V23:V27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="AE23:AE29"/>
+    <mergeCell ref="Y23:Y27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13216,9 +13216,7 @@
   </sheetPr>
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -13303,10 +13301,10 @@
       <c r="BW1" s="1"/>
     </row>
     <row r="2" spans="1:75" ht="21">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="17" t="s">
         <v>588</v>
       </c>
@@ -13315,10 +13313,10 @@
       <c r="BW2" s="1"/>
     </row>
     <row r="3" spans="1:75" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="17" t="s">
         <v>848</v>
       </c>
@@ -15854,72 +15852,72 @@
       <c r="BS17" s="12"/>
     </row>
     <row r="18" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="43"/>
-      <c r="AK18" s="43"/>
-      <c r="AL18" s="43"/>
-      <c r="AM18" s="43"/>
-      <c r="AN18" s="43"/>
-      <c r="AO18" s="43"/>
-      <c r="AP18" s="43"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="43"/>
-      <c r="AS18" s="43"/>
-      <c r="AT18" s="43"/>
-      <c r="AU18" s="43"/>
-      <c r="AV18" s="43"/>
-      <c r="AW18" s="43"/>
-      <c r="AX18" s="43"/>
-      <c r="AY18" s="43"/>
-      <c r="AZ18" s="43"/>
-      <c r="BA18" s="43"/>
-      <c r="BB18" s="43"/>
-      <c r="BC18" s="43"/>
-      <c r="BD18" s="43"/>
-      <c r="BE18" s="43"/>
-      <c r="BF18" s="43"/>
-      <c r="BG18" s="43"/>
-      <c r="BH18" s="43"/>
-      <c r="BI18" s="43"/>
-      <c r="BJ18" s="43"/>
-      <c r="BK18" s="43"/>
-      <c r="BL18" s="43"/>
-      <c r="BM18" s="44"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="59"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="59"/>
+      <c r="AU18" s="59"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="59"/>
+      <c r="AZ18" s="59"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="59"/>
+      <c r="BF18" s="59"/>
+      <c r="BG18" s="59"/>
+      <c r="BH18" s="59"/>
+      <c r="BI18" s="59"/>
+      <c r="BJ18" s="59"/>
+      <c r="BK18" s="59"/>
+      <c r="BL18" s="59"/>
+      <c r="BM18" s="60"/>
       <c r="BN18" s="70" t="s">
         <v>767</v>
       </c>
@@ -15936,161 +15934,161 @@
         <v>586</v>
       </c>
       <c r="BS18" s="30"/>
-      <c r="BT18" s="94" t="s">
+      <c r="BT18" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="BU18" s="94"/>
+      <c r="BU18" s="97"/>
     </row>
     <row r="19" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="46"/>
-      <c r="AU19" s="46"/>
-      <c r="AV19" s="46"/>
-      <c r="AW19" s="46"/>
-      <c r="AX19" s="46"/>
-      <c r="AY19" s="46"/>
-      <c r="AZ19" s="46"/>
-      <c r="BA19" s="46"/>
-      <c r="BB19" s="46"/>
-      <c r="BC19" s="46"/>
-      <c r="BD19" s="46"/>
-      <c r="BE19" s="46"/>
-      <c r="BF19" s="46"/>
-      <c r="BG19" s="46"/>
-      <c r="BH19" s="46"/>
-      <c r="BI19" s="46"/>
-      <c r="BJ19" s="46"/>
-      <c r="BK19" s="46"/>
-      <c r="BL19" s="46"/>
-      <c r="BM19" s="47"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="62"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="63"/>
       <c r="BN19" s="70"/>
       <c r="BO19" s="70"/>
       <c r="BP19" s="70"/>
       <c r="BQ19" s="70"/>
       <c r="BR19" s="70"/>
       <c r="BS19" s="31"/>
-      <c r="BT19" s="94"/>
-      <c r="BU19" s="94"/>
+      <c r="BT19" s="97"/>
+      <c r="BU19" s="97"/>
     </row>
     <row r="20" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
-      <c r="AP20" s="49"/>
-      <c r="AQ20" s="49"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="49"/>
-      <c r="AX20" s="49"/>
-      <c r="AY20" s="49"/>
-      <c r="AZ20" s="49"/>
-      <c r="BA20" s="49"/>
-      <c r="BB20" s="49"/>
-      <c r="BC20" s="49"/>
-      <c r="BD20" s="49"/>
-      <c r="BE20" s="49"/>
-      <c r="BF20" s="49"/>
-      <c r="BG20" s="49"/>
-      <c r="BH20" s="49"/>
-      <c r="BI20" s="49"/>
-      <c r="BJ20" s="49"/>
-      <c r="BK20" s="49"/>
-      <c r="BL20" s="49"/>
-      <c r="BM20" s="50"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="66"/>
       <c r="BN20" s="70"/>
       <c r="BO20" s="70"/>
       <c r="BP20" s="70"/>
       <c r="BQ20" s="70"/>
       <c r="BR20" s="70"/>
       <c r="BS20" s="32"/>
-      <c r="BT20" s="94"/>
-      <c r="BU20" s="94"/>
+      <c r="BT20" s="97"/>
+      <c r="BU20" s="97"/>
     </row>
     <row r="21" spans="1:73" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="74" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="73" t="s">
@@ -16153,25 +16151,25 @@
       <c r="U21" s="73" t="s">
         <v>692</v>
       </c>
-      <c r="V21" s="88" t="s">
+      <c r="V21" s="89" t="s">
         <v>719</v>
       </c>
-      <c r="W21" s="88" t="s">
+      <c r="W21" s="89" t="s">
         <v>748</v>
       </c>
       <c r="X21" s="73" t="s">
         <v>757</v>
       </c>
-      <c r="Y21" s="88" t="s">
+      <c r="Y21" s="89" t="s">
         <v>749</v>
       </c>
-      <c r="Z21" s="88" t="s">
+      <c r="Z21" s="89" t="s">
         <v>750</v>
       </c>
       <c r="AA21" s="73" t="s">
         <v>747</v>
       </c>
-      <c r="AB21" s="98" t="s">
+      <c r="AB21" s="91" t="s">
         <v>724</v>
       </c>
       <c r="AC21" s="73" t="s">
@@ -16207,10 +16205,10 @@
       <c r="AM21" s="73" t="s">
         <v>760</v>
       </c>
-      <c r="AN21" s="88" t="s">
+      <c r="AN21" s="89" t="s">
         <v>827</v>
       </c>
-      <c r="AO21" s="88" t="s">
+      <c r="AO21" s="89" t="s">
         <v>828</v>
       </c>
       <c r="AP21" s="73" t="s">
@@ -16225,10 +16223,10 @@
       <c r="AS21" s="73" t="s">
         <v>761</v>
       </c>
-      <c r="AT21" s="88" t="s">
+      <c r="AT21" s="89" t="s">
         <v>825</v>
       </c>
-      <c r="AU21" s="88" t="s">
+      <c r="AU21" s="89" t="s">
         <v>826</v>
       </c>
       <c r="AV21" s="73" t="s">
@@ -16240,10 +16238,10 @@
       <c r="AX21" s="73" t="s">
         <v>756</v>
       </c>
-      <c r="AY21" s="88" t="s">
+      <c r="AY21" s="89" t="s">
         <v>758</v>
       </c>
-      <c r="AZ21" s="88" t="s">
+      <c r="AZ21" s="89" t="s">
         <v>759</v>
       </c>
       <c r="BA21" s="73" t="s">
@@ -16276,333 +16274,333 @@
       <c r="BJ21" s="93" t="s">
         <v>787</v>
       </c>
-      <c r="BK21" s="96" t="s">
+      <c r="BK21" s="95" t="s">
         <v>787</v>
       </c>
-      <c r="BL21" s="92" t="s">
+      <c r="BL21" s="88" t="s">
         <v>819</v>
       </c>
       <c r="BM21" s="34"/>
-      <c r="BN21" s="83" t="s">
+      <c r="BN21" s="74" t="s">
         <v>766</v>
       </c>
-      <c r="BO21" s="83" t="s">
+      <c r="BO21" s="74" t="s">
         <v>765</v>
       </c>
-      <c r="BP21" s="83" t="s">
+      <c r="BP21" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="BQ21" s="83" t="s">
+      <c r="BQ21" s="74" t="s">
         <v>562</v>
       </c>
-      <c r="BR21" s="84" t="s">
+      <c r="BR21" s="78" t="s">
         <v>563</v>
       </c>
       <c r="BS21" s="73" t="s">
         <v>786</v>
       </c>
-      <c r="BT21" s="94"/>
-      <c r="BU21" s="94"/>
+      <c r="BT21" s="97"/>
+      <c r="BU21" s="97"/>
     </row>
     <row r="22" spans="1:73" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="83"/>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="83"/>
-      <c r="AH22" s="83"/>
-      <c r="AI22" s="83"/>
-      <c r="AJ22" s="83"/>
-      <c r="AK22" s="83"/>
-      <c r="AL22" s="83"/>
-      <c r="AM22" s="83"/>
-      <c r="AN22" s="89"/>
-      <c r="AO22" s="89"/>
-      <c r="AP22" s="83"/>
-      <c r="AQ22" s="83"/>
-      <c r="AR22" s="83"/>
-      <c r="AS22" s="83"/>
-      <c r="AT22" s="89"/>
-      <c r="AU22" s="89"/>
-      <c r="AV22" s="83"/>
-      <c r="AW22" s="83"/>
-      <c r="AX22" s="83"/>
-      <c r="AY22" s="89"/>
-      <c r="AZ22" s="89"/>
-      <c r="BA22" s="83"/>
-      <c r="BB22" s="83"/>
-      <c r="BC22" s="83"/>
-      <c r="BD22" s="83"/>
-      <c r="BE22" s="83"/>
-      <c r="BF22" s="83"/>
-      <c r="BG22" s="83"/>
-      <c r="BH22" s="83"/>
-      <c r="BI22" s="83"/>
-      <c r="BJ22" s="95"/>
-      <c r="BK22" s="97"/>
-      <c r="BL22" s="92"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="74"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="90"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="90"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="74"/>
+      <c r="BF22" s="74"/>
+      <c r="BG22" s="74"/>
+      <c r="BH22" s="74"/>
+      <c r="BI22" s="74"/>
+      <c r="BJ22" s="94"/>
+      <c r="BK22" s="96"/>
+      <c r="BL22" s="88"/>
       <c r="BM22" s="34"/>
-      <c r="BN22" s="83"/>
-      <c r="BO22" s="83"/>
-      <c r="BP22" s="83"/>
-      <c r="BQ22" s="83"/>
-      <c r="BR22" s="84"/>
-      <c r="BS22" s="83"/>
-      <c r="BT22" s="94"/>
-      <c r="BU22" s="94"/>
+      <c r="BN22" s="74"/>
+      <c r="BO22" s="74"/>
+      <c r="BP22" s="74"/>
+      <c r="BQ22" s="74"/>
+      <c r="BR22" s="78"/>
+      <c r="BS22" s="74"/>
+      <c r="BT22" s="97"/>
+      <c r="BU22" s="97"/>
     </row>
     <row r="23" spans="1:73" s="29" customFormat="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="83"/>
-      <c r="AJ23" s="83"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="83"/>
-      <c r="AM23" s="83"/>
-      <c r="AN23" s="89"/>
-      <c r="AO23" s="89"/>
-      <c r="AP23" s="83"/>
-      <c r="AQ23" s="83"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="83"/>
-      <c r="AT23" s="89"/>
-      <c r="AU23" s="89"/>
-      <c r="AV23" s="83"/>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="83"/>
-      <c r="AY23" s="89"/>
-      <c r="AZ23" s="89"/>
-      <c r="BA23" s="83"/>
-      <c r="BB23" s="83"/>
-      <c r="BC23" s="83"/>
-      <c r="BD23" s="83"/>
-      <c r="BE23" s="83"/>
-      <c r="BF23" s="83"/>
-      <c r="BG23" s="83"/>
-      <c r="BH23" s="83"/>
-      <c r="BI23" s="83"/>
-      <c r="BJ23" s="95"/>
-      <c r="BK23" s="97"/>
-      <c r="BL23" s="92"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="74"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="90"/>
+      <c r="AZ23" s="90"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="74"/>
+      <c r="BF23" s="74"/>
+      <c r="BG23" s="74"/>
+      <c r="BH23" s="74"/>
+      <c r="BI23" s="74"/>
+      <c r="BJ23" s="94"/>
+      <c r="BK23" s="96"/>
+      <c r="BL23" s="88"/>
       <c r="BM23" s="34"/>
-      <c r="BN23" s="83"/>
-      <c r="BO23" s="83"/>
-      <c r="BP23" s="83"/>
-      <c r="BQ23" s="83"/>
-      <c r="BR23" s="84"/>
-      <c r="BS23" s="83"/>
-      <c r="BT23" s="94"/>
-      <c r="BU23" s="94"/>
+      <c r="BN23" s="74"/>
+      <c r="BO23" s="74"/>
+      <c r="BP23" s="74"/>
+      <c r="BQ23" s="74"/>
+      <c r="BR23" s="78"/>
+      <c r="BS23" s="74"/>
+      <c r="BT23" s="97"/>
+      <c r="BU23" s="97"/>
     </row>
     <row r="24" spans="1:73" s="29" customFormat="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="83"/>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
-      <c r="AI24" s="83"/>
-      <c r="AJ24" s="83"/>
-      <c r="AK24" s="83"/>
-      <c r="AL24" s="83"/>
-      <c r="AM24" s="83"/>
-      <c r="AN24" s="89"/>
-      <c r="AO24" s="89"/>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="89"/>
-      <c r="AU24" s="89"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
-      <c r="AY24" s="89"/>
-      <c r="AZ24" s="89"/>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="83"/>
-      <c r="BC24" s="83"/>
-      <c r="BD24" s="83"/>
-      <c r="BE24" s="83"/>
-      <c r="BF24" s="83"/>
-      <c r="BG24" s="83"/>
-      <c r="BH24" s="83"/>
-      <c r="BI24" s="83"/>
-      <c r="BJ24" s="95"/>
-      <c r="BK24" s="97"/>
-      <c r="BL24" s="92"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="74"/>
+      <c r="AK24" s="74"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="90"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
+      <c r="BC24" s="74"/>
+      <c r="BD24" s="74"/>
+      <c r="BE24" s="74"/>
+      <c r="BF24" s="74"/>
+      <c r="BG24" s="74"/>
+      <c r="BH24" s="74"/>
+      <c r="BI24" s="74"/>
+      <c r="BJ24" s="94"/>
+      <c r="BK24" s="96"/>
+      <c r="BL24" s="88"/>
       <c r="BM24" s="34"/>
-      <c r="BN24" s="83"/>
-      <c r="BO24" s="83"/>
-      <c r="BP24" s="83"/>
-      <c r="BQ24" s="83"/>
-      <c r="BR24" s="84"/>
-      <c r="BS24" s="83"/>
-      <c r="BT24" s="94"/>
-      <c r="BU24" s="94"/>
+      <c r="BN24" s="74"/>
+      <c r="BO24" s="74"/>
+      <c r="BP24" s="74"/>
+      <c r="BQ24" s="74"/>
+      <c r="BR24" s="78"/>
+      <c r="BS24" s="74"/>
+      <c r="BT24" s="97"/>
+      <c r="BU24" s="97"/>
     </row>
     <row r="25" spans="1:73" s="29" customFormat="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="83"/>
-      <c r="AE25" s="83"/>
-      <c r="AF25" s="83"/>
-      <c r="AG25" s="83"/>
-      <c r="AH25" s="83"/>
-      <c r="AI25" s="83"/>
-      <c r="AJ25" s="83"/>
-      <c r="AK25" s="83"/>
-      <c r="AL25" s="83"/>
-      <c r="AM25" s="83"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="83"/>
-      <c r="AQ25" s="83"/>
-      <c r="AR25" s="83"/>
-      <c r="AS25" s="83"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="89"/>
-      <c r="AV25" s="83"/>
-      <c r="AW25" s="83"/>
-      <c r="AX25" s="83"/>
-      <c r="AY25" s="89"/>
-      <c r="AZ25" s="89"/>
-      <c r="BA25" s="83"/>
-      <c r="BB25" s="83"/>
-      <c r="BC25" s="83"/>
-      <c r="BD25" s="83"/>
-      <c r="BE25" s="83"/>
-      <c r="BF25" s="83"/>
-      <c r="BG25" s="83"/>
-      <c r="BH25" s="83"/>
-      <c r="BI25" s="83"/>
-      <c r="BJ25" s="95"/>
-      <c r="BK25" s="97"/>
-      <c r="BL25" s="92"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="90"/>
+      <c r="BA25" s="74"/>
+      <c r="BB25" s="74"/>
+      <c r="BC25" s="74"/>
+      <c r="BD25" s="74"/>
+      <c r="BE25" s="74"/>
+      <c r="BF25" s="74"/>
+      <c r="BG25" s="74"/>
+      <c r="BH25" s="74"/>
+      <c r="BI25" s="74"/>
+      <c r="BJ25" s="94"/>
+      <c r="BK25" s="96"/>
+      <c r="BL25" s="88"/>
       <c r="BM25" s="34"/>
-      <c r="BN25" s="83"/>
-      <c r="BO25" s="83"/>
-      <c r="BP25" s="83"/>
-      <c r="BQ25" s="83"/>
-      <c r="BR25" s="84"/>
-      <c r="BS25" s="83"/>
-      <c r="BT25" s="94"/>
-      <c r="BU25" s="94"/>
+      <c r="BN25" s="74"/>
+      <c r="BO25" s="74"/>
+      <c r="BP25" s="74"/>
+      <c r="BQ25" s="74"/>
+      <c r="BR25" s="78"/>
+      <c r="BS25" s="74"/>
+      <c r="BT25" s="97"/>
+      <c r="BU25" s="97"/>
     </row>
     <row r="26" spans="1:73" ht="11.25" customHeight="1">
       <c r="E26" s="1"/>
@@ -16638,7 +16636,7 @@
       <c r="BF26" s="1"/>
       <c r="BI26" s="6"/>
       <c r="BJ26" s="12"/>
-      <c r="BL26" s="92" t="s">
+      <c r="BL26" s="88" t="s">
         <v>820</v>
       </c>
       <c r="BN26" s="1"/>
@@ -16662,10 +16660,10 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="90" t="s">
+      <c r="Y27" s="37" t="s">
         <v>823</v>
       </c>
-      <c r="Z27" s="91" t="s">
+      <c r="Z27" s="74" t="s">
         <v>824</v>
       </c>
       <c r="AA27" s="1"/>
@@ -16675,27 +16673,27 @@
       <c r="AI27" s="12"/>
       <c r="AJ27" s="1"/>
       <c r="AM27" s="12"/>
-      <c r="AN27" s="90" t="s">
+      <c r="AN27" s="98" t="s">
         <v>823</v>
       </c>
-      <c r="AO27" s="91" t="s">
+      <c r="AO27" s="99" t="s">
         <v>824</v>
       </c>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
-      <c r="AT27" s="90" t="s">
+      <c r="AT27" s="98" t="s">
         <v>823</v>
       </c>
-      <c r="AU27" s="91" t="s">
+      <c r="AU27" s="99" t="s">
         <v>824</v>
       </c>
       <c r="AV27" s="12"/>
       <c r="AW27" s="12"/>
       <c r="AX27" s="12"/>
-      <c r="AY27" s="90" t="s">
+      <c r="AY27" s="98" t="s">
         <v>823</v>
       </c>
-      <c r="AZ27" s="91" t="s">
+      <c r="AZ27" s="99" t="s">
         <v>824</v>
       </c>
       <c r="BA27" s="6"/>
@@ -16708,7 +16706,7 @@
       <c r="BJ27" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="BL27" s="92"/>
+      <c r="BL27" s="88"/>
       <c r="BN27" s="1"/>
       <c r="BO27" s="4"/>
       <c r="BP27" s="6"/>
@@ -16730,8 +16728,8 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="91"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="74"/>
       <c r="AD28" s="1"/>
       <c r="AG28" s="12"/>
       <c r="AH28" s="12"/>
@@ -16739,17 +16737,17 @@
       <c r="AJ28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="6"/>
-      <c r="AN28" s="90"/>
-      <c r="AO28" s="91"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="99"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="6"/>
-      <c r="AT28" s="90"/>
-      <c r="AU28" s="91"/>
+      <c r="AT28" s="98"/>
+      <c r="AU28" s="99"/>
       <c r="AV28" s="12"/>
       <c r="AW28" s="12"/>
       <c r="AX28" s="12"/>
-      <c r="AY28" s="90"/>
-      <c r="AZ28" s="91"/>
+      <c r="AY28" s="98"/>
+      <c r="AZ28" s="99"/>
       <c r="BA28" s="6"/>
       <c r="BB28" s="6"/>
       <c r="BC28" s="24" t="s">
@@ -16758,7 +16756,7 @@
       <c r="BF28" s="1"/>
       <c r="BI28" s="6"/>
       <c r="BJ28" s="12"/>
-      <c r="BL28" s="92"/>
+      <c r="BL28" s="88"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="4"/>
       <c r="BP28" s="6"/>
@@ -16799,7 +16797,7 @@
       <c r="BF29" s="1"/>
       <c r="BI29" s="6"/>
       <c r="BJ29" s="12"/>
-      <c r="BL29" s="92" t="s">
+      <c r="BL29" s="88" t="s">
         <v>821</v>
       </c>
       <c r="BN29" s="1"/>
@@ -16842,7 +16840,7 @@
       <c r="BF30" s="1"/>
       <c r="BI30" s="6"/>
       <c r="BJ30" s="12"/>
-      <c r="BL30" s="92"/>
+      <c r="BL30" s="88"/>
       <c r="BN30" s="1"/>
       <c r="BO30" s="4"/>
       <c r="BP30" s="6"/>
@@ -16883,7 +16881,7 @@
       <c r="BF31" s="1"/>
       <c r="BI31" s="6"/>
       <c r="BJ31" s="12"/>
-      <c r="BL31" s="92"/>
+      <c r="BL31" s="88"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="4"/>
       <c r="BP31" s="6"/>
@@ -16924,7 +16922,7 @@
       <c r="BF32" s="1"/>
       <c r="BI32" s="6"/>
       <c r="BJ32" s="12"/>
-      <c r="BL32" s="92"/>
+      <c r="BL32" s="88"/>
       <c r="BN32" s="1"/>
       <c r="BO32" s="4"/>
       <c r="BP32" s="6"/>
@@ -17617,33 +17615,47 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="BL21:BL25"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="BQ18:BQ20"/>
-    <mergeCell ref="BQ21:BQ25"/>
-    <mergeCell ref="BR18:BR20"/>
-    <mergeCell ref="BR21:BR25"/>
-    <mergeCell ref="BP21:BP25"/>
-    <mergeCell ref="BO21:BO25"/>
-    <mergeCell ref="BN21:BN25"/>
-    <mergeCell ref="BN18:BN20"/>
-    <mergeCell ref="BO18:BO20"/>
-    <mergeCell ref="BP18:BP20"/>
-    <mergeCell ref="X21:X25"/>
-    <mergeCell ref="AY21:AY25"/>
-    <mergeCell ref="AZ21:AZ25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="W21:W25"/>
-    <mergeCell ref="AF21:AF25"/>
-    <mergeCell ref="AG21:AG25"/>
-    <mergeCell ref="AC21:AC25"/>
-    <mergeCell ref="AD21:AD25"/>
-    <mergeCell ref="AB21:AB25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="AN21:AN25"/>
+    <mergeCell ref="AO21:AO25"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AO27:AO28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AY27:AY28"/>
+    <mergeCell ref="AZ27:AZ28"/>
+    <mergeCell ref="AT21:AT25"/>
+    <mergeCell ref="AH21:AH25"/>
+    <mergeCell ref="AI21:AI25"/>
+    <mergeCell ref="AM21:AM25"/>
+    <mergeCell ref="AS21:AS25"/>
+    <mergeCell ref="AE21:AE25"/>
+    <mergeCell ref="AR21:AR25"/>
+    <mergeCell ref="AL21:AL25"/>
+    <mergeCell ref="AX21:AX25"/>
+    <mergeCell ref="AU21:AU25"/>
+    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AU27:AU28"/>
+    <mergeCell ref="BL26:BL28"/>
+    <mergeCell ref="BL29:BL33"/>
+    <mergeCell ref="BT18:BU25"/>
+    <mergeCell ref="B18:BM20"/>
+    <mergeCell ref="S21:S25"/>
+    <mergeCell ref="T21:T25"/>
+    <mergeCell ref="U21:U25"/>
+    <mergeCell ref="BC21:BC25"/>
+    <mergeCell ref="BD21:BD25"/>
+    <mergeCell ref="Y21:Y25"/>
+    <mergeCell ref="AJ21:AJ25"/>
+    <mergeCell ref="AK21:AK25"/>
+    <mergeCell ref="AP21:AP25"/>
+    <mergeCell ref="AQ21:AQ25"/>
+    <mergeCell ref="AV21:AV25"/>
+    <mergeCell ref="AW21:AW25"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="Q21:Q25"/>
+    <mergeCell ref="R21:R25"/>
     <mergeCell ref="BS21:BS25"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="D21:D25"/>
@@ -17660,52 +17672,38 @@
     <mergeCell ref="BH21:BH25"/>
     <mergeCell ref="M21:M25"/>
     <mergeCell ref="E21:E25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="W21:W25"/>
+    <mergeCell ref="AF21:AF25"/>
+    <mergeCell ref="AG21:AG25"/>
+    <mergeCell ref="AC21:AC25"/>
+    <mergeCell ref="AD21:AD25"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="F21:F25"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="H21:H25"/>
     <mergeCell ref="I21:I25"/>
     <mergeCell ref="J21:J25"/>
+    <mergeCell ref="BL21:BL25"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="BQ18:BQ20"/>
+    <mergeCell ref="BQ21:BQ25"/>
+    <mergeCell ref="BR18:BR20"/>
+    <mergeCell ref="BR21:BR25"/>
+    <mergeCell ref="BP21:BP25"/>
+    <mergeCell ref="BO21:BO25"/>
+    <mergeCell ref="BN21:BN25"/>
+    <mergeCell ref="BN18:BN20"/>
+    <mergeCell ref="BO18:BO20"/>
+    <mergeCell ref="BP18:BP20"/>
+    <mergeCell ref="X21:X25"/>
+    <mergeCell ref="AY21:AY25"/>
+    <mergeCell ref="AZ21:AZ25"/>
     <mergeCell ref="K21:K25"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="Q21:Q25"/>
-    <mergeCell ref="R21:R25"/>
-    <mergeCell ref="BL26:BL28"/>
-    <mergeCell ref="BL29:BL33"/>
-    <mergeCell ref="BT18:BU25"/>
-    <mergeCell ref="B18:BM20"/>
-    <mergeCell ref="S21:S25"/>
-    <mergeCell ref="T21:T25"/>
-    <mergeCell ref="U21:U25"/>
-    <mergeCell ref="BC21:BC25"/>
-    <mergeCell ref="BD21:BD25"/>
-    <mergeCell ref="Y21:Y25"/>
-    <mergeCell ref="AJ21:AJ25"/>
-    <mergeCell ref="AK21:AK25"/>
-    <mergeCell ref="AP21:AP25"/>
-    <mergeCell ref="AQ21:AQ25"/>
-    <mergeCell ref="AV21:AV25"/>
-    <mergeCell ref="AW21:AW25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AY27:AY28"/>
-    <mergeCell ref="AZ27:AZ28"/>
-    <mergeCell ref="AT21:AT25"/>
-    <mergeCell ref="AH21:AH25"/>
-    <mergeCell ref="AI21:AI25"/>
-    <mergeCell ref="AM21:AM25"/>
-    <mergeCell ref="AS21:AS25"/>
-    <mergeCell ref="AE21:AE25"/>
-    <mergeCell ref="AR21:AR25"/>
-    <mergeCell ref="AL21:AL25"/>
-    <mergeCell ref="AX21:AX25"/>
-    <mergeCell ref="AU21:AU25"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AU27:AU28"/>
-    <mergeCell ref="AN21:AN25"/>
-    <mergeCell ref="AO21:AO25"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AO27:AO28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17720,14 +17718,14 @@
   <dimension ref="A1:BW31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="41.5703125" style="1" customWidth="1"/>
@@ -17806,10 +17804,10 @@
       <c r="BW1" s="1"/>
     </row>
     <row r="2" spans="1:75" ht="21">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="17" t="s">
         <v>830</v>
       </c>
@@ -17818,12 +17816,12 @@
       <c r="BW2" s="1"/>
     </row>
     <row r="3" spans="1:75" ht="21">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -17931,7 +17929,7 @@
       <c r="BF6" s="1"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="12"/>
-      <c r="BL6" s="92" t="s">
+      <c r="BL6" s="88" t="s">
         <v>821</v>
       </c>
       <c r="BN6" s="1"/>
@@ -17991,7 +17989,7 @@
       <c r="BF7" s="1"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="12"/>
-      <c r="BL7" s="92"/>
+      <c r="BL7" s="88"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="4"/>
       <c r="BP7" s="6"/>
@@ -18049,7 +18047,7 @@
       <c r="BF8" s="1"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="12"/>
-      <c r="BL8" s="92"/>
+      <c r="BL8" s="88"/>
       <c r="BN8" s="1"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="6"/>
@@ -18107,7 +18105,7 @@
       <c r="BF9" s="1"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="12"/>
-      <c r="BL9" s="92"/>
+      <c r="BL9" s="88"/>
       <c r="BN9" s="1"/>
       <c r="BO9" s="4"/>
       <c r="BP9" s="6"/>
@@ -18369,19 +18367,19 @@
       <c r="BW14" s="6"/>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1">
-      <c r="A15" s="100" t="s">
-        <v>859</v>
-      </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
+      <c r="A15" s="101" t="s">
+        <v>858</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="70" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -18420,9 +18418,9 @@
       <c r="BW15" s="6"/>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -18463,9 +18461,9 @@
       <c r="BW16" s="6"/>
     </row>
     <row r="17" spans="1:75" s="1" customFormat="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
       <c r="F17" s="70"/>
@@ -18504,23 +18502,23 @@
       <c r="BW17" s="6"/>
     </row>
     <row r="18" spans="1:75" s="1" customFormat="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>850</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>857</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>858</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>860</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>862</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>864</v>
+      <c r="C18" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>859</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>861</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>863</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -18557,12 +18555,12 @@
       <c r="BW18" s="6"/>
     </row>
     <row r="19" spans="1:75" s="1" customFormat="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -18598,12 +18596,12 @@
       <c r="BW19" s="6"/>
     </row>
     <row r="20" spans="1:75" s="1" customFormat="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -18639,12 +18637,12 @@
       <c r="BW20" s="6"/>
     </row>
     <row r="21" spans="1:75" s="1" customFormat="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -18752,12 +18750,12 @@
       <c r="BW23" s="6"/>
     </row>
     <row r="24" spans="1:75" s="1" customFormat="1">
-      <c r="A24" s="109" t="s">
-        <v>866</v>
-      </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="A24" s="100" t="s">
+        <v>865</v>
+      </c>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>

--- a/Documentação/Planilhas/Conferencia_NFR.xlsx
+++ b/Documentação/Planilhas/Conferencia_NFR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stg_nfr_rascunho_cab" sheetId="104" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="868">
   <si>
     <t>1</t>
   </si>
@@ -2011,9 +2011,6 @@
     <t>7.6000</t>
   </si>
   <si>
-    <t>R20000122</t>
-  </si>
-  <si>
     <t>90500</t>
   </si>
   <si>
@@ -2285,9 +2282,6 @@
   </si>
   <si>
     <t>Fazer o detalhamento da referência Fiscal desejada. Na aba inferior "Linhas", pegar a informação de "Valor Total Linha doc. Fiscal" [apenas para os itens referente à serviços]</t>
-  </si>
-  <si>
-    <t>R20000102</t>
   </si>
   <si>
     <t>900000390</t>
@@ -2521,9 +2515,6 @@
     <t>Está buscando o campo interno "rcd_utc" da tabela "tdrec940". Como este campo foi criado recentemente, os registros existentes ficaram com a data nula e com a aplicação do timezone, ficarão com a data "1969-12-31 21:00:00.000". Segundo o Fábio, no ambiente de produção não existirão esses casos</t>
   </si>
   <si>
-    <t>Vou precisar da ajuda do Fábio para identificar na tela do LN</t>
-  </si>
-  <si>
     <t>9358108000206</t>
   </si>
   <si>
@@ -2731,9 +2722,6 @@
     </r>
   </si>
   <si>
-    <t>aguardando a resposta do Fábio Borges sobre o código</t>
-  </si>
-  <si>
     <t>stg_nfr_ultimo_recebimento</t>
   </si>
   <si>
@@ -2843,6 +2831,21 @@
   </si>
   <si>
     <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Pedir o detalhamento da última data apresentada. Na aba inferior "Detalhes de Custos", pegar o valor da coluna da coluna MAUC [BRL]</t>
+  </si>
+  <si>
+    <t>86.9800</t>
+  </si>
+  <si>
+    <t>66.6600</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da referência Fiscal desejada. Na aba inferior "Linha", detalhar a linha do item desejado. Na aba inferior "Imposto por linha Rec Fiscal"  detalhar a linha ICMS. Na aba Geral, se  "[%] Redução bc" tiver dados, dividir o "Valor Base de cálculo" pelo "[%] Redução bc". Se o percentual estiver zerado, ficará com zeros</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da referência Fiscal desejada. Na aba inferior "Linha", detalhar a linha do item desejado. Na aba inferior "Imposto por linha Rec Fiscal"  detalhar a linha ICMS. Na aba Geral, pegar a informação de  "[%] Redução bc"</t>
+  </si>
+  <si>
+    <t>Sessão tdrecl504m00l (Recebimento Fiscal)</t>
   </si>
 </sst>
 </file>
@@ -3162,7 +3165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3435,15 +3438,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8574,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
@@ -8583,28 +8577,28 @@
         <v>270</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>0</v>
@@ -8622,10 +8616,10 @@
         <v>19</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>11</v>
@@ -8634,7 +8628,7 @@
         <v>11</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>11</v>
@@ -8655,52 +8649,52 @@
         <v>0</v>
       </c>
       <c r="AC14" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="AR14" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="AD14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>11</v>
@@ -8733,7 +8727,7 @@
         <v>11</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="BD14" s="12" t="s">
         <v>413</v>
@@ -9399,7 +9393,7 @@
         <v>518</v>
       </c>
       <c r="Z23" s="75" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AA23" s="73" t="s">
         <v>535</v>
@@ -9775,7 +9769,7 @@
       <c r="W29" s="12"/>
       <c r="X29" s="1"/>
       <c r="Z29" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AA29" s="74"/>
       <c r="AB29" s="74"/>
@@ -13216,14 +13210,16 @@
   </sheetPr>
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BM4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN18" sqref="BN18:BN20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
@@ -13246,42 +13242,42 @@
     <col min="24" max="24" width="40.5703125" style="1" customWidth="1"/>
     <col min="25" max="25" width="44.42578125" style="1" customWidth="1"/>
     <col min="26" max="26" width="57.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="47.42578125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="39" style="1" customWidth="1"/>
-    <col min="29" max="29" width="55.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="47.140625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="39.5703125" style="1" customWidth="1"/>
-    <col min="32" max="33" width="34.140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="40.42578125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="34" style="1" customWidth="1"/>
-    <col min="36" max="36" width="33.7109375" style="12" customWidth="1"/>
-    <col min="37" max="37" width="36.28515625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="41.140625" style="12" customWidth="1"/>
-    <col min="39" max="39" width="58.140625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="46" style="1" customWidth="1"/>
-    <col min="41" max="41" width="57.42578125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="42.42578125" style="12" customWidth="1"/>
-    <col min="43" max="43" width="41" style="1" customWidth="1"/>
-    <col min="44" max="44" width="40" style="6" customWidth="1"/>
-    <col min="45" max="45" width="57.42578125" style="12" customWidth="1"/>
-    <col min="46" max="46" width="43.85546875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="55.85546875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="35.85546875" style="1" customWidth="1"/>
-    <col min="49" max="49" width="34.5703125" style="1" customWidth="1"/>
-    <col min="50" max="50" width="41.28515625" style="6" customWidth="1"/>
-    <col min="51" max="51" width="47.28515625" style="12" customWidth="1"/>
-    <col min="52" max="52" width="57.5703125" style="12" customWidth="1"/>
-    <col min="53" max="53" width="41.5703125" style="12" customWidth="1"/>
-    <col min="54" max="54" width="44.140625" style="1" customWidth="1"/>
-    <col min="55" max="55" width="57.140625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="37.42578125" style="6" customWidth="1"/>
-    <col min="57" max="57" width="36.28515625" style="6" customWidth="1"/>
-    <col min="58" max="58" width="31.5703125" style="12" customWidth="1"/>
-    <col min="59" max="59" width="55.42578125" style="6" customWidth="1"/>
-    <col min="60" max="60" width="52.140625" style="6" customWidth="1"/>
-    <col min="61" max="61" width="57.140625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="27.28515625" style="6" customWidth="1"/>
-    <col min="63" max="63" width="24.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="48" style="6" customWidth="1"/>
+    <col min="28" max="28" width="37.5703125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="47.42578125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="39" style="1" customWidth="1"/>
+    <col min="31" max="31" width="55.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="47.140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="39.5703125" style="1" customWidth="1"/>
+    <col min="34" max="35" width="34.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="40.42578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="34" style="1" customWidth="1"/>
+    <col min="38" max="38" width="33.7109375" style="12" customWidth="1"/>
+    <col min="39" max="39" width="36.28515625" style="12" customWidth="1"/>
+    <col min="40" max="40" width="41.140625" style="12" customWidth="1"/>
+    <col min="41" max="41" width="58.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="46" style="1" customWidth="1"/>
+    <col min="43" max="43" width="57.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="42.42578125" style="12" customWidth="1"/>
+    <col min="45" max="45" width="41" style="1" customWidth="1"/>
+    <col min="46" max="46" width="40" style="6" customWidth="1"/>
+    <col min="47" max="47" width="57.42578125" style="12" customWidth="1"/>
+    <col min="48" max="48" width="43.85546875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="55.85546875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="35.85546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="34.5703125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="41.28515625" style="6" customWidth="1"/>
+    <col min="53" max="53" width="47.28515625" style="12" customWidth="1"/>
+    <col min="54" max="54" width="57.5703125" style="12" customWidth="1"/>
+    <col min="55" max="55" width="41.5703125" style="12" customWidth="1"/>
+    <col min="56" max="56" width="44.140625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="57.140625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="37.42578125" style="6" customWidth="1"/>
+    <col min="59" max="59" width="36.28515625" style="6" customWidth="1"/>
+    <col min="60" max="60" width="31.5703125" style="12" customWidth="1"/>
+    <col min="61" max="61" width="55.42578125" style="6" customWidth="1"/>
+    <col min="62" max="62" width="52.140625" style="6" customWidth="1"/>
+    <col min="63" max="63" width="57.140625" style="1" customWidth="1"/>
     <col min="64" max="64" width="49.28515625" style="6" customWidth="1"/>
     <col min="65" max="65" width="32.42578125" style="12" customWidth="1"/>
     <col min="66" max="66" width="34" style="6" customWidth="1"/>
@@ -13296,7 +13292,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75">
-      <c r="BJ1" s="35"/>
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
@@ -13308,7 +13303,6 @@
       <c r="C2" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="BJ2" s="35"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
     </row>
@@ -13318,7 +13312,7 @@
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="17" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -13341,31 +13335,31 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="Y5" s="6"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="12"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="1"/>
       <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AJ5" s="1"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
       <c r="AL5" s="1"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="6"/>
+      <c r="AN5" s="1"/>
       <c r="AQ5" s="12"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="12"/>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="1"/>
-      <c r="BI5" s="6"/>
-      <c r="BK5" s="1"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="12"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="1"/>
+      <c r="BK5" s="6"/>
       <c r="BM5" s="1"/>
       <c r="BN5" s="12"/>
       <c r="BP5" s="1"/>
@@ -13448,122 +13442,122 @@
       <c r="X6" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="Y6" s="33" t="s">
+      <c r="Y6" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="Z6" s="27" t="s">
         <v>605</v>
       </c>
       <c r="AA6" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC6" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="AB6" s="27" t="s">
+      <c r="AD6" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="AC6" s="27" t="s">
+      <c r="AE6" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="AD6" s="27" t="s">
+      <c r="AF6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AE6" s="27" t="s">
+      <c r="AG6" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="AF6" s="27" t="s">
+      <c r="AH6" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="AG6" s="27" t="s">
+      <c r="AI6" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="AH6" s="27" t="s">
+      <c r="AJ6" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="AI6" s="27" t="s">
+      <c r="AK6" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="AJ6" s="27" t="s">
+      <c r="AL6" s="27" t="s">
         <v>612</v>
       </c>
-      <c r="AK6" s="27" t="s">
+      <c r="AM6" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="AL6" s="27" t="s">
+      <c r="AN6" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="AM6" s="27" t="s">
+      <c r="AO6" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AN6" s="27" t="s">
+      <c r="AP6" s="27" t="s">
         <v>610</v>
       </c>
-      <c r="AO6" s="27" t="s">
+      <c r="AQ6" s="27" t="s">
         <v>611</v>
       </c>
-      <c r="AP6" s="27" t="s">
+      <c r="AR6" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="AQ6" s="27" t="s">
+      <c r="AS6" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="AR6" s="27" t="s">
+      <c r="AT6" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="AS6" s="27" t="s">
+      <c r="AU6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AT6" s="27" t="s">
+      <c r="AV6" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="AU6" s="27" t="s">
+      <c r="AW6" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="AV6" s="27" t="s">
+      <c r="AX6" s="27" t="s">
         <v>614</v>
       </c>
-      <c r="AW6" s="27" t="s">
+      <c r="AY6" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="AX6" s="27" t="s">
+      <c r="AZ6" s="27" t="s">
         <v>615</v>
       </c>
-      <c r="AY6" s="27" t="s">
+      <c r="BA6" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="AZ6" s="27" t="s">
+      <c r="BB6" s="27" t="s">
         <v>617</v>
       </c>
-      <c r="BA6" s="27" t="s">
+      <c r="BC6" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="BB6" s="27" t="s">
+      <c r="BD6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BC6" s="27" t="s">
+      <c r="BE6" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="BD6" s="27" t="s">
+      <c r="BF6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="BE6" s="27" t="s">
+      <c r="BG6" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="BF6" s="27" t="s">
+      <c r="BH6" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="BG6" s="27" t="s">
+      <c r="BI6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="BH6" s="27" t="s">
+      <c r="BJ6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="BI6" s="27" t="s">
+      <c r="BK6" s="27" t="s">
         <v>622</v>
-      </c>
-      <c r="BJ6" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="BK6" s="27" t="s">
-        <v>619</v>
       </c>
       <c r="BL6" s="27" t="s">
         <v>624</v>
@@ -13601,7 +13595,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>525</v>
@@ -13610,16 +13604,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>304</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>425</v>
@@ -13649,154 +13643,154 @@
         <v>10</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="U7" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AT7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE7" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="BF7" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="AA7" s="12" t="s">
+      <c r="BG7" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="AB7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AK7" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AL7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO7" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AP7" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AQ7" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AR7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU7" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AV7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC7" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BH7" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL7" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="BM7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN7" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="BE7" s="12" t="s">
+      <c r="BO7" s="12" t="s">
         <v>742</v>
-      </c>
-      <c r="BF7" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL7" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="BM7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN7" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="BO7" s="12" t="s">
-        <v>744</v>
       </c>
       <c r="BP7" s="12" t="s">
         <v>304</v>
@@ -13808,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="BS7" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT7" s="12" t="s">
         <v>634</v>
@@ -13822,40 +13816,40 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>792</v>
+        <v>641</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>793</v>
+        <v>626</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>794</v>
+        <v>627</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>304</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>795</v>
+        <v>632</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>795</v>
+        <v>632</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>795</v>
+        <v>632</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>796</v>
+        <v>635</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>797</v>
+        <v>636</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>11</v>
@@ -13870,13 +13864,13 @@
         <v>10</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>795</v>
+        <v>632</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>653</v>
+        <v>272</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>798</v>
+        <v>633</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>3</v>
@@ -13900,10 +13894,10 @@
         <v>11</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AD8" s="12" t="s">
         <v>3</v>
@@ -13924,10 +13918,10 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="12" t="s">
-        <v>643</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="12" t="s">
-        <v>799</v>
+        <v>3</v>
       </c>
       <c r="AL8" s="12" t="s">
         <v>11</v>
@@ -13942,10 +13936,10 @@
         <v>11</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>644</v>
+        <v>11</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>800</v>
+        <v>11</v>
       </c>
       <c r="AR8" s="12" t="s">
         <v>11</v>
@@ -13960,44 +13954,44 @@
         <v>11</v>
       </c>
       <c r="AV8" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW8" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AY8" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AZ8" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BA8" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB8" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC8" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD8" s="12" t="s">
-        <v>801</v>
+        <v>3</v>
       </c>
       <c r="BE8" s="12" t="s">
-        <v>802</v>
+        <v>11</v>
       </c>
       <c r="BF8" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="BG8" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="BH8" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="BG8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH8" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="BI8" s="12" t="s">
         <v>11</v>
       </c>
@@ -14008,28 +14002,28 @@
         <v>11</v>
       </c>
       <c r="BL8" s="12" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="BM8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN8" s="12" t="s">
-        <v>804</v>
+        <v>628</v>
       </c>
       <c r="BO8" s="12" t="s">
-        <v>805</v>
+        <v>629</v>
       </c>
       <c r="BP8" s="12" t="s">
         <v>304</v>
       </c>
       <c r="BQ8" s="12" t="s">
-        <v>806</v>
+        <v>98</v>
       </c>
       <c r="BR8" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT8" s="12" t="s">
         <v>634</v>
@@ -14043,40 +14037,40 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>807</v>
+        <v>638</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>808</v>
+        <v>626</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>809</v>
+        <v>627</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>810</v>
+        <v>630</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>811</v>
+        <v>632</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>811</v>
+        <v>632</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>382</v>
+        <v>635</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>383</v>
+        <v>636</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>812</v>
+        <v>97</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>11</v>
@@ -14091,13 +14085,13 @@
         <v>10</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>811</v>
+        <v>632</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>653</v>
+        <v>272</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>813</v>
+        <v>633</v>
       </c>
       <c r="U9" s="12" t="s">
         <v>3</v>
@@ -14109,7 +14103,7 @@
         <v>11</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>813</v>
+        <v>11</v>
       </c>
       <c r="Y9" s="12" t="s">
         <v>11</v>
@@ -14121,10 +14115,10 @@
         <v>11</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AD9" s="12" t="s">
         <v>3</v>
@@ -14145,10 +14139,10 @@
         <v>3</v>
       </c>
       <c r="AJ9" s="12" t="s">
-        <v>643</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="12" t="s">
-        <v>814</v>
+        <v>3</v>
       </c>
       <c r="AL9" s="12" t="s">
         <v>11</v>
@@ -14163,10 +14157,10 @@
         <v>11</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>644</v>
+        <v>11</v>
       </c>
       <c r="AQ9" s="12" t="s">
-        <v>815</v>
+        <v>11</v>
       </c>
       <c r="AR9" s="12" t="s">
         <v>11</v>
@@ -14181,43 +14175,43 @@
         <v>11</v>
       </c>
       <c r="AV9" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW9" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AY9" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AZ9" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BA9" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB9" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC9" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD9" s="12" t="s">
-        <v>816</v>
+        <v>3</v>
       </c>
       <c r="BE9" s="12" t="s">
-        <v>817</v>
+        <v>11</v>
       </c>
       <c r="BF9" s="12" t="s">
-        <v>810</v>
+        <v>637</v>
       </c>
       <c r="BG9" s="12" t="s">
-        <v>11</v>
+        <v>639</v>
       </c>
       <c r="BH9" s="12" t="s">
-        <v>11</v>
+        <v>630</v>
       </c>
       <c r="BI9" s="12" t="s">
         <v>11</v>
@@ -14229,19 +14223,19 @@
         <v>11</v>
       </c>
       <c r="BL9" s="12" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
       <c r="BM9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN9" s="12" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="BO9" s="12" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="BP9" s="12" t="s">
-        <v>810</v>
+        <v>630</v>
       </c>
       <c r="BQ9" s="12" t="s">
         <v>98</v>
@@ -14250,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="BS9" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT9" s="12" t="s">
         <v>634</v>
@@ -14264,40 +14258,40 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>641</v>
+        <v>804</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>626</v>
+        <v>805</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>627</v>
+        <v>806</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>304</v>
+        <v>807</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>632</v>
+        <v>695</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>632</v>
+        <v>808</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>632</v>
+        <v>808</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>635</v>
+        <v>382</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>636</v>
+        <v>383</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>97</v>
+        <v>809</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>11</v>
@@ -14312,13 +14306,13 @@
         <v>10</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>632</v>
+        <v>808</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>272</v>
+        <v>652</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>633</v>
+        <v>810</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>3</v>
@@ -14330,7 +14324,7 @@
         <v>11</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>11</v>
+        <v>810</v>
       </c>
       <c r="Y10" s="12" t="s">
         <v>11</v>
@@ -14342,10 +14336,10 @@
         <v>11</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AD10" s="12" t="s">
         <v>3</v>
@@ -14366,16 +14360,16 @@
         <v>3</v>
       </c>
       <c r="AJ10" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AK10" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AL10" s="12" t="s">
-        <v>11</v>
+        <v>643</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>11</v>
+        <v>811</v>
       </c>
       <c r="AN10" s="12" t="s">
         <v>11</v>
@@ -14390,10 +14384,10 @@
         <v>11</v>
       </c>
       <c r="AR10" s="12" t="s">
-        <v>11</v>
+        <v>644</v>
       </c>
       <c r="AS10" s="12" t="s">
-        <v>11</v>
+        <v>812</v>
       </c>
       <c r="AT10" s="12" t="s">
         <v>11</v>
@@ -14402,67 +14396,67 @@
         <v>11</v>
       </c>
       <c r="AV10" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW10" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AY10" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AZ10" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BA10" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB10" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC10" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD10" s="12" t="s">
-        <v>640</v>
+        <v>3</v>
       </c>
       <c r="BE10" s="12" t="s">
-        <v>642</v>
+        <v>11</v>
       </c>
       <c r="BF10" s="12" t="s">
-        <v>304</v>
+        <v>813</v>
       </c>
       <c r="BG10" s="12" t="s">
-        <v>11</v>
+        <v>814</v>
       </c>
       <c r="BH10" s="12" t="s">
-        <v>11</v>
+        <v>807</v>
       </c>
       <c r="BI10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BJ10" s="12" t="s">
-        <v>632</v>
+        <v>11</v>
       </c>
       <c r="BK10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BL10" s="12" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="BM10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN10" s="12" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="BO10" s="12" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="BP10" s="12" t="s">
-        <v>304</v>
+        <v>807</v>
       </c>
       <c r="BQ10" s="12" t="s">
         <v>98</v>
@@ -14471,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="BS10" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT10" s="12" t="s">
         <v>634</v>
@@ -14485,34 +14479,34 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>632</v>
+        <v>384</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>635</v>
+        <v>382</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>636</v>
+        <v>383</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>11</v>
@@ -14533,16 +14527,16 @@
         <v>10</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>272</v>
+        <v>652</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>3</v>
+        <v>664</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>11</v>
@@ -14560,25 +14554,25 @@
         <v>11</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>11</v>
+        <v>863</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>3</v>
+        <v>864</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>3</v>
+        <v>384</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>3</v>
+        <v>661</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>3</v>
+        <v>665</v>
       </c>
       <c r="AG11" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AH11" s="12" t="s">
         <v>3</v>
@@ -14587,16 +14581,16 @@
         <v>3</v>
       </c>
       <c r="AJ11" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AK11" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AL11" s="12" t="s">
-        <v>11</v>
+        <v>643</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>11</v>
+        <v>666</v>
       </c>
       <c r="AN11" s="12" t="s">
         <v>11</v>
@@ -14611,10 +14605,10 @@
         <v>11</v>
       </c>
       <c r="AR11" s="12" t="s">
-        <v>11</v>
+        <v>644</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>11</v>
+        <v>667</v>
       </c>
       <c r="AT11" s="12" t="s">
         <v>11</v>
@@ -14623,67 +14617,67 @@
         <v>11</v>
       </c>
       <c r="AV11" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW11" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AY11" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AZ11" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BA11" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB11" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC11" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD11" s="12" t="s">
-        <v>637</v>
+        <v>3</v>
       </c>
       <c r="BE11" s="12" t="s">
-        <v>639</v>
+        <v>11</v>
       </c>
       <c r="BF11" s="12" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="BG11" s="12" t="s">
-        <v>11</v>
+        <v>671</v>
       </c>
       <c r="BH11" s="12" t="s">
-        <v>11</v>
+        <v>649</v>
       </c>
       <c r="BI11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BJ11" s="12" t="s">
-        <v>632</v>
+        <v>11</v>
       </c>
       <c r="BK11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BL11" s="12" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="BM11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN11" s="12" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="BO11" s="12" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="BP11" s="12" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="BQ11" s="12" t="s">
         <v>98</v>
@@ -14692,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="BS11" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT11" s="12" t="s">
         <v>634</v>
@@ -14706,40 +14700,40 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>671</v>
+        <v>789</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>660</v>
+        <v>790</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>647</v>
+        <v>791</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>650</v>
+        <v>304</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>661</v>
+        <v>792</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>384</v>
+        <v>792</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>669</v>
+        <v>792</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>382</v>
+        <v>793</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>383</v>
+        <v>794</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>11</v>
@@ -14754,16 +14748,16 @@
         <v>10</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>663</v>
+        <v>792</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>664</v>
+        <v>795</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>665</v>
+        <v>3</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>11</v>
@@ -14781,19 +14775,19 @@
         <v>11</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>673</v>
+        <v>11</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>662</v>
+        <v>11</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>666</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="12" t="s">
         <v>3</v>
@@ -14808,16 +14802,16 @@
         <v>3</v>
       </c>
       <c r="AJ12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="AK12" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="AL12" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="AM12" s="12" t="s">
-        <v>11</v>
+        <v>796</v>
       </c>
       <c r="AN12" s="12" t="s">
         <v>11</v>
@@ -14826,16 +14820,16 @@
         <v>11</v>
       </c>
       <c r="AP12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR12" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="AQ12" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="AR12" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="AS12" s="12" t="s">
-        <v>11</v>
+        <v>797</v>
       </c>
       <c r="AT12" s="12" t="s">
         <v>11</v>
@@ -14844,76 +14838,76 @@
         <v>11</v>
       </c>
       <c r="AV12" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW12" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX12" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AY12" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AZ12" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BA12" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB12" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC12" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD12" s="12" t="s">
-        <v>670</v>
+        <v>3</v>
       </c>
       <c r="BE12" s="12" t="s">
-        <v>672</v>
+        <v>11</v>
       </c>
       <c r="BF12" s="12" t="s">
-        <v>650</v>
+        <v>798</v>
       </c>
       <c r="BG12" s="12" t="s">
-        <v>11</v>
+        <v>799</v>
       </c>
       <c r="BH12" s="12" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="BI12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BJ12" s="12" t="s">
-        <v>663</v>
+        <v>11</v>
       </c>
       <c r="BK12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BL12" s="12" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="BM12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN12" s="12" t="s">
-        <v>648</v>
+        <v>801</v>
       </c>
       <c r="BO12" s="12" t="s">
-        <v>649</v>
+        <v>802</v>
       </c>
       <c r="BP12" s="12" t="s">
-        <v>650</v>
+        <v>304</v>
       </c>
       <c r="BQ12" s="12" t="s">
-        <v>98</v>
+        <v>803</v>
       </c>
       <c r="BR12" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS12" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT12" s="12" t="s">
         <v>634</v>
@@ -14927,28 +14921,28 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F13" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>652</v>
-      </c>
       <c r="I13" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>399</v>
@@ -14975,133 +14969,133 @@
         <v>10</v>
       </c>
       <c r="R13" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="S13" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="T13" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="U13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM13" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="Y13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB13" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ13" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AK13" s="12" t="s">
+      <c r="AN13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR13" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AS13" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="AL13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP13" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AQ13" s="12" t="s">
+      <c r="AT13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF13" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="AR13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD13" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="BE13" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="BF13" s="12" t="s">
-        <v>650</v>
-      </c>
       <c r="BG13" s="12" t="s">
-        <v>11</v>
+        <v>658</v>
       </c>
       <c r="BH13" s="12" t="s">
-        <v>11</v>
+        <v>649</v>
       </c>
       <c r="BI13" s="12" t="s">
         <v>11</v>
@@ -15113,19 +15107,19 @@
         <v>11</v>
       </c>
       <c r="BL13" s="12" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="BM13" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="BN13" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO13" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="BO13" s="12" t="s">
+      <c r="BP13" s="12" t="s">
         <v>649</v>
-      </c>
-      <c r="BP13" s="12" t="s">
-        <v>650</v>
       </c>
       <c r="BQ13" s="12" t="s">
         <v>98</v>
@@ -15134,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="BS13" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT13" s="12" t="s">
         <v>634</v>
@@ -15157,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>11</v>
@@ -15223,13 +15217,13 @@
         <v>11</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AB14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AD14" s="12" t="s">
         <v>3</v>
@@ -15259,91 +15253,91 @@
         <v>3</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AN14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AO14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="AP14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AR14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AS14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AT14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AU14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="AV14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AY14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AZ14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BA14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BB14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BD14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="BE14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="BG14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH14" s="12" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="BH14" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="BI14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BJ14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BK14" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BL14" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="BM14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN14" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="BO14" s="12" t="s">
         <v>788</v>
-      </c>
-      <c r="BM14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN14" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="BO14" s="12" t="s">
-        <v>791</v>
       </c>
       <c r="BP14" s="12" t="s">
         <v>11</v>
@@ -15355,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="BS14" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT14" s="12" t="s">
         <v>634</v>
@@ -15369,28 +15363,28 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>707</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>708</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>710</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>711</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>420</v>
@@ -15417,157 +15411,157 @@
         <v>10</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S15" s="12" t="s">
         <v>260</v>
       </c>
       <c r="T15" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="V15" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF15" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="V15" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="AD15" s="12" t="s">
+      <c r="AG15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM15" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="AE15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ15" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AK15" s="12" t="s">
+      <c r="AN15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR15" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AS15" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="AL15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP15" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AQ15" s="12" t="s">
+      <c r="AT15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF15" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="AR15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD15" s="12" t="s">
+      <c r="BG15" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="BE15" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="BF15" s="36">
+      <c r="BH15" s="36">
         <v>40000</v>
       </c>
-      <c r="BG15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH15" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="BI15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BJ15" s="12" t="s">
-        <v>710</v>
+        <v>11</v>
       </c>
       <c r="BK15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BL15" s="12" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="BM15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN15" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="BO15" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="BO15" s="12" t="s">
-        <v>706</v>
-      </c>
       <c r="BP15" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BQ15" s="12" t="s">
         <v>98</v>
@@ -15576,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="BS15" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT15" s="12" t="s">
         <v>634</v>
@@ -15590,28 +15584,28 @@
         <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>693</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>694</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>272</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H16" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>696</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>697</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>420</v>
@@ -15638,157 +15632,157 @@
         <v>10</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S16" s="12" t="s">
         <v>260</v>
       </c>
       <c r="T16" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="V16" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF16" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM16" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="V16" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA16" s="12" t="s">
+      <c r="AN16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR16" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AS16" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="AT16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF16" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="AB16" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="AD16" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ16" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AK16" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="AL16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP16" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AQ16" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="AR16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD16" s="12" t="s">
+      <c r="BG16" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="BE16" s="12" t="s">
+      <c r="BH16" s="36">
+        <v>40000</v>
+      </c>
+      <c r="BI16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL16" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="BM16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN16" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="BF16" s="36">
-        <v>40000</v>
-      </c>
-      <c r="BG16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ16" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="BK16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL16" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="BM16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN16" s="12" t="s">
+      <c r="BO16" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="BO16" s="12" t="s">
-        <v>706</v>
-      </c>
       <c r="BP16" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BQ16" s="13" t="s">
         <v>98</v>
@@ -15797,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="BS16" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="BT16" s="12" t="s">
         <v>634</v>
@@ -15820,27 +15814,27 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="X17" s="12"/>
-      <c r="AA17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="1"/>
+      <c r="AF17" s="1"/>
       <c r="AI17" s="12"/>
-      <c r="AJ17" s="1"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
       <c r="AL17" s="1"/>
-      <c r="AM17" s="12"/>
-      <c r="AR17" s="1"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="12"/>
+      <c r="AT17" s="1"/>
       <c r="AX17" s="12"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
       <c r="BD17" s="12"/>
       <c r="BE17" s="12"/>
-      <c r="BF17" s="1"/>
+      <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
-      <c r="BH17" s="12"/>
+      <c r="BH17" s="1"/>
       <c r="BI17" s="12"/>
       <c r="BJ17" s="12"/>
       <c r="BK17" s="12"/>
@@ -15853,7 +15847,7 @@
     </row>
     <row r="18" spans="1:73" ht="11.25" customHeight="1">
       <c r="B18" s="58" t="s">
-        <v>582</v>
+        <v>867</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -15919,13 +15913,13 @@
       <c r="BL18" s="59"/>
       <c r="BM18" s="60"/>
       <c r="BN18" s="70" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="BO18" s="70" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="BP18" s="70" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="BQ18" s="70" t="s">
         <v>585</v>
@@ -15934,10 +15928,10 @@
         <v>586</v>
       </c>
       <c r="BS18" s="30"/>
-      <c r="BT18" s="97" t="s">
-        <v>822</v>
-      </c>
-      <c r="BU18" s="97"/>
+      <c r="BT18" s="94" t="s">
+        <v>819</v>
+      </c>
+      <c r="BU18" s="94"/>
     </row>
     <row r="19" spans="1:73" ht="11.25" customHeight="1">
       <c r="B19" s="61"/>
@@ -16010,8 +16004,8 @@
       <c r="BQ19" s="70"/>
       <c r="BR19" s="70"/>
       <c r="BS19" s="31"/>
-      <c r="BT19" s="97"/>
-      <c r="BU19" s="97"/>
+      <c r="BT19" s="94"/>
+      <c r="BU19" s="94"/>
     </row>
     <row r="20" spans="1:73" ht="11.25" customHeight="1">
       <c r="B20" s="64"/>
@@ -16084,8 +16078,8 @@
       <c r="BQ20" s="70"/>
       <c r="BR20" s="70"/>
       <c r="BS20" s="32"/>
-      <c r="BT20" s="97"/>
-      <c r="BU20" s="97"/>
+      <c r="BT20" s="94"/>
+      <c r="BU20" s="94"/>
     </row>
     <row r="21" spans="1:73" s="29" customFormat="1" ht="11.25" customHeight="1">
       <c r="A21" s="74" t="s">
@@ -16101,194 +16095,194 @@
         <v>499</v>
       </c>
       <c r="E21" s="73" t="s">
+        <v>675</v>
+      </c>
+      <c r="F21" s="73" t="s">
         <v>676</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="G21" s="73" t="s">
         <v>677</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="H21" s="73" t="s">
         <v>678</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="I21" s="73" t="s">
         <v>679</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="J21" s="73" t="s">
+        <v>681</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>682</v>
+      </c>
+      <c r="L21" s="73" t="s">
+        <v>686</v>
+      </c>
+      <c r="M21" s="73" t="s">
         <v>680</v>
       </c>
-      <c r="J21" s="73" t="s">
-        <v>682</v>
-      </c>
-      <c r="K21" s="73" t="s">
+      <c r="N21" s="73" t="s">
         <v>683</v>
       </c>
-      <c r="L21" s="73" t="s">
+      <c r="O21" s="73" t="s">
+        <v>684</v>
+      </c>
+      <c r="P21" s="73" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q21" s="73" t="s">
         <v>687</v>
       </c>
-      <c r="M21" s="73" t="s">
-        <v>681</v>
-      </c>
-      <c r="N21" s="73" t="s">
-        <v>684</v>
-      </c>
-      <c r="O21" s="73" t="s">
-        <v>685</v>
-      </c>
-      <c r="P21" s="73" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q21" s="73" t="s">
+      <c r="R21" s="73" t="s">
         <v>688</v>
       </c>
-      <c r="R21" s="73" t="s">
+      <c r="S21" s="73" t="s">
         <v>689</v>
       </c>
-      <c r="S21" s="73" t="s">
+      <c r="T21" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="T21" s="73" t="s">
+      <c r="U21" s="73" t="s">
         <v>691</v>
       </c>
-      <c r="U21" s="73" t="s">
-        <v>692</v>
-      </c>
       <c r="V21" s="89" t="s">
+        <v>718</v>
+      </c>
+      <c r="W21" s="89" t="s">
+        <v>746</v>
+      </c>
+      <c r="X21" s="73" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y21" s="89" t="s">
+        <v>747</v>
+      </c>
+      <c r="Z21" s="89" t="s">
+        <v>748</v>
+      </c>
+      <c r="AA21" s="73" t="s">
+        <v>865</v>
+      </c>
+      <c r="AB21" s="73" t="s">
+        <v>866</v>
+      </c>
+      <c r="AC21" s="73" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD21" s="91" t="s">
+        <v>723</v>
+      </c>
+      <c r="AE21" s="73" t="s">
         <v>719</v>
       </c>
-      <c r="W21" s="89" t="s">
-        <v>748</v>
-      </c>
-      <c r="X21" s="73" t="s">
+      <c r="AF21" s="73" t="s">
+        <v>720</v>
+      </c>
+      <c r="AG21" s="73" t="s">
+        <v>751</v>
+      </c>
+      <c r="AH21" s="73" t="s">
+        <v>721</v>
+      </c>
+      <c r="AI21" s="73" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ21" s="73" t="s">
+        <v>724</v>
+      </c>
+      <c r="AK21" s="73" t="s">
+        <v>725</v>
+      </c>
+      <c r="AL21" s="73" t="s">
+        <v>726</v>
+      </c>
+      <c r="AM21" s="73" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN21" s="73" t="s">
+        <v>753</v>
+      </c>
+      <c r="AO21" s="73" t="s">
+        <v>758</v>
+      </c>
+      <c r="AP21" s="89" t="s">
+        <v>824</v>
+      </c>
+      <c r="AQ21" s="89" t="s">
+        <v>825</v>
+      </c>
+      <c r="AR21" s="73" t="s">
+        <v>728</v>
+      </c>
+      <c r="AS21" s="73" t="s">
+        <v>729</v>
+      </c>
+      <c r="AT21" s="73" t="s">
+        <v>752</v>
+      </c>
+      <c r="AU21" s="73" t="s">
+        <v>759</v>
+      </c>
+      <c r="AV21" s="89" t="s">
+        <v>822</v>
+      </c>
+      <c r="AW21" s="89" t="s">
+        <v>823</v>
+      </c>
+      <c r="AX21" s="73" t="s">
+        <v>730</v>
+      </c>
+      <c r="AY21" s="73" t="s">
+        <v>731</v>
+      </c>
+      <c r="AZ21" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="BA21" s="89" t="s">
+        <v>756</v>
+      </c>
+      <c r="BB21" s="89" t="s">
         <v>757</v>
       </c>
-      <c r="Y21" s="89" t="s">
+      <c r="BC21" s="73" t="s">
+        <v>733</v>
+      </c>
+      <c r="BD21" s="73" t="s">
+        <v>732</v>
+      </c>
+      <c r="BE21" s="73" t="s">
+        <v>735</v>
+      </c>
+      <c r="BF21" s="73" t="s">
+        <v>744</v>
+      </c>
+      <c r="BG21" s="73" t="s">
+        <v>761</v>
+      </c>
+      <c r="BH21" s="73" t="s">
+        <v>760</v>
+      </c>
+      <c r="BI21" s="73" t="s">
+        <v>535</v>
+      </c>
+      <c r="BJ21" s="73" t="s">
         <v>749</v>
       </c>
-      <c r="Z21" s="89" t="s">
+      <c r="BK21" s="73" t="s">
         <v>750</v>
       </c>
-      <c r="AA21" s="73" t="s">
-        <v>747</v>
-      </c>
-      <c r="AB21" s="91" t="s">
-        <v>724</v>
-      </c>
-      <c r="AC21" s="73" t="s">
-        <v>720</v>
-      </c>
-      <c r="AD21" s="73" t="s">
-        <v>721</v>
-      </c>
-      <c r="AE21" s="73" t="s">
-        <v>753</v>
-      </c>
-      <c r="AF21" s="73" t="s">
-        <v>722</v>
-      </c>
-      <c r="AG21" s="73" t="s">
-        <v>723</v>
-      </c>
-      <c r="AH21" s="73" t="s">
-        <v>725</v>
-      </c>
-      <c r="AI21" s="73" t="s">
-        <v>726</v>
-      </c>
-      <c r="AJ21" s="73" t="s">
-        <v>727</v>
-      </c>
-      <c r="AK21" s="73" t="s">
-        <v>728</v>
-      </c>
-      <c r="AL21" s="73" t="s">
-        <v>755</v>
-      </c>
-      <c r="AM21" s="73" t="s">
-        <v>760</v>
-      </c>
-      <c r="AN21" s="89" t="s">
-        <v>827</v>
-      </c>
-      <c r="AO21" s="89" t="s">
-        <v>828</v>
-      </c>
-      <c r="AP21" s="73" t="s">
-        <v>729</v>
-      </c>
-      <c r="AQ21" s="73" t="s">
-        <v>730</v>
-      </c>
-      <c r="AR21" s="73" t="s">
-        <v>754</v>
-      </c>
-      <c r="AS21" s="73" t="s">
-        <v>761</v>
-      </c>
-      <c r="AT21" s="89" t="s">
-        <v>825</v>
-      </c>
-      <c r="AU21" s="89" t="s">
-        <v>826</v>
-      </c>
-      <c r="AV21" s="73" t="s">
-        <v>731</v>
-      </c>
-      <c r="AW21" s="73" t="s">
-        <v>732</v>
-      </c>
-      <c r="AX21" s="73" t="s">
-        <v>756</v>
-      </c>
-      <c r="AY21" s="89" t="s">
-        <v>758</v>
-      </c>
-      <c r="AZ21" s="89" t="s">
-        <v>759</v>
-      </c>
-      <c r="BA21" s="73" t="s">
-        <v>734</v>
-      </c>
-      <c r="BB21" s="73" t="s">
-        <v>733</v>
-      </c>
-      <c r="BC21" s="73" t="s">
-        <v>736</v>
-      </c>
-      <c r="BD21" s="73" t="s">
-        <v>746</v>
-      </c>
-      <c r="BE21" s="73" t="s">
-        <v>763</v>
-      </c>
-      <c r="BF21" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="BG21" s="73" t="s">
-        <v>535</v>
-      </c>
-      <c r="BH21" s="73" t="s">
-        <v>751</v>
-      </c>
-      <c r="BI21" s="73" t="s">
-        <v>752</v>
-      </c>
-      <c r="BJ21" s="93" t="s">
-        <v>787</v>
-      </c>
-      <c r="BK21" s="95" t="s">
-        <v>787</v>
-      </c>
       <c r="BL21" s="88" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="BM21" s="34"/>
       <c r="BN21" s="74" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="BO21" s="74" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="BP21" s="74" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="BQ21" s="74" t="s">
         <v>562</v>
@@ -16297,10 +16291,10 @@
         <v>563</v>
       </c>
       <c r="BS21" s="73" t="s">
-        <v>786</v>
-      </c>
-      <c r="BT21" s="97"/>
-      <c r="BU21" s="97"/>
+        <v>784</v>
+      </c>
+      <c r="BT21" s="94"/>
+      <c r="BU21" s="94"/>
     </row>
     <row r="22" spans="1:73" s="29" customFormat="1" ht="11.25" customHeight="1">
       <c r="A22" s="74"/>
@@ -16330,9 +16324,9 @@
       <c r="Y22" s="90"/>
       <c r="Z22" s="90"/>
       <c r="AA22" s="74"/>
-      <c r="AB22" s="92"/>
+      <c r="AB22" s="74"/>
       <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
+      <c r="AD22" s="92"/>
       <c r="AE22" s="74"/>
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
@@ -16342,21 +16336,21 @@
       <c r="AK22" s="74"/>
       <c r="AL22" s="74"/>
       <c r="AM22" s="74"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="74"/>
-      <c r="AQ22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
       <c r="AR22" s="74"/>
       <c r="AS22" s="74"/>
-      <c r="AT22" s="90"/>
-      <c r="AU22" s="90"/>
-      <c r="AV22" s="74"/>
-      <c r="AW22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
       <c r="AX22" s="74"/>
-      <c r="AY22" s="90"/>
-      <c r="AZ22" s="90"/>
-      <c r="BA22" s="74"/>
-      <c r="BB22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="90"/>
+      <c r="BB22" s="90"/>
       <c r="BC22" s="74"/>
       <c r="BD22" s="74"/>
       <c r="BE22" s="74"/>
@@ -16364,8 +16358,8 @@
       <c r="BG22" s="74"/>
       <c r="BH22" s="74"/>
       <c r="BI22" s="74"/>
-      <c r="BJ22" s="94"/>
-      <c r="BK22" s="96"/>
+      <c r="BJ22" s="74"/>
+      <c r="BK22" s="74"/>
       <c r="BL22" s="88"/>
       <c r="BM22" s="34"/>
       <c r="BN22" s="74"/>
@@ -16374,8 +16368,8 @@
       <c r="BQ22" s="74"/>
       <c r="BR22" s="78"/>
       <c r="BS22" s="74"/>
-      <c r="BT22" s="97"/>
-      <c r="BU22" s="97"/>
+      <c r="BT22" s="94"/>
+      <c r="BU22" s="94"/>
     </row>
     <row r="23" spans="1:73" s="29" customFormat="1">
       <c r="A23" s="74"/>
@@ -16405,9 +16399,9 @@
       <c r="Y23" s="90"/>
       <c r="Z23" s="90"/>
       <c r="AA23" s="74"/>
-      <c r="AB23" s="92"/>
+      <c r="AB23" s="74"/>
       <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
+      <c r="AD23" s="92"/>
       <c r="AE23" s="74"/>
       <c r="AF23" s="74"/>
       <c r="AG23" s="74"/>
@@ -16417,21 +16411,21 @@
       <c r="AK23" s="74"/>
       <c r="AL23" s="74"/>
       <c r="AM23" s="74"/>
-      <c r="AN23" s="90"/>
-      <c r="AO23" s="90"/>
-      <c r="AP23" s="74"/>
-      <c r="AQ23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
       <c r="AR23" s="74"/>
       <c r="AS23" s="74"/>
-      <c r="AT23" s="90"/>
-      <c r="AU23" s="90"/>
-      <c r="AV23" s="74"/>
-      <c r="AW23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
       <c r="AX23" s="74"/>
-      <c r="AY23" s="90"/>
-      <c r="AZ23" s="90"/>
-      <c r="BA23" s="74"/>
-      <c r="BB23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="90"/>
+      <c r="BB23" s="90"/>
       <c r="BC23" s="74"/>
       <c r="BD23" s="74"/>
       <c r="BE23" s="74"/>
@@ -16439,8 +16433,8 @@
       <c r="BG23" s="74"/>
       <c r="BH23" s="74"/>
       <c r="BI23" s="74"/>
-      <c r="BJ23" s="94"/>
-      <c r="BK23" s="96"/>
+      <c r="BJ23" s="74"/>
+      <c r="BK23" s="74"/>
       <c r="BL23" s="88"/>
       <c r="BM23" s="34"/>
       <c r="BN23" s="74"/>
@@ -16449,8 +16443,8 @@
       <c r="BQ23" s="74"/>
       <c r="BR23" s="78"/>
       <c r="BS23" s="74"/>
-      <c r="BT23" s="97"/>
-      <c r="BU23" s="97"/>
+      <c r="BT23" s="94"/>
+      <c r="BU23" s="94"/>
     </row>
     <row r="24" spans="1:73" s="29" customFormat="1">
       <c r="A24" s="74"/>
@@ -16480,9 +16474,9 @@
       <c r="Y24" s="90"/>
       <c r="Z24" s="90"/>
       <c r="AA24" s="74"/>
-      <c r="AB24" s="92"/>
+      <c r="AB24" s="74"/>
       <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
+      <c r="AD24" s="92"/>
       <c r="AE24" s="74"/>
       <c r="AF24" s="74"/>
       <c r="AG24" s="74"/>
@@ -16492,21 +16486,21 @@
       <c r="AK24" s="74"/>
       <c r="AL24" s="74"/>
       <c r="AM24" s="74"/>
-      <c r="AN24" s="90"/>
-      <c r="AO24" s="90"/>
-      <c r="AP24" s="74"/>
-      <c r="AQ24" s="74"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
       <c r="AR24" s="74"/>
       <c r="AS24" s="74"/>
-      <c r="AT24" s="90"/>
-      <c r="AU24" s="90"/>
-      <c r="AV24" s="74"/>
-      <c r="AW24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
       <c r="AX24" s="74"/>
-      <c r="AY24" s="90"/>
-      <c r="AZ24" s="90"/>
-      <c r="BA24" s="74"/>
-      <c r="BB24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="90"/>
+      <c r="BB24" s="90"/>
       <c r="BC24" s="74"/>
       <c r="BD24" s="74"/>
       <c r="BE24" s="74"/>
@@ -16514,8 +16508,8 @@
       <c r="BG24" s="74"/>
       <c r="BH24" s="74"/>
       <c r="BI24" s="74"/>
-      <c r="BJ24" s="94"/>
-      <c r="BK24" s="96"/>
+      <c r="BJ24" s="74"/>
+      <c r="BK24" s="74"/>
       <c r="BL24" s="88"/>
       <c r="BM24" s="34"/>
       <c r="BN24" s="74"/>
@@ -16524,8 +16518,8 @@
       <c r="BQ24" s="74"/>
       <c r="BR24" s="78"/>
       <c r="BS24" s="74"/>
-      <c r="BT24" s="97"/>
-      <c r="BU24" s="97"/>
+      <c r="BT24" s="94"/>
+      <c r="BU24" s="94"/>
     </row>
     <row r="25" spans="1:73" s="29" customFormat="1">
       <c r="A25" s="74"/>
@@ -16555,9 +16549,9 @@
       <c r="Y25" s="90"/>
       <c r="Z25" s="90"/>
       <c r="AA25" s="74"/>
-      <c r="AB25" s="92"/>
+      <c r="AB25" s="74"/>
       <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
+      <c r="AD25" s="92"/>
       <c r="AE25" s="74"/>
       <c r="AF25" s="74"/>
       <c r="AG25" s="74"/>
@@ -16567,21 +16561,21 @@
       <c r="AK25" s="74"/>
       <c r="AL25" s="74"/>
       <c r="AM25" s="74"/>
-      <c r="AN25" s="90"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="74"/>
-      <c r="AQ25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
       <c r="AR25" s="74"/>
       <c r="AS25" s="74"/>
-      <c r="AT25" s="90"/>
-      <c r="AU25" s="90"/>
-      <c r="AV25" s="74"/>
-      <c r="AW25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
       <c r="AX25" s="74"/>
-      <c r="AY25" s="90"/>
-      <c r="AZ25" s="90"/>
-      <c r="BA25" s="74"/>
-      <c r="BB25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="74"/>
+      <c r="BA25" s="90"/>
+      <c r="BB25" s="90"/>
       <c r="BC25" s="74"/>
       <c r="BD25" s="74"/>
       <c r="BE25" s="74"/>
@@ -16589,8 +16583,8 @@
       <c r="BG25" s="74"/>
       <c r="BH25" s="74"/>
       <c r="BI25" s="74"/>
-      <c r="BJ25" s="94"/>
-      <c r="BK25" s="96"/>
+      <c r="BJ25" s="74"/>
+      <c r="BK25" s="74"/>
       <c r="BL25" s="88"/>
       <c r="BM25" s="34"/>
       <c r="BN25" s="74"/>
@@ -16599,8 +16593,8 @@
       <c r="BQ25" s="74"/>
       <c r="BR25" s="78"/>
       <c r="BS25" s="74"/>
-      <c r="BT25" s="97"/>
-      <c r="BU25" s="97"/>
+      <c r="BT25" s="94"/>
+      <c r="BU25" s="94"/>
     </row>
     <row r="26" spans="1:73" ht="11.25" customHeight="1">
       <c r="E26" s="1"/>
@@ -16616,28 +16610,28 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="X26" s="6"/>
-      <c r="AA26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AC26" s="1"/>
+      <c r="AF26" s="1"/>
       <c r="AI26" s="12"/>
-      <c r="AJ26" s="1"/>
-      <c r="AM26" s="12"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="1"/>
+      <c r="AO26" s="12"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
       <c r="AX26" s="12"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="6"/>
-      <c r="BB26" s="6"/>
-      <c r="BC26" s="12"/>
-      <c r="BF26" s="1"/>
-      <c r="BI26" s="6"/>
-      <c r="BJ26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="12"/>
+      <c r="BH26" s="1"/>
+      <c r="BK26" s="6"/>
       <c r="BL26" s="88" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="BN26" s="1"/>
       <c r="BO26" s="4"/>
@@ -16661,51 +16655,49 @@
       <c r="T27" s="1"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="37" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="Z27" s="74" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
+        <v>821</v>
+      </c>
+      <c r="AA27" s="12"/>
+      <c r="AC27" s="1"/>
+      <c r="AF27" s="1"/>
       <c r="AI27" s="12"/>
-      <c r="AJ27" s="1"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="98" t="s">
-        <v>823</v>
-      </c>
-      <c r="AO27" s="99" t="s">
-        <v>824</v>
-      </c>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="98" t="s">
-        <v>823</v>
-      </c>
-      <c r="AU27" s="99" t="s">
-        <v>824</v>
-      </c>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="1"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="95" t="s">
+        <v>820</v>
+      </c>
+      <c r="AQ27" s="96" t="s">
+        <v>821</v>
+      </c>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="95" t="s">
+        <v>820</v>
+      </c>
+      <c r="AW27" s="96" t="s">
+        <v>821</v>
+      </c>
       <c r="AX27" s="12"/>
-      <c r="AY27" s="98" t="s">
-        <v>823</v>
-      </c>
-      <c r="AZ27" s="99" t="s">
-        <v>824</v>
-      </c>
-      <c r="BA27" s="6"/>
-      <c r="BB27" s="6"/>
-      <c r="BC27" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="BF27" s="1"/>
-      <c r="BI27" s="6"/>
-      <c r="BJ27" s="12" t="s">
-        <v>829</v>
-      </c>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="95" t="s">
+        <v>820</v>
+      </c>
+      <c r="BB27" s="96" t="s">
+        <v>821</v>
+      </c>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="BH27" s="1"/>
+      <c r="BK27" s="6"/>
       <c r="BL27" s="88"/>
       <c r="BN27" s="1"/>
       <c r="BO27" s="4"/>
@@ -16730,32 +16722,32 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="37"/>
       <c r="Z28" s="74"/>
-      <c r="AD28" s="1"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AF28" s="1"/>
       <c r="AI28" s="12"/>
-      <c r="AJ28" s="1"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
       <c r="AL28" s="1"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="98"/>
-      <c r="AO28" s="99"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="98"/>
-      <c r="AU28" s="99"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="95"/>
+      <c r="AQ28" s="96"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="95"/>
+      <c r="AW28" s="96"/>
       <c r="AX28" s="12"/>
-      <c r="AY28" s="98"/>
-      <c r="AZ28" s="99"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="24" t="s">
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="95"/>
+      <c r="BB28" s="96"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="BF28" s="1"/>
-      <c r="BI28" s="6"/>
-      <c r="BJ28" s="12"/>
+      <c r="BH28" s="1"/>
+      <c r="BK28" s="6"/>
       <c r="BL28" s="88"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="4"/>
@@ -16777,28 +16769,28 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="X29" s="6"/>
-      <c r="AD29" s="1"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AF29" s="1"/>
       <c r="AI29" s="12"/>
-      <c r="AJ29" s="1"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
       <c r="AL29" s="1"/>
-      <c r="AM29" s="6"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="6"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="6"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="6"/>
       <c r="AX29" s="12"/>
-      <c r="AY29" s="1"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="12"/>
-      <c r="BF29" s="1"/>
-      <c r="BI29" s="6"/>
-      <c r="BJ29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="12"/>
+      <c r="BH29" s="1"/>
+      <c r="BK29" s="6"/>
       <c r="BL29" s="88" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="BN29" s="1"/>
       <c r="BO29" s="4"/>
@@ -16820,26 +16812,26 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="X30" s="6"/>
-      <c r="AD30" s="1"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AF30" s="1"/>
       <c r="AI30" s="12"/>
-      <c r="AJ30" s="1"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
       <c r="AL30" s="1"/>
-      <c r="AM30" s="6"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="6"/>
-      <c r="AV30" s="12"/>
-      <c r="AW30" s="12"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="6"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="6"/>
       <c r="AX30" s="12"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="12"/>
-      <c r="BF30" s="1"/>
-      <c r="BI30" s="6"/>
-      <c r="BJ30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="12"/>
+      <c r="BH30" s="1"/>
+      <c r="BK30" s="6"/>
       <c r="BL30" s="88"/>
       <c r="BN30" s="1"/>
       <c r="BO30" s="4"/>
@@ -16861,26 +16853,26 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="X31" s="6"/>
-      <c r="AD31" s="1"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AF31" s="1"/>
       <c r="AI31" s="12"/>
-      <c r="AJ31" s="1"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
       <c r="AL31" s="1"/>
-      <c r="AM31" s="6"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="6"/>
-      <c r="AV31" s="12"/>
-      <c r="AW31" s="12"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="6"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="6"/>
       <c r="AX31" s="12"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="6"/>
-      <c r="BB31" s="6"/>
-      <c r="BC31" s="12"/>
-      <c r="BF31" s="1"/>
-      <c r="BI31" s="6"/>
-      <c r="BJ31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="12"/>
+      <c r="BH31" s="1"/>
+      <c r="BK31" s="6"/>
       <c r="BL31" s="88"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="4"/>
@@ -16902,26 +16894,26 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="X32" s="6"/>
-      <c r="AD32" s="1"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AF32" s="1"/>
       <c r="AI32" s="12"/>
-      <c r="AJ32" s="1"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
       <c r="AL32" s="1"/>
-      <c r="AM32" s="6"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="6"/>
-      <c r="AV32" s="12"/>
-      <c r="AW32" s="12"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="6"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="6"/>
       <c r="AX32" s="12"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="6"/>
-      <c r="BC32" s="12"/>
-      <c r="BF32" s="1"/>
-      <c r="BI32" s="6"/>
-      <c r="BJ32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="12"/>
+      <c r="BH32" s="1"/>
+      <c r="BK32" s="6"/>
       <c r="BL32" s="88"/>
       <c r="BN32" s="1"/>
       <c r="BO32" s="4"/>
@@ -16943,26 +16935,26 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="X33" s="6"/>
-      <c r="AD33" s="1"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AF33" s="1"/>
       <c r="AI33" s="12"/>
-      <c r="AJ33" s="1"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
       <c r="AL33" s="1"/>
-      <c r="AM33" s="6"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="6"/>
-      <c r="AV33" s="12"/>
-      <c r="AW33" s="12"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="6"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="6"/>
       <c r="AX33" s="12"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="6"/>
-      <c r="BB33" s="6"/>
-      <c r="BC33" s="12"/>
-      <c r="BF33" s="1"/>
-      <c r="BI33" s="6"/>
-      <c r="BJ33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
+      <c r="BE33" s="12"/>
+      <c r="BH33" s="1"/>
+      <c r="BK33" s="6"/>
       <c r="BL33" s="93"/>
       <c r="BN33" s="1"/>
       <c r="BO33" s="4"/>
@@ -16984,26 +16976,26 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="X34" s="6"/>
-      <c r="AD34" s="1"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AF34" s="1"/>
       <c r="AI34" s="12"/>
-      <c r="AJ34" s="1"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
       <c r="AL34" s="1"/>
-      <c r="AM34" s="6"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="6"/>
-      <c r="AV34" s="12"/>
-      <c r="AW34" s="12"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="6"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="6"/>
       <c r="AX34" s="12"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="6"/>
-      <c r="BB34" s="6"/>
-      <c r="BC34" s="12"/>
-      <c r="BF34" s="1"/>
-      <c r="BI34" s="6"/>
-      <c r="BJ34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="6"/>
+      <c r="BE34" s="12"/>
+      <c r="BH34" s="1"/>
+      <c r="BK34" s="6"/>
       <c r="BL34" s="1"/>
       <c r="BN34" s="1"/>
       <c r="BO34" s="4"/>
@@ -17025,26 +17017,26 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="X35" s="6"/>
-      <c r="AD35" s="1"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AF35" s="1"/>
       <c r="AI35" s="12"/>
-      <c r="AJ35" s="1"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
       <c r="AL35" s="1"/>
-      <c r="AM35" s="6"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="6"/>
-      <c r="AV35" s="12"/>
-      <c r="AW35" s="12"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="6"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="6"/>
       <c r="AX35" s="12"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="6"/>
-      <c r="BB35" s="6"/>
-      <c r="BC35" s="12"/>
-      <c r="BF35" s="1"/>
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="12"/>
+      <c r="BH35" s="1"/>
+      <c r="BK35" s="6"/>
       <c r="BL35" s="1"/>
       <c r="BN35" s="1"/>
       <c r="BO35" s="4"/>
@@ -17066,26 +17058,26 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="X36" s="6"/>
-      <c r="AD36" s="1"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AF36" s="1"/>
       <c r="AI36" s="12"/>
-      <c r="AJ36" s="1"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
       <c r="AL36" s="1"/>
-      <c r="AM36" s="6"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="6"/>
-      <c r="AV36" s="12"/>
-      <c r="AW36" s="12"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="6"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="6"/>
       <c r="AX36" s="12"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="12"/>
-      <c r="BF36" s="1"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="12"/>
+      <c r="BH36" s="1"/>
+      <c r="BK36" s="6"/>
       <c r="BL36" s="1"/>
       <c r="BN36" s="1"/>
       <c r="BO36" s="4"/>
@@ -17107,26 +17099,26 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="X37" s="6"/>
-      <c r="AD37" s="1"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AF37" s="1"/>
       <c r="AI37" s="12"/>
-      <c r="AJ37" s="1"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
       <c r="AL37" s="1"/>
-      <c r="AM37" s="6"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="6"/>
-      <c r="AV37" s="12"/>
-      <c r="AW37" s="12"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="6"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="6"/>
       <c r="AX37" s="12"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="6"/>
-      <c r="BB37" s="6"/>
-      <c r="BC37" s="12"/>
-      <c r="BF37" s="1"/>
-      <c r="BI37" s="6"/>
-      <c r="BJ37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="12"/>
+      <c r="BH37" s="1"/>
+      <c r="BK37" s="6"/>
       <c r="BL37" s="1"/>
       <c r="BN37" s="1"/>
       <c r="BO37" s="4"/>
@@ -17148,25 +17140,25 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="X38" s="6"/>
-      <c r="AD38" s="1"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AF38" s="1"/>
       <c r="AI38" s="12"/>
-      <c r="AJ38" s="1"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
       <c r="AL38" s="1"/>
-      <c r="AM38" s="6"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="6"/>
-      <c r="AV38" s="12"/>
-      <c r="AW38" s="12"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="6"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="6"/>
       <c r="AX38" s="12"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="6"/>
-      <c r="BB38" s="6"/>
-      <c r="BC38" s="12"/>
-      <c r="BF38" s="1"/>
-      <c r="BI38" s="6"/>
-      <c r="BJ38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="12"/>
+      <c r="BH38" s="1"/>
+      <c r="BK38" s="6"/>
       <c r="BL38" s="1"/>
       <c r="BN38" s="1"/>
       <c r="BO38" s="4"/>
@@ -17187,28 +17179,28 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="Y39" s="6"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="6"/>
-      <c r="AD39" s="1"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
-      <c r="AK39" s="1"/>
-      <c r="AP39" s="6"/>
-      <c r="AQ39" s="12"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AV39" s="6"/>
-      <c r="AW39" s="12"/>
-      <c r="AX39" s="12"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="6"/>
-      <c r="BC39" s="6"/>
-      <c r="BD39" s="12"/>
-      <c r="BF39" s="6"/>
-      <c r="BG39" s="1"/>
-      <c r="BI39" s="6"/>
-      <c r="BK39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="6"/>
+      <c r="AF39" s="1"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AM39" s="1"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="6"/>
+      <c r="BE39" s="6"/>
+      <c r="BF39" s="12"/>
+      <c r="BH39" s="6"/>
+      <c r="BI39" s="1"/>
+      <c r="BK39" s="6"/>
       <c r="BM39" s="1"/>
       <c r="BN39" s="12"/>
       <c r="BP39" s="4"/>
@@ -17229,28 +17221,28 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="Y40" s="6"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="6"/>
-      <c r="AD40" s="1"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AK40" s="1"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="12"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AV40" s="6"/>
-      <c r="AW40" s="12"/>
-      <c r="AX40" s="12"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
-      <c r="BB40" s="6"/>
-      <c r="BC40" s="6"/>
-      <c r="BD40" s="12"/>
-      <c r="BF40" s="6"/>
-      <c r="BG40" s="1"/>
-      <c r="BI40" s="6"/>
-      <c r="BK40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="6"/>
+      <c r="AF40" s="1"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AM40" s="1"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="6"/>
+      <c r="BE40" s="6"/>
+      <c r="BF40" s="12"/>
+      <c r="BH40" s="6"/>
+      <c r="BI40" s="1"/>
+      <c r="BK40" s="6"/>
       <c r="BM40" s="1"/>
       <c r="BN40" s="12"/>
       <c r="BP40" s="4"/>
@@ -17271,28 +17263,28 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="Y41" s="6"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="6"/>
-      <c r="AD41" s="1"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12"/>
-      <c r="AK41" s="1"/>
-      <c r="AP41" s="6"/>
-      <c r="AQ41" s="12"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AV41" s="6"/>
-      <c r="AW41" s="12"/>
-      <c r="AX41" s="12"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="6"/>
-      <c r="BC41" s="6"/>
-      <c r="BD41" s="12"/>
-      <c r="BF41" s="6"/>
-      <c r="BG41" s="1"/>
-      <c r="BI41" s="6"/>
-      <c r="BK41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="6"/>
+      <c r="AF41" s="1"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AM41" s="1"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AX41" s="6"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="6"/>
+      <c r="BE41" s="6"/>
+      <c r="BF41" s="12"/>
+      <c r="BH41" s="6"/>
+      <c r="BI41" s="1"/>
+      <c r="BK41" s="6"/>
       <c r="BM41" s="1"/>
       <c r="BN41" s="12"/>
       <c r="BP41" s="4"/>
@@ -17313,28 +17305,28 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="Y42" s="6"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="6"/>
-      <c r="AD42" s="1"/>
-      <c r="AH42" s="12"/>
-      <c r="AI42" s="12"/>
-      <c r="AK42" s="1"/>
-      <c r="AP42" s="6"/>
-      <c r="AQ42" s="12"/>
-      <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AV42" s="6"/>
-      <c r="AW42" s="12"/>
-      <c r="AX42" s="12"/>
-      <c r="AZ42" s="1"/>
-      <c r="BA42" s="1"/>
-      <c r="BB42" s="6"/>
-      <c r="BC42" s="6"/>
-      <c r="BD42" s="12"/>
-      <c r="BF42" s="6"/>
-      <c r="BG42" s="1"/>
-      <c r="BI42" s="6"/>
-      <c r="BK42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="6"/>
+      <c r="AF42" s="1"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AM42" s="1"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="6"/>
+      <c r="BE42" s="6"/>
+      <c r="BF42" s="12"/>
+      <c r="BH42" s="6"/>
+      <c r="BI42" s="1"/>
+      <c r="BK42" s="6"/>
       <c r="BM42" s="1"/>
       <c r="BN42" s="12"/>
       <c r="BP42" s="4"/>
@@ -17355,28 +17347,28 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="Y43" s="6"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="6"/>
-      <c r="AD43" s="1"/>
-      <c r="AH43" s="12"/>
-      <c r="AI43" s="12"/>
-      <c r="AK43" s="1"/>
-      <c r="AP43" s="6"/>
-      <c r="AQ43" s="12"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AV43" s="6"/>
-      <c r="AW43" s="12"/>
-      <c r="AX43" s="12"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="6"/>
-      <c r="BC43" s="6"/>
-      <c r="BD43" s="12"/>
-      <c r="BF43" s="6"/>
-      <c r="BG43" s="1"/>
-      <c r="BI43" s="6"/>
-      <c r="BK43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="6"/>
+      <c r="AF43" s="1"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AM43" s="1"/>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="12"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="6"/>
+      <c r="BE43" s="6"/>
+      <c r="BF43" s="12"/>
+      <c r="BH43" s="6"/>
+      <c r="BI43" s="1"/>
+      <c r="BK43" s="6"/>
       <c r="BM43" s="1"/>
       <c r="BN43" s="12"/>
       <c r="BP43" s="4"/>
@@ -17397,28 +17389,28 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="Y44" s="6"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="6"/>
-      <c r="AD44" s="1"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AK44" s="1"/>
-      <c r="AP44" s="6"/>
-      <c r="AQ44" s="12"/>
-      <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AV44" s="6"/>
-      <c r="AW44" s="12"/>
-      <c r="AX44" s="12"/>
-      <c r="AZ44" s="1"/>
-      <c r="BA44" s="1"/>
-      <c r="BB44" s="6"/>
-      <c r="BC44" s="6"/>
-      <c r="BD44" s="12"/>
-      <c r="BF44" s="6"/>
-      <c r="BG44" s="1"/>
-      <c r="BI44" s="6"/>
-      <c r="BK44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="6"/>
+      <c r="AF44" s="1"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AM44" s="1"/>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AX44" s="6"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="6"/>
+      <c r="BE44" s="6"/>
+      <c r="BF44" s="12"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="1"/>
+      <c r="BK44" s="6"/>
       <c r="BM44" s="1"/>
       <c r="BN44" s="12"/>
       <c r="BP44" s="4"/>
@@ -17439,28 +17431,28 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="Y45" s="6"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="6"/>
-      <c r="AD45" s="1"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12"/>
-      <c r="AK45" s="1"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="12"/>
-      <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-      <c r="AV45" s="6"/>
-      <c r="AW45" s="12"/>
-      <c r="AX45" s="12"/>
-      <c r="AZ45" s="1"/>
-      <c r="BA45" s="1"/>
-      <c r="BB45" s="6"/>
-      <c r="BC45" s="6"/>
-      <c r="BD45" s="12"/>
-      <c r="BF45" s="6"/>
-      <c r="BG45" s="1"/>
-      <c r="BI45" s="6"/>
-      <c r="BK45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="6"/>
+      <c r="AF45" s="1"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AM45" s="1"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="6"/>
+      <c r="BE45" s="6"/>
+      <c r="BF45" s="12"/>
+      <c r="BH45" s="6"/>
+      <c r="BI45" s="1"/>
+      <c r="BK45" s="6"/>
       <c r="BM45" s="1"/>
       <c r="BN45" s="12"/>
       <c r="BP45" s="4"/>
@@ -17481,28 +17473,28 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="Y46" s="6"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="6"/>
-      <c r="AD46" s="1"/>
-      <c r="AH46" s="12"/>
-      <c r="AI46" s="12"/>
-      <c r="AK46" s="1"/>
-      <c r="AP46" s="6"/>
-      <c r="AQ46" s="12"/>
-      <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-      <c r="AV46" s="6"/>
-      <c r="AW46" s="12"/>
-      <c r="AX46" s="12"/>
-      <c r="AZ46" s="1"/>
-      <c r="BA46" s="1"/>
-      <c r="BB46" s="6"/>
-      <c r="BC46" s="6"/>
-      <c r="BD46" s="12"/>
-      <c r="BF46" s="6"/>
-      <c r="BG46" s="1"/>
-      <c r="BI46" s="6"/>
-      <c r="BK46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="6"/>
+      <c r="AF46" s="1"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AM46" s="1"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AX46" s="6"/>
+      <c r="AY46" s="12"/>
+      <c r="AZ46" s="12"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="6"/>
+      <c r="BF46" s="12"/>
+      <c r="BH46" s="6"/>
+      <c r="BI46" s="1"/>
+      <c r="BK46" s="6"/>
       <c r="BM46" s="1"/>
       <c r="BN46" s="12"/>
       <c r="BP46" s="4"/>
@@ -17523,28 +17515,28 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="Y47" s="6"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="6"/>
-      <c r="AD47" s="1"/>
-      <c r="AH47" s="12"/>
-      <c r="AI47" s="12"/>
-      <c r="AK47" s="1"/>
-      <c r="AP47" s="6"/>
-      <c r="AQ47" s="12"/>
-      <c r="AR47" s="1"/>
-      <c r="AS47" s="1"/>
-      <c r="AV47" s="6"/>
-      <c r="AW47" s="12"/>
-      <c r="AX47" s="12"/>
-      <c r="AZ47" s="1"/>
-      <c r="BA47" s="1"/>
-      <c r="BB47" s="6"/>
-      <c r="BC47" s="6"/>
-      <c r="BD47" s="12"/>
-      <c r="BF47" s="6"/>
-      <c r="BG47" s="1"/>
-      <c r="BI47" s="6"/>
-      <c r="BK47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="6"/>
+      <c r="AF47" s="1"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AM47" s="1"/>
+      <c r="AR47" s="6"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="6"/>
+      <c r="BE47" s="6"/>
+      <c r="BF47" s="12"/>
+      <c r="BH47" s="6"/>
+      <c r="BI47" s="1"/>
+      <c r="BK47" s="6"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="12"/>
       <c r="BP47" s="4"/>
@@ -17565,27 +17557,27 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="Y48" s="6"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="6"/>
-      <c r="AD48" s="1"/>
-      <c r="AH48" s="12"/>
-      <c r="AI48" s="12"/>
-      <c r="AK48" s="1"/>
-      <c r="AP48" s="6"/>
-      <c r="AQ48" s="12"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AV48" s="6"/>
-      <c r="AW48" s="12"/>
-      <c r="AX48" s="12"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="6"/>
-      <c r="BC48" s="6"/>
-      <c r="BD48" s="12"/>
-      <c r="BF48" s="6"/>
-      <c r="BG48" s="1"/>
-      <c r="BI48" s="6"/>
-      <c r="BK48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="6"/>
+      <c r="AF48" s="1"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AM48" s="1"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="12"/>
+      <c r="AZ48" s="12"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="6"/>
+      <c r="BE48" s="6"/>
+      <c r="BF48" s="12"/>
+      <c r="BH48" s="6"/>
+      <c r="BI48" s="1"/>
+      <c r="BK48" s="6"/>
       <c r="BM48" s="1"/>
       <c r="BN48" s="12"/>
       <c r="BP48" s="4"/>
@@ -17615,26 +17607,26 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AN21:AN25"/>
-    <mergeCell ref="AO21:AO25"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AO27:AO28"/>
+    <mergeCell ref="AQ27:AQ28"/>
     <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AY27:AY28"/>
-    <mergeCell ref="AZ27:AZ28"/>
+    <mergeCell ref="AG21:AG25"/>
+    <mergeCell ref="BA27:BA28"/>
+    <mergeCell ref="BB27:BB28"/>
+    <mergeCell ref="AV21:AV25"/>
+    <mergeCell ref="AJ21:AJ25"/>
+    <mergeCell ref="AK21:AK25"/>
+    <mergeCell ref="AO21:AO25"/>
+    <mergeCell ref="AU21:AU25"/>
     <mergeCell ref="AT21:AT25"/>
-    <mergeCell ref="AH21:AH25"/>
-    <mergeCell ref="AI21:AI25"/>
-    <mergeCell ref="AM21:AM25"/>
-    <mergeCell ref="AS21:AS25"/>
-    <mergeCell ref="AE21:AE25"/>
-    <mergeCell ref="AR21:AR25"/>
-    <mergeCell ref="AL21:AL25"/>
-    <mergeCell ref="AX21:AX25"/>
-    <mergeCell ref="AU21:AU25"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AU27:AU28"/>
+    <mergeCell ref="AN21:AN25"/>
+    <mergeCell ref="AZ21:AZ25"/>
+    <mergeCell ref="AW21:AW25"/>
+    <mergeCell ref="AV27:AV28"/>
+    <mergeCell ref="AW27:AW28"/>
+    <mergeCell ref="AP21:AP25"/>
+    <mergeCell ref="AQ21:AQ25"/>
+    <mergeCell ref="AP27:AP28"/>
     <mergeCell ref="BL26:BL28"/>
     <mergeCell ref="BL29:BL33"/>
     <mergeCell ref="BT18:BU25"/>
@@ -17642,15 +17634,15 @@
     <mergeCell ref="S21:S25"/>
     <mergeCell ref="T21:T25"/>
     <mergeCell ref="U21:U25"/>
-    <mergeCell ref="BC21:BC25"/>
-    <mergeCell ref="BD21:BD25"/>
+    <mergeCell ref="BE21:BE25"/>
+    <mergeCell ref="BF21:BF25"/>
     <mergeCell ref="Y21:Y25"/>
-    <mergeCell ref="AJ21:AJ25"/>
-    <mergeCell ref="AK21:AK25"/>
-    <mergeCell ref="AP21:AP25"/>
-    <mergeCell ref="AQ21:AQ25"/>
-    <mergeCell ref="AV21:AV25"/>
-    <mergeCell ref="AW21:AW25"/>
+    <mergeCell ref="AL21:AL25"/>
+    <mergeCell ref="AM21:AM25"/>
+    <mergeCell ref="AR21:AR25"/>
+    <mergeCell ref="AS21:AS25"/>
+    <mergeCell ref="AX21:AX25"/>
+    <mergeCell ref="AY21:AY25"/>
     <mergeCell ref="O21:O25"/>
     <mergeCell ref="P21:P25"/>
     <mergeCell ref="N21:N25"/>
@@ -17660,26 +17652,26 @@
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="D21:D25"/>
     <mergeCell ref="Z21:Z25"/>
+    <mergeCell ref="AC21:AC25"/>
     <mergeCell ref="AA21:AA25"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="BK21:BK25"/>
+    <mergeCell ref="BH21:BH25"/>
+    <mergeCell ref="BG21:BG25"/>
+    <mergeCell ref="BD21:BD25"/>
+    <mergeCell ref="BC21:BC25"/>
+    <mergeCell ref="BI21:BI25"/>
     <mergeCell ref="BJ21:BJ25"/>
-    <mergeCell ref="BK21:BK25"/>
-    <mergeCell ref="BI21:BI25"/>
-    <mergeCell ref="BF21:BF25"/>
-    <mergeCell ref="BE21:BE25"/>
-    <mergeCell ref="BB21:BB25"/>
-    <mergeCell ref="BA21:BA25"/>
-    <mergeCell ref="BG21:BG25"/>
-    <mergeCell ref="BH21:BH25"/>
     <mergeCell ref="M21:M25"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="W21:W25"/>
+    <mergeCell ref="AH21:AH25"/>
+    <mergeCell ref="AI21:AI25"/>
+    <mergeCell ref="AE21:AE25"/>
     <mergeCell ref="AF21:AF25"/>
-    <mergeCell ref="AG21:AG25"/>
-    <mergeCell ref="AC21:AC25"/>
     <mergeCell ref="AD21:AD25"/>
-    <mergeCell ref="AB21:AB25"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="L21:L25"/>
     <mergeCell ref="V21:V25"/>
@@ -17701,8 +17693,8 @@
     <mergeCell ref="BO18:BO20"/>
     <mergeCell ref="BP18:BP20"/>
     <mergeCell ref="X21:X25"/>
-    <mergeCell ref="AY21:AY25"/>
-    <mergeCell ref="AZ21:AZ25"/>
+    <mergeCell ref="BA21:BA25"/>
+    <mergeCell ref="BB21:BB25"/>
     <mergeCell ref="K21:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17717,8 +17709,8 @@
   </sheetPr>
   <dimension ref="A1:BW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -17809,7 +17801,7 @@
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="17" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="BJ2" s="35"/>
       <c r="BV2" s="1"/>
@@ -17821,7 +17813,7 @@
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="17" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -17883,13 +17875,13 @@
         <v>247</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -17930,7 +17922,7 @@
       <c r="BI6" s="6"/>
       <c r="BJ6" s="12"/>
       <c r="BL6" s="88" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="BN6" s="1"/>
       <c r="BO6" s="4"/>
@@ -17940,19 +17932,19 @@
     </row>
     <row r="7" spans="1:75">
       <c r="A7" s="7" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>630</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>1</v>
@@ -17998,19 +17990,19 @@
     </row>
     <row r="8" spans="1:75">
       <c r="A8" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>291</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
@@ -18056,19 +18048,19 @@
     </row>
     <row r="9" spans="1:75">
       <c r="A9" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -18114,19 +18106,19 @@
     </row>
     <row r="10" spans="1:75" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>630</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -18169,19 +18161,19 @@
     </row>
     <row r="11" spans="1:75" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>630</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
@@ -18223,19 +18215,19 @@
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -18277,19 +18269,19 @@
     </row>
     <row r="13" spans="1:75" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -18367,19 +18359,19 @@
       <c r="BW14" s="6"/>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="98" t="s">
+        <v>854</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="70" t="s">
+        <v>856</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>858</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="70" t="s">
-        <v>860</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>862</v>
-      </c>
       <c r="F15" s="70" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -18418,9 +18410,9 @@
       <c r="BW15" s="6"/>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -18461,9 +18453,9 @@
       <c r="BW16" s="6"/>
     </row>
     <row r="17" spans="1:75" s="1" customFormat="1">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
       <c r="F17" s="70"/>
@@ -18503,22 +18495,22 @@
     </row>
     <row r="18" spans="1:75" s="1" customFormat="1">
       <c r="A18" s="37" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>862</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>855</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>857</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>866</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="F18" s="37" t="s">
         <v>859</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>861</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>863</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -18750,12 +18742,12 @@
       <c r="BW23" s="6"/>
     </row>
     <row r="24" spans="1:75" s="1" customFormat="1">
-      <c r="A24" s="100" t="s">
-        <v>865</v>
-      </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
+      <c r="A24" s="97" t="s">
+        <v>861</v>
+      </c>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -18909,106 +18901,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F3:F8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F75" sqref="F3:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="3:13">
-      <c r="C3" s="1" t="s">
-        <v>247</v>
+      <c r="C3" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE(C3,",")</f>
-        <v>CD_ITEM,</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>638</v>
+        <v>CD_CIA,</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>743</v>
       </c>
       <c r="M3" t="str">
         <f>CONCATENATE("'",K3,"',")</f>
-        <v>'R20000127',</v>
+        <v>'R20000100',</v>
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="1" t="s">
-        <v>833</v>
+      <c r="C4" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" si="0">CONCATENATE(C4,",")</f>
-        <v>DT_ULTIMO_RECEBIMENTO,</v>
+        <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>641</v>
+        <v>789</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" ref="M4:M12" si="1">CONCATENATE("'",K4,"',")</f>
-        <v>'R20000126',</v>
+        <v>'R00000320',</v>
       </c>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="1" t="s">
-        <v>831</v>
+      <c r="C5" s="27" t="s">
+        <v>339</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CMV,</v>
+        <v>NR_NF_RECEBIDA,</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>645</v>
+        <v>804</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000122',</v>
+        <v>'R10000018',</v>
       </c>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="1" t="s">
-        <v>832</v>
+      <c r="C6" s="27" t="s">
+        <v>589</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>QT_ULTIMO_RECEBIMENTO,</v>
+        <v>SQ_ITEM_NF_RECEBIDA,</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000457',</v>
+        <v>'R20000126',</v>
       </c>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="1" t="s">
-        <v>8</v>
+      <c r="C7" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>CD_FILIAL,</v>
+        <v>CD_ITEM,</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000220',</v>
+        <v>'R20000127',</v>
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+      <c r="C8" s="27" t="s">
+        <v>592</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>CD_UNIDADE_EMPRESARIAL,</v>
+        <v>QT_NOMINAL_NF,</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000102',</v>
+        <v>'R20000220',</v>
       </c>
     </row>
     <row r="9" spans="3:13">
@@ -19020,11 +19012,11 @@
         <v>VL_UNITARIO,</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>745</v>
+        <v>657</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000100',</v>
+        <v>'R20000457',</v>
       </c>
     </row>
     <row r="10" spans="3:13">
@@ -19036,11 +19028,11 @@
         <v>VL_MERCADORIA,</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>693</v>
+        <v>573</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000499',</v>
+        <v>'R20000404',</v>
       </c>
     </row>
     <row r="11" spans="3:13">
@@ -19052,7 +19044,7 @@
         <v>VL_TOTAL_ITEM_NF,</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
@@ -19068,11 +19060,11 @@
         <v>CD_NATUREZA_OPERACAO,</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>573</v>
+        <v>692</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>'R20000404',</v>
+        <v>'R20000499',</v>
       </c>
     </row>
     <row r="13" spans="3:13">
@@ -19338,308 +19330,308 @@
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="27" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_COFINS,</v>
+        <v>VL_PIS_FRETE,</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="27" t="s">
-        <v>366</v>
+        <v>611</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS,</v>
+        <v>VL_PIS_OUTROS,</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="27" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_MERCADORIA,</v>
+        <v>VL_PERCENTUAL_COFINS,</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="27" t="s">
-        <v>55</v>
+        <v>366</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_IMPORTACAO,</v>
+        <v>VL_COFINS,</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="27" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_CSLL,</v>
+        <v>VL_COFINS_MERCADORIA,</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="C47" s="27" t="s">
-        <v>367</v>
+        <v>55</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL,</v>
+        <v>VL_COFINS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="27" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_MERCADORIA,</v>
+        <v>VL_COFINS_FRETE,</v>
       </c>
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="27" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_FRETE,</v>
+        <v>VL_COFINS_OUTROS,</v>
       </c>
     </row>
     <row r="50" spans="3:6">
       <c r="C50" s="27" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_OUTROS,</v>
+        <v>VL_PERCENTUAL_CSLL,</v>
       </c>
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_IMPOSTO_IMPORTACAO,</v>
+        <v>VL_CSLL,</v>
       </c>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="27" t="s">
-        <v>51</v>
+        <v>615</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IMPOSTO_IMPORTACAO,</v>
+        <v>VL_CSLL_MERCADORIA,</v>
       </c>
     </row>
     <row r="53" spans="3:6">
       <c r="C53" s="27" t="s">
-        <v>353</v>
+        <v>616</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>VL_SERVICO,</v>
+        <v>VL_CSLL_FRETE,</v>
       </c>
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="27" t="s">
-        <v>30</v>
+        <v>617</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>NR_PEDIDO_COMPRA,</v>
+        <v>VL_CSLL_OUTROS,</v>
       </c>
     </row>
     <row r="55" spans="3:6">
       <c r="C55" s="27" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NFR,</v>
+        <v>VL_BASE_IMPOSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="56" spans="3:6">
       <c r="C56" s="27" t="s">
-        <v>593</v>
+        <v>51</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>QT_RECEBIDA,</v>
+        <v>VL_IMPOSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="57" spans="3:6">
       <c r="C57" s="27" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ADICIONAL_IMPORTACAO,</v>
+        <v>VL_SERVICO,</v>
       </c>
     </row>
     <row r="58" spans="3:6">
       <c r="C58" s="27" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CIF_IMPORTACAO,</v>
+        <v>NR_PEDIDO_COMPRA,</v>
       </c>
     </row>
     <row r="59" spans="3:6">
       <c r="C59" s="27" t="s">
-        <v>622</v>
+        <v>336</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CUSTO_IMPORTACAO,</v>
+        <v>NR_NFR,</v>
       </c>
     </row>
     <row r="60" spans="3:6">
       <c r="C60" s="27" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_ICMS_NAO_REDUTOR,</v>
+        <v>QT_RECEBIDA,</v>
       </c>
     </row>
     <row r="61" spans="3:6">
       <c r="C61" s="27" t="s">
-        <v>619</v>
+        <v>53</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_REDUTOR_ICMS,</v>
+        <v>VL_ADICIONAL_IMPORTACAO,</v>
       </c>
     </row>
     <row r="62" spans="3:6">
       <c r="C62" s="27" t="s">
-        <v>624</v>
+        <v>56</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>NR_CNPJ_CPF_ENTREGA,</v>
+        <v>VL_CIF_IMPORTACAO,</v>
       </c>
     </row>
     <row r="63" spans="3:6">
       <c r="C63" s="27" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>QT_NAO_RECEBIDA_DEVOLUCAO,</v>
+        <v>VL_CUSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="64" spans="3:6">
       <c r="C64" s="27" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>CD_NBM,</v>
+        <v>VL_BASE_ICMS_NAO_REDUTOR,</v>
       </c>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="27" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_NBM,</v>
+        <v>VL_PERCENTUAL_REDUTOR_ICMS,</v>
       </c>
     </row>
     <row r="66" spans="3:6">
       <c r="C66" s="27" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>QT_RECEBIDA_FISICA,</v>
+        <v>NR_CNPJ_CPF_ENTREGA,</v>
       </c>
     </row>
     <row r="67" spans="3:6">
       <c r="C67" s="27" t="s">
-        <v>9</v>
+        <v>618</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
-        <v>CD_UNIDADE_EMPRESARIAL,</v>
+        <v>QT_NAO_RECEBIDA_DEVOLUCAO,</v>
       </c>
     </row>
     <row r="68" spans="3:6">
       <c r="C68" s="27" t="s">
-        <v>8</v>
+        <v>590</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F77" si="2">CONCATENATE(C68,",")</f>
-        <v>CD_FILIAL,</v>
+        <v>CD_NBM,</v>
       </c>
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="27" t="s">
-        <v>361</v>
+        <v>591</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
-        <v>DT_ATUALIZACAO,</v>
+        <v>SQ_NBM,</v>
       </c>
     </row>
     <row r="70" spans="3:6">
       <c r="C70" s="27" t="s">
-        <v>355</v>
+        <v>623</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="2"/>
-        <v>VL_DESPESA_ACESSORIA,</v>
+        <v>QT_RECEBIDA_FISICA,</v>
       </c>
     </row>
     <row r="71" spans="3:6">
       <c r="C71" s="27" t="s">
-        <v>600</v>
+        <v>9</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="2"/>
-        <v>NR_NFR_REFERENCIA,</v>
+        <v>CD_UNIDADE_EMPRESARIAL,</v>
       </c>
     </row>
     <row r="72" spans="3:6">
       <c r="C72" s="27" t="s">
-        <v>601</v>
+        <v>8</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="2"/>
-        <v>NR_ITEM_NFR_REFERENCIA,</v>
+        <v>CD_FILIAL,</v>
       </c>
     </row>
     <row r="73" spans="3:6">
       <c r="C73" s="27" t="s">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="2"/>
-        <v>VL_COFINS_FRETE,</v>
+        <v>DT_ATUALIZACAO,</v>
       </c>
     </row>
     <row r="74" spans="3:6">
       <c r="C74" s="27" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="2"/>
-        <v>VL_COFINS_OUTROS,</v>
+        <v>NR_NFR_REFERENCIA,</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="C75" s="27" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="2"/>
-        <v>VL_PIS_FRETE,</v>
+        <v>NR_ITEM_NFR_REFERENCIA,</v>
       </c>
     </row>
     <row r="76" spans="3:6">

--- a/Documentação/Planilhas/Conferencia_NFR.xlsx
+++ b/Documentação/Planilhas/Conferencia_NFR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="867">
   <si>
     <t>1</t>
   </si>
@@ -2831,9 +2831,6 @@
   </si>
   <si>
     <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Pedir o detalhamento da última data apresentada. Na aba inferior "Detalhes de Custos", pegar o valor da coluna da coluna MAUC [BRL]</t>
-  </si>
-  <si>
-    <t>86.9800</t>
   </si>
   <si>
     <t>66.6600</t>
@@ -3165,7 +3162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3259,9 +3256,6 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3269,61 +3263,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3359,10 +3305,58 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3378,21 +3372,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3422,7 +3401,25 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3431,10 +3428,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3443,10 +3437,10 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3839,19 +3833,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="17" t="s">
         <v>245</v>
       </c>
@@ -5306,148 +5300,148 @@
       <c r="AO18" s="4"/>
     </row>
     <row r="19" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="47" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="44" t="s">
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="AJ19" s="47" t="s">
+      <c r="AJ19" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="41" t="s">
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="AQ19" s="44" t="s">
+      <c r="AQ19" s="65" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="66"/>
     </row>
     <row r="21" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="43"/>
-      <c r="AQ21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="67"/>
     </row>
     <row r="22" spans="1:43" ht="11.25" customHeight="1">
       <c r="A22" s="37" t="s">
@@ -5489,7 +5483,7 @@
       <c r="M22" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="36" t="s">
         <v>211</v>
       </c>
       <c r="O22" s="37" t="s">
@@ -5576,7 +5570,7 @@
       <c r="AP22" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="AQ22" s="38" t="s">
+      <c r="AQ22" s="59" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5594,7 +5588,7 @@
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
-      <c r="N23" s="67"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
@@ -5623,7 +5617,7 @@
       <c r="AN23" s="37"/>
       <c r="AO23" s="37"/>
       <c r="AP23" s="37"/>
-      <c r="AQ23" s="39"/>
+      <c r="AQ23" s="60"/>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" s="37"/>
@@ -5639,7 +5633,7 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
-      <c r="N24" s="67"/>
+      <c r="N24" s="36"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
@@ -5668,7 +5662,7 @@
       <c r="AN24" s="37"/>
       <c r="AO24" s="37"/>
       <c r="AP24" s="37"/>
-      <c r="AQ24" s="39"/>
+      <c r="AQ24" s="60"/>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" s="37"/>
@@ -5684,7 +5678,7 @@
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
-      <c r="N25" s="67"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
@@ -5713,7 +5707,7 @@
       <c r="AN25" s="37"/>
       <c r="AO25" s="37"/>
       <c r="AP25" s="37"/>
-      <c r="AQ25" s="39"/>
+      <c r="AQ25" s="60"/>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" s="37"/>
@@ -5729,7 +5723,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
-      <c r="N26" s="67"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
@@ -5758,7 +5752,7 @@
       <c r="AN26" s="37"/>
       <c r="AO26" s="37"/>
       <c r="AP26" s="37"/>
-      <c r="AQ26" s="39"/>
+      <c r="AQ26" s="60"/>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" s="37"/>
@@ -5774,7 +5768,7 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
-      <c r="N27" s="67"/>
+      <c r="N27" s="36"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
@@ -5803,38 +5797,54 @@
       <c r="AN27" s="37"/>
       <c r="AO27" s="37"/>
       <c r="AP27" s="37"/>
-      <c r="AQ27" s="40"/>
+      <c r="AQ27" s="61"/>
     </row>
     <row r="29" spans="1:43" ht="11.25" customHeight="1">
       <c r="I29" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="O29" s="68" t="s">
+      <c r="O29" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:43" ht="56.25">
       <c r="I30" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="O29:Q30"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="AJ22:AJ27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="AO22:AO27"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="AP22:AP27"/>
+    <mergeCell ref="AP19:AP21"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AJ19:AO21"/>
+    <mergeCell ref="AQ19:AQ21"/>
+    <mergeCell ref="AI22:AI27"/>
+    <mergeCell ref="AN22:AN27"/>
+    <mergeCell ref="AM22:AM27"/>
+    <mergeCell ref="AK22:AK27"/>
+    <mergeCell ref="AL22:AL27"/>
+    <mergeCell ref="AB19:AH21"/>
+    <mergeCell ref="U22:U27"/>
+    <mergeCell ref="W22:W27"/>
+    <mergeCell ref="X22:X27"/>
+    <mergeCell ref="V22:V27"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="Z22:Z27"/>
+    <mergeCell ref="AE22:AE27"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AB22:AB27"/>
+    <mergeCell ref="AD22:AD27"/>
+    <mergeCell ref="AA22:AA27"/>
+    <mergeCell ref="AH22:AH27"/>
+    <mergeCell ref="AG22:AG27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AF22:AF27"/>
@@ -5851,32 +5861,16 @@
     <mergeCell ref="S22:S27"/>
     <mergeCell ref="T22:T27"/>
     <mergeCell ref="H22:H27"/>
-    <mergeCell ref="AB19:AH21"/>
-    <mergeCell ref="U22:U27"/>
-    <mergeCell ref="W22:W27"/>
-    <mergeCell ref="X22:X27"/>
-    <mergeCell ref="V22:V27"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="Z22:Z27"/>
-    <mergeCell ref="AE22:AE27"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AB22:AB27"/>
-    <mergeCell ref="AD22:AD27"/>
-    <mergeCell ref="AA22:AA27"/>
-    <mergeCell ref="AH22:AH27"/>
-    <mergeCell ref="AG22:AG27"/>
-    <mergeCell ref="AO22:AO27"/>
-    <mergeCell ref="AQ22:AQ27"/>
-    <mergeCell ref="AP22:AP27"/>
-    <mergeCell ref="AP19:AP21"/>
-    <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="AJ19:AO21"/>
-    <mergeCell ref="AQ19:AQ21"/>
-    <mergeCell ref="AI22:AI27"/>
-    <mergeCell ref="AN22:AN27"/>
-    <mergeCell ref="AM22:AM27"/>
-    <mergeCell ref="AK22:AK27"/>
-    <mergeCell ref="AL22:AL27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="O29:Q30"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="AJ22:AJ27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5942,19 +5936,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="2" t="s">
         <v>333</v>
       </c>
@@ -6749,124 +6743,124 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="70" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="44" t="s">
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="65" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="66"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="67"/>
     </row>
     <row r="22" spans="1:23" ht="11.25" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40" t="s">
+      <c r="F22" s="61"/>
+      <c r="G22" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="61" t="s">
         <v>314</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="P22" s="40" t="s">
+      <c r="P22" s="61" t="s">
         <v>325</v>
       </c>
       <c r="Q22" s="37" t="s">
@@ -6887,7 +6881,7 @@
       <c r="V22" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="W22" s="71" t="s">
+      <c r="W22" s="70" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6913,7 +6907,7 @@
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
-      <c r="W23" s="72"/>
+      <c r="W23" s="71"/>
     </row>
     <row r="24" spans="1:23">
       <c r="B24" s="37"/>
@@ -6937,7 +6931,7 @@
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
-      <c r="W24" s="72"/>
+      <c r="W24" s="71"/>
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="37"/>
@@ -6961,7 +6955,7 @@
       <c r="T25" s="37"/>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
-      <c r="W25" s="72"/>
+      <c r="W25" s="71"/>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="37"/>
@@ -6985,7 +6979,7 @@
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
       <c r="V26" s="37"/>
-      <c r="W26" s="72"/>
+      <c r="W26" s="71"/>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="37"/>
@@ -7009,52 +7003,64 @@
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
       <c r="V27" s="37"/>
-      <c r="W27" s="73"/>
+      <c r="W27" s="72"/>
     </row>
     <row r="28" spans="1:23">
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:23" ht="11.25" customHeight="1">
       <c r="B29" s="6"/>
-      <c r="O29" s="68" t="s">
+      <c r="O29" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="P29" s="68"/>
-      <c r="W29" s="69" t="s">
+      <c r="P29" s="38"/>
+      <c r="W29" s="68" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="B30" s="6"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="W30" s="69"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="W30" s="68"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="W31" s="69"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="W31" s="68"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="W32" s="69"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="W32" s="68"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="W33" s="69"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="W33" s="68"/>
     </row>
     <row r="34" spans="15:23">
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="15:23">
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="T22:T27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="W29:W33"/>
     <mergeCell ref="B19:P21"/>
@@ -7071,18 +7077,6 @@
     <mergeCell ref="W22:W27"/>
     <mergeCell ref="R22:R27"/>
     <mergeCell ref="S22:S27"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="T22:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7164,19 +7158,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:56" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="17" t="s">
         <v>587</v>
       </c>
@@ -9138,351 +9132,351 @@
       <c r="BB19" s="1"/>
     </row>
     <row r="20" spans="1:56" ht="15" customHeight="1">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="73" t="s">
         <v>582</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="80"/>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="80"/>
-      <c r="AJ20" s="80"/>
-      <c r="AK20" s="80"/>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="80"/>
-      <c r="AN20" s="80"/>
-      <c r="AO20" s="80"/>
-      <c r="AP20" s="80"/>
-      <c r="AQ20" s="80"/>
-      <c r="AR20" s="80"/>
-      <c r="AS20" s="80"/>
-      <c r="AT20" s="80"/>
-      <c r="AU20" s="80"/>
-      <c r="AV20" s="80"/>
-      <c r="AW20" s="80"/>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="70" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="75"/>
+      <c r="AY20" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="AZ20" s="70" t="s">
+      <c r="AZ20" s="69" t="s">
         <v>584</v>
       </c>
       <c r="BA20" s="12"/>
       <c r="BB20" s="1"/>
-      <c r="BC20" s="70" t="s">
+      <c r="BC20" s="69" t="s">
         <v>585</v>
       </c>
-      <c r="BD20" s="70" t="s">
+      <c r="BD20" s="69" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:56" ht="11.25" customHeight="1">
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="83"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="83"/>
-      <c r="AM21" s="83"/>
-      <c r="AN21" s="83"/>
-      <c r="AO21" s="83"/>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="83"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="83"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
       <c r="BA21" s="12"/>
       <c r="BB21" s="1"/>
-      <c r="BC21" s="70"/>
-      <c r="BD21" s="70"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="69"/>
     </row>
     <row r="22" spans="1:56" ht="11.25" customHeight="1">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="86"/>
-      <c r="AK22" s="86"/>
-      <c r="AL22" s="86"/>
-      <c r="AM22" s="86"/>
-      <c r="AN22" s="86"/>
-      <c r="AO22" s="86"/>
-      <c r="AP22" s="86"/>
-      <c r="AQ22" s="86"/>
-      <c r="AR22" s="86"/>
-      <c r="AS22" s="86"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="86"/>
-      <c r="AV22" s="86"/>
-      <c r="AW22" s="86"/>
-      <c r="AX22" s="87"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="70"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="80"/>
+      <c r="AL22" s="80"/>
+      <c r="AM22" s="80"/>
+      <c r="AN22" s="80"/>
+      <c r="AO22" s="80"/>
+      <c r="AP22" s="80"/>
+      <c r="AQ22" s="80"/>
+      <c r="AR22" s="80"/>
+      <c r="AS22" s="80"/>
+      <c r="AT22" s="80"/>
+      <c r="AU22" s="80"/>
+      <c r="AV22" s="80"/>
+      <c r="AW22" s="80"/>
+      <c r="AX22" s="81"/>
+      <c r="AY22" s="69"/>
+      <c r="AZ22" s="69"/>
       <c r="BA22" s="6"/>
       <c r="BB22" s="1"/>
-      <c r="BC22" s="70"/>
-      <c r="BD22" s="70"/>
+      <c r="BC22" s="69"/>
+      <c r="BD22" s="69"/>
     </row>
     <row r="23" spans="1:56" ht="11.25" customHeight="1">
       <c r="A23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="61" t="s">
         <v>515</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="61" t="s">
         <v>502</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="61" t="s">
         <v>503</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="72" t="s">
         <v>517</v>
       </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="40" t="s">
+      <c r="I23" s="72"/>
+      <c r="J23" s="61" t="s">
         <v>497</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="61" t="s">
         <v>498</v>
       </c>
-      <c r="L23" s="40" t="s">
+      <c r="L23" s="61" t="s">
         <v>499</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="61" t="s">
         <v>500</v>
       </c>
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="O23" s="40" t="s">
+      <c r="O23" s="61" t="s">
         <v>505</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="61" t="s">
         <v>506</v>
       </c>
-      <c r="Q23" s="40" t="s">
+      <c r="Q23" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="R23" s="40" t="s">
+      <c r="R23" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="S23" s="40" t="s">
+      <c r="S23" s="61" t="s">
         <v>512</v>
       </c>
-      <c r="T23" s="40" t="s">
+      <c r="T23" s="61" t="s">
         <v>509</v>
       </c>
-      <c r="U23" s="40" t="s">
+      <c r="U23" s="61" t="s">
         <v>510</v>
       </c>
-      <c r="V23" s="40" t="s">
+      <c r="V23" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="W23" s="40" t="s">
+      <c r="W23" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="X23" s="40" t="s">
+      <c r="X23" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="Y23" s="40" t="s">
+      <c r="Y23" s="61" t="s">
         <v>518</v>
       </c>
-      <c r="Z23" s="75" t="s">
+      <c r="Z23" s="85" t="s">
         <v>735</v>
       </c>
-      <c r="AA23" s="73" t="s">
+      <c r="AA23" s="72" t="s">
         <v>535</v>
       </c>
-      <c r="AB23" s="73" t="s">
+      <c r="AB23" s="72" t="s">
         <v>537</v>
       </c>
-      <c r="AC23" s="73" t="s">
+      <c r="AC23" s="72" t="s">
         <v>536</v>
       </c>
-      <c r="AD23" s="73" t="s">
+      <c r="AD23" s="72" t="s">
         <v>538</v>
       </c>
-      <c r="AE23" s="73" t="s">
+      <c r="AE23" s="72" t="s">
         <v>539</v>
       </c>
-      <c r="AF23" s="73" t="s">
+      <c r="AF23" s="72" t="s">
         <v>540</v>
       </c>
-      <c r="AG23" s="73" t="s">
+      <c r="AG23" s="72" t="s">
         <v>541</v>
       </c>
-      <c r="AH23" s="73" t="s">
+      <c r="AH23" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="AI23" s="73" t="s">
+      <c r="AI23" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="AJ23" s="77" t="s">
+      <c r="AJ23" s="84" t="s">
         <v>544</v>
       </c>
-      <c r="AK23" s="73" t="s">
+      <c r="AK23" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="AL23" s="73" t="s">
+      <c r="AL23" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="AM23" s="73" t="s">
+      <c r="AM23" s="72" t="s">
         <v>547</v>
       </c>
-      <c r="AN23" s="73" t="s">
+      <c r="AN23" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="AO23" s="73" t="s">
+      <c r="AO23" s="72" t="s">
         <v>549</v>
       </c>
-      <c r="AP23" s="73" t="s">
+      <c r="AP23" s="72" t="s">
         <v>550</v>
       </c>
-      <c r="AQ23" s="73" t="s">
+      <c r="AQ23" s="72" t="s">
         <v>551</v>
       </c>
-      <c r="AR23" s="73" t="s">
+      <c r="AR23" s="72" t="s">
         <v>552</v>
       </c>
-      <c r="AS23" s="73" t="s">
+      <c r="AS23" s="72" t="s">
         <v>553</v>
       </c>
-      <c r="AT23" s="73" t="s">
+      <c r="AT23" s="72" t="s">
         <v>554</v>
       </c>
-      <c r="AU23" s="73" t="s">
+      <c r="AU23" s="72" t="s">
         <v>555</v>
       </c>
-      <c r="AV23" s="73" t="s">
+      <c r="AV23" s="72" t="s">
         <v>556</v>
       </c>
-      <c r="AW23" s="73" t="s">
+      <c r="AW23" s="72" t="s">
         <v>557</v>
       </c>
-      <c r="AX23" s="73" t="s">
+      <c r="AX23" s="72" t="s">
         <v>558</v>
       </c>
-      <c r="AY23" s="73" t="s">
+      <c r="AY23" s="72" t="s">
         <v>559</v>
       </c>
-      <c r="AZ23" s="74" t="s">
+      <c r="AZ23" s="82" t="s">
         <v>560</v>
       </c>
-      <c r="BA23" s="67" t="s">
+      <c r="BA23" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="BB23" s="67" t="s">
+      <c r="BB23" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="BC23" s="74" t="s">
+      <c r="BC23" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="BD23" s="78" t="s">
+      <c r="BD23" s="83" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9494,8 +9488,8 @@
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -9512,37 +9506,37 @@
       <c r="W24" s="37"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="74"/>
-      <c r="AJ24" s="77"/>
-      <c r="AK24" s="74"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="74"/>
-      <c r="AN24" s="74"/>
-      <c r="AO24" s="74"/>
-      <c r="AP24" s="74"/>
-      <c r="AQ24" s="74"/>
-      <c r="AR24" s="74"/>
-      <c r="AS24" s="74"/>
-      <c r="AT24" s="74"/>
-      <c r="AU24" s="74"/>
-      <c r="AV24" s="74"/>
-      <c r="AW24" s="74"/>
-      <c r="AX24" s="74"/>
-      <c r="AY24" s="74"/>
-      <c r="AZ24" s="74"/>
-      <c r="BA24" s="67"/>
-      <c r="BB24" s="67"/>
-      <c r="BC24" s="74"/>
-      <c r="BD24" s="78"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="82"/>
+      <c r="AW24" s="82"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="82"/>
+      <c r="BD24" s="83"/>
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="37"/>
@@ -9552,8 +9546,8 @@
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
@@ -9570,37 +9564,37 @@
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="74"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="74"/>
-      <c r="AL25" s="74"/>
-      <c r="AM25" s="74"/>
-      <c r="AN25" s="74"/>
-      <c r="AO25" s="74"/>
-      <c r="AP25" s="74"/>
-      <c r="AQ25" s="74"/>
-      <c r="AR25" s="74"/>
-      <c r="AS25" s="74"/>
-      <c r="AT25" s="74"/>
-      <c r="AU25" s="74"/>
-      <c r="AV25" s="74"/>
-      <c r="AW25" s="74"/>
-      <c r="AX25" s="74"/>
-      <c r="AY25" s="74"/>
-      <c r="AZ25" s="74"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="74"/>
-      <c r="BD25" s="78"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="82"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="36"/>
+      <c r="BC25" s="82"/>
+      <c r="BD25" s="83"/>
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="37"/>
@@ -9610,8 +9604,8 @@
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
@@ -9628,37 +9622,37 @@
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="77"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="74"/>
-      <c r="AN26" s="74"/>
-      <c r="AO26" s="74"/>
-      <c r="AP26" s="74"/>
-      <c r="AQ26" s="74"/>
-      <c r="AR26" s="74"/>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="74"/>
-      <c r="AU26" s="74"/>
-      <c r="AV26" s="74"/>
-      <c r="AW26" s="74"/>
-      <c r="AX26" s="74"/>
-      <c r="AY26" s="74"/>
-      <c r="AZ26" s="74"/>
-      <c r="BA26" s="67"/>
-      <c r="BB26" s="67"/>
-      <c r="BC26" s="74"/>
-      <c r="BD26" s="78"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="84"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
+      <c r="AN26" s="82"/>
+      <c r="AO26" s="82"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
+      <c r="AS26" s="82"/>
+      <c r="AT26" s="82"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="82"/>
+      <c r="BA26" s="36"/>
+      <c r="BB26" s="36"/>
+      <c r="BC26" s="82"/>
+      <c r="BD26" s="83"/>
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="37"/>
@@ -9668,8 +9662,8 @@
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
@@ -9686,37 +9680,37 @@
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
       <c r="Y27" s="37"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="74"/>
-      <c r="AH27" s="74"/>
-      <c r="AI27" s="74"/>
-      <c r="AJ27" s="77"/>
-      <c r="AK27" s="74"/>
-      <c r="AL27" s="74"/>
-      <c r="AM27" s="74"/>
-      <c r="AN27" s="74"/>
-      <c r="AO27" s="74"/>
-      <c r="AP27" s="74"/>
-      <c r="AQ27" s="74"/>
-      <c r="AR27" s="74"/>
-      <c r="AS27" s="74"/>
-      <c r="AT27" s="74"/>
-      <c r="AU27" s="74"/>
-      <c r="AV27" s="74"/>
-      <c r="AW27" s="74"/>
-      <c r="AX27" s="74"/>
-      <c r="AY27" s="74"/>
-      <c r="AZ27" s="74"/>
-      <c r="BA27" s="67"/>
-      <c r="BB27" s="67"/>
-      <c r="BC27" s="74"/>
-      <c r="BD27" s="78"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="82"/>
+      <c r="BD27" s="83"/>
     </row>
     <row r="28" spans="1:56">
       <c r="H28" s="4"/>
@@ -9724,35 +9718,35 @@
       <c r="W28" s="12"/>
       <c r="X28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="74"/>
-      <c r="AJ28" s="77"/>
-      <c r="AK28" s="74"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="74"/>
-      <c r="AN28" s="74"/>
-      <c r="AO28" s="74"/>
-      <c r="AP28" s="74"/>
-      <c r="AQ28" s="74"/>
-      <c r="AR28" s="74"/>
-      <c r="AS28" s="74"/>
-      <c r="AT28" s="74"/>
-      <c r="AU28" s="74"/>
-      <c r="AV28" s="74"/>
-      <c r="AW28" s="74"/>
-      <c r="AX28" s="74"/>
-      <c r="AY28" s="74"/>
-      <c r="AZ28" s="74"/>
-      <c r="BA28" s="67"/>
-      <c r="BB28" s="67"/>
-      <c r="BC28" s="74"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="84"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="82"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="82"/>
+      <c r="AS28" s="82"/>
+      <c r="AT28" s="82"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="82"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="82"/>
     </row>
     <row r="29" spans="1:56">
       <c r="C29" s="21" t="s">
@@ -9771,35 +9765,35 @@
       <c r="Z29" s="25" t="s">
         <v>734</v>
       </c>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="74"/>
-      <c r="AJ29" s="77"/>
-      <c r="AK29" s="74"/>
-      <c r="AL29" s="74"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="74"/>
-      <c r="AO29" s="74"/>
-      <c r="AP29" s="74"/>
-      <c r="AQ29" s="74"/>
-      <c r="AR29" s="74"/>
-      <c r="AS29" s="74"/>
-      <c r="AT29" s="74"/>
-      <c r="AU29" s="74"/>
-      <c r="AV29" s="74"/>
-      <c r="AW29" s="74"/>
-      <c r="AX29" s="74"/>
-      <c r="AY29" s="74"/>
-      <c r="AZ29" s="74"/>
-      <c r="BA29" s="67"/>
-      <c r="BB29" s="67"/>
-      <c r="BC29" s="74"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="82"/>
     </row>
     <row r="30" spans="1:56" ht="123.75">
       <c r="C30" s="14" t="s">
@@ -13135,42 +13129,24 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AY20:AY22"/>
-    <mergeCell ref="B20:AX22"/>
-    <mergeCell ref="AZ20:AZ22"/>
-    <mergeCell ref="BC20:BC22"/>
-    <mergeCell ref="BD20:BD22"/>
-    <mergeCell ref="AZ23:AZ29"/>
-    <mergeCell ref="BA23:BA29"/>
-    <mergeCell ref="BB23:BB29"/>
-    <mergeCell ref="BC23:BC29"/>
-    <mergeCell ref="BD23:BD27"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AV29"/>
-    <mergeCell ref="AW23:AW29"/>
-    <mergeCell ref="AX23:AX29"/>
-    <mergeCell ref="AY23:AY29"/>
-    <mergeCell ref="AP23:AP29"/>
-    <mergeCell ref="AQ23:AQ29"/>
-    <mergeCell ref="AR23:AR29"/>
-    <mergeCell ref="AS23:AS29"/>
-    <mergeCell ref="AT23:AT29"/>
-    <mergeCell ref="AK23:AK29"/>
-    <mergeCell ref="AL23:AL29"/>
-    <mergeCell ref="AM23:AM29"/>
-    <mergeCell ref="AN23:AN29"/>
-    <mergeCell ref="AO23:AO29"/>
-    <mergeCell ref="AF23:AF29"/>
-    <mergeCell ref="AG23:AG29"/>
-    <mergeCell ref="AH23:AH29"/>
-    <mergeCell ref="AI23:AI29"/>
-    <mergeCell ref="AJ23:AJ29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="AE23:AE29"/>
+    <mergeCell ref="Y23:Y27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="W23:W27"/>
+    <mergeCell ref="Z23:Z27"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="X23:X27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="V23:V27"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="L23:L27"/>
@@ -13179,24 +13155,42 @@
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="H23:I27"/>
-    <mergeCell ref="W23:W27"/>
-    <mergeCell ref="Z23:Z27"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="X23:X27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="V23:V27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AB23:AB29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="AE23:AE29"/>
-    <mergeCell ref="Y23:Y27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="AF23:AF29"/>
+    <mergeCell ref="AG23:AG29"/>
+    <mergeCell ref="AH23:AH29"/>
+    <mergeCell ref="AI23:AI29"/>
+    <mergeCell ref="AJ23:AJ29"/>
+    <mergeCell ref="AK23:AK29"/>
+    <mergeCell ref="AL23:AL29"/>
+    <mergeCell ref="AM23:AM29"/>
+    <mergeCell ref="AN23:AN29"/>
+    <mergeCell ref="AO23:AO29"/>
+    <mergeCell ref="AP23:AP29"/>
+    <mergeCell ref="AQ23:AQ29"/>
+    <mergeCell ref="AR23:AR29"/>
+    <mergeCell ref="AS23:AS29"/>
+    <mergeCell ref="AT23:AT29"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AV29"/>
+    <mergeCell ref="AW23:AW29"/>
+    <mergeCell ref="AX23:AX29"/>
+    <mergeCell ref="AY23:AY29"/>
+    <mergeCell ref="AZ23:AZ29"/>
+    <mergeCell ref="BA23:BA29"/>
+    <mergeCell ref="BB23:BB29"/>
+    <mergeCell ref="BC23:BC29"/>
+    <mergeCell ref="BD23:BD27"/>
+    <mergeCell ref="AY20:AY22"/>
+    <mergeCell ref="B20:AX22"/>
+    <mergeCell ref="AZ20:AZ22"/>
+    <mergeCell ref="BC20:BC22"/>
+    <mergeCell ref="BD20:BD22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13210,8 +13204,8 @@
   </sheetPr>
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BN18" sqref="BN18:BN20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13296,10 +13290,10 @@
       <c r="BW1" s="1"/>
     </row>
     <row r="2" spans="1:75" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
         <v>588</v>
       </c>
@@ -13307,10 +13301,10 @@
       <c r="BW2" s="1"/>
     </row>
     <row r="3" spans="1:75" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="17" t="s">
         <v>844</v>
       </c>
@@ -14554,10 +14548,10 @@
         <v>11</v>
       </c>
       <c r="AA11" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB11" s="12" t="s">
         <v>863</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>864</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>672</v>
@@ -15315,7 +15309,7 @@
       <c r="BG14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="BH14" s="36" t="s">
+      <c r="BH14" s="35" t="s">
         <v>3</v>
       </c>
       <c r="BI14" s="12" t="s">
@@ -15536,7 +15530,7 @@
       <c r="BG15" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="BH15" s="36">
+      <c r="BH15" s="35">
         <v>40000</v>
       </c>
       <c r="BI15" s="12" t="s">
@@ -15757,7 +15751,7 @@
       <c r="BG16" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="BH16" s="36">
+      <c r="BH16" s="35">
         <v>40000</v>
       </c>
       <c r="BI16" s="12" t="s">
@@ -15846,303 +15840,303 @@
       <c r="BS17" s="12"/>
     </row>
     <row r="18" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B18" s="58" t="s">
-        <v>867</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="59"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="60"/>
-      <c r="BN18" s="70" t="s">
+      <c r="B18" s="41" t="s">
+        <v>866</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="43"/>
+      <c r="BN18" s="69" t="s">
         <v>765</v>
       </c>
-      <c r="BO18" s="70" t="s">
+      <c r="BO18" s="69" t="s">
         <v>766</v>
       </c>
-      <c r="BP18" s="70" t="s">
+      <c r="BP18" s="69" t="s">
         <v>843</v>
       </c>
-      <c r="BQ18" s="70" t="s">
+      <c r="BQ18" s="69" t="s">
         <v>585</v>
       </c>
-      <c r="BR18" s="70" t="s">
+      <c r="BR18" s="69" t="s">
         <v>586</v>
       </c>
       <c r="BS18" s="30"/>
-      <c r="BT18" s="94" t="s">
+      <c r="BT18" s="93" t="s">
         <v>819</v>
       </c>
-      <c r="BU18" s="94"/>
+      <c r="BU18" s="93"/>
     </row>
     <row r="19" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="63"/>
-      <c r="BN19" s="70"/>
-      <c r="BO19" s="70"/>
-      <c r="BP19" s="70"/>
-      <c r="BQ19" s="70"/>
-      <c r="BR19" s="70"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="45"/>
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
+      <c r="BI19" s="45"/>
+      <c r="BJ19" s="45"/>
+      <c r="BK19" s="45"/>
+      <c r="BL19" s="45"/>
+      <c r="BM19" s="46"/>
+      <c r="BN19" s="69"/>
+      <c r="BO19" s="69"/>
+      <c r="BP19" s="69"/>
+      <c r="BQ19" s="69"/>
+      <c r="BR19" s="69"/>
       <c r="BS19" s="31"/>
-      <c r="BT19" s="94"/>
-      <c r="BU19" s="94"/>
+      <c r="BT19" s="93"/>
+      <c r="BU19" s="93"/>
     </row>
     <row r="20" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="65"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="66"/>
-      <c r="BN20" s="70"/>
-      <c r="BO20" s="70"/>
-      <c r="BP20" s="70"/>
-      <c r="BQ20" s="70"/>
-      <c r="BR20" s="70"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="48"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="48"/>
+      <c r="BE20" s="48"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="48"/>
+      <c r="BJ20" s="48"/>
+      <c r="BK20" s="48"/>
+      <c r="BL20" s="48"/>
+      <c r="BM20" s="49"/>
+      <c r="BN20" s="69"/>
+      <c r="BO20" s="69"/>
+      <c r="BP20" s="69"/>
+      <c r="BQ20" s="69"/>
+      <c r="BR20" s="69"/>
       <c r="BS20" s="32"/>
-      <c r="BT20" s="94"/>
-      <c r="BU20" s="94"/>
+      <c r="BT20" s="93"/>
+      <c r="BU20" s="93"/>
     </row>
     <row r="21" spans="1:73" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="72" t="s">
         <v>498</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>499</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="72" t="s">
         <v>675</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="72" t="s">
         <v>676</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="72" t="s">
         <v>677</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="72" t="s">
         <v>678</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="72" t="s">
         <v>679</v>
       </c>
-      <c r="J21" s="73" t="s">
+      <c r="J21" s="72" t="s">
         <v>681</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="72" t="s">
         <v>682</v>
       </c>
-      <c r="L21" s="73" t="s">
+      <c r="L21" s="72" t="s">
         <v>686</v>
       </c>
-      <c r="M21" s="73" t="s">
+      <c r="M21" s="72" t="s">
         <v>680</v>
       </c>
-      <c r="N21" s="73" t="s">
+      <c r="N21" s="72" t="s">
         <v>683</v>
       </c>
-      <c r="O21" s="73" t="s">
+      <c r="O21" s="72" t="s">
         <v>684</v>
       </c>
-      <c r="P21" s="73" t="s">
+      <c r="P21" s="72" t="s">
         <v>685</v>
       </c>
-      <c r="Q21" s="73" t="s">
+      <c r="Q21" s="72" t="s">
         <v>687</v>
       </c>
-      <c r="R21" s="73" t="s">
+      <c r="R21" s="72" t="s">
         <v>688</v>
       </c>
-      <c r="S21" s="73" t="s">
+      <c r="S21" s="72" t="s">
         <v>689</v>
       </c>
-      <c r="T21" s="73" t="s">
+      <c r="T21" s="72" t="s">
         <v>690</v>
       </c>
-      <c r="U21" s="73" t="s">
+      <c r="U21" s="72" t="s">
         <v>691</v>
       </c>
       <c r="V21" s="89" t="s">
@@ -16151,7 +16145,7 @@
       <c r="W21" s="89" t="s">
         <v>746</v>
       </c>
-      <c r="X21" s="73" t="s">
+      <c r="X21" s="72" t="s">
         <v>755</v>
       </c>
       <c r="Y21" s="89" t="s">
@@ -16160,49 +16154,49 @@
       <c r="Z21" s="89" t="s">
         <v>748</v>
       </c>
-      <c r="AA21" s="73" t="s">
+      <c r="AA21" s="72" t="s">
+        <v>864</v>
+      </c>
+      <c r="AB21" s="72" t="s">
         <v>865</v>
       </c>
-      <c r="AB21" s="73" t="s">
-        <v>866</v>
-      </c>
-      <c r="AC21" s="73" t="s">
+      <c r="AC21" s="72" t="s">
         <v>745</v>
       </c>
-      <c r="AD21" s="91" t="s">
+      <c r="AD21" s="94" t="s">
         <v>723</v>
       </c>
-      <c r="AE21" s="73" t="s">
+      <c r="AE21" s="72" t="s">
         <v>719</v>
       </c>
-      <c r="AF21" s="73" t="s">
+      <c r="AF21" s="72" t="s">
         <v>720</v>
       </c>
-      <c r="AG21" s="73" t="s">
+      <c r="AG21" s="72" t="s">
         <v>751</v>
       </c>
-      <c r="AH21" s="73" t="s">
+      <c r="AH21" s="72" t="s">
         <v>721</v>
       </c>
-      <c r="AI21" s="73" t="s">
+      <c r="AI21" s="72" t="s">
         <v>722</v>
       </c>
-      <c r="AJ21" s="73" t="s">
+      <c r="AJ21" s="72" t="s">
         <v>724</v>
       </c>
-      <c r="AK21" s="73" t="s">
+      <c r="AK21" s="72" t="s">
         <v>725</v>
       </c>
-      <c r="AL21" s="73" t="s">
+      <c r="AL21" s="72" t="s">
         <v>726</v>
       </c>
-      <c r="AM21" s="73" t="s">
+      <c r="AM21" s="72" t="s">
         <v>727</v>
       </c>
-      <c r="AN21" s="73" t="s">
+      <c r="AN21" s="72" t="s">
         <v>753</v>
       </c>
-      <c r="AO21" s="73" t="s">
+      <c r="AO21" s="72" t="s">
         <v>758</v>
       </c>
       <c r="AP21" s="89" t="s">
@@ -16211,16 +16205,16 @@
       <c r="AQ21" s="89" t="s">
         <v>825</v>
       </c>
-      <c r="AR21" s="73" t="s">
+      <c r="AR21" s="72" t="s">
         <v>728</v>
       </c>
-      <c r="AS21" s="73" t="s">
+      <c r="AS21" s="72" t="s">
         <v>729</v>
       </c>
-      <c r="AT21" s="73" t="s">
+      <c r="AT21" s="72" t="s">
         <v>752</v>
       </c>
-      <c r="AU21" s="73" t="s">
+      <c r="AU21" s="72" t="s">
         <v>759</v>
       </c>
       <c r="AV21" s="89" t="s">
@@ -16229,13 +16223,13 @@
       <c r="AW21" s="89" t="s">
         <v>823</v>
       </c>
-      <c r="AX21" s="73" t="s">
+      <c r="AX21" s="72" t="s">
         <v>730</v>
       </c>
-      <c r="AY21" s="73" t="s">
+      <c r="AY21" s="72" t="s">
         <v>731</v>
       </c>
-      <c r="AZ21" s="73" t="s">
+      <c r="AZ21" s="72" t="s">
         <v>754</v>
       </c>
       <c r="BA21" s="89" t="s">
@@ -16244,357 +16238,357 @@
       <c r="BB21" s="89" t="s">
         <v>757</v>
       </c>
-      <c r="BC21" s="73" t="s">
+      <c r="BC21" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="BD21" s="73" t="s">
+      <c r="BD21" s="72" t="s">
         <v>732</v>
       </c>
-      <c r="BE21" s="73" t="s">
+      <c r="BE21" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="BF21" s="73" t="s">
+      <c r="BF21" s="72" t="s">
         <v>744</v>
       </c>
-      <c r="BG21" s="73" t="s">
+      <c r="BG21" s="72" t="s">
         <v>761</v>
       </c>
-      <c r="BH21" s="73" t="s">
+      <c r="BH21" s="72" t="s">
         <v>760</v>
       </c>
-      <c r="BI21" s="73" t="s">
+      <c r="BI21" s="72" t="s">
         <v>535</v>
       </c>
-      <c r="BJ21" s="73" t="s">
+      <c r="BJ21" s="72" t="s">
         <v>749</v>
       </c>
-      <c r="BK21" s="73" t="s">
+      <c r="BK21" s="72" t="s">
         <v>750</v>
       </c>
-      <c r="BL21" s="88" t="s">
+      <c r="BL21" s="91" t="s">
         <v>816</v>
       </c>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="74" t="s">
+      <c r="BM21" s="33"/>
+      <c r="BN21" s="82" t="s">
         <v>764</v>
       </c>
-      <c r="BO21" s="74" t="s">
+      <c r="BO21" s="82" t="s">
         <v>763</v>
       </c>
-      <c r="BP21" s="74" t="s">
+      <c r="BP21" s="82" t="s">
         <v>762</v>
       </c>
-      <c r="BQ21" s="74" t="s">
+      <c r="BQ21" s="82" t="s">
         <v>562</v>
       </c>
-      <c r="BR21" s="78" t="s">
+      <c r="BR21" s="83" t="s">
         <v>563</v>
       </c>
-      <c r="BS21" s="73" t="s">
+      <c r="BS21" s="72" t="s">
         <v>784</v>
       </c>
-      <c r="BT21" s="94"/>
-      <c r="BU21" s="94"/>
+      <c r="BT21" s="93"/>
+      <c r="BU21" s="93"/>
     </row>
     <row r="22" spans="1:73" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
       <c r="V22" s="90"/>
       <c r="W22" s="90"/>
-      <c r="X22" s="74"/>
+      <c r="X22" s="82"/>
       <c r="Y22" s="90"/>
       <c r="Z22" s="90"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="74"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="74"/>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="74"/>
-      <c r="AN22" s="74"/>
-      <c r="AO22" s="74"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="82"/>
       <c r="AP22" s="90"/>
       <c r="AQ22" s="90"/>
-      <c r="AR22" s="74"/>
-      <c r="AS22" s="74"/>
-      <c r="AT22" s="74"/>
-      <c r="AU22" s="74"/>
+      <c r="AR22" s="82"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="82"/>
+      <c r="AU22" s="82"/>
       <c r="AV22" s="90"/>
       <c r="AW22" s="90"/>
-      <c r="AX22" s="74"/>
-      <c r="AY22" s="74"/>
-      <c r="AZ22" s="74"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="82"/>
       <c r="BA22" s="90"/>
       <c r="BB22" s="90"/>
-      <c r="BC22" s="74"/>
-      <c r="BD22" s="74"/>
-      <c r="BE22" s="74"/>
-      <c r="BF22" s="74"/>
-      <c r="BG22" s="74"/>
-      <c r="BH22" s="74"/>
-      <c r="BI22" s="74"/>
-      <c r="BJ22" s="74"/>
-      <c r="BK22" s="74"/>
-      <c r="BL22" s="88"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="74"/>
-      <c r="BO22" s="74"/>
-      <c r="BP22" s="74"/>
-      <c r="BQ22" s="74"/>
-      <c r="BR22" s="78"/>
-      <c r="BS22" s="74"/>
-      <c r="BT22" s="94"/>
-      <c r="BU22" s="94"/>
+      <c r="BC22" s="82"/>
+      <c r="BD22" s="82"/>
+      <c r="BE22" s="82"/>
+      <c r="BF22" s="82"/>
+      <c r="BG22" s="82"/>
+      <c r="BH22" s="82"/>
+      <c r="BI22" s="82"/>
+      <c r="BJ22" s="82"/>
+      <c r="BK22" s="82"/>
+      <c r="BL22" s="91"/>
+      <c r="BM22" s="33"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="82"/>
+      <c r="BP22" s="82"/>
+      <c r="BQ22" s="82"/>
+      <c r="BR22" s="83"/>
+      <c r="BS22" s="82"/>
+      <c r="BT22" s="93"/>
+      <c r="BU22" s="93"/>
     </row>
     <row r="23" spans="1:73" s="29" customFormat="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
       <c r="V23" s="90"/>
       <c r="W23" s="90"/>
-      <c r="X23" s="74"/>
+      <c r="X23" s="82"/>
       <c r="Y23" s="90"/>
       <c r="Z23" s="90"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="74"/>
-      <c r="AJ23" s="74"/>
-      <c r="AK23" s="74"/>
-      <c r="AL23" s="74"/>
-      <c r="AM23" s="74"/>
-      <c r="AN23" s="74"/>
-      <c r="AO23" s="74"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
       <c r="AP23" s="90"/>
       <c r="AQ23" s="90"/>
-      <c r="AR23" s="74"/>
-      <c r="AS23" s="74"/>
-      <c r="AT23" s="74"/>
-      <c r="AU23" s="74"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
       <c r="AV23" s="90"/>
       <c r="AW23" s="90"/>
-      <c r="AX23" s="74"/>
-      <c r="AY23" s="74"/>
-      <c r="AZ23" s="74"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
       <c r="BA23" s="90"/>
       <c r="BB23" s="90"/>
-      <c r="BC23" s="74"/>
-      <c r="BD23" s="74"/>
-      <c r="BE23" s="74"/>
-      <c r="BF23" s="74"/>
-      <c r="BG23" s="74"/>
-      <c r="BH23" s="74"/>
-      <c r="BI23" s="74"/>
-      <c r="BJ23" s="74"/>
-      <c r="BK23" s="74"/>
-      <c r="BL23" s="88"/>
-      <c r="BM23" s="34"/>
-      <c r="BN23" s="74"/>
-      <c r="BO23" s="74"/>
-      <c r="BP23" s="74"/>
-      <c r="BQ23" s="74"/>
-      <c r="BR23" s="78"/>
-      <c r="BS23" s="74"/>
-      <c r="BT23" s="94"/>
-      <c r="BU23" s="94"/>
+      <c r="BC23" s="82"/>
+      <c r="BD23" s="82"/>
+      <c r="BE23" s="82"/>
+      <c r="BF23" s="82"/>
+      <c r="BG23" s="82"/>
+      <c r="BH23" s="82"/>
+      <c r="BI23" s="82"/>
+      <c r="BJ23" s="82"/>
+      <c r="BK23" s="82"/>
+      <c r="BL23" s="91"/>
+      <c r="BM23" s="33"/>
+      <c r="BN23" s="82"/>
+      <c r="BO23" s="82"/>
+      <c r="BP23" s="82"/>
+      <c r="BQ23" s="82"/>
+      <c r="BR23" s="83"/>
+      <c r="BS23" s="82"/>
+      <c r="BT23" s="93"/>
+      <c r="BU23" s="93"/>
     </row>
     <row r="24" spans="1:73" s="29" customFormat="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
       <c r="V24" s="90"/>
       <c r="W24" s="90"/>
-      <c r="X24" s="74"/>
+      <c r="X24" s="82"/>
       <c r="Y24" s="90"/>
       <c r="Z24" s="90"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="74"/>
-      <c r="AJ24" s="74"/>
-      <c r="AK24" s="74"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="74"/>
-      <c r="AN24" s="74"/>
-      <c r="AO24" s="74"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
       <c r="AP24" s="90"/>
       <c r="AQ24" s="90"/>
-      <c r="AR24" s="74"/>
-      <c r="AS24" s="74"/>
-      <c r="AT24" s="74"/>
-      <c r="AU24" s="74"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="82"/>
       <c r="AV24" s="90"/>
       <c r="AW24" s="90"/>
-      <c r="AX24" s="74"/>
-      <c r="AY24" s="74"/>
-      <c r="AZ24" s="74"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
       <c r="BA24" s="90"/>
       <c r="BB24" s="90"/>
-      <c r="BC24" s="74"/>
-      <c r="BD24" s="74"/>
-      <c r="BE24" s="74"/>
-      <c r="BF24" s="74"/>
-      <c r="BG24" s="74"/>
-      <c r="BH24" s="74"/>
-      <c r="BI24" s="74"/>
-      <c r="BJ24" s="74"/>
-      <c r="BK24" s="74"/>
-      <c r="BL24" s="88"/>
-      <c r="BM24" s="34"/>
-      <c r="BN24" s="74"/>
-      <c r="BO24" s="74"/>
-      <c r="BP24" s="74"/>
-      <c r="BQ24" s="74"/>
-      <c r="BR24" s="78"/>
-      <c r="BS24" s="74"/>
-      <c r="BT24" s="94"/>
-      <c r="BU24" s="94"/>
+      <c r="BC24" s="82"/>
+      <c r="BD24" s="82"/>
+      <c r="BE24" s="82"/>
+      <c r="BF24" s="82"/>
+      <c r="BG24" s="82"/>
+      <c r="BH24" s="82"/>
+      <c r="BI24" s="82"/>
+      <c r="BJ24" s="82"/>
+      <c r="BK24" s="82"/>
+      <c r="BL24" s="91"/>
+      <c r="BM24" s="33"/>
+      <c r="BN24" s="82"/>
+      <c r="BO24" s="82"/>
+      <c r="BP24" s="82"/>
+      <c r="BQ24" s="82"/>
+      <c r="BR24" s="83"/>
+      <c r="BS24" s="82"/>
+      <c r="BT24" s="93"/>
+      <c r="BU24" s="93"/>
     </row>
     <row r="25" spans="1:73" s="29" customFormat="1">
-      <c r="A25" s="74"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
       <c r="V25" s="90"/>
       <c r="W25" s="90"/>
-      <c r="X25" s="74"/>
+      <c r="X25" s="82"/>
       <c r="Y25" s="90"/>
       <c r="Z25" s="90"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="74"/>
-      <c r="AJ25" s="74"/>
-      <c r="AK25" s="74"/>
-      <c r="AL25" s="74"/>
-      <c r="AM25" s="74"/>
-      <c r="AN25" s="74"/>
-      <c r="AO25" s="74"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
       <c r="AP25" s="90"/>
       <c r="AQ25" s="90"/>
-      <c r="AR25" s="74"/>
-      <c r="AS25" s="74"/>
-      <c r="AT25" s="74"/>
-      <c r="AU25" s="74"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+      <c r="AU25" s="82"/>
       <c r="AV25" s="90"/>
       <c r="AW25" s="90"/>
-      <c r="AX25" s="74"/>
-      <c r="AY25" s="74"/>
-      <c r="AZ25" s="74"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
       <c r="BA25" s="90"/>
       <c r="BB25" s="90"/>
-      <c r="BC25" s="74"/>
-      <c r="BD25" s="74"/>
-      <c r="BE25" s="74"/>
-      <c r="BF25" s="74"/>
-      <c r="BG25" s="74"/>
-      <c r="BH25" s="74"/>
-      <c r="BI25" s="74"/>
-      <c r="BJ25" s="74"/>
-      <c r="BK25" s="74"/>
-      <c r="BL25" s="88"/>
-      <c r="BM25" s="34"/>
-      <c r="BN25" s="74"/>
-      <c r="BO25" s="74"/>
-      <c r="BP25" s="74"/>
-      <c r="BQ25" s="74"/>
-      <c r="BR25" s="78"/>
-      <c r="BS25" s="74"/>
-      <c r="BT25" s="94"/>
-      <c r="BU25" s="94"/>
+      <c r="BC25" s="82"/>
+      <c r="BD25" s="82"/>
+      <c r="BE25" s="82"/>
+      <c r="BF25" s="82"/>
+      <c r="BG25" s="82"/>
+      <c r="BH25" s="82"/>
+      <c r="BI25" s="82"/>
+      <c r="BJ25" s="82"/>
+      <c r="BK25" s="82"/>
+      <c r="BL25" s="91"/>
+      <c r="BM25" s="33"/>
+      <c r="BN25" s="82"/>
+      <c r="BO25" s="82"/>
+      <c r="BP25" s="82"/>
+      <c r="BQ25" s="82"/>
+      <c r="BR25" s="83"/>
+      <c r="BS25" s="82"/>
+      <c r="BT25" s="93"/>
+      <c r="BU25" s="93"/>
     </row>
     <row r="26" spans="1:73" ht="11.25" customHeight="1">
       <c r="E26" s="1"/>
@@ -16630,7 +16624,7 @@
       <c r="BE26" s="12"/>
       <c r="BH26" s="1"/>
       <c r="BK26" s="6"/>
-      <c r="BL26" s="88" t="s">
+      <c r="BL26" s="91" t="s">
         <v>817</v>
       </c>
       <c r="BN26" s="1"/>
@@ -16657,7 +16651,7 @@
       <c r="Y27" s="37" t="s">
         <v>820</v>
       </c>
-      <c r="Z27" s="74" t="s">
+      <c r="Z27" s="82" t="s">
         <v>821</v>
       </c>
       <c r="AA27" s="12"/>
@@ -16668,27 +16662,27 @@
       <c r="AK27" s="12"/>
       <c r="AL27" s="1"/>
       <c r="AO27" s="12"/>
-      <c r="AP27" s="95" t="s">
+      <c r="AP27" s="88" t="s">
         <v>820</v>
       </c>
-      <c r="AQ27" s="96" t="s">
+      <c r="AQ27" s="87" t="s">
         <v>821</v>
       </c>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
-      <c r="AV27" s="95" t="s">
+      <c r="AV27" s="88" t="s">
         <v>820</v>
       </c>
-      <c r="AW27" s="96" t="s">
+      <c r="AW27" s="87" t="s">
         <v>821</v>
       </c>
       <c r="AX27" s="12"/>
       <c r="AY27" s="12"/>
       <c r="AZ27" s="12"/>
-      <c r="BA27" s="95" t="s">
+      <c r="BA27" s="88" t="s">
         <v>820</v>
       </c>
-      <c r="BB27" s="96" t="s">
+      <c r="BB27" s="87" t="s">
         <v>821</v>
       </c>
       <c r="BC27" s="6"/>
@@ -16698,7 +16692,7 @@
       </c>
       <c r="BH27" s="1"/>
       <c r="BK27" s="6"/>
-      <c r="BL27" s="88"/>
+      <c r="BL27" s="91"/>
       <c r="BN27" s="1"/>
       <c r="BO27" s="4"/>
       <c r="BP27" s="6"/>
@@ -16721,7 +16715,7 @@
       <c r="T28" s="1"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="37"/>
-      <c r="Z28" s="74"/>
+      <c r="Z28" s="82"/>
       <c r="AA28" s="12"/>
       <c r="AF28" s="1"/>
       <c r="AI28" s="12"/>
@@ -16730,17 +16724,17 @@
       <c r="AL28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="6"/>
-      <c r="AP28" s="95"/>
-      <c r="AQ28" s="96"/>
+      <c r="AP28" s="88"/>
+      <c r="AQ28" s="87"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="6"/>
-      <c r="AV28" s="95"/>
-      <c r="AW28" s="96"/>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="87"/>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
       <c r="AZ28" s="12"/>
-      <c r="BA28" s="95"/>
-      <c r="BB28" s="96"/>
+      <c r="BA28" s="88"/>
+      <c r="BB28" s="87"/>
       <c r="BC28" s="6"/>
       <c r="BD28" s="6"/>
       <c r="BE28" s="24" t="s">
@@ -16748,7 +16742,7 @@
       </c>
       <c r="BH28" s="1"/>
       <c r="BK28" s="6"/>
-      <c r="BL28" s="88"/>
+      <c r="BL28" s="91"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="4"/>
       <c r="BP28" s="6"/>
@@ -16789,7 +16783,7 @@
       <c r="BE29" s="12"/>
       <c r="BH29" s="1"/>
       <c r="BK29" s="6"/>
-      <c r="BL29" s="88" t="s">
+      <c r="BL29" s="91" t="s">
         <v>818</v>
       </c>
       <c r="BN29" s="1"/>
@@ -16832,7 +16826,7 @@
       <c r="BE30" s="12"/>
       <c r="BH30" s="1"/>
       <c r="BK30" s="6"/>
-      <c r="BL30" s="88"/>
+      <c r="BL30" s="91"/>
       <c r="BN30" s="1"/>
       <c r="BO30" s="4"/>
       <c r="BP30" s="6"/>
@@ -16873,7 +16867,7 @@
       <c r="BE31" s="12"/>
       <c r="BH31" s="1"/>
       <c r="BK31" s="6"/>
-      <c r="BL31" s="88"/>
+      <c r="BL31" s="91"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="4"/>
       <c r="BP31" s="6"/>
@@ -16914,7 +16908,7 @@
       <c r="BE32" s="12"/>
       <c r="BH32" s="1"/>
       <c r="BK32" s="6"/>
-      <c r="BL32" s="88"/>
+      <c r="BL32" s="91"/>
       <c r="BN32" s="1"/>
       <c r="BO32" s="4"/>
       <c r="BP32" s="6"/>
@@ -16955,7 +16949,7 @@
       <c r="BE33" s="12"/>
       <c r="BH33" s="1"/>
       <c r="BK33" s="6"/>
-      <c r="BL33" s="93"/>
+      <c r="BL33" s="92"/>
       <c r="BN33" s="1"/>
       <c r="BO33" s="4"/>
       <c r="BP33" s="6"/>
@@ -17607,26 +17601,59 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AG21:AG25"/>
-    <mergeCell ref="BA27:BA28"/>
-    <mergeCell ref="BB27:BB28"/>
-    <mergeCell ref="AV21:AV25"/>
-    <mergeCell ref="AJ21:AJ25"/>
-    <mergeCell ref="AK21:AK25"/>
-    <mergeCell ref="AO21:AO25"/>
-    <mergeCell ref="AU21:AU25"/>
-    <mergeCell ref="AT21:AT25"/>
-    <mergeCell ref="AN21:AN25"/>
-    <mergeCell ref="AZ21:AZ25"/>
-    <mergeCell ref="AW21:AW25"/>
-    <mergeCell ref="AV27:AV28"/>
-    <mergeCell ref="AW27:AW28"/>
-    <mergeCell ref="AP21:AP25"/>
-    <mergeCell ref="AQ21:AQ25"/>
-    <mergeCell ref="AP27:AP28"/>
+    <mergeCell ref="BL21:BL25"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="BQ18:BQ20"/>
+    <mergeCell ref="BQ21:BQ25"/>
+    <mergeCell ref="BR18:BR20"/>
+    <mergeCell ref="BR21:BR25"/>
+    <mergeCell ref="BP21:BP25"/>
+    <mergeCell ref="BO21:BO25"/>
+    <mergeCell ref="BN21:BN25"/>
+    <mergeCell ref="BN18:BN20"/>
+    <mergeCell ref="BO18:BO20"/>
+    <mergeCell ref="BP18:BP20"/>
+    <mergeCell ref="X21:X25"/>
+    <mergeCell ref="BA21:BA25"/>
+    <mergeCell ref="BB21:BB25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="W21:W25"/>
+    <mergeCell ref="AH21:AH25"/>
+    <mergeCell ref="AI21:AI25"/>
+    <mergeCell ref="AE21:AE25"/>
+    <mergeCell ref="AF21:AF25"/>
+    <mergeCell ref="AD21:AD25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="BS21:BS25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="Z21:Z25"/>
+    <mergeCell ref="AC21:AC25"/>
+    <mergeCell ref="AA21:AA25"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="BK21:BK25"/>
+    <mergeCell ref="BH21:BH25"/>
+    <mergeCell ref="BG21:BG25"/>
+    <mergeCell ref="BD21:BD25"/>
+    <mergeCell ref="BC21:BC25"/>
+    <mergeCell ref="BI21:BI25"/>
+    <mergeCell ref="BJ21:BJ25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="Q21:Q25"/>
+    <mergeCell ref="R21:R25"/>
     <mergeCell ref="BL26:BL28"/>
     <mergeCell ref="BL29:BL33"/>
     <mergeCell ref="BT18:BU25"/>
@@ -17643,59 +17670,26 @@
     <mergeCell ref="AS21:AS25"/>
     <mergeCell ref="AX21:AX25"/>
     <mergeCell ref="AY21:AY25"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="Q21:Q25"/>
-    <mergeCell ref="R21:R25"/>
-    <mergeCell ref="BS21:BS25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="Z21:Z25"/>
-    <mergeCell ref="AC21:AC25"/>
-    <mergeCell ref="AA21:AA25"/>
-    <mergeCell ref="AB21:AB25"/>
-    <mergeCell ref="BK21:BK25"/>
-    <mergeCell ref="BH21:BH25"/>
-    <mergeCell ref="BG21:BG25"/>
-    <mergeCell ref="BD21:BD25"/>
-    <mergeCell ref="BC21:BC25"/>
-    <mergeCell ref="BI21:BI25"/>
-    <mergeCell ref="BJ21:BJ25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="W21:W25"/>
-    <mergeCell ref="AH21:AH25"/>
-    <mergeCell ref="AI21:AI25"/>
-    <mergeCell ref="AE21:AE25"/>
-    <mergeCell ref="AF21:AF25"/>
-    <mergeCell ref="AD21:AD25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="BL21:BL25"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="BQ18:BQ20"/>
-    <mergeCell ref="BQ21:BQ25"/>
-    <mergeCell ref="BR18:BR20"/>
-    <mergeCell ref="BR21:BR25"/>
-    <mergeCell ref="BP21:BP25"/>
-    <mergeCell ref="BO21:BO25"/>
-    <mergeCell ref="BN21:BN25"/>
-    <mergeCell ref="BN18:BN20"/>
-    <mergeCell ref="BO18:BO20"/>
-    <mergeCell ref="BP18:BP20"/>
-    <mergeCell ref="X21:X25"/>
-    <mergeCell ref="BA21:BA25"/>
-    <mergeCell ref="BB21:BB25"/>
-    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="BB27:BB28"/>
+    <mergeCell ref="AV21:AV25"/>
+    <mergeCell ref="AJ21:AJ25"/>
+    <mergeCell ref="AK21:AK25"/>
+    <mergeCell ref="AO21:AO25"/>
+    <mergeCell ref="AU21:AU25"/>
+    <mergeCell ref="AT21:AT25"/>
+    <mergeCell ref="AN21:AN25"/>
+    <mergeCell ref="AZ21:AZ25"/>
+    <mergeCell ref="AW21:AW25"/>
+    <mergeCell ref="AV27:AV28"/>
+    <mergeCell ref="AW27:AW28"/>
+    <mergeCell ref="AP21:AP25"/>
+    <mergeCell ref="AQ21:AQ25"/>
+    <mergeCell ref="AP27:AP28"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AG21:AG25"/>
+    <mergeCell ref="BA27:BA28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17791,27 +17785,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75">
-      <c r="BJ1" s="35"/>
+      <c r="BJ1" s="34"/>
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
     <row r="2" spans="1:75" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="BJ2" s="35"/>
+      <c r="BJ2" s="34"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
     </row>
     <row r="3" spans="1:75" ht="21">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="17" t="s">
         <v>860</v>
       </c>
@@ -17921,7 +17915,7 @@
       <c r="BF6" s="1"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="12"/>
-      <c r="BL6" s="88" t="s">
+      <c r="BL6" s="91" t="s">
         <v>818</v>
       </c>
       <c r="BN6" s="1"/>
@@ -17981,7 +17975,7 @@
       <c r="BF7" s="1"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="12"/>
-      <c r="BL7" s="88"/>
+      <c r="BL7" s="91"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="4"/>
       <c r="BP7" s="6"/>
@@ -18039,7 +18033,7 @@
       <c r="BF8" s="1"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="12"/>
-      <c r="BL8" s="88"/>
+      <c r="BL8" s="91"/>
       <c r="BN8" s="1"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="6"/>
@@ -18097,7 +18091,7 @@
       <c r="BF9" s="1"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="12"/>
-      <c r="BL9" s="88"/>
+      <c r="BL9" s="91"/>
       <c r="BN9" s="1"/>
       <c r="BO9" s="4"/>
       <c r="BP9" s="6"/>
@@ -18151,7 +18145,7 @@
       <c r="BI10" s="6"/>
       <c r="BJ10" s="12"/>
       <c r="BK10" s="6"/>
-      <c r="BL10" s="93"/>
+      <c r="BL10" s="92"/>
       <c r="BM10" s="12"/>
       <c r="BO10" s="4"/>
       <c r="BP10" s="6"/>
@@ -18359,18 +18353,18 @@
       <c r="BW14" s="6"/>
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>854</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="70" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="69" t="s">
         <v>856</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="69" t="s">
         <v>858</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="69" t="s">
         <v>858</v>
       </c>
       <c r="I15" s="6"/>
@@ -18410,12 +18404,12 @@
       <c r="BW15" s="6"/>
     </row>
     <row r="16" spans="1:75" s="1" customFormat="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -18453,12 +18447,12 @@
       <c r="BW16" s="6"/>
     </row>
     <row r="17" spans="1:75" s="1" customFormat="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -18742,12 +18736,12 @@
       <c r="BW23" s="6"/>
     </row>
     <row r="24" spans="1:75" s="1" customFormat="1">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="96" t="s">
         <v>861</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -18901,7 +18895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F75" sqref="F3:F75"/>
     </sheetView>
   </sheetViews>
@@ -19194,7 +19188,7 @@
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="27" t="s">
         <v>604</v>
       </c>
       <c r="F27" t="str">
@@ -19203,7 +19197,7 @@
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="27" t="s">
         <v>605</v>
       </c>
       <c r="F28" t="str">
@@ -19213,335 +19207,335 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="27" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IVA,</v>
+        <v>VL_BASE_ICMS_NAO_REDUTOR,</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="27" t="s">
-        <v>351</v>
+        <v>619</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_IPI,</v>
+        <v>VL_PERCENTUAL_REDUTOR_ICMS,</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="27" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_IPI,</v>
+        <v>VL_IVA,</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" s="27" t="s">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IPI,</v>
+        <v>VL_BASE_IPI,</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="27" t="s">
-        <v>352</v>
+        <v>594</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IPI_DESTACADO,</v>
+        <v>VL_PERCENTUAL_IPI,</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="27" t="s">
-        <v>597</v>
+        <v>34</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_ISS,</v>
+        <v>VL_IPI,</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ISS,</v>
+        <v>VL_IPI_DESTACADO,</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_IRPF,</v>
+        <v>VL_PERCENTUAL_ISS,</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="27" t="s">
-        <v>599</v>
+        <v>354</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IRPF,</v>
+        <v>VL_ISS,</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="27" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_PIS,</v>
+        <v>VL_PERCENTUAL_IRPF,</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="27" t="s">
-        <v>365</v>
+        <v>599</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS,</v>
+        <v>VL_IRPF,</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="27" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_MERCADORIA,</v>
+        <v>VL_PERCENTUAL_PIS,</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="C41" s="27" t="s">
-        <v>54</v>
+        <v>365</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_IMPORTACAO,</v>
+        <v>VL_PIS,</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_FRETE,</v>
+        <v>VL_PIS_MERCADORIA,</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="27" t="s">
-        <v>611</v>
+        <v>54</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_OUTROS,</v>
+        <v>VL_PIS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="27" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_COFINS,</v>
+        <v>VL_PIS_FRETE,</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="27" t="s">
-        <v>366</v>
+        <v>611</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS,</v>
+        <v>VL_PIS_OUTROS,</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="27" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_MERCADORIA,</v>
+        <v>VL_PERCENTUAL_COFINS,</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="C47" s="27" t="s">
-        <v>55</v>
+        <v>366</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_IMPORTACAO,</v>
+        <v>VL_COFINS,</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_FRETE,</v>
+        <v>VL_COFINS_MERCADORIA,</v>
       </c>
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="27" t="s">
-        <v>608</v>
+        <v>55</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_OUTROS,</v>
+        <v>VL_COFINS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="50" spans="3:6">
       <c r="C50" s="27" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_CSLL,</v>
+        <v>VL_COFINS_FRETE,</v>
       </c>
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="27" t="s">
-        <v>367</v>
+        <v>608</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL,</v>
+        <v>VL_COFINS_OUTROS,</v>
       </c>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_MERCADORIA,</v>
+        <v>VL_PERCENTUAL_CSLL,</v>
       </c>
     </row>
     <row r="53" spans="3:6">
       <c r="C53" s="27" t="s">
-        <v>616</v>
+        <v>367</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_FRETE,</v>
+        <v>VL_CSLL,</v>
       </c>
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="27" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_OUTROS,</v>
+        <v>VL_CSLL_MERCADORIA,</v>
       </c>
     </row>
     <row r="55" spans="3:6">
       <c r="C55" s="27" t="s">
-        <v>369</v>
+        <v>616</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_IMPOSTO_IMPORTACAO,</v>
+        <v>VL_CSLL_FRETE,</v>
       </c>
     </row>
     <row r="56" spans="3:6">
       <c r="C56" s="27" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IMPOSTO_IMPORTACAO,</v>
+        <v>VL_CSLL_OUTROS,</v>
       </c>
     </row>
     <row r="57" spans="3:6">
       <c r="C57" s="27" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>VL_SERVICO,</v>
+        <v>VL_BASE_IMPOSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="58" spans="3:6">
       <c r="C58" s="27" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>NR_PEDIDO_COMPRA,</v>
+        <v>VL_IMPOSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="59" spans="3:6">
       <c r="C59" s="27" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NFR,</v>
+        <v>VL_SERVICO,</v>
       </c>
     </row>
     <row r="60" spans="3:6">
       <c r="C60" s="27" t="s">
-        <v>593</v>
+        <v>30</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>QT_RECEBIDA,</v>
+        <v>NR_PEDIDO_COMPRA,</v>
       </c>
     </row>
     <row r="61" spans="3:6">
       <c r="C61" s="27" t="s">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ADICIONAL_IMPORTACAO,</v>
+        <v>NR_NFR,</v>
       </c>
     </row>
     <row r="62" spans="3:6">
       <c r="C62" s="27" t="s">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CIF_IMPORTACAO,</v>
+        <v>QT_RECEBIDA,</v>
       </c>
     </row>
     <row r="63" spans="3:6">
       <c r="C63" s="27" t="s">
-        <v>622</v>
+        <v>53</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CUSTO_IMPORTACAO,</v>
+        <v>VL_ADICIONAL_IMPORTACAO,</v>
       </c>
     </row>
     <row r="64" spans="3:6">
       <c r="C64" s="27" t="s">
-        <v>602</v>
+        <v>56</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_ICMS_NAO_REDUTOR,</v>
+        <v>VL_CIF_IMPORTACAO,</v>
       </c>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="27" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PERCENTUAL_REDUTOR_ICMS,</v>
+        <v>VL_CUSTO_IMPORTACAO,</v>
       </c>
     </row>
     <row r="66" spans="3:6">
@@ -19654,5 +19648,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/Planilhas/Conferencia_NFR.xlsx
+++ b/Documentação/Planilhas/Conferencia_NFR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
   </bookViews>
   <sheets>
     <sheet name="stg_nfr_rascunho_cab" sheetId="104" r:id="rId1"/>
@@ -609,9 +609,6 @@
     <t>Pedir o detalhamento da coluna "Dep.Compras" do pedido selecionado. Na sequência, pedir o detalhamento coluna "Unidade Empresarial" do Dep Compras Utilizado e pegar a informação da coluna "Cat da uni empresarial"</t>
   </si>
   <si>
-    <t>brnfel504m00l [na lupinha, limpar todos os campos e informar o NR_NF_RASCUNHO desejado na Referência Fiscal]</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna Referência Fiscal</t>
   </si>
   <si>
@@ -739,24 +736,9 @@
     <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior Impostos, pegar a informação da coluna "Valor" para o tipo de imposto "Imposto Importação"</t>
   </si>
   <si>
-    <t>Sessão tcmcsl115m00l</t>
-  </si>
-  <si>
-    <t>Sessão tdpur4551m000 [na lupinha, informar o NR_PEDIDO_COMPRA, limpando primeiramente todos os campos]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão znnfec503m000 [na lupinha, informar o NR_NF_RASCUNHO, limpando primeiramente todos os campos] </t>
-  </si>
-  <si>
-    <t>Sessão tdrecl504m50l</t>
-  </si>
-  <si>
     <t>stg_nfr_rascunho_cab</t>
   </si>
   <si>
-    <t>Sessão tdpur4100m000 [usar o Nr_PEDIDO como filtro na coluna "Ordem de Compra" desta sessão</t>
-  </si>
-  <si>
     <t>Pedir o detalhamento do pedido selecionado. Na seção "Controle", pegar a informação da "Condição Entrega". Se for CIF, terá o mesmo valor que a coluna VL_FRETE</t>
   </si>
   <si>
@@ -1016,12 +998,6 @@
   </si>
   <si>
     <t>Para identificar o "Fiscal Receipt", na sessão brnfel504m00l, informar o NR_NF_RASCUNHO na coluna"Referência Fiscal" e pedir o seu detalhamento. Na aba Geral, seção "Referência", pegar a informação de "Fiscal Receipt"</t>
-  </si>
-  <si>
-    <t>Sessão brnfel504m00l [na lupinha, limpar todos os campos e informar o NR_NF_RASCUNHO desejado na Referência Fiscal, na sequência, pedir o detalhamento da mesma]</t>
-  </si>
-  <si>
-    <t>Sessão tdpur4100m000 [informar o NR_PEDIDO_COMPRA na coluna "Ordem de Compra" desta sessão e pedir o seu detalhamento]</t>
   </si>
   <si>
     <t>brnfel504m00l, tdpur4100m000 e tdrecl504m50l</t>
@@ -1816,21 +1792,6 @@
     <t>TRANSFERENCIA DE SALDO CREDOR CONFORME ART 98 DO RICMS/SP AP</t>
   </si>
   <si>
-    <t>Sessão tdrecl504m00l</t>
-  </si>
-  <si>
-    <t>Sessão whinh3100m000</t>
-  </si>
-  <si>
-    <t>Sessão whinh3512m000</t>
-  </si>
-  <si>
-    <t>Sessão tcmcs0565m000</t>
-  </si>
-  <si>
-    <t>Sessão tcemm0130m000</t>
-  </si>
-  <si>
     <t>tdrecl504m00l, whinh3100m000, whinh3512m000, tcmcs0565m000 e tcemm0130m000</t>
   </si>
   <si>
@@ -2449,12 +2410,6 @@
     <t xml:space="preserve">Informar o SQ_NBM na coluna "Dados Fiscais do Item" e pegar a informação na coluna "Classificação Fiscal" </t>
   </si>
   <si>
-    <t>Sessão tcibdl501m00l</t>
-  </si>
-  <si>
-    <t>Sessão tcibd0501m000</t>
-  </si>
-  <si>
     <t>R00001052</t>
   </si>
   <si>
@@ -2767,9 +2722,6 @@
     <t>37938.8086</t>
   </si>
   <si>
-    <t>Sessão whinh3512m600</t>
-  </si>
-  <si>
     <t>tdrecl504m00l, tcibdl501m00l, tcibd0501m000, whinh3512m600, tcmcs0565m000 e tcemm0130m000</t>
   </si>
   <si>
@@ -2800,27 +2752,15 @@
     <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Na aba "Transações", pegar a última informação da coluna Data Transação</t>
   </si>
   <si>
-    <t>Sessão whina1512m000</t>
-  </si>
-  <si>
     <t>Na lupinha, informar o Cód Item limpando todos os campos primeiramente. Pegar a informação da coluna Qtde  referente à última data existente, cujo tipo de Transação seja Recebimento</t>
   </si>
   <si>
-    <t>Sessão whinr1510m000</t>
-  </si>
-  <si>
     <t>Na sessão "whina1512m000" pegar a indicação do Código do Armazém no cabeçalho da tela. Em seguida, ir para a sessão "tcmcs0503m000" e informar o mesmo na coluna Armazém. Pegar a informação da coluna "Unidade Empresarial"</t>
   </si>
   <si>
-    <t>Sessão tcmcs0503m000</t>
-  </si>
-  <si>
     <t>Pegar a indicação da Unidade Empresarial. Em seguida, ir para a sessão "tcemm0130m000" e informar o mesmo na coluna "Unid Empresarial". Pegar a informação da coluna "Cat da Unid Empresarial"</t>
   </si>
   <si>
-    <t>whina1512m000, whinr1510m000, tcmcs0503m000 e tcmcs0503m000</t>
-  </si>
-  <si>
     <t>Aguardando a resposta do Fábio sobre o recebimento do mesmo item em dois armazéns distintos.</t>
   </si>
   <si>
@@ -2837,6 +2777,66 @@
   </si>
   <si>
     <t>Sessão tdrecl504m00l (Recebimento Fiscal)</t>
+  </si>
+  <si>
+    <t>Sessão brnfel504m00l (Recebimento Fiscal NFE (Pré Nota)) [na lupinha, limpar todos os campos e informar o NR_NF_RASCUNHO desejado na Referência Fiscal]</t>
+  </si>
+  <si>
+    <t>Sessão tdpur4100m000 (Ordens de Compra) [usar o Nr_PEDIDO como filtro na coluna "Ordem de Compra" desta sessão</t>
+  </si>
+  <si>
+    <t>Sessão tcmcsl115m00l (Código Fiscal de Operação e Prestação - CFOP)</t>
+  </si>
+  <si>
+    <t>Sessão tdpur4551m000 (Histórico de Linha de Ordem de Compra) [na lupinha, informar o NR_PEDIDO_COMPRA, limpando primeiramente todos os campos]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão znnfec503m000 (Log do pré Recebimento) [na lupinha, informar o NR_NF_RASCUNHO, limpando primeiramente todos os campos] </t>
+  </si>
+  <si>
+    <t>Sessão tdrecl504m50l (Ref. Fiscal - Sumário)</t>
+  </si>
+  <si>
+    <t>Sessão brnfel504m00l (Recebimento Fiscal NFE - Pré-Nota) [na lupinha, limpar todos os campos e informar o NR_NF_RASCUNHO desejado na Referência Fiscal, na sequência, pedir o detalhamento da mesma]</t>
+  </si>
+  <si>
+    <t>Sessão tdpur4100m000 (Ordens de Compra) [informar o NR_PEDIDO_COMPRA na coluna "Ordem de Compra" desta sessão e pedir o seu detalhamento]</t>
+  </si>
+  <si>
+    <t>Sessão tdrecl504m50l (Ref. Fiscal Sumário)</t>
+  </si>
+  <si>
+    <t>Sessão whinh3100m000 (Aviso de Remessa)</t>
+  </si>
+  <si>
+    <t>Sessão whinh3512m000 (Recebimentos de Armazém)</t>
+  </si>
+  <si>
+    <t>Sessão tcmcs0565m000 (Departamentos)</t>
+  </si>
+  <si>
+    <t>Sessão tcemm0130m000 (Unidades Empresariais)</t>
+  </si>
+  <si>
+    <t>Sessão tcibdl501m00l (Dados Fiscais do Item)</t>
+  </si>
+  <si>
+    <t>Sessão tcibd0501m000 (Itens - Geral)</t>
+  </si>
+  <si>
+    <t>Sessão whinh3512m600 (Linhas de Recebimento - Armazém)</t>
+  </si>
+  <si>
+    <t>Sessão whina1512m000 (Transação de Recebimento de Inventário)</t>
+  </si>
+  <si>
+    <t>Sessão whinr1510m000 (Item - Armazém - Transações de Inventário)</t>
+  </si>
+  <si>
+    <t>Sessão tcmcs0503m000 (Armazém)</t>
+  </si>
+  <si>
+    <t>whina1512m000, whinr1510m000, tcmcs0503m000 e tcemm0130m000</t>
   </si>
 </sst>
 </file>
@@ -3156,7 +3156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3257,61 +3257,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3347,10 +3299,58 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,16 +3371,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3389,10 +3392,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3401,10 +3401,10 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3436,33 +3436,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3772,9 +3745,7 @@
   </sheetPr>
   <dimension ref="A2:AQ30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:AA21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -3811,34 +3782,34 @@
     <col min="32" max="32" width="31.42578125" style="1" customWidth="1"/>
     <col min="33" max="33" width="29.28515625" style="1" customWidth="1"/>
     <col min="34" max="34" width="31.42578125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="29" style="1" customWidth="1"/>
+    <col min="35" max="35" width="37.42578125" style="1" customWidth="1"/>
     <col min="36" max="36" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="51.5703125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="57.85546875" style="1" customWidth="1"/>
     <col min="43" max="43" width="27.85546875" style="1" customWidth="1"/>
     <col min="44" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:43" ht="21">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="17" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -5291,535 +5262,551 @@
       <c r="AO18" s="4"/>
     </row>
     <row r="19" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="41" t="s">
+        <v>846</v>
+      </c>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="65" t="s">
+        <v>847</v>
+      </c>
+      <c r="AJ19" s="50" t="s">
+        <v>848</v>
+      </c>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="62" t="s">
+        <v>849</v>
+      </c>
+      <c r="AQ19" s="65" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" ht="11.25" customHeight="1">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="66"/>
+    </row>
+    <row r="21" spans="1:43" ht="11.25" customHeight="1">
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="67"/>
+    </row>
+    <row r="22" spans="1:43" ht="11.25" customHeight="1">
+      <c r="A22" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="43" t="s">
+      <c r="C22" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="P22" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="T22" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="V22" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="W22" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z22" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA22" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB22" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC22" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD22" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE22" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF22" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG22" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH22" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="AJ19" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ19" s="43" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="44"/>
-    </row>
-    <row r="21" spans="1:43" ht="11.25" customHeight="1">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="45"/>
-    </row>
-    <row r="22" spans="1:43" ht="11.25" customHeight="1">
-      <c r="A22" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="N22" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q22" s="36" t="s">
+      <c r="AI22" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ22" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK22" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL22" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM22" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN22" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO22" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP22" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ22" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="R22" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="S22" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="T22" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="U22" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="V22" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="W22" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="X22" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y22" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z22" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA22" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB22" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC22" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD22" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE22" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF22" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG22" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH22" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI22" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ22" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK22" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL22" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM22" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN22" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO22" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP22" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="AQ22" s="37" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="38"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="60"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="38"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="60"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="38"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="37"/>
+      <c r="AQ25" s="60"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="38"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="60"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="39"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="37"/>
+      <c r="AQ27" s="61"/>
     </row>
     <row r="29" spans="1:43" ht="11.25" customHeight="1">
       <c r="I29" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="O29" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
+        <v>213</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:43" ht="56.25">
       <c r="I30" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
+        <v>214</v>
+      </c>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="O29:Q30"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="AJ22:AJ27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="AO22:AO27"/>
+    <mergeCell ref="AQ22:AQ27"/>
+    <mergeCell ref="AP22:AP27"/>
+    <mergeCell ref="AP19:AP21"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AJ19:AO21"/>
+    <mergeCell ref="AQ19:AQ21"/>
+    <mergeCell ref="AI22:AI27"/>
+    <mergeCell ref="AN22:AN27"/>
+    <mergeCell ref="AM22:AM27"/>
+    <mergeCell ref="AK22:AK27"/>
+    <mergeCell ref="AL22:AL27"/>
+    <mergeCell ref="AB19:AH21"/>
+    <mergeCell ref="U22:U27"/>
+    <mergeCell ref="W22:W27"/>
+    <mergeCell ref="X22:X27"/>
+    <mergeCell ref="V22:V27"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="Z22:Z27"/>
+    <mergeCell ref="AE22:AE27"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AB22:AB27"/>
+    <mergeCell ref="AD22:AD27"/>
+    <mergeCell ref="AA22:AA27"/>
+    <mergeCell ref="AH22:AH27"/>
+    <mergeCell ref="AG22:AG27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AF22:AF27"/>
@@ -5836,32 +5823,16 @@
     <mergeCell ref="S22:S27"/>
     <mergeCell ref="T22:T27"/>
     <mergeCell ref="H22:H27"/>
-    <mergeCell ref="AB19:AH21"/>
-    <mergeCell ref="U22:U27"/>
-    <mergeCell ref="W22:W27"/>
-    <mergeCell ref="X22:X27"/>
-    <mergeCell ref="V22:V27"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="Z22:Z27"/>
-    <mergeCell ref="AE22:AE27"/>
-    <mergeCell ref="AC22:AC27"/>
-    <mergeCell ref="AB22:AB27"/>
-    <mergeCell ref="AD22:AD27"/>
-    <mergeCell ref="AA22:AA27"/>
-    <mergeCell ref="AH22:AH27"/>
-    <mergeCell ref="AG22:AG27"/>
-    <mergeCell ref="AO22:AO27"/>
-    <mergeCell ref="AQ22:AQ27"/>
-    <mergeCell ref="AP22:AP27"/>
-    <mergeCell ref="AP19:AP21"/>
-    <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="AJ19:AO21"/>
-    <mergeCell ref="AQ19:AQ21"/>
-    <mergeCell ref="AI22:AI27"/>
-    <mergeCell ref="AN22:AN27"/>
-    <mergeCell ref="AM22:AM27"/>
-    <mergeCell ref="AK22:AK27"/>
-    <mergeCell ref="AL22:AL27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="O29:Q30"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="AJ22:AJ27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5875,9 +5846,7 @@
   </sheetPr>
   <dimension ref="A2:AQ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -5927,21 +5896,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="21">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -5950,7 +5919,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>30</v>
@@ -5959,7 +5928,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>16</v>
@@ -5995,16 +5964,16 @@
         <v>55</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="U6" s="18" t="s">
         <v>53</v>
@@ -6021,16 +5990,16 @@
         <v>57</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>11</v>
@@ -6048,10 +6017,10 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>3</v>
@@ -6069,13 +6038,13 @@
         <v>0</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>11</v>
@@ -6092,37 +6061,37 @@
         <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>3</v>
@@ -6140,13 +6109,13 @@
         <v>1</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>11</v>
@@ -6163,16 +6132,16 @@
         <v>57</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>11</v>
@@ -6190,10 +6159,10 @@
         <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
@@ -6211,13 +6180,13 @@
         <v>71</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>11</v>
@@ -6234,16 +6203,16 @@
         <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>11</v>
@@ -6261,10 +6230,10 @@
         <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
@@ -6279,16 +6248,16 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>11</v>
@@ -6305,16 +6274,16 @@
         <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -6335,7 +6304,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>3</v>
@@ -6353,13 +6322,13 @@
         <v>18</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>11</v>
@@ -6376,16 +6345,16 @@
         <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -6406,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>3</v>
@@ -6421,16 +6390,16 @@
         <v>11</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>11</v>
@@ -6447,16 +6416,16 @@
         <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -6474,10 +6443,10 @@
         <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>3</v>
@@ -6495,13 +6464,13 @@
         <v>19</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>11</v>
@@ -6518,16 +6487,16 @@
         <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -6545,10 +6514,10 @@
         <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>3</v>
@@ -6563,16 +6532,16 @@
         <v>11</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>11</v>
@@ -6589,22 +6558,22 @@
         <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
@@ -6613,7 +6582,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>11</v>
@@ -6637,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>11</v>
@@ -6660,22 +6629,22 @@
         <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
@@ -6684,7 +6653,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>11</v>
@@ -6708,13 +6677,13 @@
         <v>1</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>11</v>
@@ -6734,266 +6703,266 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="B19" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
+      <c r="B19" s="41" t="s">
+        <v>851</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
       <c r="Q19" s="69" t="s">
-        <v>332</v>
+        <v>852</v>
       </c>
       <c r="R19" s="69"/>
       <c r="S19" s="69"/>
       <c r="T19" s="69"/>
       <c r="U19" s="69"/>
       <c r="V19" s="69"/>
-      <c r="W19" s="43" t="s">
-        <v>241</v>
+      <c r="W19" s="65" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
       <c r="Q20" s="69"/>
       <c r="R20" s="69"/>
       <c r="S20" s="69"/>
       <c r="T20" s="69"/>
       <c r="U20" s="69"/>
       <c r="V20" s="69"/>
-      <c r="W20" s="44"/>
+      <c r="W20" s="66"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="65"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="69"/>
       <c r="S21" s="69"/>
       <c r="T21" s="69"/>
       <c r="U21" s="69"/>
       <c r="V21" s="69"/>
-      <c r="W21" s="45"/>
+      <c r="W21" s="67"/>
     </row>
     <row r="22" spans="1:23" ht="11.25" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="I22" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="J22" s="8"/>
+      <c r="K22" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="L22" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="M22" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39" t="s">
+      <c r="N22" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="O22" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="P22" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q22" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="R22" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="39" t="s">
+      <c r="S22" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="T22" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="U22" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="N22" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="S22" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="T22" s="36" t="s">
+      <c r="V22" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="U22" s="36" t="s">
+      <c r="W22" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="V22" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="W22" s="70" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="71"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="71"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="71"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
       <c r="W26" s="71"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
       <c r="W27" s="72"/>
     </row>
     <row r="28" spans="1:23">
@@ -7001,45 +6970,57 @@
     </row>
     <row r="29" spans="1:23" ht="11.25" customHeight="1">
       <c r="B29" s="6"/>
-      <c r="O29" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="P29" s="67"/>
+      <c r="O29" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="38"/>
       <c r="W29" s="68" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="B30" s="6"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
       <c r="W30" s="68"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
       <c r="W31" s="68"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
       <c r="W32" s="68"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
       <c r="W33" s="68"/>
     </row>
     <row r="34" spans="15:23">
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="15:23">
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="Q22:Q27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="T22:T27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="W29:W33"/>
     <mergeCell ref="B19:P21"/>
@@ -7056,18 +7037,6 @@
     <mergeCell ref="W22:W27"/>
     <mergeCell ref="R22:R27"/>
     <mergeCell ref="S22:S27"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="Q22:Q27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="T22:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7081,9 +7050,7 @@
   </sheetPr>
   <dimension ref="A2:BA173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH21" sqref="BH21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -7144,21 +7111,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:53" ht="21">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="17" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -7185,58 +7152,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>16</v>
@@ -7251,28 +7218,28 @@
         <v>52</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>54</v>
@@ -7281,13 +7248,13 @@
         <v>55</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>13</v>
@@ -7296,43 +7263,43 @@
         <v>33</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AN6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AT6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="AZ6" s="3" t="s">
         <v>9</v>
@@ -7346,34 +7313,34 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>0</v>
@@ -7382,10 +7349,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>1</v>
@@ -7394,10 +7361,10 @@
         <v>19</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>11</v>
@@ -7445,31 +7412,31 @@
         <v>3</v>
       </c>
       <c r="AI7" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM7" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="AN7" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>11</v>
@@ -7507,34 +7474,34 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>0</v>
@@ -7543,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>101</v>
@@ -7555,16 +7522,16 @@
         <v>19</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>11</v>
@@ -7606,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>3</v>
@@ -7668,34 +7635,34 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>0</v>
@@ -7704,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>1</v>
@@ -7716,10 +7683,10 @@
         <v>19</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>11</v>
@@ -7767,31 +7734,31 @@
         <v>3</v>
       </c>
       <c r="AI9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>11</v>
@@ -7829,34 +7796,34 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>71</v>
@@ -7865,10 +7832,10 @@
         <v>1</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>1</v>
@@ -7877,16 +7844,16 @@
         <v>19</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>11</v>
@@ -7913,7 +7880,7 @@
         <v>11</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>11</v>
@@ -7928,14 +7895,14 @@
         <v>3</v>
       </c>
       <c r="AI10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK10" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AJ10" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="AL10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7949,10 +7916,10 @@
         <v>3</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AR10" s="1" t="s">
         <v>11</v>
@@ -7990,34 +7957,34 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>1</v>
@@ -8026,10 +7993,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>1</v>
@@ -8038,10 +8005,10 @@
         <v>19</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>11</v>
@@ -8089,7 +8056,7 @@
         <v>3</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>3</v>
@@ -8151,34 +8118,34 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>0</v>
@@ -8187,10 +8154,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>1</v>
@@ -8199,10 +8166,10 @@
         <v>19</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>11</v>
@@ -8235,7 +8202,7 @@
         <v>11</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>11</v>
@@ -8250,31 +8217,31 @@
         <v>3</v>
       </c>
       <c r="AI12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK12" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AJ12" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="AL12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>11</v>
@@ -8301,10 +8268,10 @@
         <v>10</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="BA12" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -8312,34 +8279,34 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>71</v>
@@ -8348,10 +8315,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>1</v>
@@ -8360,10 +8327,10 @@
         <v>19</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>11</v>
@@ -8381,7 +8348,7 @@
         <v>11</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="Z13" s="26">
         <v>1082400</v>
@@ -8396,7 +8363,7 @@
         <v>11</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>3</v>
@@ -8411,16 +8378,16 @@
         <v>3</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>3</v>
@@ -8432,10 +8399,10 @@
         <v>3</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AR13" s="1" t="s">
         <v>11</v>
@@ -8473,46 +8440,46 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>1</v>
@@ -8521,10 +8488,10 @@
         <v>19</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>11</v>
@@ -8542,7 +8509,7 @@
         <v>11</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>11</v>
@@ -8617,7 +8584,7 @@
         <v>10</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="AY14" s="12" t="s">
         <v>10</v>
@@ -8634,46 +8601,46 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>1</v>
@@ -8703,7 +8670,7 @@
         <v>11</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>11</v>
@@ -8775,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AX15" s="1" t="s">
         <v>10</v>
@@ -8795,46 +8762,46 @@
         <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>1</v>
@@ -8843,10 +8810,10 @@
         <v>19</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>11</v>
@@ -8855,7 +8822,7 @@
         <v>11</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>11</v>
@@ -8876,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="AD16" s="12" t="s">
         <v>11</v>
@@ -8894,16 +8861,16 @@
         <v>3</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>11</v>
@@ -8915,10 +8882,10 @@
         <v>3</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="AR16" s="1" t="s">
         <v>11</v>
@@ -8945,10 +8912,10 @@
         <v>10</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="BA16" s="12" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:53">
@@ -9007,363 +8974,363 @@
       <c r="AY19" s="12"/>
     </row>
     <row r="20" spans="1:53" ht="15" customHeight="1">
-      <c r="B20" s="96" t="s">
-        <v>580</v>
-      </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="97"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="97"/>
-      <c r="AP20" s="97"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="97"/>
-      <c r="AV20" s="97"/>
-      <c r="AW20" s="98"/>
+      <c r="B20" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="43"/>
       <c r="AX20" s="69" t="s">
-        <v>581</v>
+        <v>854</v>
       </c>
       <c r="AY20" s="69" t="s">
-        <v>582</v>
+        <v>855</v>
       </c>
       <c r="AZ20" s="69" t="s">
-        <v>583</v>
+        <v>856</v>
       </c>
       <c r="BA20" s="69" t="s">
-        <v>584</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21" spans="1:53" ht="11.25" customHeight="1">
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="100"/>
-      <c r="AJ21" s="100"/>
-      <c r="AK21" s="100"/>
-      <c r="AL21" s="100"/>
-      <c r="AM21" s="100"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="100"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="100"/>
-      <c r="AS21" s="100"/>
-      <c r="AT21" s="100"/>
-      <c r="AU21" s="100"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="101"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="46"/>
       <c r="AX21" s="69"/>
       <c r="AY21" s="69"/>
       <c r="AZ21" s="69"/>
       <c r="BA21" s="69"/>
     </row>
     <row r="22" spans="1:53" ht="11.25" customHeight="1">
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="103"/>
-      <c r="AU22" s="103"/>
-      <c r="AV22" s="103"/>
-      <c r="AW22" s="104"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="49"/>
       <c r="AX22" s="69"/>
       <c r="AY22" s="69"/>
       <c r="AZ22" s="69"/>
       <c r="BA22" s="69"/>
     </row>
     <row r="23" spans="1:53" ht="11.25" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>448</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>514</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="F23" s="39" t="s">
+      <c r="B23" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>441</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>494</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>509</v>
+      </c>
+      <c r="I23" s="72"/>
+      <c r="J23" s="61" t="s">
+        <v>489</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>490</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>491</v>
+      </c>
+      <c r="M23" s="61" t="s">
+        <v>492</v>
+      </c>
+      <c r="N23" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="P23" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q23" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="R23" s="61" t="s">
+        <v>500</v>
+      </c>
+      <c r="S23" s="61" t="s">
+        <v>504</v>
+      </c>
+      <c r="T23" s="61" t="s">
+        <v>501</v>
+      </c>
+      <c r="U23" s="61" t="s">
         <v>502</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="V23" s="61" t="s">
         <v>503</v>
       </c>
-      <c r="H23" s="72" t="s">
-        <v>517</v>
-      </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="39" t="s">
-        <v>497</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>500</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>504</v>
-      </c>
-      <c r="O23" s="39" t="s">
+      <c r="W23" s="61" t="s">
+        <v>511</v>
+      </c>
+      <c r="X23" s="61" t="s">
         <v>505</v>
       </c>
-      <c r="P23" s="39" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>508</v>
-      </c>
-      <c r="S23" s="39" t="s">
-        <v>512</v>
-      </c>
-      <c r="T23" s="39" t="s">
-        <v>509</v>
-      </c>
-      <c r="U23" s="39" t="s">
+      <c r="Y23" s="61" t="s">
         <v>510</v>
       </c>
-      <c r="V23" s="39" t="s">
-        <v>511</v>
-      </c>
-      <c r="W23" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="X23" s="39" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y23" s="39" t="s">
-        <v>518</v>
-      </c>
-      <c r="Z23" s="74" t="s">
-        <v>733</v>
+      <c r="Z23" s="75" t="s">
+        <v>720</v>
       </c>
       <c r="AA23" s="72" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB23" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC23" s="72" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD23" s="72" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE23" s="72" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF23" s="72" t="s">
+        <v>532</v>
+      </c>
+      <c r="AG23" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="AH23" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="AI23" s="72" t="s">
         <v>535</v>
       </c>
-      <c r="AB23" s="72" t="s">
+      <c r="AJ23" s="72" t="s">
+        <v>536</v>
+      </c>
+      <c r="AK23" s="72" t="s">
         <v>537</v>
       </c>
-      <c r="AC23" s="72" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD23" s="72" t="s">
+      <c r="AL23" s="72" t="s">
         <v>538</v>
       </c>
-      <c r="AE23" s="72" t="s">
+      <c r="AM23" s="72" t="s">
         <v>539</v>
       </c>
-      <c r="AF23" s="72" t="s">
+      <c r="AN23" s="72" t="s">
         <v>540</v>
       </c>
-      <c r="AG23" s="72" t="s">
+      <c r="AO23" s="72" t="s">
         <v>541</v>
       </c>
-      <c r="AH23" s="72" t="s">
+      <c r="AP23" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="AI23" s="72" t="s">
+      <c r="AQ23" s="72" t="s">
         <v>543</v>
       </c>
-      <c r="AJ23" s="72" t="s">
+      <c r="AR23" s="72" t="s">
         <v>544</v>
       </c>
-      <c r="AK23" s="72" t="s">
+      <c r="AS23" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="AL23" s="72" t="s">
+      <c r="AT23" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="AM23" s="72" t="s">
+      <c r="AU23" s="72" t="s">
         <v>547</v>
       </c>
-      <c r="AN23" s="72" t="s">
+      <c r="AV23" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="AO23" s="72" t="s">
+      <c r="AW23" s="72" t="s">
         <v>549</v>
       </c>
-      <c r="AP23" s="72" t="s">
+      <c r="AX23" s="72" t="s">
         <v>550</v>
       </c>
-      <c r="AQ23" s="72" t="s">
+      <c r="AY23" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="AR23" s="72" t="s">
+      <c r="AZ23" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="AS23" s="72" t="s">
+      <c r="BA23" s="74" t="s">
         <v>553</v>
       </c>
-      <c r="AT23" s="72" t="s">
-        <v>554</v>
-      </c>
-      <c r="AU23" s="72" t="s">
-        <v>555</v>
-      </c>
-      <c r="AV23" s="72" t="s">
-        <v>556</v>
-      </c>
-      <c r="AW23" s="72" t="s">
-        <v>557</v>
-      </c>
-      <c r="AX23" s="72" t="s">
-        <v>558</v>
-      </c>
-      <c r="AY23" s="73" t="s">
-        <v>559</v>
-      </c>
-      <c r="AZ23" s="73" t="s">
-        <v>560</v>
-      </c>
-      <c r="BA23" s="76" t="s">
-        <v>561</v>
-      </c>
     </row>
     <row r="24" spans="1:53" ht="11.25" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="73"/>
       <c r="I24" s="73"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="75"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="76"/>
       <c r="AA24" s="73"/>
       <c r="AB24" s="73"/>
       <c r="AC24" s="73"/>
@@ -9390,35 +9357,35 @@
       <c r="AX24" s="73"/>
       <c r="AY24" s="73"/>
       <c r="AZ24" s="73"/>
-      <c r="BA24" s="76"/>
+      <c r="BA24" s="74"/>
     </row>
     <row r="25" spans="1:53">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="75"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="76"/>
       <c r="AA25" s="73"/>
       <c r="AB25" s="73"/>
       <c r="AC25" s="73"/>
@@ -9445,35 +9412,35 @@
       <c r="AX25" s="73"/>
       <c r="AY25" s="73"/>
       <c r="AZ25" s="73"/>
-      <c r="BA25" s="76"/>
+      <c r="BA25" s="74"/>
     </row>
     <row r="26" spans="1:53">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="73"/>
       <c r="I26" s="73"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="75"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="76"/>
       <c r="AA26" s="73"/>
       <c r="AB26" s="73"/>
       <c r="AC26" s="73"/>
@@ -9500,35 +9467,35 @@
       <c r="AX26" s="73"/>
       <c r="AY26" s="73"/>
       <c r="AZ26" s="73"/>
-      <c r="BA26" s="76"/>
+      <c r="BA26" s="74"/>
     </row>
     <row r="27" spans="1:53">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="73"/>
       <c r="I27" s="73"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="75"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="76"/>
       <c r="AA27" s="73"/>
       <c r="AB27" s="73"/>
       <c r="AC27" s="73"/>
@@ -9555,7 +9522,7 @@
       <c r="AX27" s="73"/>
       <c r="AY27" s="73"/>
       <c r="AZ27" s="73"/>
-      <c r="BA27" s="76"/>
+      <c r="BA27" s="74"/>
     </row>
     <row r="28" spans="1:53">
       <c r="H28" s="4"/>
@@ -9592,20 +9559,20 @@
     </row>
     <row r="29" spans="1:53">
       <c r="C29" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H29" s="4"/>
       <c r="J29" s="1"/>
       <c r="M29" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W29" s="12"/>
       <c r="X29" s="1"/>
       <c r="Z29" s="25" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="AA29" s="73"/>
       <c r="AB29" s="73"/>
@@ -9636,20 +9603,20 @@
     </row>
     <row r="30" spans="1:53" ht="123.75">
       <c r="C30" s="14" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H30" s="4"/>
       <c r="J30" s="1"/>
       <c r="M30" s="16" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="W30" s="12"/>
       <c r="X30" s="1"/>
       <c r="Z30" s="24" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
@@ -9669,7 +9636,7 @@
     </row>
     <row r="31" spans="1:53">
       <c r="C31" s="22" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H31" s="4"/>
       <c r="J31" s="1"/>
@@ -9694,7 +9661,7 @@
     </row>
     <row r="32" spans="1:53">
       <c r="C32" s="22" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H32" s="4"/>
       <c r="J32" s="1"/>
@@ -9719,7 +9686,7 @@
     </row>
     <row r="33" spans="3:53">
       <c r="C33" s="22" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H33" s="4"/>
       <c r="J33" s="1"/>
@@ -9744,7 +9711,7 @@
     </row>
     <row r="34" spans="3:53">
       <c r="C34" s="22" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H34" s="4"/>
       <c r="J34" s="1"/>
@@ -9769,7 +9736,7 @@
     </row>
     <row r="35" spans="3:53">
       <c r="C35" s="22" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H35" s="4"/>
       <c r="J35" s="1"/>
@@ -9794,7 +9761,7 @@
     </row>
     <row r="36" spans="3:53">
       <c r="C36" s="22" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H36" s="4"/>
       <c r="J36" s="1"/>
@@ -9819,7 +9786,7 @@
     </row>
     <row r="37" spans="3:53">
       <c r="C37" s="22" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H37" s="4"/>
       <c r="J37" s="1"/>
@@ -9844,7 +9811,7 @@
     </row>
     <row r="38" spans="3:53">
       <c r="C38" s="22" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H38" s="4"/>
       <c r="J38" s="1"/>
@@ -9869,7 +9836,7 @@
     </row>
     <row r="39" spans="3:53">
       <c r="C39" s="22" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H39" s="4"/>
       <c r="J39" s="1"/>
@@ -9894,7 +9861,7 @@
     </row>
     <row r="40" spans="3:53">
       <c r="C40" s="22" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H40" s="4"/>
       <c r="J40" s="1"/>
@@ -9919,7 +9886,7 @@
     </row>
     <row r="41" spans="3:53">
       <c r="C41" s="22" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H41" s="4"/>
       <c r="J41" s="1"/>
@@ -9944,7 +9911,7 @@
     </row>
     <row r="42" spans="3:53">
       <c r="C42" s="22" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H42" s="4"/>
       <c r="J42" s="1"/>
@@ -9969,7 +9936,7 @@
     </row>
     <row r="43" spans="3:53">
       <c r="C43" s="22" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="H43" s="4"/>
       <c r="J43" s="1"/>
@@ -9994,7 +9961,7 @@
     </row>
     <row r="44" spans="3:53">
       <c r="C44" s="22" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H44" s="4"/>
       <c r="J44" s="1"/>
@@ -10019,7 +9986,7 @@
     </row>
     <row r="45" spans="3:53">
       <c r="C45" s="22" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H45" s="4"/>
       <c r="J45" s="1"/>
@@ -10041,7 +10008,7 @@
     </row>
     <row r="46" spans="3:53">
       <c r="C46" s="22" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H46" s="4"/>
       <c r="J46" s="1"/>
@@ -10063,7 +10030,7 @@
     </row>
     <row r="47" spans="3:53">
       <c r="C47" s="22" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H47" s="4"/>
       <c r="J47" s="1"/>
@@ -10085,7 +10052,7 @@
     </row>
     <row r="48" spans="3:53">
       <c r="C48" s="22" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H48" s="4"/>
       <c r="J48" s="1"/>
@@ -10107,7 +10074,7 @@
     </row>
     <row r="49" spans="3:53">
       <c r="C49" s="22" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H49" s="4"/>
       <c r="J49" s="1"/>
@@ -10129,7 +10096,7 @@
     </row>
     <row r="50" spans="3:53">
       <c r="C50" s="22" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H50" s="4"/>
       <c r="J50" s="1"/>
@@ -10151,7 +10118,7 @@
     </row>
     <row r="51" spans="3:53">
       <c r="C51" s="22" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H51" s="4"/>
       <c r="J51" s="1"/>
@@ -10173,7 +10140,7 @@
     </row>
     <row r="52" spans="3:53">
       <c r="C52" s="22" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H52" s="4"/>
       <c r="J52" s="1"/>
@@ -10195,7 +10162,7 @@
     </row>
     <row r="53" spans="3:53">
       <c r="C53" s="22" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H53" s="4"/>
       <c r="J53" s="1"/>
@@ -10217,7 +10184,7 @@
     </row>
     <row r="54" spans="3:53">
       <c r="C54" s="22" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H54" s="4"/>
       <c r="J54" s="1"/>
@@ -10239,7 +10206,7 @@
     </row>
     <row r="55" spans="3:53">
       <c r="C55" s="22" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H55" s="4"/>
       <c r="J55" s="1"/>
@@ -10261,7 +10228,7 @@
     </row>
     <row r="56" spans="3:53">
       <c r="C56" s="22" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H56" s="4"/>
       <c r="J56" s="1"/>
@@ -10283,7 +10250,7 @@
     </row>
     <row r="57" spans="3:53">
       <c r="C57" s="22" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H57" s="4"/>
       <c r="J57" s="1"/>
@@ -10305,7 +10272,7 @@
     </row>
     <row r="58" spans="3:53">
       <c r="C58" s="22" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H58" s="4"/>
       <c r="J58" s="1"/>
@@ -10327,7 +10294,7 @@
     </row>
     <row r="59" spans="3:53">
       <c r="C59" s="22" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H59" s="4"/>
       <c r="J59" s="1"/>
@@ -10349,7 +10316,7 @@
     </row>
     <row r="60" spans="3:53">
       <c r="C60" s="22" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H60" s="4"/>
       <c r="J60" s="1"/>
@@ -10371,7 +10338,7 @@
     </row>
     <row r="61" spans="3:53">
       <c r="C61" s="22" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H61" s="4"/>
       <c r="J61" s="1"/>
@@ -10393,7 +10360,7 @@
     </row>
     <row r="62" spans="3:53">
       <c r="C62" s="22" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H62" s="4"/>
       <c r="J62" s="1"/>
@@ -10415,7 +10382,7 @@
     </row>
     <row r="63" spans="3:53">
       <c r="C63" s="22" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H63" s="4"/>
       <c r="J63" s="1"/>
@@ -10437,7 +10404,7 @@
     </row>
     <row r="64" spans="3:53">
       <c r="C64" s="22" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H64" s="4"/>
       <c r="J64" s="1"/>
@@ -10459,7 +10426,7 @@
     </row>
     <row r="65" spans="3:53">
       <c r="C65" s="22" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H65" s="4"/>
       <c r="J65" s="1"/>
@@ -10481,7 +10448,7 @@
     </row>
     <row r="66" spans="3:53">
       <c r="C66" s="22" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H66" s="4"/>
       <c r="J66" s="1"/>
@@ -10503,7 +10470,7 @@
     </row>
     <row r="67" spans="3:53">
       <c r="C67" s="22" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H67" s="4"/>
       <c r="J67" s="1"/>
@@ -10525,7 +10492,7 @@
     </row>
     <row r="68" spans="3:53">
       <c r="C68" s="22" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H68" s="4"/>
       <c r="J68" s="1"/>
@@ -10547,7 +10514,7 @@
     </row>
     <row r="69" spans="3:53">
       <c r="C69" s="22" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H69" s="4"/>
       <c r="J69" s="1"/>
@@ -10569,7 +10536,7 @@
     </row>
     <row r="70" spans="3:53">
       <c r="C70" s="22" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H70" s="4"/>
       <c r="J70" s="1"/>
@@ -10591,7 +10558,7 @@
     </row>
     <row r="71" spans="3:53">
       <c r="C71" s="22" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H71" s="4"/>
       <c r="J71" s="1"/>
@@ -10613,7 +10580,7 @@
     </row>
     <row r="72" spans="3:53">
       <c r="C72" s="22" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="H72" s="4"/>
       <c r="J72" s="1"/>
@@ -10635,7 +10602,7 @@
     </row>
     <row r="73" spans="3:53">
       <c r="C73" s="22" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H73" s="4"/>
       <c r="J73" s="1"/>
@@ -10657,7 +10624,7 @@
     </row>
     <row r="74" spans="3:53">
       <c r="C74" s="22" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H74" s="4"/>
       <c r="J74" s="1"/>
@@ -10679,7 +10646,7 @@
     </row>
     <row r="75" spans="3:53">
       <c r="C75" s="22" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H75" s="4"/>
       <c r="J75" s="1"/>
@@ -10701,7 +10668,7 @@
     </row>
     <row r="76" spans="3:53">
       <c r="C76" s="23" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H76" s="4"/>
       <c r="J76" s="1"/>
@@ -12565,29 +12532,28 @@
       <c r="BA173" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="AX20:AX22"/>
-    <mergeCell ref="AY20:AY22"/>
-    <mergeCell ref="AZ20:AZ22"/>
-    <mergeCell ref="BA20:BA22"/>
-    <mergeCell ref="AY23:AY29"/>
-    <mergeCell ref="AZ23:AZ29"/>
-    <mergeCell ref="BA23:BA27"/>
-    <mergeCell ref="AT23:AT29"/>
-    <mergeCell ref="AU23:AU29"/>
-    <mergeCell ref="AV23:AV29"/>
-    <mergeCell ref="AW23:AW29"/>
-    <mergeCell ref="AX23:AX29"/>
-    <mergeCell ref="AO23:AO29"/>
-    <mergeCell ref="AP23:AP29"/>
-    <mergeCell ref="AQ23:AQ29"/>
-    <mergeCell ref="AR23:AR29"/>
-    <mergeCell ref="AS23:AS29"/>
-    <mergeCell ref="AJ23:AJ29"/>
-    <mergeCell ref="AK23:AK29"/>
-    <mergeCell ref="AL23:AL29"/>
-    <mergeCell ref="AM23:AM29"/>
-    <mergeCell ref="AN23:AN29"/>
+  <mergeCells count="59">
+    <mergeCell ref="B20:AW22"/>
+    <mergeCell ref="AC23:AC29"/>
+    <mergeCell ref="AB23:AB29"/>
+    <mergeCell ref="AD23:AD29"/>
+    <mergeCell ref="AE23:AE29"/>
+    <mergeCell ref="Y23:Y27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:I27"/>
+    <mergeCell ref="W23:W27"/>
+    <mergeCell ref="Z23:Z27"/>
+    <mergeCell ref="AA23:AA29"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="X23:X27"/>
+    <mergeCell ref="U23:U27"/>
+    <mergeCell ref="V23:V27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="P23:P27"/>
     <mergeCell ref="AF23:AF29"/>
     <mergeCell ref="AG23:AG29"/>
     <mergeCell ref="AH23:AH29"/>
@@ -12604,26 +12570,28 @@
     <mergeCell ref="M23:M27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:I27"/>
-    <mergeCell ref="W23:W27"/>
-    <mergeCell ref="Z23:Z27"/>
-    <mergeCell ref="AA23:AA29"/>
-    <mergeCell ref="S23:S27"/>
-    <mergeCell ref="X23:X27"/>
-    <mergeCell ref="U23:U27"/>
-    <mergeCell ref="V23:V27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="AC23:AC29"/>
-    <mergeCell ref="AB23:AB29"/>
-    <mergeCell ref="AD23:AD29"/>
-    <mergeCell ref="AE23:AE29"/>
-    <mergeCell ref="Y23:Y27"/>
+    <mergeCell ref="AJ23:AJ29"/>
+    <mergeCell ref="AK23:AK29"/>
+    <mergeCell ref="AL23:AL29"/>
+    <mergeCell ref="AM23:AM29"/>
+    <mergeCell ref="AN23:AN29"/>
+    <mergeCell ref="AO23:AO29"/>
+    <mergeCell ref="AP23:AP29"/>
+    <mergeCell ref="AQ23:AQ29"/>
+    <mergeCell ref="AR23:AR29"/>
+    <mergeCell ref="AS23:AS29"/>
+    <mergeCell ref="AT23:AT29"/>
+    <mergeCell ref="AU23:AU29"/>
+    <mergeCell ref="AV23:AV29"/>
+    <mergeCell ref="AW23:AW29"/>
+    <mergeCell ref="AX23:AX29"/>
+    <mergeCell ref="AX20:AX22"/>
+    <mergeCell ref="AY20:AY22"/>
+    <mergeCell ref="AZ20:AZ22"/>
+    <mergeCell ref="BA20:BA22"/>
+    <mergeCell ref="AY23:AY29"/>
+    <mergeCell ref="AZ23:AZ29"/>
+    <mergeCell ref="BA23:BA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12637,9 +12605,7 @@
   </sheetPr>
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -12723,23 +12689,23 @@
       <c r="BW1" s="1"/>
     </row>
     <row r="2" spans="1:75" ht="21">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
     </row>
     <row r="3" spans="1:75" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="17" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -12801,34 +12767,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>31</v>
@@ -12846,13 +12812,13 @@
         <v>52</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="T6" s="27" t="s">
         <v>13</v>
@@ -12861,121 +12827,121 @@
         <v>33</v>
       </c>
       <c r="V6" s="27" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="W6" s="27" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="X6" s="27" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="Z6" s="27" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="AA6" s="27" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="AC6" s="27" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="AD6" s="27" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AE6" s="27" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="AF6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="AG6" s="27" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AH6" s="27" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="AI6" s="27" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AJ6" s="27" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="AK6" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="AL6" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="AL6" s="27" t="s">
-        <v>610</v>
-      </c>
       <c r="AM6" s="27" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AN6" s="27" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="AO6" s="27" t="s">
         <v>54</v>
       </c>
       <c r="AP6" s="27" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="AQ6" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="AR6" s="27" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="AS6" s="27" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AT6" s="27" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="AU6" s="27" t="s">
         <v>55</v>
       </c>
       <c r="AV6" s="27" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="AW6" s="27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="AX6" s="27" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="AY6" s="27" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AZ6" s="27" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="BA6" s="27" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="BB6" s="27" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="BC6" s="27" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="BD6" s="27" t="s">
         <v>51</v>
       </c>
       <c r="BE6" s="27" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="BF6" s="27" t="s">
         <v>30</v>
       </c>
       <c r="BG6" s="27" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="BH6" s="27" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="BI6" s="27" t="s">
         <v>53</v>
@@ -12984,22 +12950,22 @@
         <v>56</v>
       </c>
       <c r="BK6" s="27" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="BL6" s="27" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="BM6" s="27" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="BN6" s="27" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="BO6" s="27" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="BP6" s="27" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="BQ6" s="27" t="s">
         <v>9</v>
@@ -13008,13 +12974,13 @@
         <v>8</v>
       </c>
       <c r="BS6" s="27" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="BT6" s="27" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="BU6" s="27" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -13022,34 +12988,34 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>11</v>
@@ -13070,16 +13036,16 @@
         <v>10</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="V7" s="12" t="s">
         <v>11</v>
@@ -13088,13 +13054,13 @@
         <v>11</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="Y7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>11</v>
@@ -13103,7 +13069,7 @@
         <v>11</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="AD7" s="12" t="s">
         <v>3</v>
@@ -13130,10 +13096,10 @@
         <v>3</v>
       </c>
       <c r="AL7" s="12" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AM7" s="12" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AN7" s="12" t="s">
         <v>11</v>
@@ -13145,13 +13111,13 @@
         <v>11</v>
       </c>
       <c r="AQ7" s="12" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AR7" s="12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AS7" s="12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AT7" s="12" t="s">
         <v>11</v>
@@ -13163,7 +13129,7 @@
         <v>11</v>
       </c>
       <c r="AW7" s="12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AX7" s="12" t="s">
         <v>3</v>
@@ -13187,16 +13153,16 @@
         <v>3</v>
       </c>
       <c r="BE7" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BF7" s="12" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="BG7" s="12" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="BH7" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BI7" s="12" t="s">
         <v>11</v>
@@ -13208,19 +13174,19 @@
         <v>11</v>
       </c>
       <c r="BL7" s="12" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="BM7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN7" s="12" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="BO7" s="12" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="BP7" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BQ7" s="12" t="s">
         <v>98</v>
@@ -13229,13 +13195,13 @@
         <v>0</v>
       </c>
       <c r="BS7" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT7" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU7" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:75">
@@ -13243,34 +13209,34 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>11</v>
@@ -13291,13 +13257,13 @@
         <v>10</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>3</v>
@@ -13411,13 +13377,13 @@
         <v>11</v>
       </c>
       <c r="BF8" s="12" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="BG8" s="12" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="BH8" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BI8" s="12" t="s">
         <v>11</v>
@@ -13429,19 +13395,19 @@
         <v>11</v>
       </c>
       <c r="BL8" s="12" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="BM8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN8" s="12" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="BO8" s="12" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="BP8" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BQ8" s="12" t="s">
         <v>98</v>
@@ -13450,13 +13416,13 @@
         <v>0</v>
       </c>
       <c r="BS8" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT8" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU8" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:75">
@@ -13464,34 +13430,34 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>11</v>
@@ -13512,13 +13478,13 @@
         <v>10</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="U9" s="12" t="s">
         <v>3</v>
@@ -13632,13 +13598,13 @@
         <v>11</v>
       </c>
       <c r="BF9" s="12" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="BG9" s="12" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="BH9" s="12" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="BI9" s="12" t="s">
         <v>11</v>
@@ -13650,19 +13616,19 @@
         <v>11</v>
       </c>
       <c r="BL9" s="12" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="BM9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN9" s="12" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="BO9" s="12" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="BP9" s="12" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="BQ9" s="12" t="s">
         <v>98</v>
@@ -13671,13 +13637,13 @@
         <v>0</v>
       </c>
       <c r="BS9" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT9" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU9" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:75">
@@ -13685,40 +13651,40 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>11</v>
@@ -13733,13 +13699,13 @@
         <v>10</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>3</v>
@@ -13751,7 +13717,7 @@
         <v>11</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="Y10" s="12" t="s">
         <v>11</v>
@@ -13793,10 +13759,10 @@
         <v>3</v>
       </c>
       <c r="AL10" s="12" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="AN10" s="12" t="s">
         <v>11</v>
@@ -13811,10 +13777,10 @@
         <v>11</v>
       </c>
       <c r="AR10" s="12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AS10" s="12" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="AT10" s="12" t="s">
         <v>11</v>
@@ -13853,13 +13819,13 @@
         <v>11</v>
       </c>
       <c r="BF10" s="12" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="BG10" s="12" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="BH10" s="12" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="BI10" s="12" t="s">
         <v>11</v>
@@ -13871,19 +13837,19 @@
         <v>11</v>
       </c>
       <c r="BL10" s="12" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="BM10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN10" s="12" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="BO10" s="12" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="BP10" s="12" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="BQ10" s="12" t="s">
         <v>98</v>
@@ -13892,13 +13858,13 @@
         <v>0</v>
       </c>
       <c r="BS10" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT10" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU10" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:75">
@@ -13906,34 +13872,34 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>11</v>
@@ -13954,50 +13920,50 @@
         <v>10</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="S11" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="AF11" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="AD11" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>663</v>
-      </c>
       <c r="AG11" s="12" t="s">
         <v>11</v>
       </c>
@@ -14014,10 +13980,10 @@
         <v>3</v>
       </c>
       <c r="AL11" s="12" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="AN11" s="12" t="s">
         <v>11</v>
@@ -14032,10 +13998,10 @@
         <v>11</v>
       </c>
       <c r="AR11" s="12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="AT11" s="12" t="s">
         <v>11</v>
@@ -14074,13 +14040,13 @@
         <v>11</v>
       </c>
       <c r="BF11" s="12" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="BG11" s="12" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="BH11" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="BI11" s="12" t="s">
         <v>11</v>
@@ -14092,19 +14058,19 @@
         <v>11</v>
       </c>
       <c r="BL11" s="12" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="BM11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN11" s="12" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="BO11" s="12" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="BP11" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="BQ11" s="12" t="s">
         <v>98</v>
@@ -14113,13 +14079,13 @@
         <v>0</v>
       </c>
       <c r="BS11" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT11" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU11" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:75">
@@ -14127,34 +14093,34 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>11</v>
@@ -14175,13 +14141,13 @@
         <v>10</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>3</v>
@@ -14235,10 +14201,10 @@
         <v>3</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AM12" s="12" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="AN12" s="12" t="s">
         <v>11</v>
@@ -14253,10 +14219,10 @@
         <v>11</v>
       </c>
       <c r="AR12" s="12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AS12" s="12" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="AT12" s="12" t="s">
         <v>11</v>
@@ -14295,13 +14261,13 @@
         <v>11</v>
       </c>
       <c r="BF12" s="12" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="BG12" s="12" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="BH12" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BI12" s="12" t="s">
         <v>11</v>
@@ -14313,34 +14279,34 @@
         <v>11</v>
       </c>
       <c r="BL12" s="12" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="BM12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN12" s="12" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="BO12" s="12" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="BP12" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BQ12" s="12" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="BR12" s="12" t="s">
         <v>1</v>
       </c>
       <c r="BS12" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT12" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU12" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:75">
@@ -14348,31 +14314,31 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>101</v>
@@ -14396,13 +14362,13 @@
         <v>10</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>3</v>
@@ -14414,7 +14380,7 @@
         <v>11</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="Y13" s="12" t="s">
         <v>11</v>
@@ -14432,7 +14398,7 @@
         <v>11</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="AE13" s="12" t="s">
         <v>11</v>
@@ -14456,73 +14422,73 @@
         <v>3</v>
       </c>
       <c r="AL13" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AM13" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR13" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="AS13" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="AT13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF13" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="AM13" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="AN13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR13" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="AS13" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="AT13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF13" s="12" t="s">
-        <v>654</v>
-      </c>
       <c r="BG13" s="12" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="BH13" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="BI13" s="12" t="s">
         <v>11</v>
@@ -14534,19 +14500,19 @@
         <v>11</v>
       </c>
       <c r="BL13" s="12" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="BM13" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="BN13" s="12" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="BO13" s="12" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="BP13" s="12" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="BQ13" s="12" t="s">
         <v>98</v>
@@ -14555,13 +14521,13 @@
         <v>0</v>
       </c>
       <c r="BS13" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT13" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU13" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:75">
@@ -14569,22 +14535,22 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>11</v>
@@ -14593,10 +14559,10 @@
         <v>11</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>11</v>
@@ -14755,16 +14721,16 @@
         <v>11</v>
       </c>
       <c r="BL14" s="12" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="BM14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN14" s="12" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="BO14" s="12" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="BP14" s="12" t="s">
         <v>11</v>
@@ -14776,13 +14742,13 @@
         <v>0</v>
       </c>
       <c r="BS14" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT14" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU14" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:75">
@@ -14790,34 +14756,34 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>11</v>
@@ -14838,19 +14804,19 @@
         <v>10</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="W15" s="12" t="s">
         <v>11</v>
@@ -14871,38 +14837,38 @@
         <v>11</v>
       </c>
       <c r="AC15" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AM15" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="AD15" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="AE15" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="AF15" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL15" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>712</v>
-      </c>
       <c r="AN15" s="12" t="s">
         <v>11</v>
       </c>
@@ -14916,10 +14882,10 @@
         <v>11</v>
       </c>
       <c r="AR15" s="12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AS15" s="12" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="AT15" s="12" t="s">
         <v>11</v>
@@ -14958,10 +14924,10 @@
         <v>11</v>
       </c>
       <c r="BF15" s="12" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="BG15" s="12" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="BH15" s="35">
         <v>40000</v>
@@ -14976,19 +14942,19 @@
         <v>11</v>
       </c>
       <c r="BL15" s="12" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="BM15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN15" s="12" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="BO15" s="12" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="BP15" s="12" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="BQ15" s="12" t="s">
         <v>98</v>
@@ -14997,13 +14963,13 @@
         <v>0</v>
       </c>
       <c r="BS15" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT15" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU15" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:75">
@@ -15011,34 +14977,34 @@
         <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>11</v>
@@ -15059,19 +15025,19 @@
         <v>10</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="W16" s="12" t="s">
         <v>11</v>
@@ -15092,16 +15058,16 @@
         <v>11</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="AD16" s="12" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="AF16" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AG16" s="12" t="s">
         <v>11</v>
@@ -15119,10 +15085,10 @@
         <v>3</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="AN16" s="12" t="s">
         <v>11</v>
@@ -15137,10 +15103,10 @@
         <v>11</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="AS16" s="12" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="AT16" s="12" t="s">
         <v>11</v>
@@ -15179,10 +15145,10 @@
         <v>11</v>
       </c>
       <c r="BF16" s="12" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="BG16" s="12" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="BH16" s="35">
         <v>40000</v>
@@ -15197,19 +15163,19 @@
         <v>11</v>
       </c>
       <c r="BL16" s="12" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="BM16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BN16" s="12" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="BO16" s="12" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="BP16" s="12" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="BQ16" s="13" t="s">
         <v>98</v>
@@ -15218,13 +15184,13 @@
         <v>1</v>
       </c>
       <c r="BS16" s="12" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="BT16" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="BU16" s="12" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:73" ht="11.25" customHeight="1">
@@ -15273,158 +15239,158 @@
       <c r="BS17" s="12"/>
     </row>
     <row r="18" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B18" s="57" t="s">
-        <v>864</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58"/>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="59"/>
+      <c r="B18" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="43"/>
       <c r="BN18" s="69" t="s">
-        <v>763</v>
+        <v>858</v>
       </c>
       <c r="BO18" s="69" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
       <c r="BP18" s="69" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="BQ18" s="69" t="s">
-        <v>583</v>
+        <v>856</v>
       </c>
       <c r="BR18" s="69" t="s">
-        <v>584</v>
+        <v>857</v>
       </c>
       <c r="BS18" s="30"/>
       <c r="BT18" s="83" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="BU18" s="83"/>
     </row>
     <row r="19" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="61"/>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="61"/>
-      <c r="AX19" s="61"/>
-      <c r="AY19" s="61"/>
-      <c r="AZ19" s="61"/>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="61"/>
-      <c r="BC19" s="61"/>
-      <c r="BD19" s="61"/>
-      <c r="BE19" s="61"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="61"/>
-      <c r="BI19" s="61"/>
-      <c r="BJ19" s="61"/>
-      <c r="BK19" s="61"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="62"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="45"/>
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
+      <c r="BI19" s="45"/>
+      <c r="BJ19" s="45"/>
+      <c r="BK19" s="45"/>
+      <c r="BL19" s="45"/>
+      <c r="BM19" s="46"/>
       <c r="BN19" s="69"/>
       <c r="BO19" s="69"/>
       <c r="BP19" s="69"/>
@@ -15435,70 +15401,70 @@
       <c r="BU19" s="83"/>
     </row>
     <row r="20" spans="1:73" ht="11.25" customHeight="1">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="64"/>
-      <c r="AO20" s="64"/>
-      <c r="AP20" s="64"/>
-      <c r="AQ20" s="64"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="64"/>
-      <c r="AU20" s="64"/>
-      <c r="AV20" s="64"/>
-      <c r="AW20" s="64"/>
-      <c r="AX20" s="64"/>
-      <c r="AY20" s="64"/>
-      <c r="AZ20" s="64"/>
-      <c r="BA20" s="64"/>
-      <c r="BB20" s="64"/>
-      <c r="BC20" s="64"/>
-      <c r="BD20" s="64"/>
-      <c r="BE20" s="64"/>
-      <c r="BF20" s="64"/>
-      <c r="BG20" s="64"/>
-      <c r="BH20" s="64"/>
-      <c r="BI20" s="64"/>
-      <c r="BJ20" s="64"/>
-      <c r="BK20" s="64"/>
-      <c r="BL20" s="64"/>
-      <c r="BM20" s="65"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="48"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="48"/>
+      <c r="BE20" s="48"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="48"/>
+      <c r="BJ20" s="48"/>
+      <c r="BK20" s="48"/>
+      <c r="BL20" s="48"/>
+      <c r="BM20" s="49"/>
       <c r="BN20" s="69"/>
       <c r="BO20" s="69"/>
       <c r="BP20" s="69"/>
@@ -15513,212 +15479,212 @@
         <v>7</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E21" s="72" t="s">
+        <v>660</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>661</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>662</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>663</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>664</v>
+      </c>
+      <c r="J21" s="72" t="s">
+        <v>666</v>
+      </c>
+      <c r="K21" s="72" t="s">
+        <v>667</v>
+      </c>
+      <c r="L21" s="72" t="s">
+        <v>671</v>
+      </c>
+      <c r="M21" s="72" t="s">
+        <v>665</v>
+      </c>
+      <c r="N21" s="72" t="s">
+        <v>668</v>
+      </c>
+      <c r="O21" s="72" t="s">
+        <v>669</v>
+      </c>
+      <c r="P21" s="72" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q21" s="72" t="s">
+        <v>672</v>
+      </c>
+      <c r="R21" s="72" t="s">
         <v>673</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="S21" s="72" t="s">
         <v>674</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="T21" s="72" t="s">
         <v>675</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="U21" s="72" t="s">
         <v>676</v>
       </c>
-      <c r="I21" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="J21" s="72" t="s">
-        <v>679</v>
-      </c>
-      <c r="K21" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="L21" s="72" t="s">
-        <v>684</v>
-      </c>
-      <c r="M21" s="72" t="s">
-        <v>678</v>
-      </c>
-      <c r="N21" s="72" t="s">
-        <v>681</v>
-      </c>
-      <c r="O21" s="72" t="s">
-        <v>682</v>
-      </c>
-      <c r="P21" s="72" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q21" s="72" t="s">
-        <v>685</v>
-      </c>
-      <c r="R21" s="72" t="s">
-        <v>686</v>
-      </c>
-      <c r="S21" s="72" t="s">
-        <v>687</v>
-      </c>
-      <c r="T21" s="72" t="s">
-        <v>688</v>
-      </c>
-      <c r="U21" s="72" t="s">
-        <v>689</v>
-      </c>
-      <c r="V21" s="78" t="s">
+      <c r="V21" s="79" t="s">
+        <v>703</v>
+      </c>
+      <c r="W21" s="79" t="s">
+        <v>731</v>
+      </c>
+      <c r="X21" s="72" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y21" s="79" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z21" s="79" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA21" s="72" t="s">
+        <v>842</v>
+      </c>
+      <c r="AB21" s="72" t="s">
+        <v>843</v>
+      </c>
+      <c r="AC21" s="72" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD21" s="84" t="s">
+        <v>708</v>
+      </c>
+      <c r="AE21" s="72" t="s">
+        <v>704</v>
+      </c>
+      <c r="AF21" s="72" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG21" s="72" t="s">
+        <v>736</v>
+      </c>
+      <c r="AH21" s="72" t="s">
+        <v>706</v>
+      </c>
+      <c r="AI21" s="72" t="s">
+        <v>707</v>
+      </c>
+      <c r="AJ21" s="72" t="s">
+        <v>709</v>
+      </c>
+      <c r="AK21" s="72" t="s">
+        <v>710</v>
+      </c>
+      <c r="AL21" s="72" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM21" s="72" t="s">
+        <v>712</v>
+      </c>
+      <c r="AN21" s="72" t="s">
+        <v>738</v>
+      </c>
+      <c r="AO21" s="72" t="s">
+        <v>743</v>
+      </c>
+      <c r="AP21" s="79" t="s">
+        <v>807</v>
+      </c>
+      <c r="AQ21" s="79" t="s">
+        <v>808</v>
+      </c>
+      <c r="AR21" s="72" t="s">
+        <v>713</v>
+      </c>
+      <c r="AS21" s="72" t="s">
+        <v>714</v>
+      </c>
+      <c r="AT21" s="72" t="s">
+        <v>737</v>
+      </c>
+      <c r="AU21" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="AV21" s="79" t="s">
+        <v>805</v>
+      </c>
+      <c r="AW21" s="79" t="s">
+        <v>806</v>
+      </c>
+      <c r="AX21" s="72" t="s">
+        <v>715</v>
+      </c>
+      <c r="AY21" s="72" t="s">
         <v>716</v>
       </c>
-      <c r="W21" s="78" t="s">
-        <v>744</v>
-      </c>
-      <c r="X21" s="72" t="s">
-        <v>753</v>
-      </c>
-      <c r="Y21" s="78" t="s">
+      <c r="AZ21" s="72" t="s">
+        <v>739</v>
+      </c>
+      <c r="BA21" s="79" t="s">
+        <v>741</v>
+      </c>
+      <c r="BB21" s="79" t="s">
+        <v>742</v>
+      </c>
+      <c r="BC21" s="72" t="s">
+        <v>718</v>
+      </c>
+      <c r="BD21" s="72" t="s">
+        <v>717</v>
+      </c>
+      <c r="BE21" s="72" t="s">
+        <v>720</v>
+      </c>
+      <c r="BF21" s="72" t="s">
+        <v>729</v>
+      </c>
+      <c r="BG21" s="72" t="s">
+        <v>746</v>
+      </c>
+      <c r="BH21" s="72" t="s">
         <v>745</v>
       </c>
-      <c r="Z21" s="78" t="s">
-        <v>746</v>
-      </c>
-      <c r="AA21" s="72" t="s">
-        <v>862</v>
-      </c>
-      <c r="AB21" s="72" t="s">
-        <v>863</v>
-      </c>
-      <c r="AC21" s="72" t="s">
-        <v>743</v>
-      </c>
-      <c r="AD21" s="80" t="s">
-        <v>721</v>
-      </c>
-      <c r="AE21" s="72" t="s">
-        <v>717</v>
-      </c>
-      <c r="AF21" s="72" t="s">
-        <v>718</v>
-      </c>
-      <c r="AG21" s="72" t="s">
-        <v>749</v>
-      </c>
-      <c r="AH21" s="72" t="s">
-        <v>719</v>
-      </c>
-      <c r="AI21" s="72" t="s">
-        <v>720</v>
-      </c>
-      <c r="AJ21" s="72" t="s">
-        <v>722</v>
-      </c>
-      <c r="AK21" s="72" t="s">
-        <v>723</v>
-      </c>
-      <c r="AL21" s="72" t="s">
-        <v>724</v>
-      </c>
-      <c r="AM21" s="72" t="s">
-        <v>725</v>
-      </c>
-      <c r="AN21" s="72" t="s">
-        <v>751</v>
-      </c>
-      <c r="AO21" s="72" t="s">
-        <v>756</v>
-      </c>
-      <c r="AP21" s="78" t="s">
-        <v>822</v>
-      </c>
-      <c r="AQ21" s="78" t="s">
-        <v>823</v>
-      </c>
-      <c r="AR21" s="72" t="s">
-        <v>726</v>
-      </c>
-      <c r="AS21" s="72" t="s">
-        <v>727</v>
-      </c>
-      <c r="AT21" s="72" t="s">
-        <v>750</v>
-      </c>
-      <c r="AU21" s="72" t="s">
-        <v>757</v>
-      </c>
-      <c r="AV21" s="78" t="s">
-        <v>820</v>
-      </c>
-      <c r="AW21" s="78" t="s">
-        <v>821</v>
-      </c>
-      <c r="AX21" s="72" t="s">
-        <v>728</v>
-      </c>
-      <c r="AY21" s="72" t="s">
-        <v>729</v>
-      </c>
-      <c r="AZ21" s="72" t="s">
-        <v>752</v>
-      </c>
-      <c r="BA21" s="78" t="s">
-        <v>754</v>
-      </c>
-      <c r="BB21" s="78" t="s">
-        <v>755</v>
-      </c>
-      <c r="BC21" s="72" t="s">
-        <v>731</v>
-      </c>
-      <c r="BD21" s="72" t="s">
-        <v>730</v>
-      </c>
-      <c r="BE21" s="72" t="s">
-        <v>733</v>
-      </c>
-      <c r="BF21" s="72" t="s">
-        <v>742</v>
-      </c>
-      <c r="BG21" s="72" t="s">
-        <v>759</v>
-      </c>
-      <c r="BH21" s="72" t="s">
-        <v>758</v>
-      </c>
       <c r="BI21" s="72" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="BJ21" s="72" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="BK21" s="72" t="s">
-        <v>748</v>
-      </c>
-      <c r="BL21" s="77" t="s">
-        <v>814</v>
+        <v>735</v>
+      </c>
+      <c r="BL21" s="81" t="s">
+        <v>799</v>
       </c>
       <c r="BM21" s="33"/>
       <c r="BN21" s="73" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="BO21" s="73" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="BP21" s="73" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="BQ21" s="73" t="s">
-        <v>560</v>
-      </c>
-      <c r="BR21" s="76" t="s">
-        <v>561</v>
+        <v>552</v>
+      </c>
+      <c r="BR21" s="74" t="s">
+        <v>553</v>
       </c>
       <c r="BS21" s="72" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="BT21" s="83"/>
       <c r="BU21" s="83"/>
@@ -15745,15 +15711,15 @@
       <c r="S22" s="73"/>
       <c r="T22" s="73"/>
       <c r="U22" s="73"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
       <c r="X22" s="73"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
       <c r="AA22" s="73"/>
       <c r="AB22" s="73"/>
       <c r="AC22" s="73"/>
-      <c r="AD22" s="81"/>
+      <c r="AD22" s="85"/>
       <c r="AE22" s="73"/>
       <c r="AF22" s="73"/>
       <c r="AG22" s="73"/>
@@ -15765,19 +15731,19 @@
       <c r="AM22" s="73"/>
       <c r="AN22" s="73"/>
       <c r="AO22" s="73"/>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="79"/>
+      <c r="AP22" s="80"/>
+      <c r="AQ22" s="80"/>
       <c r="AR22" s="73"/>
       <c r="AS22" s="73"/>
       <c r="AT22" s="73"/>
       <c r="AU22" s="73"/>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="79"/>
+      <c r="AV22" s="80"/>
+      <c r="AW22" s="80"/>
       <c r="AX22" s="73"/>
       <c r="AY22" s="73"/>
       <c r="AZ22" s="73"/>
-      <c r="BA22" s="79"/>
-      <c r="BB22" s="79"/>
+      <c r="BA22" s="80"/>
+      <c r="BB22" s="80"/>
       <c r="BC22" s="73"/>
       <c r="BD22" s="73"/>
       <c r="BE22" s="73"/>
@@ -15787,13 +15753,13 @@
       <c r="BI22" s="73"/>
       <c r="BJ22" s="73"/>
       <c r="BK22" s="73"/>
-      <c r="BL22" s="77"/>
+      <c r="BL22" s="81"/>
       <c r="BM22" s="33"/>
       <c r="BN22" s="73"/>
       <c r="BO22" s="73"/>
       <c r="BP22" s="73"/>
       <c r="BQ22" s="73"/>
-      <c r="BR22" s="76"/>
+      <c r="BR22" s="74"/>
       <c r="BS22" s="73"/>
       <c r="BT22" s="83"/>
       <c r="BU22" s="83"/>
@@ -15820,15 +15786,15 @@
       <c r="S23" s="73"/>
       <c r="T23" s="73"/>
       <c r="U23" s="73"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
       <c r="X23" s="73"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
       <c r="AA23" s="73"/>
       <c r="AB23" s="73"/>
       <c r="AC23" s="73"/>
-      <c r="AD23" s="81"/>
+      <c r="AD23" s="85"/>
       <c r="AE23" s="73"/>
       <c r="AF23" s="73"/>
       <c r="AG23" s="73"/>
@@ -15840,19 +15806,19 @@
       <c r="AM23" s="73"/>
       <c r="AN23" s="73"/>
       <c r="AO23" s="73"/>
-      <c r="AP23" s="79"/>
-      <c r="AQ23" s="79"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
       <c r="AR23" s="73"/>
       <c r="AS23" s="73"/>
       <c r="AT23" s="73"/>
       <c r="AU23" s="73"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
+      <c r="AV23" s="80"/>
+      <c r="AW23" s="80"/>
       <c r="AX23" s="73"/>
       <c r="AY23" s="73"/>
       <c r="AZ23" s="73"/>
-      <c r="BA23" s="79"/>
-      <c r="BB23" s="79"/>
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="80"/>
       <c r="BC23" s="73"/>
       <c r="BD23" s="73"/>
       <c r="BE23" s="73"/>
@@ -15862,13 +15828,13 @@
       <c r="BI23" s="73"/>
       <c r="BJ23" s="73"/>
       <c r="BK23" s="73"/>
-      <c r="BL23" s="77"/>
+      <c r="BL23" s="81"/>
       <c r="BM23" s="33"/>
       <c r="BN23" s="73"/>
       <c r="BO23" s="73"/>
       <c r="BP23" s="73"/>
       <c r="BQ23" s="73"/>
-      <c r="BR23" s="76"/>
+      <c r="BR23" s="74"/>
       <c r="BS23" s="73"/>
       <c r="BT23" s="83"/>
       <c r="BU23" s="83"/>
@@ -15895,15 +15861,15 @@
       <c r="S24" s="73"/>
       <c r="T24" s="73"/>
       <c r="U24" s="73"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
       <c r="X24" s="73"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
       <c r="AA24" s="73"/>
       <c r="AB24" s="73"/>
       <c r="AC24" s="73"/>
-      <c r="AD24" s="81"/>
+      <c r="AD24" s="85"/>
       <c r="AE24" s="73"/>
       <c r="AF24" s="73"/>
       <c r="AG24" s="73"/>
@@ -15915,19 +15881,19 @@
       <c r="AM24" s="73"/>
       <c r="AN24" s="73"/>
       <c r="AO24" s="73"/>
-      <c r="AP24" s="79"/>
-      <c r="AQ24" s="79"/>
+      <c r="AP24" s="80"/>
+      <c r="AQ24" s="80"/>
       <c r="AR24" s="73"/>
       <c r="AS24" s="73"/>
       <c r="AT24" s="73"/>
       <c r="AU24" s="73"/>
-      <c r="AV24" s="79"/>
-      <c r="AW24" s="79"/>
+      <c r="AV24" s="80"/>
+      <c r="AW24" s="80"/>
       <c r="AX24" s="73"/>
       <c r="AY24" s="73"/>
       <c r="AZ24" s="73"/>
-      <c r="BA24" s="79"/>
-      <c r="BB24" s="79"/>
+      <c r="BA24" s="80"/>
+      <c r="BB24" s="80"/>
       <c r="BC24" s="73"/>
       <c r="BD24" s="73"/>
       <c r="BE24" s="73"/>
@@ -15937,13 +15903,13 @@
       <c r="BI24" s="73"/>
       <c r="BJ24" s="73"/>
       <c r="BK24" s="73"/>
-      <c r="BL24" s="77"/>
+      <c r="BL24" s="81"/>
       <c r="BM24" s="33"/>
       <c r="BN24" s="73"/>
       <c r="BO24" s="73"/>
       <c r="BP24" s="73"/>
       <c r="BQ24" s="73"/>
-      <c r="BR24" s="76"/>
+      <c r="BR24" s="74"/>
       <c r="BS24" s="73"/>
       <c r="BT24" s="83"/>
       <c r="BU24" s="83"/>
@@ -15970,15 +15936,15 @@
       <c r="S25" s="73"/>
       <c r="T25" s="73"/>
       <c r="U25" s="73"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
       <c r="X25" s="73"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
       <c r="AA25" s="73"/>
       <c r="AB25" s="73"/>
       <c r="AC25" s="73"/>
-      <c r="AD25" s="81"/>
+      <c r="AD25" s="85"/>
       <c r="AE25" s="73"/>
       <c r="AF25" s="73"/>
       <c r="AG25" s="73"/>
@@ -15990,19 +15956,19 @@
       <c r="AM25" s="73"/>
       <c r="AN25" s="73"/>
       <c r="AO25" s="73"/>
-      <c r="AP25" s="79"/>
-      <c r="AQ25" s="79"/>
+      <c r="AP25" s="80"/>
+      <c r="AQ25" s="80"/>
       <c r="AR25" s="73"/>
       <c r="AS25" s="73"/>
       <c r="AT25" s="73"/>
       <c r="AU25" s="73"/>
-      <c r="AV25" s="79"/>
-      <c r="AW25" s="79"/>
+      <c r="AV25" s="80"/>
+      <c r="AW25" s="80"/>
       <c r="AX25" s="73"/>
       <c r="AY25" s="73"/>
       <c r="AZ25" s="73"/>
-      <c r="BA25" s="79"/>
-      <c r="BB25" s="79"/>
+      <c r="BA25" s="80"/>
+      <c r="BB25" s="80"/>
       <c r="BC25" s="73"/>
       <c r="BD25" s="73"/>
       <c r="BE25" s="73"/>
@@ -16012,13 +15978,13 @@
       <c r="BI25" s="73"/>
       <c r="BJ25" s="73"/>
       <c r="BK25" s="73"/>
-      <c r="BL25" s="77"/>
+      <c r="BL25" s="81"/>
       <c r="BM25" s="33"/>
       <c r="BN25" s="73"/>
       <c r="BO25" s="73"/>
       <c r="BP25" s="73"/>
       <c r="BQ25" s="73"/>
-      <c r="BR25" s="76"/>
+      <c r="BR25" s="74"/>
       <c r="BS25" s="73"/>
       <c r="BT25" s="83"/>
       <c r="BU25" s="83"/>
@@ -16057,8 +16023,8 @@
       <c r="BE26" s="12"/>
       <c r="BH26" s="1"/>
       <c r="BK26" s="6"/>
-      <c r="BL26" s="77" t="s">
-        <v>815</v>
+      <c r="BL26" s="81" t="s">
+        <v>800</v>
       </c>
       <c r="BN26" s="1"/>
       <c r="BO26" s="4"/>
@@ -16081,11 +16047,11 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="36" t="s">
-        <v>818</v>
+      <c r="Y27" s="37" t="s">
+        <v>803</v>
       </c>
       <c r="Z27" s="73" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="AA27" s="12"/>
       <c r="AC27" s="1"/>
@@ -16095,37 +16061,37 @@
       <c r="AK27" s="12"/>
       <c r="AL27" s="1"/>
       <c r="AO27" s="12"/>
-      <c r="AP27" s="85" t="s">
-        <v>818</v>
-      </c>
-      <c r="AQ27" s="84" t="s">
-        <v>819</v>
+      <c r="AP27" s="77" t="s">
+        <v>803</v>
+      </c>
+      <c r="AQ27" s="78" t="s">
+        <v>804</v>
       </c>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
-      <c r="AV27" s="85" t="s">
-        <v>818</v>
-      </c>
-      <c r="AW27" s="84" t="s">
-        <v>819</v>
+      <c r="AV27" s="77" t="s">
+        <v>803</v>
+      </c>
+      <c r="AW27" s="78" t="s">
+        <v>804</v>
       </c>
       <c r="AX27" s="12"/>
       <c r="AY27" s="12"/>
       <c r="AZ27" s="12"/>
-      <c r="BA27" s="85" t="s">
-        <v>818</v>
-      </c>
-      <c r="BB27" s="84" t="s">
-        <v>819</v>
+      <c r="BA27" s="77" t="s">
+        <v>803</v>
+      </c>
+      <c r="BB27" s="78" t="s">
+        <v>804</v>
       </c>
       <c r="BC27" s="6"/>
       <c r="BD27" s="6"/>
       <c r="BE27" s="15" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="BH27" s="1"/>
       <c r="BK27" s="6"/>
-      <c r="BL27" s="77"/>
+      <c r="BL27" s="81"/>
       <c r="BN27" s="1"/>
       <c r="BO27" s="4"/>
       <c r="BP27" s="6"/>
@@ -16147,7 +16113,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="36"/>
+      <c r="Y28" s="37"/>
       <c r="Z28" s="73"/>
       <c r="AA28" s="12"/>
       <c r="AF28" s="1"/>
@@ -16157,25 +16123,25 @@
       <c r="AL28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="6"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="84"/>
+      <c r="AP28" s="77"/>
+      <c r="AQ28" s="78"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="6"/>
-      <c r="AV28" s="85"/>
-      <c r="AW28" s="84"/>
+      <c r="AV28" s="77"/>
+      <c r="AW28" s="78"/>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
       <c r="AZ28" s="12"/>
-      <c r="BA28" s="85"/>
-      <c r="BB28" s="84"/>
+      <c r="BA28" s="77"/>
+      <c r="BB28" s="78"/>
       <c r="BC28" s="6"/>
       <c r="BD28" s="6"/>
       <c r="BE28" s="24" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="BH28" s="1"/>
       <c r="BK28" s="6"/>
-      <c r="BL28" s="77"/>
+      <c r="BL28" s="81"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="4"/>
       <c r="BP28" s="6"/>
@@ -16216,8 +16182,8 @@
       <c r="BE29" s="12"/>
       <c r="BH29" s="1"/>
       <c r="BK29" s="6"/>
-      <c r="BL29" s="77" t="s">
-        <v>816</v>
+      <c r="BL29" s="81" t="s">
+        <v>801</v>
       </c>
       <c r="BN29" s="1"/>
       <c r="BO29" s="4"/>
@@ -16259,7 +16225,7 @@
       <c r="BE30" s="12"/>
       <c r="BH30" s="1"/>
       <c r="BK30" s="6"/>
-      <c r="BL30" s="77"/>
+      <c r="BL30" s="81"/>
       <c r="BN30" s="1"/>
       <c r="BO30" s="4"/>
       <c r="BP30" s="6"/>
@@ -16300,7 +16266,7 @@
       <c r="BE31" s="12"/>
       <c r="BH31" s="1"/>
       <c r="BK31" s="6"/>
-      <c r="BL31" s="77"/>
+      <c r="BL31" s="81"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="4"/>
       <c r="BP31" s="6"/>
@@ -16341,7 +16307,7 @@
       <c r="BE32" s="12"/>
       <c r="BH32" s="1"/>
       <c r="BK32" s="6"/>
-      <c r="BL32" s="77"/>
+      <c r="BL32" s="81"/>
       <c r="BN32" s="1"/>
       <c r="BO32" s="4"/>
       <c r="BP32" s="6"/>
@@ -17034,6 +17000,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="BQ18:BQ20"/>
+    <mergeCell ref="BQ21:BQ25"/>
+    <mergeCell ref="BR18:BR20"/>
+    <mergeCell ref="BR21:BR25"/>
+    <mergeCell ref="BP21:BP25"/>
+    <mergeCell ref="BO21:BO25"/>
+    <mergeCell ref="BN21:BN25"/>
+    <mergeCell ref="BN18:BN20"/>
+    <mergeCell ref="BO18:BO20"/>
+    <mergeCell ref="BP18:BP20"/>
+    <mergeCell ref="X21:X25"/>
+    <mergeCell ref="BA21:BA25"/>
+    <mergeCell ref="BB21:BB25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="W21:W25"/>
+    <mergeCell ref="AH21:AH25"/>
+    <mergeCell ref="AI21:AI25"/>
+    <mergeCell ref="AE21:AE25"/>
+    <mergeCell ref="AF21:AF25"/>
+    <mergeCell ref="AD21:AD25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="Z21:Z25"/>
+    <mergeCell ref="AC21:AC25"/>
+    <mergeCell ref="AA21:AA25"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="P21:P25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="Q21:Q25"/>
+    <mergeCell ref="R21:R25"/>
+    <mergeCell ref="BS21:BS25"/>
+    <mergeCell ref="BK21:BK25"/>
+    <mergeCell ref="BH21:BH25"/>
+    <mergeCell ref="BG21:BG25"/>
+    <mergeCell ref="BD21:BD25"/>
+    <mergeCell ref="BC21:BC25"/>
+    <mergeCell ref="BI21:BI25"/>
+    <mergeCell ref="BJ21:BJ25"/>
+    <mergeCell ref="BL21:BL25"/>
+    <mergeCell ref="BL29:BL33"/>
+    <mergeCell ref="BT18:BU25"/>
+    <mergeCell ref="B18:BM20"/>
+    <mergeCell ref="S21:S25"/>
+    <mergeCell ref="T21:T25"/>
+    <mergeCell ref="U21:U25"/>
+    <mergeCell ref="BE21:BE25"/>
+    <mergeCell ref="BF21:BF25"/>
+    <mergeCell ref="Y21:Y25"/>
+    <mergeCell ref="AL21:AL25"/>
+    <mergeCell ref="AM21:AM25"/>
+    <mergeCell ref="AR21:AR25"/>
+    <mergeCell ref="AS21:AS25"/>
+    <mergeCell ref="AX21:AX25"/>
+    <mergeCell ref="AY21:AY25"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="AP21:AP25"/>
+    <mergeCell ref="AQ21:AQ25"/>
+    <mergeCell ref="AP27:AP28"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="BL26:BL28"/>
     <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="Z27:Z28"/>
     <mergeCell ref="AG21:AG25"/>
@@ -17050,79 +17089,6 @@
     <mergeCell ref="AW21:AW25"/>
     <mergeCell ref="AV27:AV28"/>
     <mergeCell ref="AW27:AW28"/>
-    <mergeCell ref="AP21:AP25"/>
-    <mergeCell ref="AQ21:AQ25"/>
-    <mergeCell ref="AP27:AP28"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="BL26:BL28"/>
-    <mergeCell ref="BL29:BL33"/>
-    <mergeCell ref="BT18:BU25"/>
-    <mergeCell ref="B18:BM20"/>
-    <mergeCell ref="S21:S25"/>
-    <mergeCell ref="T21:T25"/>
-    <mergeCell ref="U21:U25"/>
-    <mergeCell ref="BE21:BE25"/>
-    <mergeCell ref="BF21:BF25"/>
-    <mergeCell ref="Y21:Y25"/>
-    <mergeCell ref="AL21:AL25"/>
-    <mergeCell ref="AM21:AM25"/>
-    <mergeCell ref="AR21:AR25"/>
-    <mergeCell ref="AS21:AS25"/>
-    <mergeCell ref="AX21:AX25"/>
-    <mergeCell ref="AY21:AY25"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="P21:P25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="Q21:Q25"/>
-    <mergeCell ref="R21:R25"/>
-    <mergeCell ref="BS21:BS25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="Z21:Z25"/>
-    <mergeCell ref="AC21:AC25"/>
-    <mergeCell ref="AA21:AA25"/>
-    <mergeCell ref="AB21:AB25"/>
-    <mergeCell ref="BK21:BK25"/>
-    <mergeCell ref="BH21:BH25"/>
-    <mergeCell ref="BG21:BG25"/>
-    <mergeCell ref="BD21:BD25"/>
-    <mergeCell ref="BC21:BC25"/>
-    <mergeCell ref="BI21:BI25"/>
-    <mergeCell ref="BJ21:BJ25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="W21:W25"/>
-    <mergeCell ref="AH21:AH25"/>
-    <mergeCell ref="AI21:AI25"/>
-    <mergeCell ref="AE21:AE25"/>
-    <mergeCell ref="AF21:AF25"/>
-    <mergeCell ref="AD21:AD25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="BL21:BL25"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="BQ18:BQ20"/>
-    <mergeCell ref="BQ21:BQ25"/>
-    <mergeCell ref="BR18:BR20"/>
-    <mergeCell ref="BR21:BR25"/>
-    <mergeCell ref="BP21:BP25"/>
-    <mergeCell ref="BO21:BO25"/>
-    <mergeCell ref="BN21:BN25"/>
-    <mergeCell ref="BN18:BN20"/>
-    <mergeCell ref="BO18:BO20"/>
-    <mergeCell ref="BP18:BP20"/>
-    <mergeCell ref="X21:X25"/>
-    <mergeCell ref="BA21:BA25"/>
-    <mergeCell ref="BB21:BB25"/>
-    <mergeCell ref="K21:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17136,9 +17102,7 @@
   </sheetPr>
   <dimension ref="A1:BW31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -17223,24 +17187,24 @@
       <c r="BW1" s="1"/>
     </row>
     <row r="2" spans="1:75" ht="21">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="17" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="BJ2" s="34"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
     </row>
     <row r="3" spans="1:75" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="17" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -17299,16 +17263,16 @@
     </row>
     <row r="6" spans="1:75">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -17348,8 +17312,8 @@
       <c r="BF6" s="1"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="12"/>
-      <c r="BL6" s="77" t="s">
-        <v>816</v>
+      <c r="BL6" s="81" t="s">
+        <v>801</v>
       </c>
       <c r="BN6" s="1"/>
       <c r="BO6" s="4"/>
@@ -17359,19 +17323,19 @@
     </row>
     <row r="7" spans="1:75">
       <c r="A7" s="7" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>1</v>
@@ -17408,7 +17372,7 @@
       <c r="BF7" s="1"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="12"/>
-      <c r="BL7" s="77"/>
+      <c r="BL7" s="81"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="4"/>
       <c r="BP7" s="6"/>
@@ -17417,19 +17381,19 @@
     </row>
     <row r="8" spans="1:75">
       <c r="A8" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>846</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
@@ -17466,7 +17430,7 @@
       <c r="BF8" s="1"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="12"/>
-      <c r="BL8" s="77"/>
+      <c r="BL8" s="81"/>
       <c r="BN8" s="1"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="6"/>
@@ -17475,19 +17439,19 @@
     </row>
     <row r="9" spans="1:75">
       <c r="A9" s="1" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -17524,7 +17488,7 @@
       <c r="BF9" s="1"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="12"/>
-      <c r="BL9" s="77"/>
+      <c r="BL9" s="81"/>
       <c r="BN9" s="1"/>
       <c r="BO9" s="4"/>
       <c r="BP9" s="6"/>
@@ -17533,19 +17497,19 @@
     </row>
     <row r="10" spans="1:75" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -17588,19 +17552,19 @@
     </row>
     <row r="11" spans="1:75" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
@@ -17642,19 +17606,19 @@
     </row>
     <row r="12" spans="1:75" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -17696,19 +17660,19 @@
     </row>
     <row r="13" spans="1:75" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -17787,18 +17751,18 @@
     </row>
     <row r="15" spans="1:75" s="1" customFormat="1">
       <c r="A15" s="87" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="B15" s="88"/>
       <c r="C15" s="89"/>
       <c r="D15" s="69" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -17921,23 +17885,23 @@
       <c r="BW17" s="6"/>
     </row>
     <row r="18" spans="1:75" s="1" customFormat="1">
-      <c r="A18" s="36" t="s">
-        <v>844</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>851</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>860</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>853</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>855</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>857</v>
+      <c r="A18" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>840</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>836</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>837</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>838</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -17974,12 +17938,12 @@
       <c r="BW18" s="6"/>
     </row>
     <row r="19" spans="1:75" s="1" customFormat="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -18015,12 +17979,12 @@
       <c r="BW19" s="6"/>
     </row>
     <row r="20" spans="1:75" s="1" customFormat="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -18056,12 +18020,12 @@
       <c r="BW20" s="6"/>
     </row>
     <row r="21" spans="1:75" s="1" customFormat="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -18170,7 +18134,7 @@
     </row>
     <row r="24" spans="1:75" s="1" customFormat="1">
       <c r="A24" s="86" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
@@ -18343,7 +18307,7 @@
         <v>CD_CIA,</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M3" t="str">
         <f>CONCATENATE("'",K3,"',")</f>
@@ -18352,14 +18316,14 @@
     </row>
     <row r="4" spans="3:13">
       <c r="C4" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" si="0">CONCATENATE(C4,",")</f>
         <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" ref="M4:M12" si="1">CONCATENATE("'",K4,"',")</f>
@@ -18368,14 +18332,14 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>CD_TIPO_OPERACAO,</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
@@ -18384,14 +18348,14 @@
     </row>
     <row r="6" spans="3:13">
       <c r="C6" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>CD_SITUACAO_NFR,</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
@@ -18400,14 +18364,14 @@
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>DT_EMISSAO_NFR,</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
@@ -18416,14 +18380,14 @@
     </row>
     <row r="8" spans="3:13">
       <c r="C8" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>DT_EMISSAO_NF_RECEBIDA,</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
@@ -18432,14 +18396,14 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>DT_SAIDA_NF_RECEBIDA,</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
@@ -18448,14 +18412,14 @@
     </row>
     <row r="10" spans="3:13">
       <c r="C10" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>DT_SITUACAO,</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
@@ -18464,14 +18428,14 @@
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>DT_ATUALIZACAO,</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
@@ -18487,7 +18451,7 @@
         <v>CD_FORNECEDOR,</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
@@ -18496,7 +18460,7 @@
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -18505,7 +18469,7 @@
     </row>
     <row r="14" spans="3:13">
       <c r="C14" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -18514,7 +18478,7 @@
     </row>
     <row r="15" spans="3:13">
       <c r="C15" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -18523,7 +18487,7 @@
     </row>
     <row r="16" spans="3:13">
       <c r="C16" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -18532,7 +18496,7 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -18541,7 +18505,7 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -18559,7 +18523,7 @@
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -18568,7 +18532,7 @@
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -18613,7 +18577,7 @@
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -18622,7 +18586,7 @@
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -18631,7 +18595,7 @@
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -18649,7 +18613,7 @@
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -18658,7 +18622,7 @@
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -18667,7 +18631,7 @@
     </row>
     <row r="32" spans="3:6">
       <c r="C32" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -18676,7 +18640,7 @@
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -18703,7 +18667,7 @@
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -18712,7 +18676,7 @@
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -18721,7 +18685,7 @@
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -18730,7 +18694,7 @@
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -18757,7 +18721,7 @@
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -18775,7 +18739,7 @@
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -18784,7 +18748,7 @@
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -18793,7 +18757,7 @@
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -18802,7 +18766,7 @@
     </row>
     <row r="47" spans="3:6">
       <c r="C47" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -18811,7 +18775,7 @@
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -18829,7 +18793,7 @@
     </row>
     <row r="50" spans="3:6">
       <c r="C50" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -18838,7 +18802,7 @@
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -18847,7 +18811,7 @@
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -18856,7 +18820,7 @@
     </row>
     <row r="53" spans="3:6">
       <c r="C53" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -18865,7 +18829,7 @@
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -18874,7 +18838,7 @@
     </row>
     <row r="55" spans="3:6">
       <c r="C55" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -18883,7 +18847,7 @@
     </row>
     <row r="56" spans="3:6">
       <c r="C56" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -18910,7 +18874,7 @@
     </row>
     <row r="59" spans="3:6">
       <c r="C59" s="27" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -18928,7 +18892,7 @@
     </row>
     <row r="61" spans="3:6">
       <c r="C61" s="27" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -18937,7 +18901,7 @@
     </row>
     <row r="62" spans="3:6">
       <c r="C62" s="27" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -18964,7 +18928,7 @@
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="27" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -18973,7 +18937,7 @@
     </row>
     <row r="66" spans="3:6">
       <c r="C66" s="27" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -18982,7 +18946,7 @@
     </row>
     <row r="67" spans="3:6">
       <c r="C67" s="27" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="0"/>
@@ -18991,7 +18955,7 @@
     </row>
     <row r="68" spans="3:6">
       <c r="C68" s="27" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F77" si="2">CONCATENATE(C68,",")</f>
@@ -19000,7 +18964,7 @@
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="27" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
@@ -19009,7 +18973,7 @@
     </row>
     <row r="70" spans="3:6">
       <c r="C70" s="27" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="2"/>
@@ -19036,7 +19000,7 @@
     </row>
     <row r="73" spans="3:6">
       <c r="C73" s="27" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="2"/>
@@ -19045,7 +19009,7 @@
     </row>
     <row r="74" spans="3:6">
       <c r="C74" s="27" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="2"/>
@@ -19054,7 +19018,7 @@
     </row>
     <row r="75" spans="3:6">
       <c r="C75" s="27" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="2"/>
@@ -19063,7 +19027,7 @@
     </row>
     <row r="76" spans="3:6">
       <c r="C76" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="2"/>
@@ -19072,7 +19036,7 @@
     </row>
     <row r="77" spans="3:6">
       <c r="C77" s="27" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="2"/>
